--- a/Experimental Results/dilution rate measurements w compilation.xlsx
+++ b/Experimental Results/dilution rate measurements w compilation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" tabRatio="769" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Summary of Results" sheetId="10" r:id="rId1"/>
@@ -14,15 +14,16 @@
     <sheet name="11_5" sheetId="4" r:id="rId5"/>
     <sheet name="11_12" sheetId="5" r:id="rId6"/>
     <sheet name="11_19" sheetId="7" r:id="rId7"/>
-    <sheet name="Methane Standard Curve" sheetId="6" r:id="rId8"/>
-    <sheet name="Compilation" sheetId="8" r:id="rId9"/>
+    <sheet name="12_01" sheetId="11" r:id="rId8"/>
+    <sheet name="Methane Standard Curve" sheetId="6" r:id="rId9"/>
+    <sheet name="Compilation" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="66">
   <si>
     <t>Liters</t>
   </si>
@@ -217,6 +218,9 @@
   </si>
   <si>
     <t>Growth, Methane Production, and Yield</t>
+  </si>
+  <si>
+    <t>Yield (t1/2)</t>
   </si>
 </sst>
 </file>
@@ -224,8 +228,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -424,15 +428,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -442,22 +437,31 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -538,7 +542,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Compilation!$B$8:$B$11</c:f>
+              <c:f>Compilation!$B$9:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -559,7 +563,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Compilation!$C$8:$C$11</c:f>
+              <c:f>Compilation!$C$9:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -588,11 +592,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="103374208"/>
-        <c:axId val="103380480"/>
+        <c:axId val="135212416"/>
+        <c:axId val="135214592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103374208"/>
+        <c:axId val="135212416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,12 +625,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103380480"/>
+        <c:crossAx val="135214592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103380480"/>
+        <c:axId val="135214592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -656,7 +660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103374208"/>
+        <c:crossAx val="135212416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -703,7 +707,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Compilation!$B$15:$B$74</c:f>
+              <c:f>Compilation!$B$16:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -892,7 +896,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Compilation!$D$15:$D$74</c:f>
+              <c:f>Compilation!$D$16:$D$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -1089,11 +1093,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104849792"/>
-        <c:axId val="104851328"/>
+        <c:axId val="135226880"/>
+        <c:axId val="135228800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104849792"/>
+        <c:axId val="135226880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1115,19 +1119,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104851328"/>
+        <c:crossAx val="135228800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104851328"/>
+        <c:axId val="135228800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,14 +1153,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104849792"/>
+        <c:crossAx val="135226880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1301,11 +1303,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106052224"/>
-        <c:axId val="106054016"/>
+        <c:axId val="144236928"/>
+        <c:axId val="144238464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106052224"/>
+        <c:axId val="144236928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1315,12 +1317,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106054016"/>
+        <c:crossAx val="144238464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106054016"/>
+        <c:axId val="144238464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1332,7 +1334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106052224"/>
+        <c:crossAx val="144236928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1388,7 +1390,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Compilation!$B$8:$B$11</c:f>
+              <c:f>Compilation!$B$9:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1409,7 +1411,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Compilation!$C$8:$C$11</c:f>
+              <c:f>Compilation!$C$9:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1438,11 +1440,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106091648"/>
-        <c:axId val="106093184"/>
+        <c:axId val="144288384"/>
+        <c:axId val="144290176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106091648"/>
+        <c:axId val="144288384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1452,12 +1454,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106093184"/>
+        <c:crossAx val="144290176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106093184"/>
+        <c:axId val="144290176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106091648"/>
+        <c:crossAx val="144288384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1515,7 +1517,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Compilation!$B$15:$B$74</c:f>
+              <c:f>Compilation!$B$16:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -1704,7 +1706,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Compilation!$D$15:$D$74</c:f>
+              <c:f>Compilation!$D$16:$D$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -1901,11 +1903,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="116013312"/>
-        <c:axId val="116011776"/>
+        <c:axId val="144307712"/>
+        <c:axId val="144309248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="116013312"/>
+        <c:axId val="144307712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1915,12 +1917,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116011776"/>
+        <c:crossAx val="144309248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116011776"/>
+        <c:axId val="144309248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,7 +1933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116013312"/>
+        <c:crossAx val="144307712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2056,15 +2058,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2086,15 +2088,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2406,231 +2408,231 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33:I34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="18">
         <v>42304</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="19">
         <v>9.0243491953218014E-2</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="20">
         <v>35.815665436444306</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="21">
         <f>B3/C3*1000</f>
         <v>2.5196653713821706</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>42310</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="19">
         <v>8.9214109445657191E-2</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="20">
         <v>32.678400542591753</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="21">
         <f>B4/C4*1000</f>
         <v>2.730063527111096</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="22">
         <v>42313</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="23">
         <v>4.538924970510174E-2</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="24">
         <v>36.195339142940391</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="21">
         <f>B5/C5*1000</f>
         <v>1.2540081341924529</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="18">
         <v>42320</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="19">
         <v>4.6534363085345594E-2</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="20">
         <v>21.038398536538562</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <f>B6/C6*1000</f>
         <v>2.2118776295889044</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>42327</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="19">
         <v>7.0487379671178976E-2</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="20">
         <v>30.475688694632385</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="21">
         <f>B7/C7*1000</f>
         <v>2.3129052267683048</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="18">
         <v>42304</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="21">
         <v>2.5196653713821706</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="21">
         <f>B11/LN(2)</f>
         <v>3.6351087359927061</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="21">
         <f>B11/0.66*0.34</f>
         <v>1.2980094337423302</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="21">
         <f>D11/LN(2)</f>
         <v>1.8726317730871513</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="18">
         <v>42310</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="21">
         <v>2.730063527111096</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="21">
         <f t="shared" ref="C12:C14" si="0">B12/LN(2)</f>
         <v>3.9386491118750104</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="21">
         <f t="shared" ref="D12:D14" si="1">B12/0.66*0.34</f>
         <v>1.4063963624511708</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="21">
         <f t="shared" ref="E12:E14" si="2">D12/LN(2)</f>
         <v>2.0290010576325814</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="18">
         <v>42320</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="21">
         <v>2.2118776295889044</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="21">
         <f t="shared" si="0"/>
         <v>3.191064887261148</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="21">
         <f t="shared" si="1"/>
         <v>1.1394521122124659</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="21">
         <f t="shared" si="2"/>
         <v>1.6438819116193792</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <v>42327</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="21">
         <v>2.3129052267683048</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="21">
         <f t="shared" si="0"/>
         <v>3.3368169007047968</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="21">
         <f t="shared" si="1"/>
         <v>1.191496631971551</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="21">
         <f t="shared" si="2"/>
         <v>1.718966282181259</v>
       </c>
@@ -2646,6 +2648,1047 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
+        <v>42304</v>
+      </c>
+      <c r="B2">
+        <v>9.0243491953218014E-2</v>
+      </c>
+      <c r="C2" s="10">
+        <v>35.815665436444306</v>
+      </c>
+      <c r="D2" s="14">
+        <f>B2/C2*1000</f>
+        <v>2.5196653713821706</v>
+      </c>
+      <c r="E2" s="14">
+        <f>D2/LN(2)</f>
+        <v>3.6351087359927061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>42310</v>
+      </c>
+      <c r="B3">
+        <v>8.9214109445657191E-2</v>
+      </c>
+      <c r="C3">
+        <v>32.678400542591753</v>
+      </c>
+      <c r="D3" s="14">
+        <f>B3/C3*1000</f>
+        <v>2.730063527111096</v>
+      </c>
+      <c r="E3" s="14">
+        <f t="shared" ref="E3:E7" si="0">D3/LN(2)</f>
+        <v>3.9386491118750104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>42313</v>
+      </c>
+      <c r="B4" s="13">
+        <v>4.538924970510174E-2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>36.195339142940391</v>
+      </c>
+      <c r="D4" s="14">
+        <f>B4/C4*1000</f>
+        <v>1.2540081341924529</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" si="0"/>
+        <v>1.8091513164338737</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>42320</v>
+      </c>
+      <c r="B5">
+        <v>4.6534363085345594E-2</v>
+      </c>
+      <c r="C5">
+        <v>21.038398536538562</v>
+      </c>
+      <c r="D5" s="14">
+        <f>B5/C5*1000</f>
+        <v>2.2118776295889044</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" si="0"/>
+        <v>3.191064887261148</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>42327</v>
+      </c>
+      <c r="B6">
+        <v>7.0487379671178976E-2</v>
+      </c>
+      <c r="C6">
+        <v>30.475688694632385</v>
+      </c>
+      <c r="D6" s="14">
+        <f>B6/C6*1000</f>
+        <v>2.3129052267683048</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="0"/>
+        <v>3.3368169007047968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>42339</v>
+      </c>
+      <c r="B7">
+        <f>'12_01'!E9</f>
+        <v>4.5769999558765734E-2</v>
+      </c>
+      <c r="C7">
+        <f>'12_01'!B28</f>
+        <v>20.832118463414211</v>
+      </c>
+      <c r="D7" s="14">
+        <f>B7/C7*1000</f>
+        <v>2.1970880992803461</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="0"/>
+        <v>3.169728105227914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>9.0243491953218014E-2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>35.815665436444306</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>8.9214109445657191E-2</v>
+      </c>
+      <c r="C10">
+        <v>32.678400542591753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>4.6534363085345594E-2</v>
+      </c>
+      <c r="C11">
+        <v>21.038398536538562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>7.0487379671178976E-2</v>
+      </c>
+      <c r="C12">
+        <v>30.475688694632385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0.01</v>
+      </c>
+      <c r="C16">
+        <f>300.87*B16+7.702</f>
+        <v>10.710699999999999</v>
+      </c>
+      <c r="D16" s="14">
+        <f>B16/C16*1000</f>
+        <v>0.93364579345887766</v>
+      </c>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0.02</v>
+      </c>
+      <c r="C17">
+        <f>300.87*B17+7.702</f>
+        <v>13.7194</v>
+      </c>
+      <c r="D17" s="14">
+        <f>B17/C17*1000</f>
+        <v>1.4577896992579851</v>
+      </c>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>0.03</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:C27" si="1">300.87*B18+7.702</f>
+        <v>16.728099999999998</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" ref="D18:D27" si="2">B18/C18*1000</f>
+        <v>1.7933895660595049</v>
+      </c>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0.04</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>19.736800000000002</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="2"/>
+        <v>2.0266709902314459</v>
+      </c>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>0.05</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>22.7455</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" si="2"/>
+        <v>2.1982370139148402</v>
+      </c>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>0.06</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>25.754199999999997</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" si="2"/>
+        <v>2.3297170946874686</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>28.762900000000002</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" si="2"/>
+        <v>2.4336906222946921</v>
+      </c>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>0.08</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>31.771599999999999</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" si="2"/>
+        <v>2.5179720253307987</v>
+      </c>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>0.09</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>34.780299999999997</v>
+      </c>
+      <c r="D24" s="14">
+        <f t="shared" si="2"/>
+        <v>2.5876717567128518</v>
+      </c>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>0.1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>37.789000000000001</v>
+      </c>
+      <c r="D25" s="14">
+        <f t="shared" si="2"/>
+        <v>2.6462727248670248</v>
+      </c>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>0.11</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>40.797699999999999</v>
+      </c>
+      <c r="D26" s="14">
+        <f t="shared" si="2"/>
+        <v>2.6962304247543365</v>
+      </c>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>0.12</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>43.806399999999996</v>
+      </c>
+      <c r="D27" s="14">
+        <f t="shared" si="2"/>
+        <v>2.7393257606194532</v>
+      </c>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>0.13</v>
+      </c>
+      <c r="C28">
+        <f>300.87*B28+7.702</f>
+        <v>46.815100000000001</v>
+      </c>
+      <c r="D28" s="14">
+        <f>B28/C28*1000</f>
+        <v>2.776881818045887</v>
+      </c>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C29">
+        <f>300.87*B29+7.702</f>
+        <v>49.823800000000006</v>
+      </c>
+      <c r="D29" s="14">
+        <f>B29/C29*1000</f>
+        <v>2.8099020949827191</v>
+      </c>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>0.15</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:C59" si="3">300.87*B30+7.702</f>
+        <v>52.832499999999996</v>
+      </c>
+      <c r="D30" s="14">
+        <f t="shared" ref="D30:D49" si="4">B30/C30*1000</f>
+        <v>2.839161500970047</v>
+      </c>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>0.16</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>55.841200000000001</v>
+      </c>
+      <c r="D31" s="14">
+        <f t="shared" si="4"/>
+        <v>2.8652679383680866</v>
+      </c>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>0.17</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>58.849900000000005</v>
+      </c>
+      <c r="D32" s="14">
+        <f t="shared" si="4"/>
+        <v>2.8887049935513907</v>
+      </c>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>0.18</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>61.858599999999996</v>
+      </c>
+      <c r="D33" s="14">
+        <f t="shared" si="4"/>
+        <v>2.9098621695285702</v>
+      </c>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>0.19</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>64.8673</v>
+      </c>
+      <c r="D34" s="14">
+        <f t="shared" si="4"/>
+        <v>2.9290567049962002</v>
+      </c>
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>0.2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>67.876000000000005</v>
+      </c>
+      <c r="D35" s="14">
+        <f t="shared" si="4"/>
+        <v>2.9465495904296066</v>
+      </c>
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>0.21</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>70.884699999999995</v>
+      </c>
+      <c r="D36" s="14">
+        <f t="shared" si="4"/>
+        <v>2.9625575053572915</v>
+      </c>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>0.22</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>73.8934</v>
+      </c>
+      <c r="D37" s="14">
+        <f t="shared" si="4"/>
+        <v>2.9772618393523644</v>
+      </c>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>0.23</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>76.902100000000004</v>
+      </c>
+      <c r="D38" s="14">
+        <f t="shared" si="4"/>
+        <v>2.9908155954128692</v>
+      </c>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>0.24</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>79.910799999999995</v>
+      </c>
+      <c r="D39" s="14">
+        <f t="shared" si="4"/>
+        <v>3.0033487338382296</v>
+      </c>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>0.25</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>82.919499999999999</v>
+      </c>
+      <c r="D40" s="14">
+        <f t="shared" si="4"/>
+        <v>3.0149723527035257</v>
+      </c>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>0.26</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>85.928200000000004</v>
+      </c>
+      <c r="D41" s="14">
+        <f t="shared" si="4"/>
+        <v>3.0257819900800897</v>
+      </c>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>0.27</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="3"/>
+        <v>88.936900000000009</v>
+      </c>
+      <c r="D42" s="14">
+        <f t="shared" si="4"/>
+        <v>3.0358602559792391</v>
+      </c>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="3"/>
+        <v>91.945600000000013</v>
+      </c>
+      <c r="D43" s="14">
+        <f t="shared" si="4"/>
+        <v>3.0452789475515956</v>
+      </c>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="3"/>
+        <v>94.954299999999989</v>
+      </c>
+      <c r="D44" s="14">
+        <f t="shared" si="4"/>
+        <v>3.0541007621561107</v>
+      </c>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>0.3</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="3"/>
+        <v>97.962999999999994</v>
+      </c>
+      <c r="D45" s="14">
+        <f t="shared" si="4"/>
+        <v>3.0623806947521004</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45">
+        <f>(10-7.702)/300.87</f>
+        <v>7.6378502343204709E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>0.31</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="3"/>
+        <v>100.9717</v>
+      </c>
+      <c r="D46" s="14">
+        <f t="shared" si="4"/>
+        <v>3.0701671854588959</v>
+      </c>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>0.32</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="3"/>
+        <v>103.9804</v>
+      </c>
+      <c r="D47" s="14">
+        <f t="shared" si="4"/>
+        <v>3.0775030678858708</v>
+      </c>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>0.33</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="3"/>
+        <v>106.98910000000001</v>
+      </c>
+      <c r="D48" s="14">
+        <f t="shared" si="4"/>
+        <v>3.0844263574513664</v>
+      </c>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>0.34</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="3"/>
+        <v>109.99780000000001</v>
+      </c>
+      <c r="D49" s="14">
+        <f t="shared" si="4"/>
+        <v>3.0909709103272971</v>
+      </c>
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>0.35</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="3"/>
+        <v>113.00649999999999</v>
+      </c>
+      <c r="D50" s="14">
+        <f t="shared" ref="D50:D59" si="5">B50/C50*1000</f>
+        <v>3.0971669771207853</v>
+      </c>
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>0.36</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="3"/>
+        <v>116.01519999999999</v>
+      </c>
+      <c r="D51" s="14">
+        <f t="shared" si="5"/>
+        <v>3.1030416704018093</v>
+      </c>
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>0.37</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="3"/>
+        <v>119.0239</v>
+      </c>
+      <c r="D52" s="14">
+        <f t="shared" si="5"/>
+        <v>3.10861936132155</v>
+      </c>
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>0.38</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="3"/>
+        <v>122.0326</v>
+      </c>
+      <c r="D53" s="14">
+        <f t="shared" si="5"/>
+        <v>3.1139220175592426</v>
+      </c>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>0.39</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="3"/>
+        <v>125.04130000000001</v>
+      </c>
+      <c r="D54" s="14">
+        <f t="shared" si="5"/>
+        <v>3.1189694924796849</v>
+      </c>
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>0.4</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="3"/>
+        <v>128.05000000000001</v>
+      </c>
+      <c r="D55" s="14">
+        <f t="shared" si="5"/>
+        <v>3.1237797735259667</v>
+      </c>
+      <c r="E55" s="14"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>0.41</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="3"/>
+        <v>131.05869999999999</v>
+      </c>
+      <c r="D56" s="14">
+        <f t="shared" si="5"/>
+        <v>3.1283691963982552</v>
+      </c>
+      <c r="E56" s="14"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>0.42</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="3"/>
+        <v>134.06739999999999</v>
+      </c>
+      <c r="D57" s="14">
+        <f t="shared" si="5"/>
+        <v>3.1327526303933695</v>
+      </c>
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>0.43</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="3"/>
+        <v>137.0761</v>
+      </c>
+      <c r="D58" s="14">
+        <f t="shared" si="5"/>
+        <v>3.1369436393361059</v>
+      </c>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>0.44</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="3"/>
+        <v>140.0848</v>
+      </c>
+      <c r="D59" s="14">
+        <f t="shared" si="5"/>
+        <v>3.1409546217719551</v>
+      </c>
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>0.45</v>
+      </c>
+      <c r="C60">
+        <f>300.87*B60+7.702</f>
+        <v>143.09350000000001</v>
+      </c>
+      <c r="D60" s="14">
+        <f>B60/C60*1000</f>
+        <v>3.1447969334735681</v>
+      </c>
+      <c r="E60" s="14"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>0.46</v>
+      </c>
+      <c r="C61">
+        <f>300.87*B61+7.702</f>
+        <v>146.10220000000001</v>
+      </c>
+      <c r="D61" s="14">
+        <f>B61/C61*1000</f>
+        <v>3.1484809948104817</v>
+      </c>
+      <c r="E61" s="14"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>0.47</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:C71" si="6">300.87*B62+7.702</f>
+        <v>149.11089999999999</v>
+      </c>
+      <c r="D62" s="14">
+        <f t="shared" ref="D62:D71" si="7">B62/C62*1000</f>
+        <v>3.1520163851200684</v>
+      </c>
+      <c r="E62" s="14"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>0.48</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="6"/>
+        <v>152.11959999999999</v>
+      </c>
+      <c r="D63" s="14">
+        <f t="shared" si="7"/>
+        <v>3.155411925879374</v>
+      </c>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>0.49</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="6"/>
+        <v>155.1283</v>
+      </c>
+      <c r="D64" s="14">
+        <f t="shared" si="7"/>
+        <v>3.158675754198299</v>
+      </c>
+      <c r="E64" s="14"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>0.5</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="6"/>
+        <v>158.137</v>
+      </c>
+      <c r="D65" s="14">
+        <f t="shared" si="7"/>
+        <v>3.1618153879231299</v>
+      </c>
+      <c r="E65" s="14"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>0.51</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="6"/>
+        <v>161.14570000000001</v>
+      </c>
+      <c r="D66" s="14">
+        <f t="shared" si="7"/>
+        <v>3.1648377834469055</v>
+      </c>
+      <c r="E66" s="14"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>0.52</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="6"/>
+        <v>164.15440000000001</v>
+      </c>
+      <c r="D67" s="14">
+        <f t="shared" si="7"/>
+        <v>3.1677493871623299</v>
+      </c>
+      <c r="E67" s="14"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>0.53</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="6"/>
+        <v>167.16310000000001</v>
+      </c>
+      <c r="D68" s="14">
+        <f t="shared" si="7"/>
+        <v>3.1705561813582066</v>
+      </c>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>0.54</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="6"/>
+        <v>170.17180000000002</v>
+      </c>
+      <c r="D69" s="14">
+        <f t="shared" si="7"/>
+        <v>3.1732637252470739</v>
+      </c>
+      <c r="E69" s="14"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="6"/>
+        <v>173.18050000000002</v>
+      </c>
+      <c r="D70" s="14">
+        <f t="shared" si="7"/>
+        <v>3.1758771917161575</v>
+      </c>
+      <c r="E70" s="14"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="6"/>
+        <v>176.18920000000003</v>
+      </c>
+      <c r="D71" s="14">
+        <f t="shared" si="7"/>
+        <v>3.1784014003128451</v>
+      </c>
+      <c r="E71" s="14"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C72">
+        <f>300.87*B72+7.702</f>
+        <v>179.19789999999998</v>
+      </c>
+      <c r="D72" s="14">
+        <f>B72/C72*1000</f>
+        <v>3.1808408469072464</v>
+      </c>
+      <c r="E72" s="14"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C73">
+        <f>300.87*B73+7.702</f>
+        <v>182.20659999999998</v>
+      </c>
+      <c r="D73" s="14">
+        <f>B73/C73*1000</f>
+        <v>3.1831997304159123</v>
+      </c>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>0.59</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ref="C74:C75" si="8">300.87*B74+7.702</f>
+        <v>185.21529999999998</v>
+      </c>
+      <c r="D74" s="14">
+        <f t="shared" ref="D74:D75" si="9">B74/C74*1000</f>
+        <v>3.1854819769209133</v>
+      </c>
+      <c r="E74" s="14"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>0.6</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="8"/>
+        <v>188.22399999999999</v>
+      </c>
+      <c r="D75" s="14">
+        <f t="shared" si="9"/>
+        <v>3.1876912614756887</v>
+      </c>
+      <c r="E75" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
@@ -2654,16 +3697,16 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2671,12 +3714,12 @@
         <v>0.626</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2693,7 +3736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>26+20/60</f>
         <v>26.333333333333332</v>
@@ -2720,7 +3763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>22+1/12</f>
         <v>22.083333333333332</v>
@@ -2741,7 +3784,7 @@
         <v>8.0313278746885014E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>25+10/60</f>
         <v>25.166666666666668</v>
@@ -2762,7 +3805,7 @@
         <v>8.2469074097213532E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2771,7 +3814,7 @@
         <v>8.1391176422049266E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -2780,7 +3823,7 @@
         <v>1.5243775110677241E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2788,7 +3831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2799,7 +3842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.84</v>
       </c>
@@ -2811,7 +3854,7 @@
         <v>14540</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.7</v>
       </c>
@@ -2823,7 +3866,7 @@
         <v>14297</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.55</v>
       </c>
@@ -2835,7 +3878,7 @@
         <v>14693</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.36</v>
       </c>
@@ -2844,7 +3887,7 @@
         <v>242.71844660194179</v>
       </c>
     </row>
-    <row r="16" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.93</v>
       </c>
@@ -2853,7 +3896,7 @@
         <v>232.01856148491879</v>
       </c>
     </row>
-    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -2887,7 +3930,7 @@
         <v>199.69727088771143</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -2896,7 +3939,7 @@
         <v>2.4971655045194385E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2905,7 +3948,7 @@
         <v>5.9115207457996322</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2914,7 +3957,7 @@
         <v>0.26390717615176928</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2923,7 +3966,7 @@
         <v>15.834430569106157</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2945,16 +3988,16 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2962,12 +4005,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2984,7 +4027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>25+55/60</f>
         <v>25.916666666666668</v>
@@ -3008,7 +4051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>23+23/60</f>
         <v>23.383333333333333</v>
@@ -3029,7 +4072,7 @@
         <v>9.9248241638537363E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>24</v>
       </c>
@@ -3052,7 +4095,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -3065,7 +4108,7 @@
         <v>460.85130277489986</v>
       </c>
     </row>
-    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -3074,7 +4117,7 @@
         <v>7.96516101052323E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3082,7 +4125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3093,7 +4136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.25</v>
       </c>
@@ -3105,7 +4148,7 @@
         <v>14371</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11.74</v>
       </c>
@@ -3117,7 +4160,7 @@
         <v>14899</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.08</v>
       </c>
@@ -3129,7 +4172,7 @@
         <v>11940</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.4</v>
       </c>
@@ -3141,7 +4184,7 @@
         <v>13665</v>
       </c>
     </row>
-    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>11.83</v>
       </c>
@@ -3153,7 +4196,7 @@
         <v>14210</v>
       </c>
     </row>
-    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -3187,7 +4230,7 @@
         <v>1137.7963350266164</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -3196,7 +4239,7 @@
         <v>2.3830077808006077E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -3205,7 +4248,7 @@
         <v>5.9303865354987968</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -3214,7 +4257,7 @@
         <v>0.26474939890619631</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -3223,7 +4266,7 @@
         <v>15.884963934371779</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3232,7 +4275,7 @@
         <v>35.815665436444306</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -3255,7 +4298,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.11331470486408675</v>
@@ -3294,16 +4337,16 @@
       <selection activeCell="G30" sqref="G30:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3311,12 +4354,12 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3333,7 +4376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>22+50/60</f>
         <v>22.833333333333332</v>
@@ -3357,7 +4400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>20+0.25</f>
         <v>20.25</v>
@@ -3378,7 +4421,7 @@
         <v>9.0379687863964595E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>49+50/60</f>
         <v>49.833333333333336</v>
@@ -3399,7 +4442,7 @@
         <v>8.8597210828547976E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>24</v>
       </c>
@@ -3422,7 +4465,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
@@ -3435,7 +4478,7 @@
         <v>466.1687606592053</v>
       </c>
     </row>
-    <row r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
@@ -3444,7 +4487,7 @@
         <v>3.2243641791387537E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3452,7 +4495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3463,7 +4506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.73</v>
       </c>
@@ -3475,7 +4518,7 @@
         <v>14866</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.7</v>
       </c>
@@ -3487,7 +4530,7 @@
         <v>15913</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.77</v>
       </c>
@@ -3499,7 +4542,7 @@
         <v>11486</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12.65</v>
       </c>
@@ -3508,7 +4551,7 @@
         <v>237.15415019762844</v>
       </c>
     </row>
-    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>12.67</v>
       </c>
@@ -3551,7 +4594,7 @@
         <v>2313.6889015883949</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>29</v>
       </c>
@@ -3560,7 +4603,7 @@
         <v>2.4277044556958109E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -3569,7 +4612,7 @@
         <v>5.73299402031056</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3578,7 +4621,7 @@
         <v>0.25593723304957861</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -3587,7 +4630,7 @@
         <v>15.356233982974716</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -3596,7 +4639,7 @@
         <v>32.678400542591753</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -3619,7 +4662,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B24</f>
         <v>0.12419339658781477</v>
@@ -3658,16 +4701,16 @@
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3675,12 +4718,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3697,7 +4740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>24+7+3/4</f>
         <v>31.75</v>
@@ -3721,7 +4764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>24+40/60</f>
         <v>24.666666666666668</v>
@@ -3742,7 +4785,7 @@
         <v>4.7807241203467625E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>48+20+0.25</f>
         <v>68.25</v>
@@ -3766,7 +4809,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -3779,7 +4822,7 @@
         <v>916.2705068667866</v>
       </c>
     </row>
-    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -3788,7 +4831,7 @@
         <v>2.8870105582736597E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3796,7 +4839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3807,7 +4850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.48</v>
       </c>
@@ -3819,7 +4862,7 @@
         <v>13870</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.45</v>
       </c>
@@ -3831,7 +4874,7 @@
         <v>14880</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.59</v>
       </c>
@@ -3843,7 +4886,7 @@
         <v>14742</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.57</v>
       </c>
@@ -3852,7 +4895,7 @@
         <v>238.6634844868735</v>
       </c>
     </row>
-    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.36</v>
       </c>
@@ -3861,7 +4904,7 @@
         <v>242.71844660194179</v>
       </c>
     </row>
-    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -3895,7 +4938,7 @@
         <v>547.65074028374454</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -3904,7 +4947,7 @@
         <v>2.4950789275587283E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -3913,7 +4956,7 @@
         <v>5.9932532115593844</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -3922,7 +4965,7 @@
         <v>0.26755594694461537</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -3931,7 +4974,7 @@
         <v>16.053356816676924</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3940,7 +4983,7 @@
         <v>36.195339142940391</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -3963,7 +5006,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.11212608182545859</v>
@@ -4002,16 +5045,16 @@
       <selection activeCell="G30" sqref="G30:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4019,12 +5062,12 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4041,7 +5084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>48.25</v>
       </c>
@@ -4064,13 +5107,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -4083,7 +5125,7 @@
         <v>893.72300545558983</v>
       </c>
     </row>
-    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -4092,7 +5134,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4100,7 +5142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4111,7 +5153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.8</v>
       </c>
@@ -4123,7 +5165,7 @@
         <v>10464</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.81</v>
       </c>
@@ -4135,7 +5177,7 @@
         <v>10676</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.64</v>
       </c>
@@ -4147,7 +5189,7 @@
         <v>10245</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.78</v>
       </c>
@@ -4156,7 +5198,7 @@
         <v>234.74178403755869</v>
       </c>
     </row>
-    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.78</v>
       </c>
@@ -4165,7 +5207,7 @@
         <v>234.74178403755869</v>
       </c>
     </row>
-    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -4199,7 +5241,7 @@
         <v>215.50947388301361</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -4208,7 +5250,7 @@
         <v>1.8302845258925997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -4217,7 +5259,7 @@
         <v>4.3026049615045743</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -4226,7 +5268,7 @@
         <v>0.19208057863859707</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -4235,7 +5277,7 @@
         <v>11.524834718315823</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4244,7 +5286,7 @@
         <v>21.038398536538562</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -4267,7 +5309,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.19290639215684768</v>
@@ -4306,16 +5348,16 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4323,12 +5365,12 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4345,7 +5387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>20.25</v>
       </c>
@@ -4368,7 +5410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>20+25/60</f>
         <v>20.416666666666668</v>
@@ -4389,7 +5431,7 @@
         <v>7.3007316134000771E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>29.75</v>
       </c>
@@ -4412,7 +5454,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -4425,7 +5467,7 @@
         <v>590.01811427247083</v>
       </c>
     </row>
-    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -4434,7 +5476,7 @@
         <v>3.769238730890744E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4442,7 +5484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4453,7 +5495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.85</v>
       </c>
@@ -4465,7 +5507,7 @@
         <v>12209</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.8</v>
       </c>
@@ -4477,7 +5519,7 @@
         <v>12955</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.83</v>
       </c>
@@ -4489,7 +5531,7 @@
         <v>12671</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.83</v>
       </c>
@@ -4498,7 +5540,7 @@
         <v>233.8269680436477</v>
       </c>
     </row>
-    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.86</v>
       </c>
@@ -4507,7 +5549,7 @@
         <v>233.28149300155525</v>
       </c>
     </row>
-    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -4541,7 +5583,7 @@
         <v>376.52268634616604</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -4550,7 +5592,7 @@
         <v>2.1844535100130694E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4559,7 +5601,7 @@
         <v>5.1062625921630449</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4568,7 +5610,7 @@
         <v>0.22795815143585024</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -4580,7 +5622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4593,7 +5635,7 @@
         <v>59.158689818992265</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -4616,7 +5658,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.13316980623825453</v>
@@ -4642,7 +5684,7 @@
         <v>4.4841176470588238</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>54</v>
       </c>
@@ -4651,7 +5693,7 @@
         <v>2.4799441307582417</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>52</v>
       </c>
@@ -4660,7 +5702,7 @@
         <v>0.69314718055994529</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>53</v>
       </c>
@@ -4677,19 +5719,437 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>30.25</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="C4" s="6">
+        <f>B4/2.65</f>
+        <v>1.2830188679245282</v>
+      </c>
+      <c r="D4" s="6">
+        <f>A4/C4</f>
+        <v>23.577205882352942</v>
+      </c>
+      <c r="E4" s="6">
+        <f>1/D4</f>
+        <v>4.2413846873538122E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>25+1/6</f>
+        <v>25.166666666666668</v>
+      </c>
+      <c r="B5">
+        <v>3.05</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
+        <v>1.1509433962264151</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="1">A5/C5</f>
+        <v>21.866120218579237</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="2">1/D5</f>
+        <v>4.5732850181182054E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>48-A5</f>
+        <v>22.833333333333332</v>
+      </c>
+      <c r="B6">
+        <v>2.95</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.1132075471698115</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>20.511299435028246</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>4.8753615204517292E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C7" s="6">
+        <f>B7/2.65</f>
+        <v>0.92452830188679258</v>
+      </c>
+      <c r="D7" s="6">
+        <f>A7/C7</f>
+        <v>22.714285714285712</v>
+      </c>
+      <c r="E7" s="6">
+        <f>1/D7</f>
+        <v>4.4025157232704407E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>6.35</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8" si="3">B8/2.65</f>
+        <v>2.3962264150943398</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8" si="4">A8/C8</f>
+        <v>20.866141732283463</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8" si="5">1/D8</f>
+        <v>4.7924528301886794E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <f>AVERAGE(E4:E8)</f>
+        <v>4.5769999558765734E-2</v>
+      </c>
+      <c r="F9">
+        <f>60*LN(2)/E9</f>
+        <v>908.64826817835853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5">
+        <f>STDEV(E4:E8)</f>
+        <v>2.6388241743311911E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12.74</v>
+      </c>
+      <c r="B14">
+        <f>50/A14*60</f>
+        <v>235.47880690737833</v>
+      </c>
+      <c r="F14">
+        <v>10270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12.64</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:B18" si="6">50/A15*60</f>
+        <v>237.34177215189871</v>
+      </c>
+      <c r="F15">
+        <v>9831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12.66</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="6"/>
+        <v>236.96682464454977</v>
+      </c>
+      <c r="F16">
+        <v>9667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>12.75</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="6"/>
+        <v>235.29411764705881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>12.51</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="6"/>
+        <v>239.80815347721824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
+        <f>AVERAGE(B14:B18)</f>
+        <v>236.97793496562076</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5">
+        <f>STDEV(B14:B18)</f>
+        <v>1.818327765973512</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="3">
+        <f>AVERAGE(F14:F18)</f>
+        <v>9922.6666666666661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="5">
+        <f>STDEV(F14:F18)</f>
+        <v>311.77609487151727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="15">
+        <f>F20*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
+        <v>1.7414951852223977E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <f>B19*F23</f>
+        <v>4.1269593274657508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <f>B25/22.4</f>
+        <v>0.18423925569043531</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <f>B26*60</f>
+        <v>11.054355341426119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="10">
+        <f>B27/(B1*0.66)</f>
+        <v>20.832118463414211</v>
+      </c>
+      <c r="C28">
+        <f>B27/(B1*0.34)</f>
+        <v>40.438818193686409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f>B1/B25</f>
+        <v>0.19481655529028771</v>
+      </c>
+      <c r="C33">
+        <f>B33*0.34</f>
+        <v>6.6237628798697823E-2</v>
+      </c>
+      <c r="D33">
+        <f>C33/F9</f>
+        <v>7.2896885536897365E-5</v>
+      </c>
+      <c r="E33">
+        <f>D33*22400</f>
+        <v>1.632890236026501</v>
+      </c>
+      <c r="F33">
+        <f>E33/0.34*0.66</f>
+        <v>3.1697281052279132</v>
+      </c>
+      <c r="G33">
+        <f>2.31*0.66/0.34</f>
+        <v>4.4841176470588238</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34">
+        <f>E33/E37</f>
+        <v>2.355762645831442</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37">
+        <f>LN(2)</f>
+        <v>0.69314718055994529</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38">
+        <f>F33*E37</f>
+        <v>2.1970880992803457</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -4709,7 +6169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>0/28</f>
         <v>0</v>
@@ -4732,7 +6192,7 @@
         <v>8.7353095728390375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>0.056/28.056</f>
         <v>1.996007984031936E-3</v>
@@ -4755,7 +6215,7 @@
         <v>12.134661099511597</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>0.112/28.112</f>
         <v>3.9840637450199202E-3</v>
@@ -4778,7 +6238,7 @@
         <v>26.931270548069776</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>0.17/28.17</f>
         <v>6.0347887823926161E-3</v>
@@ -4801,7 +6261,7 @@
         <v>55.90387583462654</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>0.226/28.226</f>
         <v>8.0068022390703611E-3</v>
@@ -4824,7 +6284,7 @@
         <v>160.68923423801618</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>0.285/28.285</f>
         <v>1.0076012020505568E-2</v>
@@ -4847,7 +6307,7 @@
         <v>145.02221668879997</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>1.167/29.167</f>
         <v>4.0010971303185108E-2</v>
@@ -4870,7 +6330,7 @@
         <v>621.81347685620324</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f>28/28</f>
         <v>1</v>
@@ -4893,8 +6353,8 @@
         <v>1758.6990456963729</v>
       </c>
     </row>
-    <row r="11" spans="1:6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="8" t="s">
         <v>25</v>
@@ -4903,7 +6363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -4916,7 +6376,7 @@
         <v>1.0693668610640503E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -4927,942 +6387,6 @@
       <c r="C14">
         <f>INTERCEPT(A2:A9,E2:E9)</f>
         <v>-2.1333513930758413E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E74"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" activeCellId="1" sqref="B15:B74 D15:D74"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>42304</v>
-      </c>
-      <c r="B2">
-        <v>9.0243491953218014E-2</v>
-      </c>
-      <c r="C2" s="10">
-        <v>35.815665436444306</v>
-      </c>
-      <c r="D2" s="14">
-        <f>B2/C2*1000</f>
-        <v>2.5196653713821706</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>42310</v>
-      </c>
-      <c r="B3">
-        <v>8.9214109445657191E-2</v>
-      </c>
-      <c r="C3">
-        <v>32.678400542591753</v>
-      </c>
-      <c r="D3" s="14">
-        <f>B3/C3*1000</f>
-        <v>2.730063527111096</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>42313</v>
-      </c>
-      <c r="B4" s="13">
-        <v>4.538924970510174E-2</v>
-      </c>
-      <c r="C4" s="13">
-        <v>36.195339142940391</v>
-      </c>
-      <c r="D4" s="14">
-        <f>B4/C4*1000</f>
-        <v>1.2540081341924529</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>42320</v>
-      </c>
-      <c r="B5">
-        <v>4.6534363085345594E-2</v>
-      </c>
-      <c r="C5">
-        <v>21.038398536538562</v>
-      </c>
-      <c r="D5" s="14">
-        <f>B5/C5*1000</f>
-        <v>2.2118776295889044</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>42327</v>
-      </c>
-      <c r="B6">
-        <v>7.0487379671178976E-2</v>
-      </c>
-      <c r="C6">
-        <v>30.475688694632385</v>
-      </c>
-      <c r="D6" s="14">
-        <f>B6/C6*1000</f>
-        <v>2.3129052267683048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>9.0243491953218014E-2</v>
-      </c>
-      <c r="C8" s="10">
-        <v>35.815665436444306</v>
-      </c>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>8.9214109445657191E-2</v>
-      </c>
-      <c r="C9">
-        <v>32.678400542591753</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>4.6534363085345594E-2</v>
-      </c>
-      <c r="C10">
-        <v>21.038398536538562</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>7.0487379671178976E-2</v>
-      </c>
-      <c r="C11">
-        <v>30.475688694632385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>0.01</v>
-      </c>
-      <c r="C15">
-        <f>300.87*B15+7.702</f>
-        <v>10.710699999999999</v>
-      </c>
-      <c r="D15" s="14">
-        <f>B15/C15*1000</f>
-        <v>0.93364579345887766</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>0.02</v>
-      </c>
-      <c r="C16">
-        <f>300.87*B16+7.702</f>
-        <v>13.7194</v>
-      </c>
-      <c r="D16" s="14">
-        <f>B16/C16*1000</f>
-        <v>1.4577896992579851</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>0.03</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:C26" si="0">300.87*B17+7.702</f>
-        <v>16.728099999999998</v>
-      </c>
-      <c r="D17" s="14">
-        <f t="shared" ref="D17:D26" si="1">B17/C17*1000</f>
-        <v>1.7933895660595049</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>0.04</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>19.736800000000002</v>
-      </c>
-      <c r="D18" s="14">
-        <f t="shared" si="1"/>
-        <v>2.0266709902314459</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>0.05</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>22.7455</v>
-      </c>
-      <c r="D19" s="14">
-        <f t="shared" si="1"/>
-        <v>2.1982370139148402</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>0.06</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>25.754199999999997</v>
-      </c>
-      <c r="D20" s="14">
-        <f t="shared" si="1"/>
-        <v>2.3297170946874686</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>28.762900000000002</v>
-      </c>
-      <c r="D21" s="14">
-        <f t="shared" si="1"/>
-        <v>2.4336906222946921</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>0.08</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>31.771599999999999</v>
-      </c>
-      <c r="D22" s="14">
-        <f t="shared" si="1"/>
-        <v>2.5179720253307987</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>0.09</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>34.780299999999997</v>
-      </c>
-      <c r="D23" s="14">
-        <f t="shared" si="1"/>
-        <v>2.5876717567128518</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>0.1</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>37.789000000000001</v>
-      </c>
-      <c r="D24" s="14">
-        <f t="shared" si="1"/>
-        <v>2.6462727248670248</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>0.11</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>40.797699999999999</v>
-      </c>
-      <c r="D25" s="14">
-        <f t="shared" si="1"/>
-        <v>2.6962304247543365</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>0.12</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>43.806399999999996</v>
-      </c>
-      <c r="D26" s="14">
-        <f t="shared" si="1"/>
-        <v>2.7393257606194532</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>0.13</v>
-      </c>
-      <c r="C27">
-        <f>300.87*B27+7.702</f>
-        <v>46.815100000000001</v>
-      </c>
-      <c r="D27" s="14">
-        <f>B27/C27*1000</f>
-        <v>2.776881818045887</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C28">
-        <f>300.87*B28+7.702</f>
-        <v>49.823800000000006</v>
-      </c>
-      <c r="D28" s="14">
-        <f>B28/C28*1000</f>
-        <v>2.8099020949827191</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>0.15</v>
-      </c>
-      <c r="C29">
-        <f t="shared" ref="C29:C58" si="2">300.87*B29+7.702</f>
-        <v>52.832499999999996</v>
-      </c>
-      <c r="D29" s="14">
-        <f t="shared" ref="D29:D48" si="3">B29/C29*1000</f>
-        <v>2.839161500970047</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>0.16</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="2"/>
-        <v>55.841200000000001</v>
-      </c>
-      <c r="D30" s="14">
-        <f t="shared" si="3"/>
-        <v>2.8652679383680866</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>0.17</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="2"/>
-        <v>58.849900000000005</v>
-      </c>
-      <c r="D31" s="14">
-        <f t="shared" si="3"/>
-        <v>2.8887049935513907</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>0.18</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="2"/>
-        <v>61.858599999999996</v>
-      </c>
-      <c r="D32" s="14">
-        <f t="shared" si="3"/>
-        <v>2.9098621695285702</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>0.19</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="2"/>
-        <v>64.8673</v>
-      </c>
-      <c r="D33" s="14">
-        <f t="shared" si="3"/>
-        <v>2.9290567049962002</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>0.2</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="2"/>
-        <v>67.876000000000005</v>
-      </c>
-      <c r="D34" s="14">
-        <f t="shared" si="3"/>
-        <v>2.9465495904296066</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>0.21</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="2"/>
-        <v>70.884699999999995</v>
-      </c>
-      <c r="D35" s="14">
-        <f t="shared" si="3"/>
-        <v>2.9625575053572915</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>0.22</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="2"/>
-        <v>73.8934</v>
-      </c>
-      <c r="D36" s="14">
-        <f t="shared" si="3"/>
-        <v>2.9772618393523644</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>0.23</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="2"/>
-        <v>76.902100000000004</v>
-      </c>
-      <c r="D37" s="14">
-        <f t="shared" si="3"/>
-        <v>2.9908155954128692</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>0.24</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="2"/>
-        <v>79.910799999999995</v>
-      </c>
-      <c r="D38" s="14">
-        <f t="shared" si="3"/>
-        <v>3.0033487338382296</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>0.25</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="2"/>
-        <v>82.919499999999999</v>
-      </c>
-      <c r="D39" s="14">
-        <f t="shared" si="3"/>
-        <v>3.0149723527035257</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>0.26</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="2"/>
-        <v>85.928200000000004</v>
-      </c>
-      <c r="D40" s="14">
-        <f t="shared" si="3"/>
-        <v>3.0257819900800897</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>0.27</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="2"/>
-        <v>88.936900000000009</v>
-      </c>
-      <c r="D41" s="14">
-        <f t="shared" si="3"/>
-        <v>3.0358602559792391</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="2"/>
-        <v>91.945600000000013</v>
-      </c>
-      <c r="D42" s="14">
-        <f t="shared" si="3"/>
-        <v>3.0452789475515956</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="2"/>
-        <v>94.954299999999989</v>
-      </c>
-      <c r="D43" s="14">
-        <f t="shared" si="3"/>
-        <v>3.0541007621561107</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>0.3</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="2"/>
-        <v>97.962999999999994</v>
-      </c>
-      <c r="D44" s="14">
-        <f t="shared" si="3"/>
-        <v>3.0623806947521004</v>
-      </c>
-      <c r="E44">
-        <f>(10-7.702)/300.87</f>
-        <v>7.6378502343204709E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>0.31</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="2"/>
-        <v>100.9717</v>
-      </c>
-      <c r="D45" s="14">
-        <f t="shared" si="3"/>
-        <v>3.0701671854588959</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>0.32</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="2"/>
-        <v>103.9804</v>
-      </c>
-      <c r="D46" s="14">
-        <f t="shared" si="3"/>
-        <v>3.0775030678858708</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>0.33</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="2"/>
-        <v>106.98910000000001</v>
-      </c>
-      <c r="D47" s="14">
-        <f t="shared" si="3"/>
-        <v>3.0844263574513664</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>0.34</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="2"/>
-        <v>109.99780000000001</v>
-      </c>
-      <c r="D48" s="14">
-        <f t="shared" si="3"/>
-        <v>3.0909709103272971</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>0.35</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="2"/>
-        <v>113.00649999999999</v>
-      </c>
-      <c r="D49" s="14">
-        <f t="shared" ref="D49:D58" si="4">B49/C49*1000</f>
-        <v>3.0971669771207853</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>0.36</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="2"/>
-        <v>116.01519999999999</v>
-      </c>
-      <c r="D50" s="14">
-        <f t="shared" si="4"/>
-        <v>3.1030416704018093</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>0.37</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="2"/>
-        <v>119.0239</v>
-      </c>
-      <c r="D51" s="14">
-        <f t="shared" si="4"/>
-        <v>3.10861936132155</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>0.38</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="2"/>
-        <v>122.0326</v>
-      </c>
-      <c r="D52" s="14">
-        <f t="shared" si="4"/>
-        <v>3.1139220175592426</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>0.39</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="2"/>
-        <v>125.04130000000001</v>
-      </c>
-      <c r="D53" s="14">
-        <f t="shared" si="4"/>
-        <v>3.1189694924796849</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>0.4</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="2"/>
-        <v>128.05000000000001</v>
-      </c>
-      <c r="D54" s="14">
-        <f t="shared" si="4"/>
-        <v>3.1237797735259667</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>0.41</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="2"/>
-        <v>131.05869999999999</v>
-      </c>
-      <c r="D55" s="14">
-        <f t="shared" si="4"/>
-        <v>3.1283691963982552</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>0.42</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="2"/>
-        <v>134.06739999999999</v>
-      </c>
-      <c r="D56" s="14">
-        <f t="shared" si="4"/>
-        <v>3.1327526303933695</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>0.43</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="2"/>
-        <v>137.0761</v>
-      </c>
-      <c r="D57" s="14">
-        <f t="shared" si="4"/>
-        <v>3.1369436393361059</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>0.44</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="2"/>
-        <v>140.0848</v>
-      </c>
-      <c r="D58" s="14">
-        <f t="shared" si="4"/>
-        <v>3.1409546217719551</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>0.45</v>
-      </c>
-      <c r="C59">
-        <f>300.87*B59+7.702</f>
-        <v>143.09350000000001</v>
-      </c>
-      <c r="D59" s="14">
-        <f>B59/C59*1000</f>
-        <v>3.1447969334735681</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>0.46</v>
-      </c>
-      <c r="C60">
-        <f>300.87*B60+7.702</f>
-        <v>146.10220000000001</v>
-      </c>
-      <c r="D60" s="14">
-        <f>B60/C60*1000</f>
-        <v>3.1484809948104817</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>0.47</v>
-      </c>
-      <c r="C61">
-        <f t="shared" ref="C61:C70" si="5">300.87*B61+7.702</f>
-        <v>149.11089999999999</v>
-      </c>
-      <c r="D61" s="14">
-        <f t="shared" ref="D61:D70" si="6">B61/C61*1000</f>
-        <v>3.1520163851200684</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>0.48</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="5"/>
-        <v>152.11959999999999</v>
-      </c>
-      <c r="D62" s="14">
-        <f t="shared" si="6"/>
-        <v>3.155411925879374</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>0.49</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="5"/>
-        <v>155.1283</v>
-      </c>
-      <c r="D63" s="14">
-        <f t="shared" si="6"/>
-        <v>3.158675754198299</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>0.5</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="5"/>
-        <v>158.137</v>
-      </c>
-      <c r="D64" s="14">
-        <f t="shared" si="6"/>
-        <v>3.1618153879231299</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>0.51</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="5"/>
-        <v>161.14570000000001</v>
-      </c>
-      <c r="D65" s="14">
-        <f t="shared" si="6"/>
-        <v>3.1648377834469055</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>0.52</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="5"/>
-        <v>164.15440000000001</v>
-      </c>
-      <c r="D66" s="14">
-        <f t="shared" si="6"/>
-        <v>3.1677493871623299</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>0.53</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="5"/>
-        <v>167.16310000000001</v>
-      </c>
-      <c r="D67" s="14">
-        <f t="shared" si="6"/>
-        <v>3.1705561813582066</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>0.54</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="5"/>
-        <v>170.17180000000002</v>
-      </c>
-      <c r="D68" s="14">
-        <f t="shared" si="6"/>
-        <v>3.1732637252470739</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="5"/>
-        <v>173.18050000000002</v>
-      </c>
-      <c r="D69" s="14">
-        <f t="shared" si="6"/>
-        <v>3.1758771917161575</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="5"/>
-        <v>176.18920000000003</v>
-      </c>
-      <c r="D70" s="14">
-        <f t="shared" si="6"/>
-        <v>3.1784014003128451</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C71">
-        <f>300.87*B71+7.702</f>
-        <v>179.19789999999998</v>
-      </c>
-      <c r="D71" s="14">
-        <f>B71/C71*1000</f>
-        <v>3.1808408469072464</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C72">
-        <f>300.87*B72+7.702</f>
-        <v>182.20659999999998</v>
-      </c>
-      <c r="D72" s="14">
-        <f>B72/C72*1000</f>
-        <v>3.1831997304159123</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <v>0.59</v>
-      </c>
-      <c r="C73">
-        <f t="shared" ref="C73:C74" si="7">300.87*B73+7.702</f>
-        <v>185.21529999999998</v>
-      </c>
-      <c r="D73" s="14">
-        <f t="shared" ref="D73:D74" si="8">B73/C73*1000</f>
-        <v>3.1854819769209133</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <v>0.6</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="7"/>
-        <v>188.22399999999999</v>
-      </c>
-      <c r="D74" s="14">
-        <f t="shared" si="8"/>
-        <v>3.1876912614756887</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental Results/dilution rate measurements w compilation.xlsx
+++ b/Experimental Results/dilution rate measurements w compilation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" tabRatio="769" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" tabRatio="769" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Summary of Results" sheetId="10" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="77">
   <si>
     <t>Liters</t>
   </si>
@@ -221,6 +221,39 @@
   </si>
   <si>
     <t>Yield (t1/2)</t>
+  </si>
+  <si>
+    <t>Alternative amount (OD=0.34)</t>
+  </si>
+  <si>
+    <t>Yield (OD=0.34)</t>
+  </si>
+  <si>
+    <t>MER (OD=0.34)</t>
+  </si>
+  <si>
+    <t>GAM (OD=0.66)</t>
+  </si>
+  <si>
+    <t>NGAM (OD=0.66)</t>
+  </si>
+  <si>
+    <t>GAM (OD=0.34)</t>
+  </si>
+  <si>
+    <t>NGAM (OD=0.34)</t>
+  </si>
+  <si>
+    <t>Kyle's Value (DT)</t>
+  </si>
+  <si>
+    <t>Dilution Rate Value</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>**Note that this is at GR of 0.0833</t>
   </si>
 </sst>
 </file>
@@ -411,7 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -464,6 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,11 +626,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="135212416"/>
-        <c:axId val="135214592"/>
+        <c:axId val="106172800"/>
+        <c:axId val="106174720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135212416"/>
+        <c:axId val="106172800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -625,12 +659,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135214592"/>
+        <c:crossAx val="106174720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135214592"/>
+        <c:axId val="106174720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135212416"/>
+        <c:crossAx val="106172800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -707,10 +741,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Compilation!$B$16:$B$75</c:f>
+              <c:f>Compilation!$B$16:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
                 </c:pt>
@@ -736,159 +770,162 @@
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.09</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.13</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.14000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.16</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.17</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>0.18</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0.19</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>0.21</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>0.23</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>0.24</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>0.26</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>0.27</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>0.28999999999999998</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0.31</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0.32</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0.33</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0.34</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>0.35</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>0.36</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>0.37</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>0.38</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>0.39</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>0.41</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>0.42</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>0.43</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>0.44</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>0.45</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>0.46</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>0.47</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>0.48</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>0.49</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>0.51</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>0.52</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>0.53</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>0.54</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>0.56000000000000005</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>0.56999999999999995</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>0.57999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>0.59</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
@@ -896,189 +933,192 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Compilation!$D$16:$D$75</c:f>
+              <c:f>Compilation!$E$16:$E$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>0.93364579345887766</c:v>
+                  <c:v>0.98649488502402116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4577896992579851</c:v>
+                  <c:v>1.512653345232873</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7933895660595049</c:v>
+                  <c:v>1.8397345876234921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0266709902314459</c:v>
+                  <c:v>2.062748819076301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1982370139148402</c:v>
+                  <c:v>2.2245456365537337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3297170946874686</c:v>
+                  <c:v>2.3472892721055967</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4336906222946921</c:v>
+                  <c:v>2.4435965552270278</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5179720253307987</c:v>
+                  <c:v>2.5211778943122227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5876717567128518</c:v>
+                  <c:v>2.5415941061963752</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6462727248670248</c:v>
+                  <c:v>2.5850109575742257</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6962304247543365</c:v>
+                  <c:v>2.6384528112714705</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7393257606194532</c:v>
+                  <c:v>2.6838498117645333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.776881818045887</c:v>
+                  <c:v>2.722891347558928</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8099020949827191</c:v>
+                  <c:v>2.7568247316867311</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.839161500970047</c:v>
+                  <c:v>2.7865909244714433</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8652679383680866</c:v>
+                  <c:v>2.8129131466184094</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8887049935513907</c:v>
+                  <c:v>2.8363564165473032</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.9098621695285702</c:v>
+                  <c:v>2.8573685652480112</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.9290567049962002</c:v>
+                  <c:v>2.8763091201370403</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.9465495904296066</c:v>
+                  <c:v>2.8934700472549348</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.9625575053572915</c:v>
+                  <c:v>2.9090909090909092</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.9772618393523644</c:v>
+                  <c:v>2.923370116753834</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.9908155954128692</c:v>
+                  <c:v>2.9364734022247787</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.0033487338382296</c:v>
+                  <c:v>2.948540280265163</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.0149723527035257</c:v>
+                  <c:v>2.9596890353386875</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.0257819900800897</c:v>
+                  <c:v>2.9700206119430468</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0358602559792391</c:v>
+                  <c:v>2.9796216797273418</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.0452789475515956</c:v>
+                  <c:v>2.9885670706397636</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0541007621561107</c:v>
+                  <c:v>2.9969217332482776</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.0623806947521004</c:v>
+                  <c:v>3.0047423122631827</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.0701671854588959</c:v>
+                  <c:v>3.0120784345224352</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0775030678858708</c:v>
+                  <c:v>3.0189737631702735</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.0844263574513664</c:v>
+                  <c:v>3.025466867355969</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.0909709103272971</c:v>
+                  <c:v>3.0315919440496741</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.0971669771207853</c:v>
+                  <c:v>3.0373794205037403</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.1030416704018093</c:v>
+                  <c:v>3.0428564597669174</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.10861936132155</c:v>
+                  <c:v>3.0480473869767097</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.1139220175592426</c:v>
+                  <c:v>3.0529740505456986</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.1189694924796849</c:v>
+                  <c:v>3.0576561295544997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.1237797735259667</c:v>
+                  <c:v>3.0621113964719764</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.1283691963982552</c:v>
+                  <c:v>3.0663559425978169</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.1327526303933695</c:v>
+                  <c:v>3.0704043722558261</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.1369436393361059</c:v>
+                  <c:v>3.0742699706773204</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.1409546217719551</c:v>
+                  <c:v>3.0779648496414169</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.1447969334735681</c:v>
+                  <c:v>3.0815000742361383</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.1484809948104817</c:v>
+                  <c:v>3.0848857735351078</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.1520163851200684</c:v>
+                  <c:v>3.0881312375215999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.155411925879374</c:v>
+                  <c:v>3.0912450022132001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.158675754198299</c:v>
+                  <c:v>3.0942349246295948</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.1618153879231299</c:v>
+                  <c:v>3.0971082489898056</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.1648377834469055</c:v>
+                  <c:v>3.099871665313056</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.1677493871623299</c:v>
+                  <c:v>3.1025313614211787</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.1705561813582066</c:v>
+                  <c:v>3.1050930691934164</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.1732637252470739</c:v>
+                  <c:v>3.1075621058013492</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.1758771917161575</c:v>
+                  <c:v>3.1099434105482371</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.1784014003128451</c:v>
+                  <c:v>3.1122415778498937</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.1808408469072464</c:v>
+                  <c:v>3.114460886820491</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.1831997304159123</c:v>
+                  <c:v>3.1166053278641472</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.1854819769209133</c:v>
+                  <c:v>3.1186786266199658</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.1876912614756887</c:v>
+                  <c:v>3.1206842655628257</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.1226255035233628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,11 +1133,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="135226880"/>
-        <c:axId val="135228800"/>
+        <c:axId val="106191104"/>
+        <c:axId val="106201472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135226880"/>
+        <c:axId val="106191104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1119,18 +1159,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135228800"/>
+        <c:crossAx val="106201472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135228800"/>
+        <c:axId val="106201472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1153,13 +1194,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135226880"/>
+        <c:crossAx val="106191104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1303,11 +1345,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144236928"/>
-        <c:axId val="144238464"/>
+        <c:axId val="106333312"/>
+        <c:axId val="106334848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144236928"/>
+        <c:axId val="106333312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,12 +1359,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144238464"/>
+        <c:crossAx val="106334848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144238464"/>
+        <c:axId val="106334848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1334,7 +1376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144236928"/>
+        <c:crossAx val="106333312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1390,10 +1432,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Compilation!$B$9:$B$12</c:f>
+              <c:f>Compilation!$B$9:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>9.0243491953218014E-2</c:v>
                 </c:pt>
@@ -1405,16 +1447,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.0487379671178976E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5769999558765734E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Compilation!$C$9:$C$12</c:f>
+              <c:f>Compilation!$C$9:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>35.815665436444306</c:v>
                 </c:pt>
@@ -1426,6 +1471,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>30.475688694632385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.832118463414211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1440,11 +1488,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144288384"/>
-        <c:axId val="144290176"/>
+        <c:axId val="107502976"/>
+        <c:axId val="107504768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144288384"/>
+        <c:axId val="107502976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,12 +1502,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144290176"/>
+        <c:crossAx val="107504768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144290176"/>
+        <c:axId val="107504768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,7 +1518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144288384"/>
+        <c:crossAx val="107502976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1517,10 +1565,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Compilation!$B$16:$B$75</c:f>
+              <c:f>Compilation!$B$16:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
                 </c:pt>
@@ -1546,159 +1594,162 @@
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.09</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.13</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.14000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.16</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.17</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>0.18</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0.19</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>0.21</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>0.23</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>0.24</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>0.26</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>0.27</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>0.28999999999999998</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0.31</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0.32</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0.33</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0.34</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>0.35</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>0.36</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>0.37</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>0.38</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>0.39</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>0.41</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>0.42</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>0.43</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>0.44</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>0.45</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>0.46</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>0.47</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>0.48</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>0.49</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>0.51</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>0.52</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>0.53</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>0.54</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>0.56000000000000005</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>0.56999999999999995</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>0.57999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>0.59</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
@@ -1706,189 +1757,192 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Compilation!$D$16:$D$75</c:f>
+              <c:f>Compilation!$E$16:$E$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>0.93364579345887766</c:v>
+                  <c:v>0.98649488502402116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4577896992579851</c:v>
+                  <c:v>1.512653345232873</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7933895660595049</c:v>
+                  <c:v>1.8397345876234921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0266709902314459</c:v>
+                  <c:v>2.062748819076301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1982370139148402</c:v>
+                  <c:v>2.2245456365537337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3297170946874686</c:v>
+                  <c:v>2.3472892721055967</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4336906222946921</c:v>
+                  <c:v>2.4435965552270278</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5179720253307987</c:v>
+                  <c:v>2.5211778943122227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5876717567128518</c:v>
+                  <c:v>2.5415941061963752</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6462727248670248</c:v>
+                  <c:v>2.5850109575742257</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6962304247543365</c:v>
+                  <c:v>2.6384528112714705</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7393257606194532</c:v>
+                  <c:v>2.6838498117645333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.776881818045887</c:v>
+                  <c:v>2.722891347558928</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8099020949827191</c:v>
+                  <c:v>2.7568247316867311</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.839161500970047</c:v>
+                  <c:v>2.7865909244714433</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8652679383680866</c:v>
+                  <c:v>2.8129131466184094</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8887049935513907</c:v>
+                  <c:v>2.8363564165473032</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.9098621695285702</c:v>
+                  <c:v>2.8573685652480112</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.9290567049962002</c:v>
+                  <c:v>2.8763091201370403</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.9465495904296066</c:v>
+                  <c:v>2.8934700472549348</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.9625575053572915</c:v>
+                  <c:v>2.9090909090909092</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.9772618393523644</c:v>
+                  <c:v>2.923370116753834</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.9908155954128692</c:v>
+                  <c:v>2.9364734022247787</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.0033487338382296</c:v>
+                  <c:v>2.948540280265163</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.0149723527035257</c:v>
+                  <c:v>2.9596890353386875</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.0257819900800897</c:v>
+                  <c:v>2.9700206119430468</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0358602559792391</c:v>
+                  <c:v>2.9796216797273418</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.0452789475515956</c:v>
+                  <c:v>2.9885670706397636</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0541007621561107</c:v>
+                  <c:v>2.9969217332482776</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.0623806947521004</c:v>
+                  <c:v>3.0047423122631827</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.0701671854588959</c:v>
+                  <c:v>3.0120784345224352</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0775030678858708</c:v>
+                  <c:v>3.0189737631702735</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.0844263574513664</c:v>
+                  <c:v>3.025466867355969</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.0909709103272971</c:v>
+                  <c:v>3.0315919440496741</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.0971669771207853</c:v>
+                  <c:v>3.0373794205037403</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.1030416704018093</c:v>
+                  <c:v>3.0428564597669174</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.10861936132155</c:v>
+                  <c:v>3.0480473869767097</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.1139220175592426</c:v>
+                  <c:v>3.0529740505456986</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.1189694924796849</c:v>
+                  <c:v>3.0576561295544997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.1237797735259667</c:v>
+                  <c:v>3.0621113964719764</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.1283691963982552</c:v>
+                  <c:v>3.0663559425978169</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.1327526303933695</c:v>
+                  <c:v>3.0704043722558261</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.1369436393361059</c:v>
+                  <c:v>3.0742699706773204</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.1409546217719551</c:v>
+                  <c:v>3.0779648496414169</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.1447969334735681</c:v>
+                  <c:v>3.0815000742361383</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.1484809948104817</c:v>
+                  <c:v>3.0848857735351078</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.1520163851200684</c:v>
+                  <c:v>3.0881312375215999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.155411925879374</c:v>
+                  <c:v>3.0912450022132001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.158675754198299</c:v>
+                  <c:v>3.0942349246295948</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.1618153879231299</c:v>
+                  <c:v>3.0971082489898056</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.1648377834469055</c:v>
+                  <c:v>3.099871665313056</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.1677493871623299</c:v>
+                  <c:v>3.1025313614211787</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.1705561813582066</c:v>
+                  <c:v>3.1050930691934164</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.1732637252470739</c:v>
+                  <c:v>3.1075621058013492</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.1758771917161575</c:v>
+                  <c:v>3.1099434105482371</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.1784014003128451</c:v>
+                  <c:v>3.1122415778498937</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.1808408469072464</c:v>
+                  <c:v>3.114460886820491</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.1831997304159123</c:v>
+                  <c:v>3.1166053278641472</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.1854819769209133</c:v>
+                  <c:v>3.1186786266199658</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.1876912614756887</c:v>
+                  <c:v>3.1206842655628257</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.1226255035233628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,11 +1957,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144307712"/>
-        <c:axId val="144309248"/>
+        <c:axId val="107530112"/>
+        <c:axId val="107531648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144307712"/>
+        <c:axId val="107530112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,12 +1971,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144309248"/>
+        <c:crossAx val="107531648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144309248"/>
+        <c:axId val="107531648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1933,7 +1987,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144307712"/>
+        <c:crossAx val="107530112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2058,15 +2112,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2088,15 +2142,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2412,12 +2466,12 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2650,19 +2704,21 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -2673,16 +2729,22 @@
         <v>40</v>
       </c>
       <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>42304</v>
       </c>
@@ -2693,15 +2755,23 @@
         <v>35.815665436444306</v>
       </c>
       <c r="D2" s="14">
-        <f>B2/C2*1000</f>
+        <f>C2/0.34*0.66</f>
+        <v>69.524527023686005</v>
+      </c>
+      <c r="E2" s="14">
+        <f t="shared" ref="E2:E7" si="0">B2/C2*1000</f>
         <v>2.5196653713821706</v>
       </c>
-      <c r="E2" s="14">
-        <f>D2/LN(2)</f>
+      <c r="F2" s="14">
+        <f>B2/D2*1000</f>
+        <v>1.2980094337423305</v>
+      </c>
+      <c r="G2" s="14">
+        <f>E2/LN(2)</f>
         <v>3.6351087359927061</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>42310</v>
       </c>
@@ -2712,15 +2782,23 @@
         <v>32.678400542591753</v>
       </c>
       <c r="D3" s="14">
-        <f>B3/C3*1000</f>
+        <f t="shared" ref="D3:D7" si="1">C3/0.34*0.66</f>
+        <v>63.434542229736934</v>
+      </c>
+      <c r="E3" s="14">
+        <f t="shared" si="0"/>
         <v>2.730063527111096</v>
       </c>
-      <c r="E3" s="14">
-        <f t="shared" ref="E3:E7" si="0">D3/LN(2)</f>
+      <c r="F3" s="14">
+        <f t="shared" ref="F3:F7" si="2">B3/D3*1000</f>
+        <v>1.4063963624511704</v>
+      </c>
+      <c r="G3" s="14">
+        <f t="shared" ref="G3:G7" si="3">E3/LN(2)</f>
         <v>3.9386491118750104</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>42313</v>
       </c>
@@ -2731,18 +2809,26 @@
         <v>36.195339142940391</v>
       </c>
       <c r="D4" s="14">
-        <f>B4/C4*1000</f>
-        <v>1.2540081341924529</v>
+        <f t="shared" si="1"/>
+        <v>70.261540689237222</v>
       </c>
       <c r="E4" s="14">
         <f t="shared" si="0"/>
+        <v>1.2540081341924529</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" si="2"/>
+        <v>0.64600419034156675</v>
+      </c>
+      <c r="G4" s="14">
+        <f t="shared" si="3"/>
         <v>1.8091513164338737</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>42320</v>
       </c>
@@ -2753,18 +2839,26 @@
         <v>21.038398536538562</v>
       </c>
       <c r="D5" s="14">
-        <f>B5/C5*1000</f>
-        <v>2.2118776295889044</v>
+        <f t="shared" si="1"/>
+        <v>40.839244217986618</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" si="0"/>
+        <v>2.2118776295889044</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="2"/>
+        <v>1.1394521122124661</v>
+      </c>
+      <c r="G5" s="14">
+        <f t="shared" si="3"/>
         <v>3.191064887261148</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>42327</v>
       </c>
@@ -2775,15 +2869,23 @@
         <v>30.475688694632385</v>
       </c>
       <c r="D6" s="14">
-        <f>B6/C6*1000</f>
-        <v>2.3129052267683048</v>
+        <f t="shared" si="1"/>
+        <v>59.158689818992272</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="0"/>
+        <v>2.3129052267683048</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="2"/>
+        <v>1.191496631971551</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" si="3"/>
         <v>3.3368169007047968</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>42339</v>
       </c>
@@ -2796,16 +2898,24 @@
         <v>20.832118463414211</v>
       </c>
       <c r="D7" s="14">
-        <f>B7/C7*1000</f>
-        <v>2.1970880992803461</v>
+        <f t="shared" si="1"/>
+        <v>40.438818193686409</v>
       </c>
       <c r="E7" s="14">
         <f t="shared" si="0"/>
+        <v>2.1970880992803461</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="2"/>
+        <v>1.1318332632656329</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="3"/>
         <v>3.169728105227914</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>9.0243491953218014E-2</v>
       </c>
@@ -2814,874 +2924,1011 @@
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9">
+        <v>118.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8.9214109445657191E-2</v>
       </c>
       <c r="C10">
         <v>32.678400542591753</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10">
+        <v>3.5103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>4.6534363085345594E-2</v>
       </c>
       <c r="C11">
         <v>21.038398536538562</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11">
+        <v>258.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>7.0487379671178976E-2</v>
       </c>
       <c r="C12">
         <v>30.475688694632385</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>4.5769999558765734E-2</v>
+      </c>
+      <c r="C13">
+        <v>20.832118463414211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15">
+        <v>2.86</v>
+      </c>
+      <c r="I15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.01</v>
       </c>
       <c r="C16">
-        <f>300.87*B16+7.702</f>
-        <v>10.710699999999999</v>
-      </c>
-      <c r="D16" s="14">
+        <f>308.49*B16+7.052</f>
+        <v>10.136900000000001</v>
+      </c>
+      <c r="E16" s="14">
         <f>B16/C16*1000</f>
-        <v>0.93364579345887766</v>
-      </c>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+        <v>0.98649488502402116</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16">
+        <f>H15*LN(2)</f>
+        <v>1.9824009364014434</v>
+      </c>
+      <c r="I16">
+        <f>I15*LN(2)</f>
+        <v>0.20101268236238412</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.02</v>
       </c>
       <c r="C17">
-        <f>300.87*B17+7.702</f>
-        <v>13.7194</v>
-      </c>
-      <c r="D17" s="14">
+        <f t="shared" ref="C17:C76" si="4">308.49*B17+7.052</f>
+        <v>13.2218</v>
+      </c>
+      <c r="E17" s="14">
         <f>B17/C17*1000</f>
-        <v>1.4577896992579851</v>
-      </c>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+        <v>1.512653345232873</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.03</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:C27" si="1">300.87*B18+7.702</f>
-        <v>16.728099999999998</v>
-      </c>
-      <c r="D18" s="14">
-        <f t="shared" ref="D18:D27" si="2">B18/C18*1000</f>
-        <v>1.7933895660595049</v>
-      </c>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>16.306699999999999</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" ref="E18:E28" si="5">B18/C18*1000</f>
+        <v>1.8397345876234921</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.04</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
-        <v>19.736800000000002</v>
-      </c>
-      <c r="D19" s="14">
-        <f t="shared" si="2"/>
-        <v>2.0266709902314459</v>
-      </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>19.3916</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="5"/>
+        <v>2.062748819076301</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.05</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
-        <v>22.7455</v>
-      </c>
-      <c r="D20" s="14">
-        <f t="shared" si="2"/>
-        <v>2.1982370139148402</v>
-      </c>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>22.476500000000001</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="5"/>
+        <v>2.2245456365537337</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.06</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
-        <v>25.754199999999997</v>
-      </c>
-      <c r="D21" s="14">
-        <f t="shared" si="2"/>
-        <v>2.3297170946874686</v>
-      </c>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>25.561399999999999</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="5"/>
+        <v>2.3472892721055967</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
-        <v>28.762900000000002</v>
-      </c>
-      <c r="D22" s="14">
-        <f t="shared" si="2"/>
-        <v>2.4336906222946921</v>
-      </c>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>28.646300000000004</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="5"/>
+        <v>2.4435965552270278</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.08</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
-        <v>31.771599999999999</v>
-      </c>
-      <c r="D23" s="14">
-        <f t="shared" si="2"/>
-        <v>2.5179720253307987</v>
-      </c>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>31.731200000000001</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="5"/>
+        <v>2.5211778943122227</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>32.656670000000005</v>
+      </c>
+      <c r="E24" s="28">
+        <f t="shared" si="5"/>
+        <v>2.5415941061963752</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>0.09</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>34.780299999999997</v>
-      </c>
-      <c r="D24" s="14">
-        <f t="shared" si="2"/>
-        <v>2.5876717567128518</v>
-      </c>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25">
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>34.816099999999999</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" si="5"/>
+        <v>2.5850109575742257</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>0.1</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>37.789000000000001</v>
-      </c>
-      <c r="D25" s="14">
-        <f t="shared" si="2"/>
-        <v>2.6462727248670248</v>
-      </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26">
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>37.901000000000003</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" si="5"/>
+        <v>2.6384528112714705</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27">
         <v>0.11</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="1"/>
-        <v>40.797699999999999</v>
-      </c>
-      <c r="D26" s="14">
-        <f t="shared" si="2"/>
-        <v>2.6962304247543365</v>
-      </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27">
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>40.985900000000001</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" si="5"/>
+        <v>2.6838498117645333</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28">
         <v>0.12</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>43.806399999999996</v>
-      </c>
-      <c r="D27" s="14">
-        <f t="shared" si="2"/>
-        <v>2.7393257606194532</v>
-      </c>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28">
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>44.070799999999998</v>
+      </c>
+      <c r="E28" s="14">
+        <f t="shared" si="5"/>
+        <v>2.722891347558928</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>0.13</v>
       </c>
-      <c r="C28">
-        <f>300.87*B28+7.702</f>
-        <v>46.815100000000001</v>
-      </c>
-      <c r="D28" s="14">
-        <f>B28/C28*1000</f>
-        <v>2.776881818045887</v>
-      </c>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29">
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>47.155700000000003</v>
+      </c>
+      <c r="E29" s="14">
+        <f>B29/C29*1000</f>
+        <v>2.7568247316867311</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C29">
-        <f>300.87*B29+7.702</f>
-        <v>49.823800000000006</v>
-      </c>
-      <c r="D29" s="14">
-        <f>B29/C29*1000</f>
-        <v>2.8099020949827191</v>
-      </c>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30">
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>50.240600000000008</v>
+      </c>
+      <c r="E30" s="14">
+        <f>B30/C30*1000</f>
+        <v>2.7865909244714433</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31">
         <v>0.15</v>
       </c>
-      <c r="C30">
-        <f t="shared" ref="C30:C59" si="3">300.87*B30+7.702</f>
-        <v>52.832499999999996</v>
-      </c>
-      <c r="D30" s="14">
-        <f t="shared" ref="D30:D49" si="4">B30/C30*1000</f>
-        <v>2.839161500970047</v>
-      </c>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31">
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>53.325499999999998</v>
+      </c>
+      <c r="E31" s="14">
+        <f t="shared" ref="E31:E50" si="6">B31/C31*1000</f>
+        <v>2.8129131466184094</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32">
         <v>0.16</v>
       </c>
-      <c r="C31">
-        <f t="shared" si="3"/>
-        <v>55.841200000000001</v>
-      </c>
-      <c r="D31" s="14">
+      <c r="C32">
         <f t="shared" si="4"/>
-        <v>2.8652679383680866</v>
-      </c>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32">
+        <v>56.410400000000003</v>
+      </c>
+      <c r="E32" s="14">
+        <f t="shared" si="6"/>
+        <v>2.8363564165473032</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33">
         <v>0.17</v>
       </c>
-      <c r="C32">
-        <f t="shared" si="3"/>
-        <v>58.849900000000005</v>
-      </c>
-      <c r="D32" s="14">
+      <c r="C33">
         <f t="shared" si="4"/>
-        <v>2.8887049935513907</v>
-      </c>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33">
+        <v>59.495300000000007</v>
+      </c>
+      <c r="E33" s="14">
+        <f t="shared" si="6"/>
+        <v>2.8573685652480112</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34">
         <v>0.18</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="3"/>
-        <v>61.858599999999996</v>
-      </c>
-      <c r="D33" s="14">
+      <c r="C34">
         <f t="shared" si="4"/>
-        <v>2.9098621695285702</v>
-      </c>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34">
+        <v>62.580199999999998</v>
+      </c>
+      <c r="E34" s="14">
+        <f t="shared" si="6"/>
+        <v>2.8763091201370403</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35">
         <v>0.19</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="3"/>
-        <v>64.8673</v>
-      </c>
-      <c r="D34" s="14">
+      <c r="C35">
         <f t="shared" si="4"/>
-        <v>2.9290567049962002</v>
-      </c>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35">
+        <v>65.665099999999995</v>
+      </c>
+      <c r="E35" s="14">
+        <f t="shared" si="6"/>
+        <v>2.8934700472549348</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36">
         <v>0.2</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="3"/>
-        <v>67.876000000000005</v>
-      </c>
-      <c r="D35" s="14">
+      <c r="C36">
         <f t="shared" si="4"/>
-        <v>2.9465495904296066</v>
-      </c>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36">
+        <v>68.75</v>
+      </c>
+      <c r="E36" s="14">
+        <f t="shared" si="6"/>
+        <v>2.9090909090909092</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37">
         <v>0.21</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="3"/>
-        <v>70.884699999999995</v>
-      </c>
-      <c r="D36" s="14">
+      <c r="C37">
         <f t="shared" si="4"/>
-        <v>2.9625575053572915</v>
-      </c>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37">
+        <v>71.834900000000005</v>
+      </c>
+      <c r="E37" s="14">
+        <f t="shared" si="6"/>
+        <v>2.923370116753834</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38">
         <v>0.22</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="3"/>
-        <v>73.8934</v>
-      </c>
-      <c r="D37" s="14">
+      <c r="C38">
         <f t="shared" si="4"/>
-        <v>2.9772618393523644</v>
-      </c>
-      <c r="E37" s="14"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38">
+        <v>74.919800000000009</v>
+      </c>
+      <c r="E38" s="14">
+        <f t="shared" si="6"/>
+        <v>2.9364734022247787</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39">
         <v>0.23</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="3"/>
-        <v>76.902100000000004</v>
-      </c>
-      <c r="D38" s="14">
+      <c r="C39">
         <f t="shared" si="4"/>
-        <v>2.9908155954128692</v>
-      </c>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39">
+        <v>78.004700000000014</v>
+      </c>
+      <c r="E39" s="14">
+        <f t="shared" si="6"/>
+        <v>2.948540280265163</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40">
         <v>0.24</v>
       </c>
-      <c r="C39">
-        <f t="shared" si="3"/>
-        <v>79.910799999999995</v>
-      </c>
-      <c r="D39" s="14">
+      <c r="C40">
         <f t="shared" si="4"/>
-        <v>3.0033487338382296</v>
-      </c>
-      <c r="E39" s="14"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40">
+        <v>81.08959999999999</v>
+      </c>
+      <c r="E40" s="14">
+        <f t="shared" si="6"/>
+        <v>2.9596890353386875</v>
+      </c>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41">
         <v>0.25</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="3"/>
-        <v>82.919499999999999</v>
-      </c>
-      <c r="D40" s="14">
+      <c r="C41">
         <f t="shared" si="4"/>
-        <v>3.0149723527035257</v>
-      </c>
-      <c r="E40" s="14"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41">
+        <v>84.174499999999995</v>
+      </c>
+      <c r="E41" s="14">
+        <f t="shared" si="6"/>
+        <v>2.9700206119430468</v>
+      </c>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42">
         <v>0.26</v>
       </c>
-      <c r="C41">
-        <f t="shared" si="3"/>
-        <v>85.928200000000004</v>
-      </c>
-      <c r="D41" s="14">
+      <c r="C42">
         <f t="shared" si="4"/>
-        <v>3.0257819900800897</v>
-      </c>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42">
+        <v>87.259399999999999</v>
+      </c>
+      <c r="E42" s="14">
+        <f t="shared" si="6"/>
+        <v>2.9796216797273418</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43">
         <v>0.27</v>
       </c>
-      <c r="C42">
-        <f t="shared" si="3"/>
-        <v>88.936900000000009</v>
-      </c>
-      <c r="D42" s="14">
+      <c r="C43">
         <f t="shared" si="4"/>
-        <v>3.0358602559792391</v>
-      </c>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43">
+        <v>90.344300000000004</v>
+      </c>
+      <c r="E43" s="14">
+        <f t="shared" si="6"/>
+        <v>2.9885670706397636</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C43">
-        <f t="shared" si="3"/>
-        <v>91.945600000000013</v>
-      </c>
-      <c r="D43" s="14">
+      <c r="C44">
         <f t="shared" si="4"/>
-        <v>3.0452789475515956</v>
-      </c>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44">
+        <v>93.429200000000009</v>
+      </c>
+      <c r="E44" s="14">
+        <f t="shared" si="6"/>
+        <v>2.9969217332482776</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C44">
-        <f t="shared" si="3"/>
-        <v>94.954299999999989</v>
-      </c>
-      <c r="D44" s="14">
+      <c r="C45">
         <f t="shared" si="4"/>
-        <v>3.0541007621561107</v>
-      </c>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45">
+        <v>96.514099999999985</v>
+      </c>
+      <c r="E45" s="14">
+        <f t="shared" si="6"/>
+        <v>3.0047423122631827</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46">
         <v>0.3</v>
       </c>
-      <c r="C45">
-        <f t="shared" si="3"/>
-        <v>97.962999999999994</v>
-      </c>
-      <c r="D45" s="14">
+      <c r="C46">
         <f t="shared" si="4"/>
-        <v>3.0623806947521004</v>
-      </c>
-      <c r="E45" s="14"/>
-      <c r="F45">
+        <v>99.59899999999999</v>
+      </c>
+      <c r="E46" s="14">
+        <f t="shared" si="6"/>
+        <v>3.0120784345224352</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46">
         <f>(10-7.702)/300.87</f>
         <v>7.6378502343204709E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47">
         <v>0.31</v>
       </c>
-      <c r="C46">
-        <f t="shared" si="3"/>
-        <v>100.9717</v>
-      </c>
-      <c r="D46" s="14">
+      <c r="C47">
         <f t="shared" si="4"/>
-        <v>3.0701671854588959</v>
-      </c>
-      <c r="E46" s="14"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47">
+        <v>102.68389999999999</v>
+      </c>
+      <c r="E47" s="14">
+        <f t="shared" si="6"/>
+        <v>3.0189737631702735</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48">
         <v>0.32</v>
       </c>
-      <c r="C47">
-        <f t="shared" si="3"/>
-        <v>103.9804</v>
-      </c>
-      <c r="D47" s="14">
+      <c r="C48">
         <f t="shared" si="4"/>
-        <v>3.0775030678858708</v>
-      </c>
-      <c r="E47" s="14"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48">
+        <v>105.7688</v>
+      </c>
+      <c r="E48" s="14">
+        <f t="shared" si="6"/>
+        <v>3.025466867355969</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49">
         <v>0.33</v>
       </c>
-      <c r="C48">
-        <f t="shared" si="3"/>
-        <v>106.98910000000001</v>
-      </c>
-      <c r="D48" s="14">
+      <c r="C49">
         <f t="shared" si="4"/>
-        <v>3.0844263574513664</v>
-      </c>
-      <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49">
+        <v>108.8537</v>
+      </c>
+      <c r="E49" s="14">
+        <f t="shared" si="6"/>
+        <v>3.0315919440496741</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50">
         <v>0.34</v>
       </c>
-      <c r="C49">
-        <f t="shared" si="3"/>
-        <v>109.99780000000001</v>
-      </c>
-      <c r="D49" s="14">
+      <c r="C50">
         <f t="shared" si="4"/>
-        <v>3.0909709103272971</v>
-      </c>
-      <c r="E49" s="14"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50">
+        <v>111.93860000000001</v>
+      </c>
+      <c r="E50" s="14">
+        <f t="shared" si="6"/>
+        <v>3.0373794205037403</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51">
         <v>0.35</v>
       </c>
-      <c r="C50">
-        <f t="shared" si="3"/>
-        <v>113.00649999999999</v>
-      </c>
-      <c r="D50" s="14">
-        <f t="shared" ref="D50:D59" si="5">B50/C50*1000</f>
-        <v>3.0971669771207853</v>
-      </c>
-      <c r="E50" s="14"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51">
+      <c r="C51">
+        <f t="shared" si="4"/>
+        <v>115.02349999999998</v>
+      </c>
+      <c r="E51" s="14">
+        <f t="shared" ref="E51:E60" si="7">B51/C51*1000</f>
+        <v>3.0428564597669174</v>
+      </c>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52">
         <v>0.36</v>
       </c>
-      <c r="C51">
-        <f t="shared" si="3"/>
-        <v>116.01519999999999</v>
-      </c>
-      <c r="D51" s="14">
-        <f t="shared" si="5"/>
-        <v>3.1030416704018093</v>
-      </c>
-      <c r="E51" s="14"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52">
+      <c r="C52">
+        <f t="shared" si="4"/>
+        <v>118.10839999999999</v>
+      </c>
+      <c r="E52" s="14">
+        <f t="shared" si="7"/>
+        <v>3.0480473869767097</v>
+      </c>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53">
         <v>0.37</v>
       </c>
-      <c r="C52">
-        <f t="shared" si="3"/>
-        <v>119.0239</v>
-      </c>
-      <c r="D52" s="14">
-        <f t="shared" si="5"/>
-        <v>3.10861936132155</v>
-      </c>
-      <c r="E52" s="14"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53">
+      <c r="C53">
+        <f t="shared" si="4"/>
+        <v>121.19329999999999</v>
+      </c>
+      <c r="E53" s="14">
+        <f t="shared" si="7"/>
+        <v>3.0529740505456986</v>
+      </c>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54">
         <v>0.38</v>
       </c>
-      <c r="C53">
-        <f t="shared" si="3"/>
-        <v>122.0326</v>
-      </c>
-      <c r="D53" s="14">
-        <f t="shared" si="5"/>
-        <v>3.1139220175592426</v>
-      </c>
-      <c r="E53" s="14"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54">
+      <c r="C54">
+        <f t="shared" si="4"/>
+        <v>124.2782</v>
+      </c>
+      <c r="E54" s="14">
+        <f t="shared" si="7"/>
+        <v>3.0576561295544997</v>
+      </c>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55">
         <v>0.39</v>
       </c>
-      <c r="C54">
-        <f t="shared" si="3"/>
-        <v>125.04130000000001</v>
-      </c>
-      <c r="D54" s="14">
-        <f t="shared" si="5"/>
-        <v>3.1189694924796849</v>
-      </c>
-      <c r="E54" s="14"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55">
+      <c r="C55">
+        <f t="shared" si="4"/>
+        <v>127.3631</v>
+      </c>
+      <c r="E55" s="14">
+        <f t="shared" si="7"/>
+        <v>3.0621113964719764</v>
+      </c>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56">
         <v>0.4</v>
       </c>
-      <c r="C55">
-        <f t="shared" si="3"/>
-        <v>128.05000000000001</v>
-      </c>
-      <c r="D55" s="14">
-        <f t="shared" si="5"/>
-        <v>3.1237797735259667</v>
-      </c>
-      <c r="E55" s="14"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56">
+      <c r="C56">
+        <f t="shared" si="4"/>
+        <v>130.44800000000001</v>
+      </c>
+      <c r="E56" s="14">
+        <f t="shared" si="7"/>
+        <v>3.0663559425978169</v>
+      </c>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57">
         <v>0.41</v>
       </c>
-      <c r="C56">
-        <f t="shared" si="3"/>
-        <v>131.05869999999999</v>
-      </c>
-      <c r="D56" s="14">
-        <f t="shared" si="5"/>
-        <v>3.1283691963982552</v>
-      </c>
-      <c r="E56" s="14"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57">
+      <c r="C57">
+        <f t="shared" si="4"/>
+        <v>133.53289999999998</v>
+      </c>
+      <c r="E57" s="14">
+        <f t="shared" si="7"/>
+        <v>3.0704043722558261</v>
+      </c>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58">
         <v>0.42</v>
       </c>
-      <c r="C57">
-        <f t="shared" si="3"/>
-        <v>134.06739999999999</v>
-      </c>
-      <c r="D57" s="14">
-        <f t="shared" si="5"/>
-        <v>3.1327526303933695</v>
-      </c>
-      <c r="E57" s="14"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58">
+      <c r="C58">
+        <f t="shared" si="4"/>
+        <v>136.61779999999999</v>
+      </c>
+      <c r="E58" s="14">
+        <f t="shared" si="7"/>
+        <v>3.0742699706773204</v>
+      </c>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59">
         <v>0.43</v>
       </c>
-      <c r="C58">
-        <f t="shared" si="3"/>
-        <v>137.0761</v>
-      </c>
-      <c r="D58" s="14">
-        <f t="shared" si="5"/>
-        <v>3.1369436393361059</v>
-      </c>
-      <c r="E58" s="14"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59">
+      <c r="C59">
+        <f t="shared" si="4"/>
+        <v>139.70269999999999</v>
+      </c>
+      <c r="E59" s="14">
+        <f t="shared" si="7"/>
+        <v>3.0779648496414169</v>
+      </c>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60">
         <v>0.44</v>
       </c>
-      <c r="C59">
-        <f t="shared" si="3"/>
-        <v>140.0848</v>
-      </c>
-      <c r="D59" s="14">
-        <f t="shared" si="5"/>
-        <v>3.1409546217719551</v>
-      </c>
-      <c r="E59" s="14"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60">
+      <c r="C60">
+        <f t="shared" si="4"/>
+        <v>142.7876</v>
+      </c>
+      <c r="E60" s="14">
+        <f t="shared" si="7"/>
+        <v>3.0815000742361383</v>
+      </c>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61">
         <v>0.45</v>
       </c>
-      <c r="C60">
-        <f>300.87*B60+7.702</f>
-        <v>143.09350000000001</v>
-      </c>
-      <c r="D60" s="14">
-        <f>B60/C60*1000</f>
-        <v>3.1447969334735681</v>
-      </c>
-      <c r="E60" s="14"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61">
+      <c r="C61">
+        <f t="shared" si="4"/>
+        <v>145.8725</v>
+      </c>
+      <c r="E61" s="14">
+        <f>B61/C61*1000</f>
+        <v>3.0848857735351078</v>
+      </c>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62">
         <v>0.46</v>
       </c>
-      <c r="C61">
-        <f>300.87*B61+7.702</f>
-        <v>146.10220000000001</v>
-      </c>
-      <c r="D61" s="14">
-        <f>B61/C61*1000</f>
-        <v>3.1484809948104817</v>
-      </c>
-      <c r="E61" s="14"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62">
+      <c r="C62">
+        <f t="shared" si="4"/>
+        <v>148.95740000000001</v>
+      </c>
+      <c r="E62" s="14">
+        <f>B62/C62*1000</f>
+        <v>3.0881312375215999</v>
+      </c>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63">
         <v>0.47</v>
       </c>
-      <c r="C62">
-        <f t="shared" ref="C62:C71" si="6">300.87*B62+7.702</f>
-        <v>149.11089999999999</v>
-      </c>
-      <c r="D62" s="14">
-        <f t="shared" ref="D62:D71" si="7">B62/C62*1000</f>
-        <v>3.1520163851200684</v>
-      </c>
-      <c r="E62" s="14"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63">
+      <c r="C63">
+        <f t="shared" si="4"/>
+        <v>152.04229999999998</v>
+      </c>
+      <c r="E63" s="14">
+        <f t="shared" ref="E63:E72" si="8">B63/C63*1000</f>
+        <v>3.0912450022132001</v>
+      </c>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64">
         <v>0.48</v>
       </c>
-      <c r="C63">
-        <f t="shared" si="6"/>
-        <v>152.11959999999999</v>
-      </c>
-      <c r="D63" s="14">
-        <f t="shared" si="7"/>
-        <v>3.155411925879374</v>
-      </c>
-      <c r="E63" s="14"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64">
+      <c r="C64">
+        <f t="shared" si="4"/>
+        <v>155.12719999999999</v>
+      </c>
+      <c r="E64" s="14">
+        <f t="shared" si="8"/>
+        <v>3.0942349246295948</v>
+      </c>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65">
         <v>0.49</v>
       </c>
-      <c r="C64">
-        <f t="shared" si="6"/>
-        <v>155.1283</v>
-      </c>
-      <c r="D64" s="14">
-        <f t="shared" si="7"/>
-        <v>3.158675754198299</v>
-      </c>
-      <c r="E64" s="14"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65">
+      <c r="C65">
+        <f t="shared" si="4"/>
+        <v>158.21209999999999</v>
+      </c>
+      <c r="E65" s="14">
+        <f t="shared" si="8"/>
+        <v>3.0971082489898056</v>
+      </c>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66">
         <v>0.5</v>
       </c>
-      <c r="C65">
-        <f t="shared" si="6"/>
-        <v>158.137</v>
-      </c>
-      <c r="D65" s="14">
-        <f t="shared" si="7"/>
-        <v>3.1618153879231299</v>
-      </c>
-      <c r="E65" s="14"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B66">
+      <c r="C66">
+        <f t="shared" si="4"/>
+        <v>161.297</v>
+      </c>
+      <c r="E66" s="14">
+        <f t="shared" si="8"/>
+        <v>3.099871665313056</v>
+      </c>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67">
         <v>0.51</v>
       </c>
-      <c r="C66">
-        <f t="shared" si="6"/>
-        <v>161.14570000000001</v>
-      </c>
-      <c r="D66" s="14">
-        <f t="shared" si="7"/>
-        <v>3.1648377834469055</v>
-      </c>
-      <c r="E66" s="14"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67">
+      <c r="C67">
+        <f t="shared" si="4"/>
+        <v>164.3819</v>
+      </c>
+      <c r="E67" s="14">
+        <f t="shared" si="8"/>
+        <v>3.1025313614211787</v>
+      </c>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68">
         <v>0.52</v>
       </c>
-      <c r="C67">
-        <f t="shared" si="6"/>
-        <v>164.15440000000001</v>
-      </c>
-      <c r="D67" s="14">
-        <f t="shared" si="7"/>
-        <v>3.1677493871623299</v>
-      </c>
-      <c r="E67" s="14"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68">
+      <c r="C68">
+        <f t="shared" si="4"/>
+        <v>167.46680000000001</v>
+      </c>
+      <c r="E68" s="14">
+        <f t="shared" si="8"/>
+        <v>3.1050930691934164</v>
+      </c>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69">
         <v>0.53</v>
       </c>
-      <c r="C68">
-        <f t="shared" si="6"/>
-        <v>167.16310000000001</v>
-      </c>
-      <c r="D68" s="14">
-        <f t="shared" si="7"/>
-        <v>3.1705561813582066</v>
-      </c>
-      <c r="E68" s="14"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69">
+      <c r="C69">
+        <f t="shared" si="4"/>
+        <v>170.55170000000001</v>
+      </c>
+      <c r="E69" s="14">
+        <f t="shared" si="8"/>
+        <v>3.1075621058013492</v>
+      </c>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70">
         <v>0.54</v>
       </c>
-      <c r="C69">
-        <f t="shared" si="6"/>
-        <v>170.17180000000002</v>
-      </c>
-      <c r="D69" s="14">
-        <f t="shared" si="7"/>
-        <v>3.1732637252470739</v>
-      </c>
-      <c r="E69" s="14"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B70">
+      <c r="C70">
+        <f t="shared" si="4"/>
+        <v>173.63660000000002</v>
+      </c>
+      <c r="E70" s="14">
+        <f t="shared" si="8"/>
+        <v>3.1099434105482371</v>
+      </c>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C70">
-        <f t="shared" si="6"/>
-        <v>173.18050000000002</v>
-      </c>
-      <c r="D70" s="14">
-        <f t="shared" si="7"/>
-        <v>3.1758771917161575</v>
-      </c>
-      <c r="E70" s="14"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B71">
+      <c r="C71">
+        <f t="shared" si="4"/>
+        <v>176.72150000000002</v>
+      </c>
+      <c r="E71" s="14">
+        <f t="shared" si="8"/>
+        <v>3.1122415778498937</v>
+      </c>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C71">
-        <f t="shared" si="6"/>
-        <v>176.18920000000003</v>
-      </c>
-      <c r="D71" s="14">
-        <f t="shared" si="7"/>
-        <v>3.1784014003128451</v>
-      </c>
-      <c r="E71" s="14"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72">
+      <c r="C72">
+        <f t="shared" si="4"/>
+        <v>179.80640000000002</v>
+      </c>
+      <c r="E72" s="14">
+        <f t="shared" si="8"/>
+        <v>3.114460886820491</v>
+      </c>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C72">
-        <f>300.87*B72+7.702</f>
-        <v>179.19789999999998</v>
-      </c>
-      <c r="D72" s="14">
-        <f>B72/C72*1000</f>
-        <v>3.1808408469072464</v>
-      </c>
-      <c r="E72" s="14"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B73">
+      <c r="C73">
+        <f t="shared" si="4"/>
+        <v>182.89129999999997</v>
+      </c>
+      <c r="E73" s="14">
+        <f>B73/C73*1000</f>
+        <v>3.1166053278641472</v>
+      </c>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C73">
-        <f>300.87*B73+7.702</f>
-        <v>182.20659999999998</v>
-      </c>
-      <c r="D73" s="14">
-        <f>B73/C73*1000</f>
-        <v>3.1831997304159123</v>
-      </c>
-      <c r="E73" s="14"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B74">
+      <c r="C74">
+        <f t="shared" si="4"/>
+        <v>185.97619999999998</v>
+      </c>
+      <c r="E74" s="14">
+        <f>B74/C74*1000</f>
+        <v>3.1186786266199658</v>
+      </c>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75">
         <v>0.59</v>
       </c>
-      <c r="C74">
-        <f t="shared" ref="C74:C75" si="8">300.87*B74+7.702</f>
-        <v>185.21529999999998</v>
-      </c>
-      <c r="D74" s="14">
-        <f t="shared" ref="D74:D75" si="9">B74/C74*1000</f>
-        <v>3.1854819769209133</v>
-      </c>
-      <c r="E74" s="14"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B75">
+      <c r="C75">
+        <f t="shared" si="4"/>
+        <v>189.06109999999998</v>
+      </c>
+      <c r="E75" s="14">
+        <f t="shared" ref="E75:E76" si="9">B75/C75*1000</f>
+        <v>3.1206842655628257</v>
+      </c>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76">
         <v>0.6</v>
       </c>
-      <c r="C75">
-        <f t="shared" si="8"/>
-        <v>188.22399999999999</v>
-      </c>
-      <c r="D75" s="14">
+      <c r="C76">
+        <f t="shared" si="4"/>
+        <v>192.14599999999999</v>
+      </c>
+      <c r="E76" s="14">
         <f t="shared" si="9"/>
-        <v>3.1876912614756887</v>
-      </c>
-      <c r="E75" s="14"/>
+        <v>3.1226255035233628</v>
+      </c>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3691,22 +3938,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3714,12 +3961,12 @@
         <v>0.626</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3736,7 +3983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>26+20/60</f>
         <v>26.333333333333332</v>
@@ -3763,7 +4010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>22+1/12</f>
         <v>22.083333333333332</v>
@@ -3784,7 +4031,7 @@
         <v>8.0313278746885014E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>25+10/60</f>
         <v>25.166666666666668</v>
@@ -3805,7 +4052,7 @@
         <v>8.2469074097213532E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -3814,7 +4061,7 @@
         <v>8.1391176422049266E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -3823,7 +4070,7 @@
         <v>1.5243775110677241E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3831,7 +4078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3842,7 +4089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.84</v>
       </c>
@@ -3854,7 +4101,7 @@
         <v>14540</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.7</v>
       </c>
@@ -3866,7 +4113,7 @@
         <v>14297</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.55</v>
       </c>
@@ -3878,7 +4125,7 @@
         <v>14693</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.36</v>
       </c>
@@ -3887,7 +4134,7 @@
         <v>242.71844660194179</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.93</v>
       </c>
@@ -3896,7 +4143,7 @@
         <v>232.01856148491879</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -3930,7 +4177,7 @@
         <v>199.69727088771143</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -3939,7 +4186,7 @@
         <v>2.4971655045194385E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -3948,7 +4195,7 @@
         <v>5.9115207457996322</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -3957,7 +4204,7 @@
         <v>0.26390717615176928</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -3966,13 +4213,22 @@
         <v>15.834430569106157</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="10">
         <f>B25/(B1*0.66)</f>
         <v>38.325178064445147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28">
+        <f>B26*0.66/0.34</f>
+        <v>74.395933889805278</v>
       </c>
     </row>
   </sheetData>
@@ -3985,19 +4241,19 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4005,12 +4261,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4027,7 +4283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>25+55/60</f>
         <v>25.916666666666668</v>
@@ -4051,7 +4307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>23+23/60</f>
         <v>23.383333333333333</v>
@@ -4072,7 +4328,7 @@
         <v>9.9248241638537363E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>24</v>
       </c>
@@ -4095,7 +4351,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -4108,7 +4364,7 @@
         <v>460.85130277489986</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -4117,7 +4373,7 @@
         <v>7.96516101052323E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4125,7 +4381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4136,7 +4392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.25</v>
       </c>
@@ -4148,7 +4404,7 @@
         <v>14371</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11.74</v>
       </c>
@@ -4160,7 +4416,7 @@
         <v>14899</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.08</v>
       </c>
@@ -4172,7 +4428,7 @@
         <v>11940</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.4</v>
       </c>
@@ -4184,7 +4440,7 @@
         <v>13665</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>11.83</v>
       </c>
@@ -4196,7 +4452,7 @@
         <v>14210</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -4230,7 +4486,7 @@
         <v>1137.7963350266164</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -4239,7 +4495,7 @@
         <v>2.3830077808006077E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -4248,7 +4504,7 @@
         <v>5.9303865354987968</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -4257,7 +4513,7 @@
         <v>0.26474939890619631</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -4266,7 +4522,7 @@
         <v>15.884963934371779</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4275,7 +4531,16 @@
         <v>35.815665436444306</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28">
+        <f>B26*0.66/0.34</f>
+        <v>69.524527023686005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -4298,7 +4563,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.11331470486408675</v>
@@ -4334,19 +4599,19 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:G31"/>
+      <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4354,12 +4619,12 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4376,7 +4641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>22+50/60</f>
         <v>22.833333333333332</v>
@@ -4400,7 +4665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>20+0.25</f>
         <v>20.25</v>
@@ -4421,7 +4686,7 @@
         <v>9.0379687863964595E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>49+50/60</f>
         <v>49.833333333333336</v>
@@ -4442,7 +4707,7 @@
         <v>8.8597210828547976E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>24</v>
       </c>
@@ -4465,7 +4730,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4478,7 +4743,7 @@
         <v>466.1687606592053</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
@@ -4487,7 +4752,7 @@
         <v>3.2243641791387537E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4495,7 +4760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4506,7 +4771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.73</v>
       </c>
@@ -4518,7 +4783,7 @@
         <v>14866</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.7</v>
       </c>
@@ -4530,7 +4795,7 @@
         <v>15913</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.77</v>
       </c>
@@ -4542,7 +4807,7 @@
         <v>11486</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12.65</v>
       </c>
@@ -4551,7 +4816,7 @@
         <v>237.15415019762844</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>12.67</v>
       </c>
@@ -4594,7 +4859,7 @@
         <v>2313.6889015883949</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>29</v>
       </c>
@@ -4603,7 +4868,7 @@
         <v>2.4277044556958109E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -4612,7 +4877,7 @@
         <v>5.73299402031056</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -4621,7 +4886,7 @@
         <v>0.25593723304957861</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -4630,7 +4895,7 @@
         <v>15.356233982974716</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -4639,7 +4904,16 @@
         <v>32.678400542591753</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29">
+        <f>B27*0.66/0.34</f>
+        <v>63.434542229736934</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -4662,7 +4936,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B24</f>
         <v>0.12419339658781477</v>
@@ -4698,19 +4972,19 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4718,12 +4992,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4740,7 +5014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>24+7+3/4</f>
         <v>31.75</v>
@@ -4764,7 +5038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>24+40/60</f>
         <v>24.666666666666668</v>
@@ -4785,7 +5059,7 @@
         <v>4.7807241203467625E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>48+20+0.25</f>
         <v>68.25</v>
@@ -4809,7 +5083,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -4822,7 +5096,7 @@
         <v>916.2705068667866</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -4831,7 +5105,7 @@
         <v>2.8870105582736597E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4839,7 +5113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4850,7 +5124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.48</v>
       </c>
@@ -4862,7 +5136,7 @@
         <v>13870</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.45</v>
       </c>
@@ -4874,7 +5148,7 @@
         <v>14880</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.59</v>
       </c>
@@ -4886,7 +5160,7 @@
         <v>14742</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.57</v>
       </c>
@@ -4895,7 +5169,7 @@
         <v>238.6634844868735</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.36</v>
       </c>
@@ -4904,7 +5178,7 @@
         <v>242.71844660194179</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -4938,7 +5212,7 @@
         <v>547.65074028374454</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -4947,7 +5221,7 @@
         <v>2.4950789275587283E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -4956,7 +5230,7 @@
         <v>5.9932532115593844</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -4965,7 +5239,7 @@
         <v>0.26755594694461537</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -4974,7 +5248,7 @@
         <v>16.053356816676924</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4983,7 +5257,16 @@
         <v>36.195339142940391</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28">
+        <f>B26*0.66/0.34</f>
+        <v>70.261540689237222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -5006,7 +5289,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.11212608182545859</v>
@@ -5042,19 +5325,19 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:G31"/>
+      <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5062,12 +5345,12 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5084,7 +5367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>48.25</v>
       </c>
@@ -5107,12 +5390,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -5125,7 +5408,7 @@
         <v>893.72300545558983</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -5134,7 +5417,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5142,7 +5425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5153,7 +5436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.8</v>
       </c>
@@ -5165,7 +5448,7 @@
         <v>10464</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.81</v>
       </c>
@@ -5177,7 +5460,7 @@
         <v>10676</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.64</v>
       </c>
@@ -5189,7 +5472,7 @@
         <v>10245</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.78</v>
       </c>
@@ -5198,7 +5481,7 @@
         <v>234.74178403755869</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.78</v>
       </c>
@@ -5207,7 +5490,7 @@
         <v>234.74178403755869</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -5241,7 +5524,7 @@
         <v>215.50947388301361</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -5250,7 +5533,7 @@
         <v>1.8302845258925997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -5259,7 +5542,7 @@
         <v>4.3026049615045743</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -5268,7 +5551,7 @@
         <v>0.19208057863859707</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -5277,7 +5560,7 @@
         <v>11.524834718315823</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5286,7 +5569,16 @@
         <v>21.038398536538562</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28">
+        <f>B26*0.66/0.34</f>
+        <v>40.839244217986618</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -5309,7 +5601,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.19290639215684768</v>
@@ -5345,19 +5637,19 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5365,12 +5657,12 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5387,7 +5679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>20.25</v>
       </c>
@@ -5410,7 +5702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>20+25/60</f>
         <v>20.416666666666668</v>
@@ -5431,7 +5723,7 @@
         <v>7.3007316134000771E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>29.75</v>
       </c>
@@ -5454,7 +5746,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -5467,7 +5759,7 @@
         <v>590.01811427247083</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -5476,7 +5768,7 @@
         <v>3.769238730890744E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5484,7 +5776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5495,7 +5787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.85</v>
       </c>
@@ -5507,7 +5799,7 @@
         <v>12209</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.8</v>
       </c>
@@ -5519,7 +5811,7 @@
         <v>12955</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.83</v>
       </c>
@@ -5531,7 +5823,7 @@
         <v>12671</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.83</v>
       </c>
@@ -5540,7 +5832,7 @@
         <v>233.8269680436477</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.86</v>
       </c>
@@ -5549,7 +5841,7 @@
         <v>233.28149300155525</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -5583,7 +5875,7 @@
         <v>376.52268634616604</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -5592,7 +5884,7 @@
         <v>2.1844535100130694E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -5601,7 +5893,7 @@
         <v>5.1062625921630449</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -5610,7 +5902,7 @@
         <v>0.22795815143585024</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -5622,7 +5914,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5635,7 +5927,16 @@
         <v>59.158689818992265</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28">
+        <f>B26*0.66/0.34</f>
+        <v>59.158689818992272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -5658,7 +5959,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.13316980623825453</v>
@@ -5684,7 +5985,7 @@
         <v>4.4841176470588238</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>54</v>
       </c>
@@ -5693,7 +5994,7 @@
         <v>2.4799441307582417</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>52</v>
       </c>
@@ -5702,7 +6003,7 @@
         <v>0.69314718055994529</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>53</v>
       </c>
@@ -5722,19 +6023,19 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A30" sqref="A30:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5742,12 +6043,12 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5764,7 +6065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>30.25</v>
       </c>
@@ -5787,7 +6088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>25+1/6</f>
         <v>25.166666666666668</v>
@@ -5808,7 +6109,7 @@
         <v>4.5732850181182054E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>48-A5</f>
         <v>22.833333333333332</v>
@@ -5832,7 +6133,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>21</v>
       </c>
@@ -5852,7 +6153,7 @@
         <v>4.4025157232704407E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>50</v>
       </c>
@@ -5872,7 +6173,7 @@
         <v>4.7924528301886794E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -5885,7 +6186,7 @@
         <v>908.64826817835853</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
@@ -5894,7 +6195,7 @@
         <v>2.6388241743311911E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -5902,7 +6203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -5913,7 +6214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.74</v>
       </c>
@@ -5925,7 +6226,7 @@
         <v>10270</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.64</v>
       </c>
@@ -5937,7 +6238,7 @@
         <v>9831</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12.66</v>
       </c>
@@ -5949,7 +6250,7 @@
         <v>9667</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12.75</v>
       </c>
@@ -5958,7 +6259,7 @@
         <v>235.29411764705881</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>12.51</v>
       </c>
@@ -5967,7 +6268,7 @@
         <v>239.80815347721824</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -5976,7 +6277,7 @@
         <v>236.97793496562076</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -5992,7 +6293,7 @@
         <v>9922.6666666666661</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
@@ -6001,7 +6302,7 @@
         <v>311.77609487151727</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>29</v>
       </c>
@@ -6010,7 +6311,7 @@
         <v>1.7414951852223977E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -6019,7 +6320,7 @@
         <v>4.1269593274657508</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -6028,7 +6329,7 @@
         <v>0.18423925569043531</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -6040,7 +6341,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -6053,7 +6354,16 @@
         <v>40.438818193686409</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30">
+        <f>B28*0.66/0.34</f>
+        <v>40.438818193686409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -6076,7 +6386,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B33">
         <f>B1/B25</f>
         <v>0.19481655529028771</v>
@@ -6102,7 +6412,7 @@
         <v>4.4841176470588238</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>54</v>
       </c>
@@ -6111,7 +6421,7 @@
         <v>2.355762645831442</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>52</v>
       </c>
@@ -6120,7 +6430,7 @@
         <v>0.69314718055994529</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>53</v>
       </c>
@@ -6143,13 +6453,13 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -6169,7 +6479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>0/28</f>
         <v>0</v>
@@ -6192,7 +6502,7 @@
         <v>8.7353095728390375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>0.056/28.056</f>
         <v>1.996007984031936E-3</v>
@@ -6215,7 +6525,7 @@
         <v>12.134661099511597</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>0.112/28.112</f>
         <v>3.9840637450199202E-3</v>
@@ -6238,7 +6548,7 @@
         <v>26.931270548069776</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>0.17/28.17</f>
         <v>6.0347887823926161E-3</v>
@@ -6261,7 +6571,7 @@
         <v>55.90387583462654</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>0.226/28.226</f>
         <v>8.0068022390703611E-3</v>
@@ -6284,7 +6594,7 @@
         <v>160.68923423801618</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>0.285/28.285</f>
         <v>1.0076012020505568E-2</v>
@@ -6307,7 +6617,7 @@
         <v>145.02221668879997</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>1.167/29.167</f>
         <v>4.0010971303185108E-2</v>
@@ -6330,7 +6640,7 @@
         <v>621.81347685620324</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f>28/28</f>
         <v>1</v>
@@ -6353,8 +6663,8 @@
         <v>1758.6990456963729</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="8" t="s">
         <v>25</v>
@@ -6363,7 +6673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -6376,7 +6686,7 @@
         <v>1.0693668610640503E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>

--- a/Experimental Results/dilution rate measurements w compilation.xlsx
+++ b/Experimental Results/dilution rate measurements w compilation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" tabRatio="769" activeTab="9"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" tabRatio="769" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Summary of Results" sheetId="10" r:id="rId1"/>
@@ -15,15 +15,16 @@
     <sheet name="11_12" sheetId="5" r:id="rId6"/>
     <sheet name="11_19" sheetId="7" r:id="rId7"/>
     <sheet name="12_01" sheetId="11" r:id="rId8"/>
-    <sheet name="Methane Standard Curve" sheetId="6" r:id="rId9"/>
-    <sheet name="Compilation" sheetId="8" r:id="rId10"/>
+    <sheet name="12_07" sheetId="12" r:id="rId9"/>
+    <sheet name="Methane Standard Curve" sheetId="6" r:id="rId10"/>
+    <sheet name="Compilation" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="77">
   <si>
     <t>Liters</t>
   </si>
@@ -488,6 +489,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,7 +499,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +544,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -626,11 +626,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106172800"/>
-        <c:axId val="106174720"/>
+        <c:axId val="157541504"/>
+        <c:axId val="157543424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106172800"/>
+        <c:axId val="157541504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,19 +652,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106174720"/>
+        <c:crossAx val="157543424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106174720"/>
+        <c:axId val="157543424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,14 +686,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106172800"/>
+        <c:crossAx val="157541504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1133,11 +1131,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106191104"/>
-        <c:axId val="106201472"/>
+        <c:axId val="157555712"/>
+        <c:axId val="157566080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106191104"/>
+        <c:axId val="157555712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,19 +1157,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106201472"/>
+        <c:crossAx val="157566080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106201472"/>
+        <c:axId val="157566080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,14 +1191,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106191104"/>
+        <c:crossAx val="157555712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1233,7 +1229,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1345,11 +1340,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106333312"/>
-        <c:axId val="106334848"/>
+        <c:axId val="160323456"/>
+        <c:axId val="160324992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106333312"/>
+        <c:axId val="160323456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,12 +1354,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106334848"/>
+        <c:crossAx val="160324992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106334848"/>
+        <c:axId val="160324992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1376,7 +1371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106333312"/>
+        <c:crossAx val="160323456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1488,11 +1483,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107502976"/>
-        <c:axId val="107504768"/>
+        <c:axId val="160559488"/>
+        <c:axId val="160561024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107502976"/>
+        <c:axId val="160559488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1502,12 +1497,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107504768"/>
+        <c:crossAx val="160561024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107504768"/>
+        <c:axId val="160561024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1518,7 +1513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107502976"/>
+        <c:crossAx val="160559488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1957,11 +1952,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107530112"/>
-        <c:axId val="107531648"/>
+        <c:axId val="160593024"/>
+        <c:axId val="160594560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107530112"/>
+        <c:axId val="160593024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1971,12 +1966,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107531648"/>
+        <c:crossAx val="160594560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107531648"/>
+        <c:axId val="160594560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1987,7 +1982,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107530112"/>
+        <c:crossAx val="160593024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2466,21 +2461,21 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2586,13 +2581,13 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -2704,18 +2699,278 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <f>0/28</f>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>15.13</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>5.0433333333333339</v>
+      </c>
+      <c r="F2">
+        <f>STDEV(B2:D2)</f>
+        <v>8.7353095728390375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <f>0.056/28.056</f>
+        <v>1.996007984031936E-3</v>
+      </c>
+      <c r="B3">
+        <v>619.20000000000005</v>
+      </c>
+      <c r="C3">
+        <v>598.70000000000005</v>
+      </c>
+      <c r="D3">
+        <v>597.70000000000005</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="0">AVERAGE(B3:D3)</f>
+        <v>605.20000000000005</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F9" si="1">STDEV(B3:D3)</f>
+        <v>12.134661099511597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <f>0.112/28.112</f>
+        <v>3.9840637450199202E-3</v>
+      </c>
+      <c r="B4">
+        <v>1474.2</v>
+      </c>
+      <c r="C4">
+        <v>1505.6</v>
+      </c>
+      <c r="D4">
+        <v>1527.8</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1502.5333333333335</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>26.931270548069776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <f>0.17/28.17</f>
+        <v>6.0347887823926161E-3</v>
+      </c>
+      <c r="B5">
+        <v>2848.5</v>
+      </c>
+      <c r="C5">
+        <v>2757.7</v>
+      </c>
+      <c r="D5">
+        <v>2859.6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2821.9333333333329</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>55.90387583462654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <f>0.226/28.226</f>
+        <v>8.0068022390703611E-3</v>
+      </c>
+      <c r="B6">
+        <v>4096.3</v>
+      </c>
+      <c r="C6">
+        <v>3929.5</v>
+      </c>
+      <c r="D6">
+        <v>4250.8</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>4092.2000000000003</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>160.68923423801618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <f>0.285/28.285</f>
+        <v>1.0076012020505568E-2</v>
+      </c>
+      <c r="B7">
+        <v>5090.3</v>
+      </c>
+      <c r="C7">
+        <v>5249</v>
+      </c>
+      <c r="D7">
+        <v>5379.9</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>5239.7333333333327</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>145.02221668879997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <f>1.167/29.167</f>
+        <v>4.0010971303185108E-2</v>
+      </c>
+      <c r="B8">
+        <v>23393</v>
+      </c>
+      <c r="C8">
+        <v>23387</v>
+      </c>
+      <c r="D8">
+        <v>24467</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>23749</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>621.81347685620324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <f>28/28</f>
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>167429</v>
+      </c>
+      <c r="C9">
+        <v>167356</v>
+      </c>
+      <c r="D9">
+        <v>164347</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>166377.33333333334</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1758.6990456963729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="9">
+        <f>SLOPE(A2:A8,E2:E8)</f>
+        <v>1.6472976005603261E-6</v>
+      </c>
+      <c r="C13" s="5">
+        <f>INTERCEPT(A2:A8,E2:E8)</f>
+        <v>1.0693668610640503E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <f>SLOPE(A2:A9,E2:E9)</f>
+        <v>6.0705449754459408E-6</v>
+      </c>
+      <c r="C14">
+        <f>INTERCEPT(A2:A9,E2:E9)</f>
+        <v>-2.1333513930758413E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2771,7 +3026,7 @@
         <v>3.6351087359927061</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>42310</v>
       </c>
@@ -2798,7 +3053,7 @@
         <v>3.9386491118750104</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>42313</v>
       </c>
@@ -2828,7 +3083,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>42320</v>
       </c>
@@ -2858,7 +3113,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>42327</v>
       </c>
@@ -2885,7 +3140,7 @@
         <v>3.3368169007047968</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>42339</v>
       </c>
@@ -2932,7 +3187,7 @@
         <v>118.72</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8.9214109445657191E-2</v>
       </c>
@@ -2946,7 +3201,7 @@
         <v>3.5103</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>4.6534363085345594E-2</v>
       </c>
@@ -2960,7 +3215,7 @@
         <v>258.17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>7.0487379671178976E-2</v>
       </c>
@@ -2974,7 +3229,7 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>4.5769999558765734E-2</v>
       </c>
@@ -2982,12 +3237,12 @@
         <v>20.832118463414211</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>73</v>
       </c>
@@ -3001,7 +3256,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.01</v>
       </c>
@@ -3026,7 +3281,7 @@
         <v>0.20101268236238412</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.02</v>
       </c>
@@ -3041,7 +3296,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.03</v>
       </c>
@@ -3056,7 +3311,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.04</v>
       </c>
@@ -3071,7 +3326,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.05</v>
       </c>
@@ -3086,7 +3341,7 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.06</v>
       </c>
@@ -3101,7 +3356,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -3116,7 +3371,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.08</v>
       </c>
@@ -3131,7 +3386,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>8.3000000000000004E-2</v>
       </c>
@@ -3139,14 +3394,14 @@
         <f t="shared" si="4"/>
         <v>32.656670000000005</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="25">
         <f t="shared" si="5"/>
         <v>2.5415941061963752</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.09</v>
       </c>
@@ -3161,7 +3416,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>0.1</v>
       </c>
@@ -3176,7 +3431,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>0.11</v>
       </c>
@@ -3191,7 +3446,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>0.12</v>
       </c>
@@ -3206,7 +3461,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>0.13</v>
       </c>
@@ -3221,7 +3476,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>0.14000000000000001</v>
       </c>
@@ -3236,7 +3491,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>0.15</v>
       </c>
@@ -3251,7 +3506,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>0.16</v>
       </c>
@@ -3266,7 +3521,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>0.17</v>
       </c>
@@ -3281,7 +3536,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>0.18</v>
       </c>
@@ -3296,7 +3551,7 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>0.19</v>
       </c>
@@ -3311,7 +3566,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>0.2</v>
       </c>
@@ -3326,7 +3581,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>0.21</v>
       </c>
@@ -3341,7 +3596,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>0.22</v>
       </c>
@@ -3356,7 +3611,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>0.23</v>
       </c>
@@ -3371,7 +3626,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>0.24</v>
       </c>
@@ -3386,7 +3641,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>0.25</v>
       </c>
@@ -3401,7 +3656,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>0.26</v>
       </c>
@@ -3416,7 +3671,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>0.27</v>
       </c>
@@ -3431,7 +3686,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>0.28000000000000003</v>
       </c>
@@ -3446,7 +3701,7 @@
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>0.28999999999999998</v>
       </c>
@@ -3461,7 +3716,7 @@
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>0.3</v>
       </c>
@@ -3480,7 +3735,7 @@
         <v>7.6378502343204709E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>0.31</v>
       </c>
@@ -3495,7 +3750,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>0.32</v>
       </c>
@@ -3510,7 +3765,7 @@
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>0.33</v>
       </c>
@@ -3525,7 +3780,7 @@
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>0.34</v>
       </c>
@@ -3540,7 +3795,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>0.35</v>
       </c>
@@ -3555,7 +3810,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>0.36</v>
       </c>
@@ -3570,7 +3825,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>0.37</v>
       </c>
@@ -3585,7 +3840,7 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>0.38</v>
       </c>
@@ -3600,7 +3855,7 @@
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>0.39</v>
       </c>
@@ -3615,7 +3870,7 @@
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>0.4</v>
       </c>
@@ -3630,7 +3885,7 @@
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>0.41</v>
       </c>
@@ -3645,7 +3900,7 @@
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>0.42</v>
       </c>
@@ -3660,7 +3915,7 @@
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>0.43</v>
       </c>
@@ -3675,7 +3930,7 @@
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>0.44</v>
       </c>
@@ -3690,7 +3945,7 @@
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>0.45</v>
       </c>
@@ -3705,7 +3960,7 @@
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>0.46</v>
       </c>
@@ -3720,7 +3975,7 @@
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>0.47</v>
       </c>
@@ -3735,7 +3990,7 @@
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>0.48</v>
       </c>
@@ -3750,7 +4005,7 @@
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>0.49</v>
       </c>
@@ -3765,7 +4020,7 @@
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>0.5</v>
       </c>
@@ -3780,7 +4035,7 @@
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>0.51</v>
       </c>
@@ -3795,7 +4050,7 @@
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>0.52</v>
       </c>
@@ -3810,7 +4065,7 @@
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>0.53</v>
       </c>
@@ -3825,7 +4080,7 @@
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>0.54</v>
       </c>
@@ -3840,7 +4095,7 @@
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>0.55000000000000004</v>
       </c>
@@ -3855,7 +4110,7 @@
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>0.56000000000000005</v>
       </c>
@@ -3870,7 +4125,7 @@
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>0.56999999999999995</v>
       </c>
@@ -3885,7 +4140,7 @@
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>0.57999999999999996</v>
       </c>
@@ -3900,7 +4155,7 @@
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>0.59</v>
       </c>
@@ -3915,7 +4170,7 @@
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>0.6</v>
       </c>
@@ -3944,16 +4199,16 @@
       <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3961,12 +4216,12 @@
         <v>0.626</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3983,7 +4238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>26+20/60</f>
         <v>26.333333333333332</v>
@@ -4010,7 +4265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>22+1/12</f>
         <v>22.083333333333332</v>
@@ -4031,7 +4286,7 @@
         <v>8.0313278746885014E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>25+10/60</f>
         <v>25.166666666666668</v>
@@ -4052,7 +4307,7 @@
         <v>8.2469074097213532E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -4061,7 +4316,7 @@
         <v>8.1391176422049266E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -4070,7 +4325,7 @@
         <v>1.5243775110677241E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4078,7 +4333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4089,7 +4344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.84</v>
       </c>
@@ -4101,7 +4356,7 @@
         <v>14540</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.7</v>
       </c>
@@ -4113,7 +4368,7 @@
         <v>14297</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.55</v>
       </c>
@@ -4125,7 +4380,7 @@
         <v>14693</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.36</v>
       </c>
@@ -4134,7 +4389,7 @@
         <v>242.71844660194179</v>
       </c>
     </row>
-    <row r="16" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.93</v>
       </c>
@@ -4143,7 +4398,7 @@
         <v>232.01856148491879</v>
       </c>
     </row>
-    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -4152,7 +4407,7 @@
         <v>236.72923300841694</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -4168,7 +4423,7 @@
         <v>14510</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -4177,7 +4432,7 @@
         <v>199.69727088771143</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -4186,7 +4441,7 @@
         <v>2.4971655045194385E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -4195,7 +4450,7 @@
         <v>5.9115207457996322</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -4204,7 +4459,7 @@
         <v>0.26390717615176928</v>
       </c>
     </row>
-    <row r="25" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -4213,7 +4468,7 @@
         <v>15.834430569106157</v>
       </c>
     </row>
-    <row r="26" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4222,7 +4477,7 @@
         <v>38.325178064445147</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -4244,16 +4499,16 @@
       <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4261,12 +4516,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4283,7 +4538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>25+55/60</f>
         <v>25.916666666666668</v>
@@ -4307,7 +4562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>23+23/60</f>
         <v>23.383333333333333</v>
@@ -4328,7 +4583,7 @@
         <v>9.9248241638537363E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>24</v>
       </c>
@@ -4351,7 +4606,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -4364,7 +4619,7 @@
         <v>460.85130277489986</v>
       </c>
     </row>
-    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -4373,7 +4628,7 @@
         <v>7.96516101052323E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4381,7 +4636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4392,7 +4647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.25</v>
       </c>
@@ -4404,7 +4659,7 @@
         <v>14371</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11.74</v>
       </c>
@@ -4416,7 +4671,7 @@
         <v>14899</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.08</v>
       </c>
@@ -4428,7 +4683,7 @@
         <v>11940</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.4</v>
       </c>
@@ -4440,7 +4695,7 @@
         <v>13665</v>
       </c>
     </row>
-    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>11.83</v>
       </c>
@@ -4452,7 +4707,7 @@
         <v>14210</v>
       </c>
     </row>
-    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -4461,7 +4716,7 @@
         <v>248.86140042339238</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -4477,7 +4732,7 @@
         <v>13817</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -4486,7 +4741,7 @@
         <v>1137.7963350266164</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -4495,7 +4750,7 @@
         <v>2.3830077808006077E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -4504,7 +4759,7 @@
         <v>5.9303865354987968</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -4513,7 +4768,7 @@
         <v>0.26474939890619631</v>
       </c>
     </row>
-    <row r="25" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -4522,7 +4777,7 @@
         <v>15.884963934371779</v>
       </c>
     </row>
-    <row r="26" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4531,7 +4786,7 @@
         <v>35.815665436444306</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -4540,7 +4795,7 @@
         <v>69.524527023686005</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -4563,7 +4818,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.11331470486408675</v>
@@ -4602,16 +4857,16 @@
       <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4619,12 +4874,12 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4641,7 +4896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>22+50/60</f>
         <v>22.833333333333332</v>
@@ -4665,7 +4920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>20+0.25</f>
         <v>20.25</v>
@@ -4686,7 +4941,7 @@
         <v>9.0379687863964595E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>49+50/60</f>
         <v>49.833333333333336</v>
@@ -4707,7 +4962,7 @@
         <v>8.8597210828547976E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>24</v>
       </c>
@@ -4730,7 +4985,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4743,7 +4998,7 @@
         <v>466.1687606592053</v>
       </c>
     </row>
-    <row r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
@@ -4752,7 +5007,7 @@
         <v>3.2243641791387537E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4760,7 +5015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4771,7 +5026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.73</v>
       </c>
@@ -4783,7 +5038,7 @@
         <v>14866</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.7</v>
       </c>
@@ -4795,7 +5050,7 @@
         <v>15913</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.77</v>
       </c>
@@ -4807,7 +5062,7 @@
         <v>11486</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12.65</v>
       </c>
@@ -4816,7 +5071,7 @@
         <v>237.15415019762844</v>
       </c>
     </row>
-    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>12.67</v>
       </c>
@@ -4825,7 +5080,7 @@
         <v>236.77979479084453</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -4834,7 +5089,7 @@
         <v>236.1487621304139</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -4850,7 +5105,7 @@
         <v>14088.333333333334</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="4" t="s">
         <v>15</v>
       </c>
@@ -4859,7 +5114,7 @@
         <v>2313.6889015883949</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>29</v>
       </c>
@@ -4868,7 +5123,7 @@
         <v>2.4277044556958109E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -4877,7 +5132,7 @@
         <v>5.73299402031056</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -4886,7 +5141,7 @@
         <v>0.25593723304957861</v>
       </c>
     </row>
-    <row r="26" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -4895,7 +5150,7 @@
         <v>15.356233982974716</v>
       </c>
     </row>
-    <row r="27" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -4904,7 +5159,7 @@
         <v>32.678400542591753</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -4913,7 +5168,7 @@
         <v>63.434542229736934</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -4936,7 +5191,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B24</f>
         <v>0.12419339658781477</v>
@@ -4975,16 +5230,16 @@
       <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4992,12 +5247,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5014,7 +5269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>24+7+3/4</f>
         <v>31.75</v>
@@ -5038,7 +5293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>24+40/60</f>
         <v>24.666666666666668</v>
@@ -5059,7 +5314,7 @@
         <v>4.7807241203467625E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>48+20+0.25</f>
         <v>68.25</v>
@@ -5083,7 +5338,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -5096,7 +5351,7 @@
         <v>916.2705068667866</v>
       </c>
     </row>
-    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -5105,7 +5360,7 @@
         <v>2.8870105582736597E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5113,7 +5368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5124,7 +5379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.48</v>
       </c>
@@ -5136,7 +5391,7 @@
         <v>13870</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.45</v>
       </c>
@@ -5148,7 +5403,7 @@
         <v>14880</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.59</v>
       </c>
@@ -5160,7 +5415,7 @@
         <v>14742</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.57</v>
       </c>
@@ -5169,7 +5424,7 @@
         <v>238.6634844868735</v>
       </c>
     </row>
-    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.36</v>
       </c>
@@ -5178,7 +5433,7 @@
         <v>242.71844660194179</v>
       </c>
     </row>
-    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -5187,7 +5442,7 @@
         <v>240.20295091119186</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -5203,7 +5458,7 @@
         <v>14497.333333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -5212,7 +5467,7 @@
         <v>547.65074028374454</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -5221,7 +5476,7 @@
         <v>2.4950789275587283E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -5230,7 +5485,7 @@
         <v>5.9932532115593844</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -5239,7 +5494,7 @@
         <v>0.26755594694461537</v>
       </c>
     </row>
-    <row r="25" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -5248,7 +5503,7 @@
         <v>16.053356816676924</v>
       </c>
     </row>
-    <row r="26" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5257,7 +5512,7 @@
         <v>36.195339142940391</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -5266,7 +5521,7 @@
         <v>70.261540689237222</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -5289,7 +5544,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.11212608182545859</v>
@@ -5328,16 +5583,16 @@
       <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5345,12 +5600,12 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5367,7 +5622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>48.25</v>
       </c>
@@ -5390,12 +5645,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -5408,7 +5663,7 @@
         <v>893.72300545558983</v>
       </c>
     </row>
-    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -5417,7 +5672,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5425,7 +5680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5436,7 +5691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.8</v>
       </c>
@@ -5448,7 +5703,7 @@
         <v>10464</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.81</v>
       </c>
@@ -5460,7 +5715,7 @@
         <v>10676</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.64</v>
       </c>
@@ -5472,7 +5727,7 @@
         <v>10245</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.78</v>
       </c>
@@ -5481,7 +5736,7 @@
         <v>234.74178403755869</v>
       </c>
     </row>
-    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.78</v>
       </c>
@@ -5490,7 +5745,7 @@
         <v>234.74178403755869</v>
       </c>
     </row>
-    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -5499,7 +5754,7 @@
         <v>235.07847553954838</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -5515,7 +5770,7 @@
         <v>10461.666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -5524,7 +5779,7 @@
         <v>215.50947388301361</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -5533,7 +5788,7 @@
         <v>1.8302845258925997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -5542,7 +5797,7 @@
         <v>4.3026049615045743</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -5551,7 +5806,7 @@
         <v>0.19208057863859707</v>
       </c>
     </row>
-    <row r="25" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -5560,7 +5815,7 @@
         <v>11.524834718315823</v>
       </c>
     </row>
-    <row r="26" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5569,7 +5824,7 @@
         <v>21.038398536538562</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -5578,7 +5833,7 @@
         <v>40.839244217986618</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -5601,7 +5856,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.19290639215684768</v>
@@ -5640,16 +5895,16 @@
       <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5657,12 +5912,12 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5679,7 +5934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>20.25</v>
       </c>
@@ -5702,7 +5957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>20+25/60</f>
         <v>20.416666666666668</v>
@@ -5723,7 +5978,7 @@
         <v>7.3007316134000771E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>29.75</v>
       </c>
@@ -5746,7 +6001,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -5759,7 +6014,7 @@
         <v>590.01811427247083</v>
       </c>
     </row>
-    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -5768,7 +6023,7 @@
         <v>3.769238730890744E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5776,7 +6031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5787,7 +6042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.85</v>
       </c>
@@ -5799,7 +6054,7 @@
         <v>12209</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.8</v>
       </c>
@@ -5811,7 +6066,7 @@
         <v>12955</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.83</v>
       </c>
@@ -5823,7 +6078,7 @@
         <v>12671</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.83</v>
       </c>
@@ -5832,7 +6087,7 @@
         <v>233.8269680436477</v>
       </c>
     </row>
-    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.86</v>
       </c>
@@ -5841,7 +6096,7 @@
         <v>233.28149300155525</v>
       </c>
     </row>
-    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -5850,7 +6105,7 @@
         <v>233.75469282166114</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -5866,7 +6121,7 @@
         <v>12611.666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -5875,7 +6130,7 @@
         <v>376.52268634616604</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -5884,7 +6139,7 @@
         <v>2.1844535100130694E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -5893,7 +6148,7 @@
         <v>5.1062625921630449</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -5902,7 +6157,7 @@
         <v>0.22795815143585024</v>
       </c>
     </row>
-    <row r="25" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -5914,7 +6169,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5927,7 +6182,7 @@
         <v>59.158689818992265</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -5936,7 +6191,7 @@
         <v>59.158689818992272</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -5959,7 +6214,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.13316980623825453</v>
@@ -5985,7 +6240,7 @@
         <v>4.4841176470588238</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>54</v>
       </c>
@@ -5994,7 +6249,7 @@
         <v>2.4799441307582417</v>
       </c>
     </row>
-    <row r="35" spans="4:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>52</v>
       </c>
@@ -6003,7 +6258,7 @@
         <v>0.69314718055994529</v>
       </c>
     </row>
-    <row r="36" spans="4:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>53</v>
       </c>
@@ -6026,16 +6281,16 @@
       <selection activeCell="A30" sqref="A30:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6043,12 +6298,12 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6065,7 +6320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>30.25</v>
       </c>
@@ -6088,7 +6343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>25+1/6</f>
         <v>25.166666666666668</v>
@@ -6109,7 +6364,7 @@
         <v>4.5732850181182054E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>48-A5</f>
         <v>22.833333333333332</v>
@@ -6133,7 +6388,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>21</v>
       </c>
@@ -6153,7 +6408,7 @@
         <v>4.4025157232704407E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>50</v>
       </c>
@@ -6173,7 +6428,7 @@
         <v>4.7924528301886794E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -6186,7 +6441,7 @@
         <v>908.64826817835853</v>
       </c>
     </row>
-    <row r="10" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
@@ -6195,7 +6450,7 @@
         <v>2.6388241743311911E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -6203,7 +6458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -6214,7 +6469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.74</v>
       </c>
@@ -6226,7 +6481,7 @@
         <v>10270</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.64</v>
       </c>
@@ -6238,7 +6493,7 @@
         <v>9831</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12.66</v>
       </c>
@@ -6250,7 +6505,7 @@
         <v>9667</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12.75</v>
       </c>
@@ -6259,7 +6514,7 @@
         <v>235.29411764705881</v>
       </c>
     </row>
-    <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>12.51</v>
       </c>
@@ -6268,7 +6523,7 @@
         <v>239.80815347721824</v>
       </c>
     </row>
-    <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -6277,7 +6532,7 @@
         <v>236.97793496562076</v>
       </c>
     </row>
-    <row r="20" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -6293,7 +6548,7 @@
         <v>9922.6666666666661</v>
       </c>
     </row>
-    <row r="21" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
@@ -6302,7 +6557,7 @@
         <v>311.77609487151727</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>29</v>
       </c>
@@ -6311,7 +6566,7 @@
         <v>1.7414951852223977E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -6320,7 +6575,7 @@
         <v>4.1269593274657508</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -6329,7 +6584,7 @@
         <v>0.18423925569043531</v>
       </c>
     </row>
-    <row r="27" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -6341,7 +6596,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -6354,7 +6609,7 @@
         <v>40.438818193686409</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -6363,7 +6618,7 @@
         <v>40.438818193686409</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -6386,7 +6641,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <f>B1/B25</f>
         <v>0.19481655529028771</v>
@@ -6412,7 +6667,7 @@
         <v>4.4841176470588238</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>54</v>
       </c>
@@ -6421,7 +6676,7 @@
         <v>2.355762645831442</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>52</v>
       </c>
@@ -6430,7 +6685,7 @@
         <v>0.69314718055994529</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>53</v>
       </c>
@@ -6447,260 +6702,434 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <f>35/60+16</f>
+        <v>16.583333333333332</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="C4" s="6">
+        <f>B4/2.65</f>
+        <v>0.98113207547169823</v>
+      </c>
+      <c r="D4" s="6">
+        <f>A4/C4</f>
+        <v>16.902243589743588</v>
+      </c>
+      <c r="E4" s="6">
+        <f>1/D4</f>
+        <v>5.9163743244524516E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
+        <v>1.5471698113207546</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="1">A5/C5</f>
+        <v>15.512195121951221</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="2">1/D5</f>
+        <v>6.4465408805031446E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>24+1/3</f>
+        <v>24.333333333333332</v>
+      </c>
+      <c r="B6">
+        <v>3.75</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.4150943396226416</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>17.195555555555554</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>5.8154561902300339E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>26+55/60</f>
+        <v>26.916666666666668</v>
+      </c>
+      <c r="B7">
+        <v>4.05</v>
+      </c>
+      <c r="C7" s="6">
+        <f>B7/2.65</f>
+        <v>1.5283018867924527</v>
+      </c>
+      <c r="D7" s="6">
+        <f>A7/C7</f>
+        <v>17.612139917695476</v>
+      </c>
+      <c r="E7" s="6">
+        <f>1/D7</f>
+        <v>5.6779017465973469E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <f>0/28</f>
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>15.13</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f>AVERAGE(B2:D2)</f>
-        <v>5.0433333333333339</v>
-      </c>
-      <c r="F2">
-        <f>STDEV(B2:D2)</f>
-        <v>8.7353095728390375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <f>0.056/28.056</f>
-        <v>1.996007984031936E-3</v>
-      </c>
-      <c r="B3">
-        <v>619.20000000000005</v>
-      </c>
-      <c r="C3">
-        <v>598.70000000000005</v>
-      </c>
-      <c r="D3">
-        <v>597.70000000000005</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E9" si="0">AVERAGE(B3:D3)</f>
-        <v>605.20000000000005</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F9" si="1">STDEV(B3:D3)</f>
-        <v>12.134661099511597</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <f>0.112/28.112</f>
-        <v>3.9840637450199202E-3</v>
-      </c>
-      <c r="B4">
-        <v>1474.2</v>
-      </c>
-      <c r="C4">
-        <v>1505.6</v>
-      </c>
-      <c r="D4">
-        <v>1527.8</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>1502.5333333333335</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>26.931270548069776</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <f>0.17/28.17</f>
-        <v>6.0347887823926161E-3</v>
-      </c>
-      <c r="B5">
-        <v>2848.5</v>
-      </c>
-      <c r="C5">
-        <v>2757.7</v>
-      </c>
-      <c r="D5">
-        <v>2859.6</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>2821.9333333333329</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>55.90387583462654</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <f>0.226/28.226</f>
-        <v>8.0068022390703611E-3</v>
-      </c>
-      <c r="B6">
-        <v>4096.3</v>
-      </c>
-      <c r="C6">
-        <v>3929.5</v>
-      </c>
-      <c r="D6">
-        <v>4250.8</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>4092.2000000000003</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>160.68923423801618</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <f>0.285/28.285</f>
-        <v>1.0076012020505568E-2</v>
-      </c>
-      <c r="B7">
-        <v>5090.3</v>
-      </c>
-      <c r="C7">
-        <v>5249</v>
-      </c>
-      <c r="D7">
-        <v>5379.9</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>5239.7333333333327</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>145.02221668879997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <f>1.167/29.167</f>
-        <v>4.0010971303185108E-2</v>
-      </c>
       <c r="B8">
-        <v>23393</v>
+        <v>3.65</v>
       </c>
       <c r="C8">
-        <v>23387</v>
+        <f t="shared" ref="C8" si="3">B8/2.65</f>
+        <v>1.3773584905660377</v>
       </c>
       <c r="D8">
-        <v>24467</v>
+        <f t="shared" ref="D8" si="4">A8/C8</f>
+        <v>15.972602739726028</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>23749</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>621.81347685620324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <f>28/28</f>
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>167429</v>
-      </c>
-      <c r="C9">
-        <v>167356</v>
-      </c>
-      <c r="D9">
-        <v>164347</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>166377.33333333334</v>
+        <f t="shared" ref="E8" si="5">1/D8</f>
+        <v>6.2607204116638074E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <f>AVERAGE(E4:E8)</f>
+        <v>6.0233987106893573E-2</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>1758.6990456963729</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="9">
-        <f>SLOPE(A2:A8,E2:E8)</f>
-        <v>1.6472976005603261E-6</v>
-      </c>
-      <c r="C13" s="5">
-        <f>INTERCEPT(A2:A8,E2:E8)</f>
-        <v>1.0693668610640503E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>28</v>
+        <f>60*LN(2)/E9</f>
+        <v>690.45455615932519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5">
+        <f>STDEV(E4:E8)</f>
+        <v>3.1993489528702739E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11.83</v>
       </c>
       <c r="B14">
-        <f>SLOPE(A2:A9,E2:E9)</f>
-        <v>6.0705449754459408E-6</v>
-      </c>
-      <c r="C14">
-        <f>INTERCEPT(A2:A9,E2:E9)</f>
-        <v>-2.1333513930758413E-2</v>
+        <f>50/A14*60</f>
+        <v>253.59256128486896</v>
+      </c>
+      <c r="F14">
+        <v>9371.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>11.87</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:B18" si="6">50/A15*60</f>
+        <v>252.73799494524013</v>
+      </c>
+      <c r="F15">
+        <v>8942.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12.02</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="6"/>
+        <v>249.58402662229616</v>
+      </c>
+      <c r="F16">
+        <v>9899.7000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>11.77</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="6"/>
+        <v>254.88530161427357</v>
+      </c>
+      <c r="F17">
+        <v>9318.2000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>11.88</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="6"/>
+        <v>252.52525252525251</v>
+      </c>
+      <c r="F18">
+        <v>9694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
+        <f>AVERAGE(B14:B18)</f>
+        <v>252.66502739838626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5">
+        <f>STDEV(B14:B18)</f>
+        <v>1.9562313107496343</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="3">
+        <f>AVERAGE(F14:F18)</f>
+        <v>9445.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="5">
+        <f>STDEV(F14:F18)</f>
+        <v>368.32522585345691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="15">
+        <f>F20*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
+        <v>1.662838921192443E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <f>B19*F23</f>
+        <v>4.2014124158219168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <f>B25/22.4</f>
+        <v>0.18756305427776415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <f>B26*60</f>
+        <v>11.25378325666585</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="10">
+        <f>B27/(B1*0.66)</f>
+        <v>25.835131443218202</v>
+      </c>
+      <c r="C28">
+        <f>B27/(B1*0.34)</f>
+        <v>50.150549272129453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30">
+        <f>B28*0.66/0.34</f>
+        <v>50.150549272129453</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f>B1/B25</f>
+        <v>0.15709002941832959</v>
+      </c>
+      <c r="C33">
+        <f>B33*0.34</f>
+        <v>5.3410610002232066E-2</v>
+      </c>
+      <c r="D33">
+        <f>C33/F9</f>
+        <v>7.7355720989561193E-5</v>
+      </c>
+      <c r="E33">
+        <f>D33*22400</f>
+        <v>1.7327681501661707</v>
+      </c>
+      <c r="F33">
+        <f>E33/0.34*0.66</f>
+        <v>3.3636087620872726</v>
+      </c>
+      <c r="G33">
+        <f>2.31*0.66/0.34</f>
+        <v>4.4841176470588238</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34">
+        <f>E33/E37</f>
+        <v>2.4998560172550772</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37">
+        <f>LN(2)</f>
+        <v>0.69314718055994529</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38">
+        <f>F33*E37</f>
+        <v>2.331475929947521</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Experimental Results/dilution rate measurements w compilation.xlsx
+++ b/Experimental Results/dilution rate measurements w compilation.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\methanococcus\Experimental Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" tabRatio="769" activeTab="8"/>
+    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" tabRatio="769"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary of Results" sheetId="10" r:id="rId1"/>
-    <sheet name="10_22" sheetId="1" r:id="rId2"/>
-    <sheet name="10_27" sheetId="2" r:id="rId3"/>
-    <sheet name="11_2" sheetId="3" r:id="rId4"/>
-    <sheet name="11_5" sheetId="4" r:id="rId5"/>
+    <sheet name="Neatened Compilation" sheetId="14" r:id="rId1"/>
+    <sheet name="12_01_Summary of Results" sheetId="10" r:id="rId2"/>
+    <sheet name="10_22" sheetId="1" r:id="rId3"/>
+    <sheet name="10_27" sheetId="2" r:id="rId4"/>
+    <sheet name="11_2" sheetId="3" r:id="rId5"/>
     <sheet name="11_12" sheetId="5" r:id="rId6"/>
     <sheet name="11_19" sheetId="7" r:id="rId7"/>
     <sheet name="12_01" sheetId="11" r:id="rId8"/>
     <sheet name="12_07" sheetId="12" r:id="rId9"/>
     <sheet name="Methane Standard Curve" sheetId="6" r:id="rId10"/>
     <sheet name="Compilation" sheetId="8" r:id="rId11"/>
+    <sheet name="11_5" sheetId="4" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="87">
   <si>
     <t>Liters</t>
   </si>
@@ -255,6 +261,36 @@
   </si>
   <si>
     <t>**Note that this is at GR of 0.0833</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>GC Peaks</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Methane Flow (mL/min)</t>
+  </si>
+  <si>
+    <t>Flow Rate (mL/min)</t>
+  </si>
+  <si>
+    <t>Dilution Rate (1/h)</t>
+  </si>
+  <si>
+    <t>Kyle's Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current OD: </t>
+  </si>
+  <si>
+    <t>Kyle's Yield (12 h/L)</t>
+  </si>
+  <si>
+    <t>Predicted Yield (12 h/L)</t>
   </si>
 </sst>
 </file>
@@ -510,6 +546,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -544,6 +583,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -626,11 +666,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157541504"/>
-        <c:axId val="157543424"/>
+        <c:axId val="308231640"/>
+        <c:axId val="308232424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="157541504"/>
+        <c:axId val="308231640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,18 +692,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157543424"/>
+        <c:crossAx val="308232424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157543424"/>
+        <c:axId val="308232424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -686,13 +727,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157541504"/>
+        <c:crossAx val="308231640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1131,11 +1173,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157555712"/>
-        <c:axId val="157566080"/>
+        <c:axId val="308233600"/>
+        <c:axId val="308232032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="157555712"/>
+        <c:axId val="308233600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,18 +1199,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157566080"/>
+        <c:crossAx val="308232032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157566080"/>
+        <c:axId val="308232032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,13 +1234,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157555712"/>
+        <c:crossAx val="308233600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1229,6 +1273,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1340,11 +1385,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160323456"/>
-        <c:axId val="160324992"/>
+        <c:axId val="308230464"/>
+        <c:axId val="308231248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160323456"/>
+        <c:axId val="308230464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,12 +1399,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160324992"/>
+        <c:crossAx val="308231248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160324992"/>
+        <c:axId val="308231248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1371,7 +1416,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160323456"/>
+        <c:crossAx val="308230464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1421,7 +1466,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -1483,11 +1527,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160559488"/>
-        <c:axId val="160561024"/>
+        <c:axId val="308572544"/>
+        <c:axId val="308572936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160559488"/>
+        <c:axId val="308572544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1497,12 +1541,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160561024"/>
+        <c:crossAx val="308572936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160561024"/>
+        <c:axId val="308572936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1513,7 +1557,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160559488"/>
+        <c:crossAx val="308572544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1952,11 +1996,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160593024"/>
-        <c:axId val="160594560"/>
+        <c:axId val="308567448"/>
+        <c:axId val="308573328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160593024"/>
+        <c:axId val="308567448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1966,12 +2010,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160594560"/>
+        <c:crossAx val="308573328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160594560"/>
+        <c:axId val="308573328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1982,7 +2026,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160593024"/>
+        <c:crossAx val="308567448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2211,7 +2255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2246,7 +2290,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2455,245 +2499,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>42299</v>
+      </c>
+      <c r="B2">
+        <v>0.626</v>
+      </c>
+      <c r="C2">
+        <v>8.1391176422049266E-2</v>
+      </c>
+      <c r="D2">
+        <v>236.72923300841694</v>
+      </c>
+      <c r="E2">
+        <v>14510</v>
+      </c>
+      <c r="F2" s="15">
+        <f>E2*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>2.4971655045194385E-2</v>
+      </c>
+      <c r="G2">
+        <f>F2*D2</f>
+        <v>5.9115207457996322</v>
+      </c>
+      <c r="H2">
+        <f>B2/G2*$B$18*C2/LN(2)*22400/60</f>
+        <v>2.274677479542254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
         <v>42304</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="C3">
         <v>9.0243491953218014E-2</v>
       </c>
-      <c r="C3" s="20">
-        <v>35.815665436444306</v>
-      </c>
-      <c r="D3" s="21">
-        <f>B3/C3*1000</f>
-        <v>2.5196653713821706</v>
-      </c>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="D3">
+        <v>248.86140042339238</v>
+      </c>
+      <c r="E3">
+        <v>13817</v>
+      </c>
+      <c r="F3" s="15">
+        <f>E3*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>2.3830077808006077E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="0">F3*D3</f>
+        <v>5.9303865354987968</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H8" si="1">B3/G3*$B$18*C3/LN(2)*22400/60</f>
+        <v>2.6987928494491302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>42310</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="C4" s="3">
         <v>8.9214109445657191E-2</v>
       </c>
-      <c r="C4" s="20">
-        <v>32.678400542591753</v>
-      </c>
-      <c r="D4" s="21">
-        <f>B4/C4*1000</f>
-        <v>2.730063527111096</v>
-      </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
-        <v>42313</v>
-      </c>
-      <c r="B5" s="23">
-        <v>4.538924970510174E-2</v>
-      </c>
-      <c r="C5" s="24">
-        <v>36.195339142940391</v>
-      </c>
-      <c r="D5" s="21">
-        <f>B5/C5*1000</f>
-        <v>1.2540081341924529</v>
-      </c>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="D4">
+        <v>236.1487621304139</v>
+      </c>
+      <c r="E4">
+        <v>14088.333333333334</v>
+      </c>
+      <c r="F4" s="15">
+        <f>E4*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>2.4277044556958109E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>5.73299402031056</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>2.9241485830587197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
         <v>42320</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B5">
+        <v>0.83</v>
+      </c>
+      <c r="C5">
         <v>4.6534363085345594E-2</v>
       </c>
-      <c r="C6" s="20">
-        <v>21.038398536538562</v>
-      </c>
-      <c r="D6" s="21">
-        <f>B6/C6*1000</f>
-        <v>2.2118776295889044</v>
-      </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="D5">
+        <v>235.07847553954838</v>
+      </c>
+      <c r="E5">
+        <v>10461.666666666666</v>
+      </c>
+      <c r="F5" s="15">
+        <f>E5*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>1.8302845258925997E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>4.3026049615045743</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>2.3691239314514587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>42327</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B6">
+        <v>0.68</v>
+      </c>
+      <c r="C6" s="3">
         <v>7.0487379671178976E-2</v>
       </c>
-      <c r="C7" s="20">
-        <v>30.475688694632385</v>
-      </c>
-      <c r="D7" s="21">
-        <f>B7/C7*1000</f>
-        <v>2.3129052267683048</v>
-      </c>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
-        <v>42304</v>
-      </c>
-      <c r="B11" s="21">
-        <v>2.5196653713821706</v>
-      </c>
-      <c r="C11" s="21">
-        <f>B11/LN(2)</f>
-        <v>3.6351087359927061</v>
-      </c>
-      <c r="D11" s="21">
-        <f>B11/0.66*0.34</f>
-        <v>1.2980094337423302</v>
-      </c>
-      <c r="E11" s="21">
-        <f>D11/LN(2)</f>
-        <v>1.8726317730871513</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
-        <v>42310</v>
-      </c>
-      <c r="B12" s="21">
-        <v>2.730063527111096</v>
-      </c>
-      <c r="C12" s="21">
-        <f t="shared" ref="C12:C14" si="0">B12/LN(2)</f>
-        <v>3.9386491118750104</v>
-      </c>
-      <c r="D12" s="21">
-        <f t="shared" ref="D12:D14" si="1">B12/0.66*0.34</f>
-        <v>1.4063963624511708</v>
-      </c>
-      <c r="E12" s="21">
-        <f t="shared" ref="E12:E14" si="2">D12/LN(2)</f>
-        <v>2.0290010576325814</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <v>42320</v>
-      </c>
-      <c r="B13" s="21">
-        <v>2.2118776295889044</v>
-      </c>
-      <c r="C13" s="21">
+      <c r="D6">
+        <v>233.75469282166114</v>
+      </c>
+      <c r="E6">
+        <v>12611.666666666666</v>
+      </c>
+      <c r="F6" s="15">
+        <f>E6*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>2.1844535100130694E-2</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>3.191064887261148</v>
-      </c>
-      <c r="D13" s="21">
+        <v>5.1062625921630449</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="1"/>
-        <v>1.1394521122124659</v>
-      </c>
-      <c r="E13" s="21">
-        <f t="shared" si="2"/>
-        <v>1.6438819116193792</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>42327</v>
-      </c>
-      <c r="B14" s="21">
-        <v>2.3129052267683048</v>
-      </c>
-      <c r="C14" s="21">
+        <v>2.4773337596141674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>42339</v>
+      </c>
+      <c r="B7">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="C7">
+        <v>4.5769999558765734E-2</v>
+      </c>
+      <c r="D7">
+        <v>236.97793496562076</v>
+      </c>
+      <c r="E7">
+        <v>9922.6666666666661</v>
+      </c>
+      <c r="F7" s="15">
+        <f>E7*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>1.7414951852223977E-2</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>3.3368169007047968</v>
-      </c>
-      <c r="D14" s="21">
+        <v>4.1269593274657508</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
-        <v>1.191496631971551</v>
-      </c>
-      <c r="E14" s="21">
-        <f t="shared" si="2"/>
-        <v>1.718966282181259</v>
+        <v>2.353282987214663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>42345</v>
+      </c>
+      <c r="B8">
+        <v>0.66</v>
+      </c>
+      <c r="C8">
+        <v>6.0233987106893573E-2</v>
+      </c>
+      <c r="D8">
+        <v>252.66502739838626</v>
+      </c>
+      <c r="E8">
+        <v>9445.18</v>
+      </c>
+      <c r="F8" s="15">
+        <f>E8*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>1.662838921192443E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>4.2014124158219168</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>2.4972246870041865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15">
+        <f>2.31*0.49/0.34</f>
+        <v>3.3291176470588231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18">
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2705,13 +2798,13 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2731,7 +2824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>0/28</f>
         <v>0</v>
@@ -2754,7 +2847,7 @@
         <v>8.7353095728390375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>0.056/28.056</f>
         <v>1.996007984031936E-3</v>
@@ -2777,7 +2870,7 @@
         <v>12.134661099511597</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>0.112/28.112</f>
         <v>3.9840637450199202E-3</v>
@@ -2800,7 +2893,7 @@
         <v>26.931270548069776</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>0.17/28.17</f>
         <v>6.0347887823926161E-3</v>
@@ -2823,7 +2916,7 @@
         <v>55.90387583462654</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>0.226/28.226</f>
         <v>8.0068022390703611E-3</v>
@@ -2846,7 +2939,7 @@
         <v>160.68923423801618</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>0.285/28.285</f>
         <v>1.0076012020505568E-2</v>
@@ -2869,7 +2962,7 @@
         <v>145.02221668879997</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>1.167/29.167</f>
         <v>4.0010971303185108E-2</v>
@@ -2892,7 +2985,7 @@
         <v>621.81347685620324</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>28/28</f>
         <v>1</v>
@@ -2915,8 +3008,8 @@
         <v>1758.6990456963729</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="8" t="s">
         <v>25</v>
@@ -2925,7 +3018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -2938,7 +3031,7 @@
         <v>1.0693668610640503E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2965,12 +3058,12 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3026,7 +3119,7 @@
         <v>3.6351087359927061</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>42310</v>
       </c>
@@ -3053,7 +3146,7 @@
         <v>3.9386491118750104</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>42313</v>
       </c>
@@ -3083,7 +3176,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>42320</v>
       </c>
@@ -3113,7 +3206,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>42327</v>
       </c>
@@ -3140,7 +3233,7 @@
         <v>3.3368169007047968</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>42339</v>
       </c>
@@ -3187,7 +3280,7 @@
         <v>118.72</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8.9214109445657191E-2</v>
       </c>
@@ -3201,7 +3294,7 @@
         <v>3.5103</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>4.6534363085345594E-2</v>
       </c>
@@ -3215,7 +3308,7 @@
         <v>258.17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>7.0487379671178976E-2</v>
       </c>
@@ -3229,7 +3322,7 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>4.5769999558765734E-2</v>
       </c>
@@ -3237,12 +3330,12 @@
         <v>20.832118463414211</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>73</v>
       </c>
@@ -3256,7 +3349,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.01</v>
       </c>
@@ -3281,7 +3374,7 @@
         <v>0.20101268236238412</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.02</v>
       </c>
@@ -3296,7 +3389,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.03</v>
       </c>
@@ -3311,7 +3404,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.04</v>
       </c>
@@ -3326,7 +3419,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.05</v>
       </c>
@@ -3341,7 +3434,7 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.06</v>
       </c>
@@ -3356,7 +3449,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -3371,7 +3464,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.08</v>
       </c>
@@ -3386,7 +3479,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>8.3000000000000004E-2</v>
       </c>
@@ -3401,7 +3494,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.09</v>
       </c>
@@ -3416,7 +3509,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.1</v>
       </c>
@@ -3431,7 +3524,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.11</v>
       </c>
@@ -3446,7 +3539,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.12</v>
       </c>
@@ -3461,7 +3554,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.13</v>
       </c>
@@ -3476,7 +3569,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0.14000000000000001</v>
       </c>
@@ -3491,7 +3584,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0.15</v>
       </c>
@@ -3506,7 +3599,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0.16</v>
       </c>
@@ -3521,7 +3614,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.17</v>
       </c>
@@ -3536,7 +3629,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0.18</v>
       </c>
@@ -3551,7 +3644,7 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0.19</v>
       </c>
@@ -3566,7 +3659,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0.2</v>
       </c>
@@ -3581,7 +3674,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0.21</v>
       </c>
@@ -3596,7 +3689,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0.22</v>
       </c>
@@ -3611,7 +3704,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0.23</v>
       </c>
@@ -3626,7 +3719,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0.24</v>
       </c>
@@ -3641,7 +3734,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0.25</v>
       </c>
@@ -3656,7 +3749,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0.26</v>
       </c>
@@ -3671,7 +3764,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0.27</v>
       </c>
@@ -3686,7 +3779,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0.28000000000000003</v>
       </c>
@@ -3701,7 +3794,7 @@
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>0.28999999999999998</v>
       </c>
@@ -3716,7 +3809,7 @@
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0.3</v>
       </c>
@@ -3735,7 +3828,7 @@
         <v>7.6378502343204709E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0.31</v>
       </c>
@@ -3750,7 +3843,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>0.32</v>
       </c>
@@ -3765,7 +3858,7 @@
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>0.33</v>
       </c>
@@ -3780,7 +3873,7 @@
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0.34</v>
       </c>
@@ -3795,7 +3888,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>0.35</v>
       </c>
@@ -3810,7 +3903,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>0.36</v>
       </c>
@@ -3825,7 +3918,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>0.37</v>
       </c>
@@ -3840,7 +3933,7 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>0.38</v>
       </c>
@@ -3855,7 +3948,7 @@
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>0.39</v>
       </c>
@@ -3870,7 +3963,7 @@
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>0.4</v>
       </c>
@@ -3885,7 +3978,7 @@
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>0.41</v>
       </c>
@@ -3900,7 +3993,7 @@
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>0.42</v>
       </c>
@@ -3915,7 +4008,7 @@
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>0.43</v>
       </c>
@@ -3930,7 +4023,7 @@
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>0.44</v>
       </c>
@@ -3945,7 +4038,7 @@
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>0.45</v>
       </c>
@@ -3960,7 +4053,7 @@
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>0.46</v>
       </c>
@@ -3975,7 +4068,7 @@
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>0.47</v>
       </c>
@@ -3990,7 +4083,7 @@
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>0.48</v>
       </c>
@@ -4005,7 +4098,7 @@
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>0.49</v>
       </c>
@@ -4020,7 +4113,7 @@
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>0.5</v>
       </c>
@@ -4035,7 +4128,7 @@
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>0.51</v>
       </c>
@@ -4050,7 +4143,7 @@
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>0.52</v>
       </c>
@@ -4065,7 +4158,7 @@
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>0.53</v>
       </c>
@@ -4080,7 +4173,7 @@
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>0.54</v>
       </c>
@@ -4095,7 +4188,7 @@
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>0.55000000000000004</v>
       </c>
@@ -4110,7 +4203,7 @@
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>0.56000000000000005</v>
       </c>
@@ -4125,7 +4218,7 @@
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>0.56999999999999995</v>
       </c>
@@ -4140,7 +4233,7 @@
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>0.57999999999999996</v>
       </c>
@@ -4155,7 +4248,7 @@
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>0.59</v>
       </c>
@@ -4170,7 +4263,7 @@
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>0.6</v>
       </c>
@@ -4191,307 +4284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1">
-        <v>0.626</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <f>26+20/60</f>
-        <v>26.333333333333332</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5.25</v>
-      </c>
-      <c r="C4" s="1">
-        <f>B4/2.65</f>
-        <v>1.9811320754716981</v>
-      </c>
-      <c r="D4" s="1">
-        <f>A4/C4</f>
-        <v>13.292063492063491</v>
-      </c>
-      <c r="E4" s="1">
-        <f>1/D4</f>
-        <v>7.5232863625507532E-2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f>22+1/12</f>
-        <v>22.083333333333332</v>
-      </c>
-      <c r="B5">
-        <v>4.7</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
-        <v>1.7735849056603774</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D6" si="1">A5/C5</f>
-        <v>12.451241134751772</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E6" si="2">1/D5</f>
-        <v>8.0313278746885014E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <f>25+10/60</f>
-        <v>25.166666666666668</v>
-      </c>
-      <c r="B6">
-        <v>5.5</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>2.0754716981132075</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>12.125757575757577</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>8.2469074097213532E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3">
-        <f>AVERAGE(E5:E6)</f>
-        <v>8.1391176422049266E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5">
-        <f>STDEV(E5:E6)</f>
-        <v>1.5243775110677241E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>12.84</v>
-      </c>
-      <c r="B12">
-        <f>50/A12*60</f>
-        <v>233.64485981308411</v>
-      </c>
-      <c r="F12">
-        <v>14540</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12.7</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ref="B13:B16" si="3">50/A13*60</f>
-        <v>236.22047244094489</v>
-      </c>
-      <c r="F13">
-        <v>14297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12.55</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="3"/>
-        <v>239.04382470119521</v>
-      </c>
-      <c r="F14">
-        <v>14693</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>12.36</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="3"/>
-        <v>242.71844660194179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>12.93</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="3"/>
-        <v>232.01856148491879</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3">
-        <f>AVERAGE(B12:B16)</f>
-        <v>236.72923300841694</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="5">
-        <f>STDEV(B12:B16)</f>
-        <v>4.2775762909192965</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3">
-        <f>AVERAGE(F12:F14)</f>
-        <v>14510</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="5">
-        <f>STDEV(F12:F14)</f>
-        <v>199.69727088771143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="7">
-        <f>F18*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
-        <v>2.4971655045194385E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23">
-        <f>B17*F21</f>
-        <v>5.9115207457996322</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24">
-        <f>B23/22.4</f>
-        <v>0.26390717615176928</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25">
-        <f>B24*60</f>
-        <v>15.834430569106157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="10">
-        <f>B25/(B1*0.66)</f>
-        <v>38.325178064445147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28">
-        <f>B26*0.66/0.34</f>
-        <v>74.395933889805278</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -4499,16 +4292,16 @@
       <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4516,12 +4309,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4538,97 +4331,98 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <f>25+55/60</f>
-        <v>25.916666666666668</v>
+        <f>24+7+3/4</f>
+        <v>31.75</v>
       </c>
       <c r="B4" s="6">
-        <v>6</v>
+        <v>3.55</v>
       </c>
       <c r="C4" s="6">
         <f>B4/2.65</f>
-        <v>2.2641509433962264</v>
+        <v>1.3396226415094339</v>
       </c>
       <c r="D4" s="6">
         <f>A4/C4</f>
-        <v>11.446527777777778</v>
+        <v>23.700704225352116</v>
       </c>
       <c r="E4" s="6">
         <f>1/D4</f>
-        <v>8.7362737365770798E-2</v>
+        <v>4.2192839102659335E-2</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>23+23/60</f>
-        <v>23.383333333333333</v>
+        <f>24+40/60</f>
+        <v>24.666666666666668</v>
       </c>
       <c r="B5">
-        <v>6.15</v>
+        <v>3.125</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
-        <v>2.3207547169811322</v>
+        <v>1.179245283018868</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D6" si="1">A5/C5</f>
-        <v>10.075745257452574</v>
+        <v>20.917333333333332</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E6" si="2">1/D5</f>
-        <v>9.9248241638537363E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4.7807241203467625E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>24</v>
+        <f>48+20+0.25</f>
+        <v>68.25</v>
       </c>
       <c r="B6">
-        <v>5.35</v>
+        <v>8.35</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>2.0188679245283017</v>
+        <v>3.1509433962264151</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>11.887850467289722</v>
+        <v>21.660179640718564</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>8.4119496855345893E-2</v>
+        <v>4.616766880917824E-2</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="3">
         <f>AVERAGE(E4:E6)</f>
-        <v>9.0243491953218014E-2</v>
+        <v>4.538924970510174E-2</v>
       </c>
       <c r="F7">
         <f>60*LN(2)/E7</f>
-        <v>460.85130277489986</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>916.2705068667866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="5">
         <f>STDEV(E4:E6)</f>
-        <v>7.96516101052323E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.8870105582736597E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4636,7 +4430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4647,155 +4441,149 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12.25</v>
+        <v>12.48</v>
       </c>
       <c r="B12">
         <f>50/A12*60</f>
-        <v>244.89795918367346</v>
+        <v>240.38461538461539</v>
       </c>
       <c r="F12">
-        <v>14371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13870</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11.74</v>
+        <v>12.45</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:B16" si="3">50/A13*60</f>
-        <v>255.53662691652471</v>
+        <v>240.96385542168676</v>
       </c>
       <c r="F13">
-        <v>14899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14880</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12.08</v>
+        <v>12.59</v>
       </c>
       <c r="B14">
         <f t="shared" si="3"/>
-        <v>248.34437086092714</v>
+        <v>238.28435266084193</v>
       </c>
       <c r="F14">
-        <v>11940</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12.4</v>
+        <v>12.57</v>
       </c>
       <c r="B15">
         <f t="shared" si="3"/>
-        <v>241.93548387096774</v>
-      </c>
-      <c r="F15">
-        <v>13665</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>238.6634844868735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>11.83</v>
+        <v>12.36</v>
       </c>
       <c r="B16">
         <f t="shared" si="3"/>
-        <v>253.59256128486896</v>
-      </c>
-      <c r="F16">
-        <v>14210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>242.71844660194179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="3">
         <f>AVERAGE(B12:B16)</f>
-        <v>248.86140042339238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>240.20295091119186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="5">
         <f>STDEV(B12:B16)</f>
-        <v>5.7202936540028428</v>
+        <v>1.8021287650322444</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="3">
         <f>AVERAGE(F12:F16)</f>
-        <v>13817</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14497.333333333334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="5">
         <f>STDEV(F12:F16)</f>
-        <v>1137.7963350266164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>547.65074028374454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="15">
         <f>F18*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
-        <v>2.3830077808006077E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2.4950789275587283E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23">
         <f>B17*F21</f>
-        <v>5.9303865354987968</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5.9932532115593844</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24">
         <f>B23/22.4</f>
-        <v>0.26474939890619631</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.26755594694461537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25">
         <f>B24*60</f>
-        <v>15.884963934371779</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>16.053356816676924</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="10">
         <f>B25/(B1*0.66)</f>
-        <v>35.815665436444306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>36.195339142940391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
       <c r="B28">
         <f>B26*0.66/0.34</f>
-        <v>69.524527023686005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>70.261540689237222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -4818,30 +4606,574 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31">
         <f>B1/B23</f>
-        <v>0.11331470486408675</v>
+        <v>0.11212608182545859</v>
       </c>
       <c r="C31">
         <f>B31*0.34</f>
-        <v>3.8526999653789494E-2</v>
+        <v>3.8122867820655923E-2</v>
       </c>
       <c r="D31">
         <f>C31/F7</f>
-        <v>8.3599632727105001E-5</v>
+        <v>4.1606564366038767E-5</v>
       </c>
       <c r="E31">
         <f>D31*22400</f>
-        <v>1.872631773087152</v>
+        <v>0.93198704179926839</v>
       </c>
       <c r="F31">
         <f>E31/0.34*0.66</f>
-        <v>3.6351087359927066</v>
+        <v>1.8091513164338739</v>
       </c>
       <c r="G31">
         <f>2.31*0.66/0.34</f>
         <v>4.4841176470588238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>42304</v>
+      </c>
+      <c r="B3" s="19">
+        <v>9.0243491953218014E-2</v>
+      </c>
+      <c r="C3" s="20">
+        <v>35.815665436444306</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3/C3*1000</f>
+        <v>2.5196653713821706</v>
+      </c>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>42310</v>
+      </c>
+      <c r="B4" s="19">
+        <v>8.9214109445657191E-2</v>
+      </c>
+      <c r="C4" s="20">
+        <v>32.678400542591753</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4/C4*1000</f>
+        <v>2.730063527111096</v>
+      </c>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>42313</v>
+      </c>
+      <c r="B5" s="23">
+        <v>4.538924970510174E-2</v>
+      </c>
+      <c r="C5" s="24">
+        <v>36.195339142940391</v>
+      </c>
+      <c r="D5" s="21">
+        <f>B5/C5*1000</f>
+        <v>1.2540081341924529</v>
+      </c>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>42320</v>
+      </c>
+      <c r="B6" s="19">
+        <v>4.6534363085345594E-2</v>
+      </c>
+      <c r="C6" s="20">
+        <v>21.038398536538562</v>
+      </c>
+      <c r="D6" s="21">
+        <f>B6/C6*1000</f>
+        <v>2.2118776295889044</v>
+      </c>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>42327</v>
+      </c>
+      <c r="B7" s="19">
+        <v>7.0487379671178976E-2</v>
+      </c>
+      <c r="C7" s="20">
+        <v>30.475688694632385</v>
+      </c>
+      <c r="D7" s="21">
+        <f>B7/C7*1000</f>
+        <v>2.3129052267683048</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>42304</v>
+      </c>
+      <c r="B11" s="21">
+        <v>2.5196653713821706</v>
+      </c>
+      <c r="C11" s="21">
+        <f>B11/LN(2)</f>
+        <v>3.6351087359927061</v>
+      </c>
+      <c r="D11" s="21">
+        <f>B11/0.66*0.34</f>
+        <v>1.2980094337423302</v>
+      </c>
+      <c r="E11" s="21">
+        <f>D11/LN(2)</f>
+        <v>1.8726317730871513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>42310</v>
+      </c>
+      <c r="B12" s="21">
+        <v>2.730063527111096</v>
+      </c>
+      <c r="C12" s="21">
+        <f t="shared" ref="C12:C14" si="0">B12/LN(2)</f>
+        <v>3.9386491118750104</v>
+      </c>
+      <c r="D12" s="21">
+        <f t="shared" ref="D12:D14" si="1">B12/0.66*0.34</f>
+        <v>1.4063963624511708</v>
+      </c>
+      <c r="E12" s="21">
+        <f t="shared" ref="E12:E14" si="2">D12/LN(2)</f>
+        <v>2.0290010576325814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>42320</v>
+      </c>
+      <c r="B13" s="21">
+        <v>2.2118776295889044</v>
+      </c>
+      <c r="C13" s="21">
+        <f t="shared" si="0"/>
+        <v>3.191064887261148</v>
+      </c>
+      <c r="D13" s="21">
+        <f t="shared" si="1"/>
+        <v>1.1394521122124659</v>
+      </c>
+      <c r="E13" s="21">
+        <f t="shared" si="2"/>
+        <v>1.6438819116193792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>42327</v>
+      </c>
+      <c r="B14" s="21">
+        <v>2.3129052267683048</v>
+      </c>
+      <c r="C14" s="21">
+        <f t="shared" si="0"/>
+        <v>3.3368169007047968</v>
+      </c>
+      <c r="D14" s="21">
+        <f t="shared" si="1"/>
+        <v>1.191496631971551</v>
+      </c>
+      <c r="E14" s="21">
+        <f t="shared" si="2"/>
+        <v>1.718966282181259</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>26+20/60</f>
+        <v>26.333333333333332</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="C4" s="1">
+        <f>B4/2.65</f>
+        <v>1.9811320754716981</v>
+      </c>
+      <c r="D4" s="1">
+        <f>A4/C4</f>
+        <v>13.292063492063491</v>
+      </c>
+      <c r="E4" s="1">
+        <f>1/D4</f>
+        <v>7.5232863625507532E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>22+1/12</f>
+        <v>22.083333333333332</v>
+      </c>
+      <c r="B5">
+        <v>4.7</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
+        <v>1.7735849056603774</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="1">A5/C5</f>
+        <v>12.451241134751772</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="2">1/D5</f>
+        <v>8.0313278746885014E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>25+10/60</f>
+        <v>25.166666666666668</v>
+      </c>
+      <c r="B6">
+        <v>5.5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2.0754716981132075</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>12.125757575757577</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>8.2469074097213532E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <f>AVERAGE(E5:E6)</f>
+        <v>8.1391176422049266E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5">
+        <f>STDEV(E5:E6)</f>
+        <v>1.5243775110677241E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12.84</v>
+      </c>
+      <c r="B12">
+        <f>50/A12*60</f>
+        <v>233.64485981308411</v>
+      </c>
+      <c r="F12">
+        <v>14540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12.7</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:B16" si="3">50/A13*60</f>
+        <v>236.22047244094489</v>
+      </c>
+      <c r="F13">
+        <v>14297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12.55</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="3"/>
+        <v>239.04382470119521</v>
+      </c>
+      <c r="F14">
+        <v>14693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12.36</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="3"/>
+        <v>242.71844660194179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12.93</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>232.01856148491879</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <f>AVERAGE(B12:B16)</f>
+        <v>236.72923300841694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
+        <f>STDEV(B12:B16)</f>
+        <v>4.2775762909192965</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3">
+        <f>AVERAGE(F12:F14)</f>
+        <v>14510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5">
+        <f>STDEV(F12:F14)</f>
+        <v>199.69727088771143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="7">
+        <f>F18*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
+        <v>2.4971655045194385E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <f>B17*F21</f>
+        <v>5.9115207457996322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <f>B23/22.4</f>
+        <v>0.26390717615176928</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <f>B24*60</f>
+        <v>15.834430569106157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="10">
+        <f>B25/(B1*0.66)</f>
+        <v>38.325178064445147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28">
+        <f>B26*0.66/0.34</f>
+        <v>74.395933889805278</v>
       </c>
     </row>
   </sheetData>
@@ -4854,32 +5186,32 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B29"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1">
-        <v>0.71199999999999997</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4896,279 +5228,264 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <f>22+50/60</f>
-        <v>22.833333333333332</v>
+        <f>25+55/60</f>
+        <v>25.916666666666668</v>
       </c>
       <c r="B4" s="6">
-        <v>5.15</v>
+        <v>6</v>
       </c>
       <c r="C4" s="6">
         <f>B4/2.65</f>
-        <v>1.9433962264150946</v>
+        <v>2.2641509433962264</v>
       </c>
       <c r="D4" s="6">
         <f>A4/C4</f>
-        <v>11.749190938511324</v>
+        <v>11.446527777777778</v>
       </c>
       <c r="E4" s="6">
         <f>1/D4</f>
-        <v>8.5112243492631884E-2</v>
+        <v>8.7362737365770798E-2</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>20+0.25</f>
-        <v>20.25</v>
+        <f>23+23/60</f>
+        <v>23.383333333333333</v>
       </c>
       <c r="B5">
-        <v>4.8499999999999996</v>
+        <v>6.15</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
-        <v>1.8301886792452831</v>
+        <v>2.3207547169811322</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D6" si="1">A5/C5</f>
-        <v>11.064432989690722</v>
+        <v>10.075745257452574</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E6" si="2">1/D5</f>
-        <v>9.0379687863964595E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.9248241638537363E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f>49+50/60</f>
-        <v>49.833333333333336</v>
+        <v>24</v>
       </c>
       <c r="B6">
-        <v>11.7</v>
+        <v>5.35</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>4.415094339622641</v>
+        <v>2.0188679245283017</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>11.287037037037038</v>
+        <v>11.887850467289722</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>8.8597210828547976E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>5.9</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ref="C7" si="3">B7/2.65</f>
-        <v>2.226415094339623</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7" si="4">A7/C7</f>
-        <v>10.77966101694915</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ref="E7" si="5">1/D7</f>
-        <v>9.2767295597484298E-2</v>
-      </c>
-      <c r="F7" t="s">
+        <v>8.4119496855345893E-2</v>
+      </c>
+      <c r="F6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D8" s="2" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
-        <f>AVERAGE(E4:E7)</f>
-        <v>8.9214109445657191E-2</v>
-      </c>
-      <c r="F8">
-        <f>60*LN(2)/E8</f>
-        <v>466.1687606592053</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="4" t="s">
+      <c r="E7" s="3">
+        <f>AVERAGE(E4:E6)</f>
+        <v>9.0243491953218014E-2</v>
+      </c>
+      <c r="F7">
+        <f>60*LN(2)/E7</f>
+        <v>460.85130277489986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="5">
-        <f>STDEV(E4:E7)</f>
-        <v>3.2243641791387537E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="5">
+        <f>STDEV(E4:E6)</f>
+        <v>7.96516101052323E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12.25</v>
+      </c>
+      <c r="B12">
+        <f>50/A12*60</f>
+        <v>244.89795918367346</v>
+      </c>
+      <c r="F12">
+        <v>14371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12.73</v>
+        <v>11.74</v>
       </c>
       <c r="B13">
-        <f>50/A13*60</f>
-        <v>235.66378633150038</v>
+        <f t="shared" ref="B13:B16" si="3">50/A13*60</f>
+        <v>255.53662691652471</v>
       </c>
       <c r="F13">
-        <v>14866</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12.7</v>
+        <v>12.08</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:B17" si="6">50/A14*60</f>
-        <v>236.22047244094489</v>
+        <f t="shared" si="3"/>
+        <v>248.34437086092714</v>
       </c>
       <c r="F14">
-        <v>15913</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11940</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12.77</v>
+        <v>12.4</v>
       </c>
       <c r="B15">
-        <f t="shared" si="6"/>
-        <v>234.92560689115115</v>
+        <f t="shared" si="3"/>
+        <v>241.93548387096774</v>
       </c>
       <c r="F15">
-        <v>11486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>12.65</v>
+        <v>11.83</v>
       </c>
       <c r="B16">
-        <f t="shared" si="6"/>
-        <v>237.15415019762844</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>12.67</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="6"/>
-        <v>236.77979479084453</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+        <f t="shared" si="3"/>
+        <v>253.59256128486896</v>
+      </c>
+      <c r="F16">
+        <v>14210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3">
-        <f>AVERAGE(B13:B17)</f>
-        <v>236.1487621304139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="B17" s="3">
+        <f>AVERAGE(B12:B16)</f>
+        <v>248.86140042339238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="5">
-        <f>STDEV(B13:B17)</f>
-        <v>0.8867722393224392</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="B18" s="5">
+        <f>STDEV(B12:B16)</f>
+        <v>5.7202936540028428</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="3">
-        <f>AVERAGE(F13:F17)</f>
-        <v>14088.333333333334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="4" t="s">
+      <c r="F18" s="3">
+        <f>AVERAGE(F12:F16)</f>
+        <v>13817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="5">
-        <f>STDEV(F13:F17)</f>
-        <v>2313.6889015883949</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
+      <c r="F19" s="5">
+        <f>STDEV(F12:F16)</f>
+        <v>1137.7963350266164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="15">
-        <f>F19*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
-        <v>2.4277044556958109E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F21" s="15">
+        <f>F18*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
+        <v>2.3830077808006077E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <f>B17*F21</f>
+        <v>5.9303865354987968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <f>B18*F22</f>
-        <v>5.73299402031056</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <f>B23/22.4</f>
+        <v>0.26474939890619631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <f>B24/22.4</f>
-        <v>0.25593723304957861</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>B24*60</f>
+        <v>15.884963934371779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26">
-        <f>B25*60</f>
-        <v>15.356233982974716</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="10">
-        <f>B26/(B1*0.66)</f>
-        <v>32.678400542591753</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B26" s="10">
+        <f>B25/(B1*0.66)</f>
+        <v>35.815665436444306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>66</v>
       </c>
-      <c r="B29">
-        <f>B27*0.66/0.34</f>
-        <v>63.434542229736934</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f>B26*0.66/0.34</f>
+        <v>69.524527023686005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -5191,26 +5508,26 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31">
-        <f>B1/B24</f>
-        <v>0.12419339658781477</v>
+        <f>B1/B23</f>
+        <v>0.11331470486408675</v>
       </c>
       <c r="C31">
         <f>B31*0.34</f>
-        <v>4.2225754839857021E-2</v>
+        <v>3.8526999653789494E-2</v>
       </c>
       <c r="D31">
-        <f>C31/F8</f>
-        <v>9.058040435859739E-5</v>
+        <f>C31/F7</f>
+        <v>8.3599632727105001E-5</v>
       </c>
       <c r="E31">
         <f>D31*22400</f>
-        <v>2.0290010576325814</v>
+        <v>1.872631773087152</v>
       </c>
       <c r="F31">
         <f>E31/0.34*0.66</f>
-        <v>3.9386491118750109</v>
+        <v>3.6351087359927066</v>
       </c>
       <c r="G31">
         <f>2.31*0.66/0.34</f>
@@ -5227,32 +5544,32 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B28"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1">
-        <v>0.67200000000000004</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5269,259 +5586,279 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <f>24+7+3/4</f>
-        <v>31.75</v>
+        <f>22+50/60</f>
+        <v>22.833333333333332</v>
       </c>
       <c r="B4" s="6">
-        <v>3.55</v>
+        <v>5.15</v>
       </c>
       <c r="C4" s="6">
         <f>B4/2.65</f>
-        <v>1.3396226415094339</v>
+        <v>1.9433962264150946</v>
       </c>
       <c r="D4" s="6">
         <f>A4/C4</f>
-        <v>23.700704225352116</v>
+        <v>11.749190938511324</v>
       </c>
       <c r="E4" s="6">
         <f>1/D4</f>
-        <v>4.2192839102659335E-2</v>
+        <v>8.5112243492631884E-2</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>24+40/60</f>
-        <v>24.666666666666668</v>
+        <f>20+0.25</f>
+        <v>20.25</v>
       </c>
       <c r="B5">
-        <v>3.125</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
-        <v>1.179245283018868</v>
+        <v>1.8301886792452831</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D6" si="1">A5/C5</f>
-        <v>20.917333333333332</v>
+        <v>11.064432989690722</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E6" si="2">1/D5</f>
-        <v>4.7807241203467625E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9.0379687863964595E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>48+20+0.25</f>
-        <v>68.25</v>
+        <f>49+50/60</f>
+        <v>49.833333333333336</v>
       </c>
       <c r="B6">
-        <v>8.35</v>
+        <v>11.7</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>3.1509433962264151</v>
+        <v>4.415094339622641</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>21.660179640718564</v>
+        <v>11.287037037037038</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>4.616766880917824E-2</v>
-      </c>
-      <c r="F6" t="s">
+        <v>8.8597210828547976E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>5.9</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7" si="3">B7/2.65</f>
+        <v>2.226415094339623</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7" si="4">A7/C7</f>
+        <v>10.77966101694915</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7" si="5">1/D7</f>
+        <v>9.2767295597484298E-2</v>
+      </c>
+      <c r="F7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="2" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3">
-        <f>AVERAGE(E4:E6)</f>
-        <v>4.538924970510174E-2</v>
-      </c>
-      <c r="F7">
-        <f>60*LN(2)/E7</f>
-        <v>916.2705068667866</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="3">
+        <f>AVERAGE(E4:E7)</f>
+        <v>8.9214109445657191E-2</v>
+      </c>
+      <c r="F8">
+        <f>60*LN(2)/E8</f>
+        <v>466.1687606592053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5">
-        <f>STDEV(E4:E6)</f>
-        <v>2.8870105582736597E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="E9" s="5">
+        <f>STDEV(E4:E7)</f>
+        <v>3.2243641791387537E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>12.48</v>
-      </c>
-      <c r="B12">
-        <f>50/A12*60</f>
-        <v>240.38461538461539</v>
-      </c>
-      <c r="F12">
-        <v>13870</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12.45</v>
+        <v>12.73</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B16" si="3">50/A13*60</f>
-        <v>240.96385542168676</v>
+        <f>50/A13*60</f>
+        <v>235.66378633150038</v>
       </c>
       <c r="F13">
-        <v>14880</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12.59</v>
+        <v>12.7</v>
       </c>
       <c r="B14">
-        <f t="shared" si="3"/>
-        <v>238.28435266084193</v>
+        <f t="shared" ref="B14:B17" si="6">50/A14*60</f>
+        <v>236.22047244094489</v>
       </c>
       <c r="F14">
-        <v>14742</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12.57</v>
+        <v>12.77</v>
       </c>
       <c r="B15">
-        <f t="shared" si="3"/>
-        <v>238.6634844868735</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>234.92560689115115</v>
+      </c>
+      <c r="F15">
+        <v>11486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>12.36</v>
+        <v>12.65</v>
       </c>
       <c r="B16">
-        <f t="shared" si="3"/>
-        <v>242.71844660194179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+        <f t="shared" si="6"/>
+        <v>237.15415019762844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>12.67</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="6"/>
+        <v>236.77979479084453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3">
-        <f>AVERAGE(B12:B16)</f>
-        <v>240.20295091119186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="3">
+        <f>AVERAGE(B13:B17)</f>
+        <v>236.1487621304139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="5">
-        <f>STDEV(B12:B16)</f>
-        <v>1.8021287650322444</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="B19" s="5">
+        <f>STDEV(B13:B17)</f>
+        <v>0.8867722393224392</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="3">
-        <f>AVERAGE(F12:F16)</f>
-        <v>14497.333333333334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="3">
+        <f>AVERAGE(F13:F17)</f>
+        <v>14088.333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="5">
-        <f>STDEV(F12:F16)</f>
-        <v>547.65074028374454</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
+      <c r="F20" s="5">
+        <f>STDEV(F13:F17)</f>
+        <v>2313.6889015883949</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="15">
-        <f>F18*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
-        <v>2.4950789275587283E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="F22" s="15">
+        <f>F19*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
+        <v>2.4277044556958109E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="B23">
-        <f>B17*F21</f>
-        <v>5.9932532115593844</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B24">
+        <f>B18*F22</f>
+        <v>5.73299402031056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="B24">
-        <f>B23/22.4</f>
-        <v>0.26755594694461537</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B25">
+        <f>B24/22.4</f>
+        <v>0.25593723304957861</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="B25">
-        <f>B24*60</f>
-        <v>16.053356816676924</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B26">
+        <f>B25*60</f>
+        <v>15.356233982974716</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="10">
-        <f>B25/(B1*0.66)</f>
-        <v>36.195339142940391</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B27" s="10">
+        <f>B26/(B1*0.66)</f>
+        <v>32.678400542591753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>66</v>
       </c>
-      <c r="B28">
-        <f>B26*0.66/0.34</f>
-        <v>70.261540689237222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <f>B27*0.66/0.34</f>
+        <v>63.434542229736934</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -5544,26 +5881,26 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31">
-        <f>B1/B23</f>
-        <v>0.11212608182545859</v>
+        <f>B1/B24</f>
+        <v>0.12419339658781477</v>
       </c>
       <c r="C31">
         <f>B31*0.34</f>
-        <v>3.8122867820655923E-2</v>
+        <v>4.2225754839857021E-2</v>
       </c>
       <c r="D31">
-        <f>C31/F7</f>
-        <v>4.1606564366038767E-5</v>
+        <f>C31/F8</f>
+        <v>9.058040435859739E-5</v>
       </c>
       <c r="E31">
         <f>D31*22400</f>
-        <v>0.93198704179926839</v>
+        <v>2.0290010576325814</v>
       </c>
       <c r="F31">
         <f>E31/0.34*0.66</f>
-        <v>1.8091513164338739</v>
+        <v>3.9386491118750109</v>
       </c>
       <c r="G31">
         <f>2.31*0.66/0.34</f>
@@ -5580,19 +5917,19 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B28"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5600,12 +5937,12 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5622,7 +5959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>48.25</v>
       </c>
@@ -5645,12 +5982,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -5663,7 +6000,7 @@
         <v>893.72300545558983</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -5672,7 +6009,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5680,7 +6017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5691,7 +6028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12.8</v>
       </c>
@@ -5703,7 +6040,7 @@
         <v>10464</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.81</v>
       </c>
@@ -5715,7 +6052,7 @@
         <v>10676</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.64</v>
       </c>
@@ -5727,7 +6064,7 @@
         <v>10245</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.78</v>
       </c>
@@ -5736,7 +6073,7 @@
         <v>234.74178403755869</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12.78</v>
       </c>
@@ -5745,7 +6082,7 @@
         <v>234.74178403755869</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -5754,7 +6091,7 @@
         <v>235.07847553954838</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -5770,7 +6107,7 @@
         <v>10461.666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -5779,7 +6116,7 @@
         <v>215.50947388301361</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -5788,7 +6125,7 @@
         <v>1.8302845258925997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -5797,7 +6134,7 @@
         <v>4.3026049615045743</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -5806,7 +6143,7 @@
         <v>0.19208057863859707</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -5815,7 +6152,7 @@
         <v>11.524834718315823</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5824,7 +6161,7 @@
         <v>21.038398536538562</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -5833,7 +6170,7 @@
         <v>40.839244217986618</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -5856,7 +6193,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.19290639215684768</v>
@@ -5892,19 +6229,19 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B28"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5912,12 +6249,12 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5934,7 +6271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>20.25</v>
       </c>
@@ -5957,7 +6294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>20+25/60</f>
         <v>20.416666666666668</v>
@@ -5978,7 +6315,7 @@
         <v>7.3007316134000771E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>29.75</v>
       </c>
@@ -6001,7 +6338,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -6014,7 +6351,7 @@
         <v>590.01811427247083</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -6023,7 +6360,7 @@
         <v>3.769238730890744E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6031,7 +6368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6042,7 +6379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12.85</v>
       </c>
@@ -6054,7 +6391,7 @@
         <v>12209</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.8</v>
       </c>
@@ -6066,7 +6403,7 @@
         <v>12955</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.83</v>
       </c>
@@ -6078,7 +6415,7 @@
         <v>12671</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.83</v>
       </c>
@@ -6087,7 +6424,7 @@
         <v>233.8269680436477</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12.86</v>
       </c>
@@ -6096,7 +6433,7 @@
         <v>233.28149300155525</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -6105,7 +6442,7 @@
         <v>233.75469282166114</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -6121,7 +6458,7 @@
         <v>12611.666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -6130,7 +6467,7 @@
         <v>376.52268634616604</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -6139,7 +6476,7 @@
         <v>2.1844535100130694E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -6148,7 +6485,7 @@
         <v>5.1062625921630449</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -6157,7 +6494,7 @@
         <v>0.22795815143585024</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -6169,7 +6506,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -6182,7 +6519,7 @@
         <v>59.158689818992265</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -6191,7 +6528,7 @@
         <v>59.158689818992272</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -6214,7 +6551,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.13316980623825453</v>
@@ -6240,7 +6577,7 @@
         <v>4.4841176470588238</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>54</v>
       </c>
@@ -6249,7 +6586,7 @@
         <v>2.4799441307582417</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>52</v>
       </c>
@@ -6258,7 +6595,7 @@
         <v>0.69314718055994529</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>53</v>
       </c>
@@ -6278,19 +6615,19 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:B30"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6298,12 +6635,12 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6320,7 +6657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>30.25</v>
       </c>
@@ -6343,7 +6680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>25+1/6</f>
         <v>25.166666666666668</v>
@@ -6364,7 +6701,7 @@
         <v>4.5732850181182054E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>48-A5</f>
         <v>22.833333333333332</v>
@@ -6388,7 +6725,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21</v>
       </c>
@@ -6408,7 +6745,7 @@
         <v>4.4025157232704407E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>50</v>
       </c>
@@ -6428,7 +6765,7 @@
         <v>4.7924528301886794E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -6441,7 +6778,7 @@
         <v>908.64826817835853</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
@@ -6450,7 +6787,7 @@
         <v>2.6388241743311911E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -6458,7 +6795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -6469,7 +6806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.74</v>
       </c>
@@ -6481,7 +6818,7 @@
         <v>10270</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.64</v>
       </c>
@@ -6493,7 +6830,7 @@
         <v>9831</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12.66</v>
       </c>
@@ -6505,7 +6842,7 @@
         <v>9667</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12.75</v>
       </c>
@@ -6514,7 +6851,7 @@
         <v>235.29411764705881</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12.51</v>
       </c>
@@ -6523,7 +6860,7 @@
         <v>239.80815347721824</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -6532,7 +6869,7 @@
         <v>236.97793496562076</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -6548,7 +6885,7 @@
         <v>9922.6666666666661</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
@@ -6557,7 +6894,7 @@
         <v>311.77609487151727</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>29</v>
       </c>
@@ -6566,7 +6903,7 @@
         <v>1.7414951852223977E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -6575,7 +6912,7 @@
         <v>4.1269593274657508</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -6584,7 +6921,7 @@
         <v>0.18423925569043531</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -6596,7 +6933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -6609,7 +6946,7 @@
         <v>40.438818193686409</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -6618,7 +6955,7 @@
         <v>40.438818193686409</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -6641,7 +6978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>B1/B25</f>
         <v>0.19481655529028771</v>
@@ -6667,7 +7004,7 @@
         <v>4.4841176470588238</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>54</v>
       </c>
@@ -6676,7 +7013,7 @@
         <v>2.355762645831442</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>52</v>
       </c>
@@ -6685,7 +7022,7 @@
         <v>0.69314718055994529</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>53</v>
       </c>
@@ -6704,20 +7041,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6725,12 +7062,12 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6747,7 +7084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>35/60+16</f>
         <v>16.583333333333332</v>
@@ -6771,7 +7108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24</v>
       </c>
@@ -6791,7 +7128,7 @@
         <v>6.4465408805031446E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>24+1/3</f>
         <v>24.333333333333332</v>
@@ -6815,7 +7152,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>26+55/60</f>
         <v>26.916666666666668</v>
@@ -6836,7 +7173,7 @@
         <v>5.6779017465973469E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>22</v>
       </c>
@@ -6856,7 +7193,7 @@
         <v>6.2607204116638074E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -6869,7 +7206,7 @@
         <v>690.45455615932519</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
@@ -6878,7 +7215,7 @@
         <v>3.1993489528702739E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -6886,7 +7223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -6897,7 +7234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11.83</v>
       </c>
@@ -6909,7 +7246,7 @@
         <v>9371.4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11.87</v>
       </c>
@@ -6921,7 +7258,7 @@
         <v>8942.6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12.02</v>
       </c>
@@ -6933,7 +7270,7 @@
         <v>9899.7000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11.77</v>
       </c>
@@ -6945,7 +7282,7 @@
         <v>9318.2000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>11.88</v>
       </c>
@@ -6957,7 +7294,7 @@
         <v>9694</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -6966,7 +7303,7 @@
         <v>252.66502739838626</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -6982,7 +7319,7 @@
         <v>9445.18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
@@ -6991,7 +7328,7 @@
         <v>368.32522585345691</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>29</v>
       </c>
@@ -7000,7 +7337,7 @@
         <v>1.662838921192443E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -7009,7 +7346,7 @@
         <v>4.2014124158219168</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -7018,7 +7355,7 @@
         <v>0.18756305427776415</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -7030,7 +7367,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -7043,7 +7380,7 @@
         <v>50.150549272129453</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -7052,7 +7389,7 @@
         <v>50.150549272129453</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -7075,7 +7412,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>B1/B25</f>
         <v>0.15709002941832959</v>
@@ -7101,7 +7438,7 @@
         <v>4.4841176470588238</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>54</v>
       </c>
@@ -7110,7 +7447,7 @@
         <v>2.4998560172550772</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>52</v>
       </c>
@@ -7119,7 +7456,7 @@
         <v>0.69314718055994529</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>53</v>
       </c>

--- a/Experimental Results/dilution rate measurements w compilation.xlsx
+++ b/Experimental Results/dilution rate measurements w compilation.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\methanococcus\Experimental Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" tabRatio="769"/>
   </bookViews>
@@ -25,12 +20,12 @@
     <sheet name="Compilation" sheetId="8" r:id="rId11"/>
     <sheet name="11_5" sheetId="4" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="91">
   <si>
     <t>Liters</t>
   </si>
@@ -272,9 +267,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Methane Flow (mL/min)</t>
-  </si>
-  <si>
     <t>Flow Rate (mL/min)</t>
   </si>
   <si>
@@ -291,15 +283,31 @@
   </si>
   <si>
     <t>Predicted Yield (12 h/L)</t>
+  </si>
+  <si>
+    <t>Ch4 Flow (mL/min)</t>
+  </si>
+  <si>
+    <t>Ch4 Flux (mmol/gDCW/h)</t>
+  </si>
+  <si>
+    <t>Simple Yield</t>
+  </si>
+  <si>
+    <t>Model Values</t>
+  </si>
+  <si>
+    <t>&lt;--Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -481,7 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -535,6 +543,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,6 +583,375 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ch4 Flux v. Growth Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.33195523636468516"/>
+                  <c:y val="4.8425124144800456E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Neatened Compilation'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.1391176422049266E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0243491953218014E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9214109445657191E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6534363085345594E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0487379671178976E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5769999558765734E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0233987106893573E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Neatened Compilation'!$I$2:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>51.727234197410638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.340161938759181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.105816683252677</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.395384527843461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.132831366988491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.116969705221639</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.869502561398797</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="78196736"/>
+        <c:axId val="78186752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="78196736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Growth</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Rate (1/h)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78186752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="78186752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ch4 Flux (mmol/gDCW/h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78196736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Neatened Compilation'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.1391176422049266E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0243491953218014E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9214109445657191E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6534363085345594E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0487379671178976E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5769999558765734E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0233987106893573E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Neatened Compilation'!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.2700352806044126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6932851089400507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9181809328892121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3642889846525779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4722779764312817</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3484803688734086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4921283100919336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="103752064"/>
+        <c:axId val="103746176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="103752064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103746176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="103746176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103752064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -666,11 +1064,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="308231640"/>
-        <c:axId val="308232424"/>
+        <c:axId val="59774464"/>
+        <c:axId val="59776384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="308231640"/>
+        <c:axId val="59774464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,12 +1097,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308232424"/>
+        <c:crossAx val="59776384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="308232424"/>
+        <c:axId val="59776384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -734,689 +1132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308231640"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Compilation!$B$16:$B$76</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.3000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Compilation!$E$16:$E$76</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>0.98649488502402116</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.512653345232873</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.8397345876234921</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.062748819076301</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2245456365537337</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3472892721055967</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.4435965552270278</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5211778943122227</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.5415941061963752</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5850109575742257</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.6384528112714705</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.6838498117645333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.722891347558928</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.7568247316867311</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.7865909244714433</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.8129131466184094</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.8363564165473032</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.8573685652480112</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.8763091201370403</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.8934700472549348</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.9090909090909092</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.923370116753834</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.9364734022247787</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.948540280265163</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.9596890353386875</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.9700206119430468</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.9796216797273418</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.9885670706397636</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.9969217332482776</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.0047423122631827</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.0120784345224352</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.0189737631702735</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.025466867355969</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.0315919440496741</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.0373794205037403</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.0428564597669174</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.0480473869767097</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.0529740505456986</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.0576561295544997</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.0621113964719764</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.0663559425978169</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.0704043722558261</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.0742699706773204</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.0779648496414169</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.0815000742361383</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.0848857735351078</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.0881312375215999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.0912450022132001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.0942349246295948</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.0971082489898056</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.099871665313056</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.1025313614211787</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.1050930691934164</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.1075621058013492</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.1099434105482371</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.1122415778498937</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.114460886820491</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.1166053278641472</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3.1186786266199658</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3.1206842655628257</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.1226255035233628</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="308233600"/>
-        <c:axId val="308232032"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="308233600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Growth Rate (1/h)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308232032"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="308232032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Growth Yield</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308233600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Methane Standard Curve'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.5242782152230968E-3"/>
-                  <c:y val="-0.16702573636628754"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Methane Standard Curve'!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5.0433333333333339</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>605.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1502.5333333333335</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2821.9333333333329</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4092.2000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5239.7333333333327</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23749</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Methane Standard Curve'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.996007984031936E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9840637450199202E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0347887823926161E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0068022390703611E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0076012020505568E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0010971303185108E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="308230464"/>
-        <c:axId val="308231248"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="308230464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308231248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="308231248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308230464"/>
+        <c:crossAx val="59774464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1461,58 +1177,386 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Compilation!$B$9:$B$13</c:f>
+              <c:f>Compilation!$B$16:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>9.0243491953218014E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9214109445657191E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6534363085345594E-2</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0487379671178976E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5769999558765734E-2</c:v>
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Compilation!$C$9:$C$13</c:f>
+              <c:f>Compilation!$E$16:$E$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>35.815665436444306</c:v>
+                  <c:v>0.98649488502402116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.678400542591753</c:v>
+                  <c:v>1.512653345232873</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.038398536538562</c:v>
+                  <c:v>1.8397345876234921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.475688694632385</c:v>
+                  <c:v>2.062748819076301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.832118463414211</c:v>
+                  <c:v>2.2245456365537337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3472892721055967</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4435965552270278</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5211778943122227</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5415941061963752</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5850109575742257</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6384528112714705</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6838498117645333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.722891347558928</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7568247316867311</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7865909244714433</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8129131466184094</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8363564165473032</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8573685652480112</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8763091201370403</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8934700472549348</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9090909090909092</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.923370116753834</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9364734022247787</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.948540280265163</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9596890353386875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9700206119430468</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.9796216797273418</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9885670706397636</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.9969217332482776</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.0047423122631827</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0120784345224352</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0189737631702735</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.025466867355969</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.0315919440496741</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.0373794205037403</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0428564597669174</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0480473869767097</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.0529740505456986</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.0576561295544997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0621113964719764</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.0663559425978169</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.0704043722558261</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.0742699706773204</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.0779648496414169</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.0815000742361383</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.0848857735351078</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.0881312375215999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.0912450022132001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.0942349246295948</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.0971082489898056</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.099871665313056</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.1025313614211787</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.1050930691934164</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.1075621058013492</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.1099434105482371</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.1122415778498937</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.114460886820491</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.1166053278641472</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.1186786266199658</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.1206842655628257</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.1226255035233628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1527,37 +1571,75 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="308572544"/>
-        <c:axId val="308572936"/>
+        <c:axId val="59796864"/>
+        <c:axId val="59803136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="308572544"/>
+        <c:axId val="59796864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Growth Rate (1/h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308572936"/>
+        <c:crossAx val="59803136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="308572936"/>
+        <c:axId val="59803136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Growth Yield</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308572544"/>
+        <c:crossAx val="59796864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1575,6 +1657,321 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Methane Standard Curve'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.5242782152230968E-3"/>
+                  <c:y val="-0.16702573636628754"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Methane Standard Curve'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0433333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>605.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1502.5333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2821.9333333333329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4092.2000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5239.7333333333327</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Methane Standard Curve'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.996007984031936E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9840637450199202E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0347887823926161E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0068022390703611E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0076012020505568E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0010971303185108E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="76052736"/>
+        <c:axId val="76083200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="76052736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76083200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="76083200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76052736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Compilation!$B$9:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.0243491953218014E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9214109445657191E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6534363085345594E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0487379671178976E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5769999558765734E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compilation!$C$9:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35.815665436444306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.678400542591753</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.038398536538562</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.475688694632385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.832118463414211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="76559104"/>
+        <c:axId val="76560640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="76559104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76560640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="76560640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76559104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1996,11 +2393,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="308567448"/>
-        <c:axId val="308573328"/>
+        <c:axId val="76578176"/>
+        <c:axId val="76584064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="308567448"/>
+        <c:axId val="76578176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,12 +2407,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308573328"/>
+        <c:crossAx val="76584064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="308573328"/>
+        <c:axId val="76584064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2026,7 +2423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308567448"/>
+        <c:crossAx val="76578176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2044,6 +2441,71 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2112,7 +2574,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2147,7 +2609,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2255,7 +2717,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2290,7 +2752,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2499,294 +2961,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="16"/>
+    <col min="3" max="3" width="19" style="16" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="16"/>
+    <col min="6" max="6" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="16"/>
+    <col min="9" max="9" width="24" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="I1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="32">
         <v>42299</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="33">
         <v>0.626</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="34">
         <v>8.1391176422049266E-2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="35">
         <v>236.72923300841694</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="16">
         <v>14510</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="29">
         <f>E2*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>2.4971655045194385E-2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="30">
         <f>F2*D2</f>
         <v>5.9115207457996322</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="30">
         <f>B2/G2*$B$18*C2/LN(2)*22400/60</f>
-        <v>2.274677479542254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+        <v>2.2700352806044126</v>
+      </c>
+      <c r="I2" s="31">
+        <f>G2*60/22.4/B2/$B$18</f>
+        <v>51.727234197410638</v>
+      </c>
+      <c r="J2" s="30">
+        <f>C2*1000/I2</f>
+        <v>1.5734685545225526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
         <v>42304</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="33">
         <v>0.67200000000000004</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="34">
         <v>9.0243491953218014E-2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="35">
         <v>248.86140042339238</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="16">
         <v>13817</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="29">
         <f>E3*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>2.3830077808006077E-2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="30">
         <f t="shared" ref="G3:G8" si="0">F3*D3</f>
         <v>5.9303865354987968</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="30">
         <f t="shared" ref="H3:H8" si="1">B3/G3*$B$18*C3/LN(2)*22400/60</f>
-        <v>2.6987928494491302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+        <v>2.6932851089400507</v>
+      </c>
+      <c r="I3" s="31">
+        <f t="shared" ref="I3:I9" si="2">G3*60/22.4/B3/$B$18</f>
+        <v>48.340161938759181</v>
+      </c>
+      <c r="J3" s="30">
+        <f t="shared" ref="J3:J8" si="3">C3*1000/I3</f>
+        <v>1.8668429797058812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
         <v>42310</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="33">
         <v>0.71199999999999997</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="34">
         <v>8.9214109445657191E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="35">
         <v>236.1487621304139</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="16">
         <v>14088.333333333334</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="29">
         <f>E4*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>2.4277044556958109E-2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="30">
         <f t="shared" si="0"/>
         <v>5.73299402031056</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="30">
         <f t="shared" si="1"/>
-        <v>2.9241485830587197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+        <v>2.9181809328892121</v>
+      </c>
+      <c r="I4" s="31">
+        <f t="shared" si="2"/>
+        <v>44.105816683252677</v>
+      </c>
+      <c r="J4" s="30">
+        <f t="shared" si="3"/>
+        <v>2.022728885995948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
         <v>42320</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="33">
         <v>0.83</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="34">
         <v>4.6534363085345594E-2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="35">
         <v>235.07847553954838</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="16">
         <v>10461.666666666666</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="29">
         <f>E5*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>1.8302845258925997E-2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="30">
         <f t="shared" si="0"/>
         <v>4.3026049615045743</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="30">
         <f t="shared" si="1"/>
-        <v>2.3691239314514587</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+        <v>2.3642889846525779</v>
+      </c>
+      <c r="I5" s="31">
+        <f t="shared" si="2"/>
+        <v>28.395384527843461</v>
+      </c>
+      <c r="J5" s="30">
+        <f t="shared" si="3"/>
+        <v>1.6388002437408702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
         <v>42327</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="33">
         <v>0.68</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="34">
         <v>7.0487379671178976E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="35">
         <v>233.75469282166114</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="16">
         <v>12611.666666666666</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="29">
         <f>E6*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>2.1844535100130694E-2</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="30">
         <f t="shared" si="0"/>
         <v>5.1062625921630449</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="30">
         <f t="shared" si="1"/>
-        <v>2.4773337596141674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+        <v>2.4722779764312817</v>
+      </c>
+      <c r="I6" s="31">
+        <f t="shared" si="2"/>
+        <v>41.132831366988491</v>
+      </c>
+      <c r="J6" s="30">
+        <f t="shared" si="3"/>
+        <v>1.7136525089237895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
         <v>42339</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="33">
         <v>0.80400000000000005</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="34">
         <v>4.5769999558765734E-2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="35">
         <v>236.97793496562076</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="16">
         <v>9922.6666666666661</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="29">
         <f>E7*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>1.7414951852223977E-2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="30">
         <f t="shared" si="0"/>
         <v>4.1269593274657508</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="30">
         <f t="shared" si="1"/>
-        <v>2.353282987214663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+        <v>2.3484803688734086</v>
+      </c>
+      <c r="I7" s="31">
+        <f t="shared" si="2"/>
+        <v>28.116969705221639</v>
+      </c>
+      <c r="J7" s="30">
+        <f t="shared" si="3"/>
+        <v>1.6278425462849835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
         <v>42345</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="33">
         <v>0.66</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="34">
         <v>6.0233987106893573E-2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="35">
         <v>252.66502739838626</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="16">
         <v>9445.18</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="29">
         <f>E8*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>1.662838921192443E-2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="30">
         <f t="shared" si="0"/>
         <v>4.2014124158219168</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="30">
         <f t="shared" si="1"/>
-        <v>2.4972246870041865</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+        <v>2.4921283100919336</v>
+      </c>
+      <c r="I8" s="31">
+        <f t="shared" si="2"/>
+        <v>34.869502561398797</v>
+      </c>
+      <c r="J8" s="30">
+        <f t="shared" si="3"/>
+        <v>1.7274117117338446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
         <v>42349</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="I9" s="31" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="16" t="e">
+        <f>C9*1000/I9</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="C15" s="16">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="31">
+        <f>2.86*B18/0.34</f>
+        <v>4.11335294117647</v>
+      </c>
+      <c r="I15" s="31">
+        <f>0.58*B18/0.34</f>
+        <v>0.83417647058823519</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="16">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="31">
+        <v>2.5950000000000002</v>
+      </c>
+      <c r="I16" s="31">
+        <f>C16*SLOPE(I2:I8,C2:C8)+INTERCEPT(I2:I8,C2:C8)</f>
+        <v>45.951016882770382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15">
-        <f>2.31*0.49/0.34</f>
-        <v>3.3291176470588231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18">
-        <v>0.49</v>
+      <c r="B18" s="16">
+        <v>0.48899999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4886,7 +5462,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Experimental Results/dilution rate measurements w compilation.xlsx
+++ b/Experimental Results/dilution rate measurements w compilation.xlsx
@@ -4,28 +4,29 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" tabRatio="769"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" tabRatio="769"/>
   </bookViews>
   <sheets>
     <sheet name="Neatened Compilation" sheetId="14" r:id="rId1"/>
-    <sheet name="12_01_Summary of Results" sheetId="10" r:id="rId2"/>
-    <sheet name="10_22" sheetId="1" r:id="rId3"/>
-    <sheet name="10_27" sheetId="2" r:id="rId4"/>
-    <sheet name="11_2" sheetId="3" r:id="rId5"/>
-    <sheet name="11_12" sheetId="5" r:id="rId6"/>
-    <sheet name="11_19" sheetId="7" r:id="rId7"/>
-    <sheet name="12_01" sheetId="11" r:id="rId8"/>
-    <sheet name="12_07" sheetId="12" r:id="rId9"/>
+    <sheet name="10_22" sheetId="1" r:id="rId2"/>
+    <sheet name="10_27" sheetId="2" r:id="rId3"/>
+    <sheet name="11_2" sheetId="3" r:id="rId4"/>
+    <sheet name="11_12" sheetId="5" r:id="rId5"/>
+    <sheet name="11_19" sheetId="7" r:id="rId6"/>
+    <sheet name="12_01" sheetId="11" r:id="rId7"/>
+    <sheet name="12_07" sheetId="12" r:id="rId8"/>
+    <sheet name="12_11" sheetId="15" r:id="rId9"/>
     <sheet name="Methane Standard Curve" sheetId="6" r:id="rId10"/>
     <sheet name="Compilation" sheetId="8" r:id="rId11"/>
-    <sheet name="11_5" sheetId="4" r:id="rId12"/>
+    <sheet name="12_01_Summary of Results" sheetId="10" r:id="rId12"/>
+    <sheet name="11_5" sheetId="4" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
   <si>
     <t>Liters</t>
   </si>
@@ -298,6 +299,9 @@
   </si>
   <si>
     <t>&lt;--Error</t>
+  </si>
+  <si>
+    <t>**Throwing this point out; it was measured differently, by me/Tom rather than by me, and I’m concerned about operator error</t>
   </si>
 </sst>
 </file>
@@ -307,7 +311,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -489,7 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -534,15 +538,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -561,8 +556,50 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -636,8 +673,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.33195523636468516"/>
-                  <c:y val="4.8425124144800456E-2"/>
+                  <c:x val="-0.31680404195862305"/>
+                  <c:y val="3.4467561145162681E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -645,63 +682,60 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Neatened Compilation'!$C$2:$C$9</c:f>
+              <c:f>'Neatened Compilation'!$C$3:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.1391176422049266E-2</c:v>
+                  <c:v>9.0243491953218014E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0243491953218014E-2</c:v>
+                  <c:v>8.9214109445657191E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9214109445657191E-2</c:v>
+                  <c:v>4.6534363085345594E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6534363085345594E-2</c:v>
+                  <c:v>7.0487379671178976E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0487379671178976E-2</c:v>
+                  <c:v>4.5769999558765734E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5769999558765734E-2</c:v>
+                  <c:v>6.0233987106893573E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0233987106893573E-2</c:v>
+                  <c:v>5.8745537990821016E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Neatened Compilation'!$I$2:$I$9</c:f>
+              <c:f>'Neatened Compilation'!$I$3:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>51.727234197410638</c:v>
+                  <c:v>48.340161938759181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.340161938759181</c:v>
+                  <c:v>44.105816683252677</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.105816683252677</c:v>
+                  <c:v>28.395384527843461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.395384527843461</c:v>
+                  <c:v>41.132831366988491</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.132831366988491</c:v>
+                  <c:v>28.116969705221639</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.116969705221639</c:v>
+                  <c:v>34.869502561398797</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.869502561398797</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>35.169436660808579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -716,11 +750,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="78196736"/>
-        <c:axId val="78186752"/>
+        <c:axId val="41986688"/>
+        <c:axId val="41988864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78196736"/>
+        <c:axId val="41986688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -754,12 +788,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78186752"/>
+        <c:crossAx val="41988864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78186752"/>
+        <c:axId val="41988864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -789,7 +823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78196736"/>
+        <c:crossAx val="41986688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -834,62 +868,76 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.176870342897959"/>
+                  <c:y val="-5.18994735484654E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Neatened Compilation'!$C$2:$C$9</c:f>
+              <c:f>'Neatened Compilation'!$C$3:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.1391176422049266E-2</c:v>
+                  <c:v>9.0243491953218014E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0243491953218014E-2</c:v>
+                  <c:v>8.9214109445657191E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9214109445657191E-2</c:v>
+                  <c:v>4.6534363085345594E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6534363085345594E-2</c:v>
+                  <c:v>7.0487379671178976E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0487379671178976E-2</c:v>
+                  <c:v>4.5769999558765734E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5769999558765734E-2</c:v>
+                  <c:v>6.0233987106893573E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0233987106893573E-2</c:v>
+                  <c:v>5.8745537990821016E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Neatened Compilation'!$H$2:$H$9</c:f>
+              <c:f>'Neatened Compilation'!$H$3:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.2700352806044126</c:v>
+                  <c:v>2.6932851089400507</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6932851089400507</c:v>
+                  <c:v>2.9181809328892121</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9181809328892121</c:v>
+                  <c:v>2.3642889846525779</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3642889846525779</c:v>
+                  <c:v>2.4722779764312817</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4722779764312817</c:v>
+                  <c:v>2.3484803688734086</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3484803688734086</c:v>
+                  <c:v>2.4921283100919336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4921283100919336</c:v>
+                  <c:v>2.4098167153230468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -904,11 +952,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="103752064"/>
-        <c:axId val="103746176"/>
+        <c:axId val="139764864"/>
+        <c:axId val="139766400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103752064"/>
+        <c:axId val="139764864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,12 +966,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103746176"/>
+        <c:crossAx val="139766400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103746176"/>
+        <c:axId val="139766400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,7 +982,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103752064"/>
+        <c:crossAx val="139764864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -952,6 +1000,791 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Methane Standard Curve'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.5242782152230968E-3"/>
+                  <c:y val="-0.16702573636628754"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Methane Standard Curve'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0433333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>605.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1502.5333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2821.9333333333329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4092.2000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5239.7333333333327</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Methane Standard Curve'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.996007984031936E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9840637450199202E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0347887823926161E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0068022390703611E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0076012020505568E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0010971303185108E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="42753024"/>
+        <c:axId val="42754816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="42753024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42754816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="42754816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42753024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Compilation!$B$9:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.0243491953218014E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9214109445657191E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6534363085345594E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0487379671178976E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5769999558765734E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compilation!$C$9:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35.815665436444306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.678400542591753</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.038398536538562</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.475688694632385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.832118463414211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="42761600"/>
+        <c:axId val="42902656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="42761600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42902656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="42902656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42761600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Compilation!$B$16:$B$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compilation!$E$16:$E$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0.98649488502402116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.512653345232873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8397345876234921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.062748819076301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2245456365537337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3472892721055967</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4435965552270278</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5211778943122227</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5415941061963752</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5850109575742257</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6384528112714705</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6838498117645333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.722891347558928</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7568247316867311</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7865909244714433</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8129131466184094</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8363564165473032</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8573685652480112</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8763091201370403</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8934700472549348</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9090909090909092</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.923370116753834</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9364734022247787</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.948540280265163</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9596890353386875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9700206119430468</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.9796216797273418</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9885670706397636</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.9969217332482776</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.0047423122631827</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0120784345224352</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0189737631702735</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.025466867355969</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.0315919440496741</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.0373794205037403</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0428564597669174</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0480473869767097</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.0529740505456986</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.0576561295544997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0621113964719764</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.0663559425978169</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.0704043722558261</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.0742699706773204</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.0779648496414169</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.0815000742361383</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.0848857735351078</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.0881312375215999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.0912450022132001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.0942349246295948</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.0971082489898056</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.099871665313056</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.1025313614211787</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.1050930691934164</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.1075621058013492</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.1099434105482371</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.1122415778498937</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.114460886820491</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.1166053278641472</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.1186786266199658</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.1206842655628257</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.1226255035233628</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="43975040"/>
+        <c:axId val="43976576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="43975040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43976576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="43976576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43975040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1064,11 +1897,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59774464"/>
-        <c:axId val="59776384"/>
+        <c:axId val="42526976"/>
+        <c:axId val="42828160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59774464"/>
+        <c:axId val="42526976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,12 +1930,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59776384"/>
+        <c:crossAx val="42828160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59776384"/>
+        <c:axId val="42828160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,829 +1965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59774464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Compilation!$B$16:$B$76</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.3000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Compilation!$E$16:$E$76</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>0.98649488502402116</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.512653345232873</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.8397345876234921</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.062748819076301</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2245456365537337</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3472892721055967</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.4435965552270278</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5211778943122227</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.5415941061963752</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5850109575742257</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.6384528112714705</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.6838498117645333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.722891347558928</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.7568247316867311</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.7865909244714433</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.8129131466184094</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.8363564165473032</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.8573685652480112</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.8763091201370403</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.8934700472549348</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.9090909090909092</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.923370116753834</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.9364734022247787</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.948540280265163</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.9596890353386875</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.9700206119430468</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.9796216797273418</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.9885670706397636</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.9969217332482776</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.0047423122631827</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.0120784345224352</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.0189737631702735</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.025466867355969</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.0315919440496741</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.0373794205037403</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.0428564597669174</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.0480473869767097</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.0529740505456986</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.0576561295544997</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.0621113964719764</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.0663559425978169</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.0704043722558261</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.0742699706773204</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.0779648496414169</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.0815000742361383</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.0848857735351078</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.0881312375215999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.0912450022132001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.0942349246295948</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.0971082489898056</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.099871665313056</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.1025313614211787</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.1050930691934164</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.1075621058013492</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.1099434105482371</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.1122415778498937</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.114460886820491</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.1166053278641472</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3.1186786266199658</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3.1206842655628257</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.1226255035233628</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="59796864"/>
-        <c:axId val="59803136"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="59796864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Growth Rate (1/h)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59803136"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="59803136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Growth Yield</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59796864"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Methane Standard Curve'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.5242782152230968E-3"/>
-                  <c:y val="-0.16702573636628754"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Methane Standard Curve'!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5.0433333333333339</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>605.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1502.5333333333335</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2821.9333333333329</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4092.2000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5239.7333333333327</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23749</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Methane Standard Curve'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.996007984031936E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9840637450199202E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0347887823926161E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0068022390703611E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0076012020505568E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0010971303185108E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="76052736"/>
-        <c:axId val="76083200"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="76052736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76083200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="76083200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76052736"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Compilation!$B$9:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.0243491953218014E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.9214109445657191E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.6534363085345594E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0487379671178976E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5769999558765734E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Compilation!$C$9:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>35.815665436444306</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.678400542591753</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21.038398536538562</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.475688694632385</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.832118463414211</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="76559104"/>
-        <c:axId val="76560640"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="76559104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76560640"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="76560640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76559104"/>
+        <c:crossAx val="42526976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2393,37 +2404,73 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="76578176"/>
-        <c:axId val="76584064"/>
+        <c:axId val="42844544"/>
+        <c:axId val="42846464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76578176"/>
+        <c:axId val="42844544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Growth Rate (1/h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76584064"/>
+        <c:crossAx val="42846464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76584064"/>
+        <c:axId val="42846464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Growth Yield</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76578176"/>
+        <c:crossAx val="42844544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2509,6 +2556,106 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -2558,106 +2705,6 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2961,28 +3008,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="16"/>
+    <col min="1" max="1" width="12.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="16"/>
     <col min="3" max="3" width="19" style="16" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="16"/>
+    <col min="4" max="4" width="18.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="16"/>
     <col min="6" max="6" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="16"/>
+    <col min="7" max="7" width="22.109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="16"/>
     <col min="9" max="9" width="24" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="16"/>
+    <col min="11" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>37</v>
       </c>
@@ -3014,293 +3061,333 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+    <row r="2" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38">
         <v>42299</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="39">
         <v>0.626</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="40">
         <v>8.1391176422049266E-2</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="41">
         <v>236.72923300841694</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="42">
         <v>14510</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="43">
         <f>E2*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>2.4971655045194385E-2</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="44">
         <f>F2*D2</f>
         <v>5.9115207457996322</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="44">
         <f>B2/G2*$B$18*C2/LN(2)*22400/60</f>
         <v>2.2700352806044126</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="45">
         <f>G2*60/22.4/B2/$B$18</f>
         <v>51.727234197410638</v>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="44">
         <f>C2*1000/I2</f>
         <v>1.5734685545225526</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="K2" s="46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
         <v>42304</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="30">
         <v>0.67200000000000004</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="31">
         <v>9.0243491953218014E-2</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="32">
         <v>248.86140042339238</v>
       </c>
       <c r="E3" s="16">
         <v>13817</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="26">
         <f>E3*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>2.3830077808006077E-2</v>
       </c>
-      <c r="G3" s="30">
-        <f t="shared" ref="G3:G8" si="0">F3*D3</f>
+      <c r="G3" s="27">
+        <f t="shared" ref="G3:G9" si="0">F3*D3</f>
         <v>5.9303865354987968</v>
       </c>
-      <c r="H3" s="30">
-        <f t="shared" ref="H3:H8" si="1">B3/G3*$B$18*C3/LN(2)*22400/60</f>
+      <c r="H3" s="27">
+        <f t="shared" ref="H3:H9" si="1">B3/G3*$B$18*C3/LN(2)*22400/60</f>
         <v>2.6932851089400507</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="28">
         <f t="shared" ref="I3:I9" si="2">G3*60/22.4/B3/$B$18</f>
         <v>48.340161938759181</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="27">
         <f t="shared" ref="J3:J8" si="3">C3*1000/I3</f>
         <v>1.8668429797058812</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
         <v>42310</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="30">
         <v>0.71199999999999997</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="31">
         <v>8.9214109445657191E-2</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="32">
         <v>236.1487621304139</v>
       </c>
       <c r="E4" s="16">
         <v>14088.333333333334</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="26">
         <f>E4*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>2.4277044556958109E-2</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="27">
         <f t="shared" si="0"/>
         <v>5.73299402031056</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="27">
         <f t="shared" si="1"/>
         <v>2.9181809328892121</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="28">
         <f t="shared" si="2"/>
         <v>44.105816683252677</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="27">
         <f t="shared" si="3"/>
         <v>2.022728885995948</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
         <v>42320</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="30">
         <v>0.83</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="31">
         <v>4.6534363085345594E-2</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="32">
         <v>235.07847553954838</v>
       </c>
       <c r="E5" s="16">
         <v>10461.666666666666</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="26">
         <f>E5*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>1.8302845258925997E-2</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="27">
         <f t="shared" si="0"/>
         <v>4.3026049615045743</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="27">
         <f t="shared" si="1"/>
         <v>2.3642889846525779</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="28">
         <f t="shared" si="2"/>
         <v>28.395384527843461</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="27">
         <f t="shared" si="3"/>
         <v>1.6388002437408702</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
         <v>42327</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="30">
         <v>0.68</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="31">
         <v>7.0487379671178976E-2</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="32">
         <v>233.75469282166114</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="30">
         <v>12611.666666666666</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="36">
         <f>E6*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>2.1844535100130694E-2</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="37">
         <f t="shared" si="0"/>
         <v>5.1062625921630449</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="27">
         <f t="shared" si="1"/>
         <v>2.4722779764312817</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="28">
         <f t="shared" si="2"/>
         <v>41.132831366988491</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="27">
         <f t="shared" si="3"/>
         <v>1.7136525089237895</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="29">
         <v>42339</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="30">
         <v>0.80400000000000005</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="31">
         <v>4.5769999558765734E-2</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="32">
         <v>236.97793496562076</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="30">
         <v>9922.6666666666661</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="36">
         <f>E7*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>1.7414951852223977E-2</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="37">
         <f t="shared" si="0"/>
         <v>4.1269593274657508</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="27">
         <f t="shared" si="1"/>
         <v>2.3484803688734086</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="28">
         <f t="shared" si="2"/>
         <v>28.116969705221639</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="27">
         <f t="shared" si="3"/>
         <v>1.6278425462849835</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="29">
         <v>42345</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="30">
         <v>0.66</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="31">
         <v>6.0233987106893573E-2</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="32">
         <v>252.66502739838626</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="30">
         <v>9445.18</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="36">
         <f>E8*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>1.662838921192443E-2</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="37">
         <f t="shared" si="0"/>
         <v>4.2014124158219168</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="27">
         <f t="shared" si="1"/>
         <v>2.4921283100919336</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="28">
         <f t="shared" si="2"/>
         <v>34.869502561398797</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="27">
         <f t="shared" si="3"/>
         <v>1.7274117117338446</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
         <v>42349</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="I9" s="31" t="e">
+      <c r="B9" s="30">
+        <v>0.85</v>
+      </c>
+      <c r="C9" s="31">
+        <v>5.8745537990821016E-2</v>
+      </c>
+      <c r="D9" s="32">
+        <f>AVERAGE(D4:D8)</f>
+        <v>238.92497857112608</v>
+      </c>
+      <c r="E9" s="30">
+        <v>13217</v>
+      </c>
+      <c r="F9" s="36">
+        <f>E9*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>2.2841699247669878E-2</v>
+      </c>
+      <c r="G9" s="37">
+        <f t="shared" si="0"/>
+        <v>5.457452503277632</v>
+      </c>
+      <c r="H9" s="27">
+        <f t="shared" si="1"/>
+        <v>2.4098167153230468</v>
+      </c>
+      <c r="I9" s="28">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="16" t="e">
+        <v>35.169436660808579</v>
+      </c>
+      <c r="J9" s="27">
         <f>C9*1000/I9</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6703576618923983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="I14" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>82</v>
       </c>
@@ -3322,11 +3409,11 @@
       <c r="G15" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="28">
         <f>2.86*B18/0.34</f>
         <v>4.11335294117647</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="28">
         <f>0.58*B18/0.34</f>
         <v>0.83417647058823519</v>
       </c>
@@ -3334,7 +3421,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>89</v>
       </c>
@@ -3344,15 +3431,15 @@
       <c r="G16" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="28">
         <v>2.5950000000000002</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="28">
         <f>C16*SLOPE(I2:I8,C2:C8)+INTERCEPT(I2:I8,C2:C8)</f>
         <v>45.951016882770382</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>83</v>
       </c>
@@ -3371,16 +3458,16 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -3400,7 +3487,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>0/28</f>
         <v>0</v>
@@ -3423,7 +3510,7 @@
         <v>8.7353095728390375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>0.056/28.056</f>
         <v>1.996007984031936E-3</v>
@@ -3446,7 +3533,7 @@
         <v>12.134661099511597</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>0.112/28.112</f>
         <v>3.9840637450199202E-3</v>
@@ -3469,7 +3556,7 @@
         <v>26.931270548069776</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>0.17/28.17</f>
         <v>6.0347887823926161E-3</v>
@@ -3492,7 +3579,7 @@
         <v>55.90387583462654</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>0.226/28.226</f>
         <v>8.0068022390703611E-3</v>
@@ -3515,7 +3602,7 @@
         <v>160.68923423801618</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>0.285/28.285</f>
         <v>1.0076012020505568E-2</v>
@@ -3538,7 +3625,7 @@
         <v>145.02221668879997</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>1.167/29.167</f>
         <v>4.0010971303185108E-2</v>
@@ -3561,7 +3648,7 @@
         <v>621.81347685620324</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>28/28</f>
         <v>1</v>
@@ -3585,7 +3672,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="8" t="s">
         <v>25</v>
@@ -3607,7 +3694,7 @@
         <v>1.0693668610640503E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -3634,12 +3721,12 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3695,7 +3782,7 @@
         <v>3.6351087359927061</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>42310</v>
       </c>
@@ -3722,7 +3809,7 @@
         <v>3.9386491118750104</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>42313</v>
       </c>
@@ -3752,7 +3839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>42320</v>
       </c>
@@ -3782,7 +3869,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>42327</v>
       </c>
@@ -3809,7 +3896,7 @@
         <v>3.3368169007047968</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>42339</v>
       </c>
@@ -3856,7 +3943,7 @@
         <v>118.72</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8.9214109445657191E-2</v>
       </c>
@@ -3870,7 +3957,7 @@
         <v>3.5103</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>4.6534363085345594E-2</v>
       </c>
@@ -3884,7 +3971,7 @@
         <v>258.17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>7.0487379671178976E-2</v>
       </c>
@@ -3898,7 +3985,7 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>4.5769999558765734E-2</v>
       </c>
@@ -3906,12 +3993,12 @@
         <v>20.832118463414211</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>73</v>
       </c>
@@ -3925,7 +4012,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.01</v>
       </c>
@@ -3950,7 +4037,7 @@
         <v>0.20101268236238412</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.02</v>
       </c>
@@ -3965,7 +4052,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.03</v>
       </c>
@@ -3980,7 +4067,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.04</v>
       </c>
@@ -3995,7 +4082,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.05</v>
       </c>
@@ -4010,7 +4097,7 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.06</v>
       </c>
@@ -4025,7 +4112,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -4040,7 +4127,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.08</v>
       </c>
@@ -4055,7 +4142,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>8.3000000000000004E-2</v>
       </c>
@@ -4070,7 +4157,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.09</v>
       </c>
@@ -4085,7 +4172,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.1</v>
       </c>
@@ -4100,7 +4187,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.11</v>
       </c>
@@ -4115,7 +4202,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.12</v>
       </c>
@@ -4130,7 +4217,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.13</v>
       </c>
@@ -4145,7 +4232,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0.14000000000000001</v>
       </c>
@@ -4160,7 +4247,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0.15</v>
       </c>
@@ -4175,7 +4262,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0.16</v>
       </c>
@@ -4190,7 +4277,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.17</v>
       </c>
@@ -4205,7 +4292,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>0.18</v>
       </c>
@@ -4220,7 +4307,7 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>0.19</v>
       </c>
@@ -4235,7 +4322,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>0.2</v>
       </c>
@@ -4250,7 +4337,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>0.21</v>
       </c>
@@ -4265,7 +4352,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>0.22</v>
       </c>
@@ -4280,7 +4367,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>0.23</v>
       </c>
@@ -4295,7 +4382,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>0.24</v>
       </c>
@@ -4310,7 +4397,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>0.25</v>
       </c>
@@ -4325,7 +4412,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>0.26</v>
       </c>
@@ -4340,7 +4427,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>0.27</v>
       </c>
@@ -4355,7 +4442,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>0.28000000000000003</v>
       </c>
@@ -4370,7 +4457,7 @@
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>0.28999999999999998</v>
       </c>
@@ -4385,7 +4472,7 @@
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>0.3</v>
       </c>
@@ -4404,7 +4491,7 @@
         <v>7.6378502343204709E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>0.31</v>
       </c>
@@ -4419,7 +4506,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>0.32</v>
       </c>
@@ -4434,7 +4521,7 @@
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>0.33</v>
       </c>
@@ -4449,7 +4536,7 @@
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>0.34</v>
       </c>
@@ -4464,7 +4551,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>0.35</v>
       </c>
@@ -4479,7 +4566,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>0.36</v>
       </c>
@@ -4494,7 +4581,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>0.37</v>
       </c>
@@ -4509,7 +4596,7 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>0.38</v>
       </c>
@@ -4524,7 +4611,7 @@
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>0.39</v>
       </c>
@@ -4539,7 +4626,7 @@
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>0.4</v>
       </c>
@@ -4554,7 +4641,7 @@
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>0.41</v>
       </c>
@@ -4569,7 +4656,7 @@
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>0.42</v>
       </c>
@@ -4584,7 +4671,7 @@
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>0.43</v>
       </c>
@@ -4599,7 +4686,7 @@
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>0.44</v>
       </c>
@@ -4614,7 +4701,7 @@
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>0.45</v>
       </c>
@@ -4629,7 +4716,7 @@
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>0.46</v>
       </c>
@@ -4644,7 +4731,7 @@
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>0.47</v>
       </c>
@@ -4659,7 +4746,7 @@
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>0.48</v>
       </c>
@@ -4674,7 +4761,7 @@
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>0.49</v>
       </c>
@@ -4689,7 +4776,7 @@
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>0.5</v>
       </c>
@@ -4704,7 +4791,7 @@
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>0.51</v>
       </c>
@@ -4719,7 +4806,7 @@
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>0.52</v>
       </c>
@@ -4734,7 +4821,7 @@
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>0.53</v>
       </c>
@@ -4749,7 +4836,7 @@
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>0.54</v>
       </c>
@@ -4764,7 +4851,7 @@
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>0.55000000000000004</v>
       </c>
@@ -4779,7 +4866,7 @@
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>0.56000000000000005</v>
       </c>
@@ -4794,7 +4881,7 @@
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>0.56999999999999995</v>
       </c>
@@ -4809,7 +4896,7 @@
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>0.57999999999999996</v>
       </c>
@@ -4824,7 +4911,7 @@
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>0.59</v>
       </c>
@@ -4839,7 +4926,7 @@
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>0.6</v>
       </c>
@@ -4862,380 +4949,27 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1">
-        <v>0.67200000000000004</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <f>24+7+3/4</f>
-        <v>31.75</v>
-      </c>
-      <c r="B4" s="6">
-        <v>3.55</v>
-      </c>
-      <c r="C4" s="6">
-        <f>B4/2.65</f>
-        <v>1.3396226415094339</v>
-      </c>
-      <c r="D4" s="6">
-        <f>A4/C4</f>
-        <v>23.700704225352116</v>
-      </c>
-      <c r="E4" s="6">
-        <f>1/D4</f>
-        <v>4.2192839102659335E-2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f>24+40/60</f>
-        <v>24.666666666666668</v>
-      </c>
-      <c r="B5">
-        <v>3.125</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
-        <v>1.179245283018868</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D6" si="1">A5/C5</f>
-        <v>20.917333333333332</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E6" si="2">1/D5</f>
-        <v>4.7807241203467625E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f>48+20+0.25</f>
-        <v>68.25</v>
-      </c>
-      <c r="B6">
-        <v>8.35</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>3.1509433962264151</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>21.660179640718564</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>4.616766880917824E-2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3">
-        <f>AVERAGE(E4:E6)</f>
-        <v>4.538924970510174E-2</v>
-      </c>
-      <c r="F7">
-        <f>60*LN(2)/E7</f>
-        <v>916.2705068667866</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5">
-        <f>STDEV(E4:E6)</f>
-        <v>2.8870105582736597E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12.48</v>
-      </c>
-      <c r="B12">
-        <f>50/A12*60</f>
-        <v>240.38461538461539</v>
-      </c>
-      <c r="F12">
-        <v>13870</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12.45</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ref="B13:B16" si="3">50/A13*60</f>
-        <v>240.96385542168676</v>
-      </c>
-      <c r="F13">
-        <v>14880</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12.59</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="3"/>
-        <v>238.28435266084193</v>
-      </c>
-      <c r="F14">
-        <v>14742</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12.57</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="3"/>
-        <v>238.6634844868735</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>12.36</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="3"/>
-        <v>242.71844660194179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3">
-        <f>AVERAGE(B12:B16)</f>
-        <v>240.20295091119186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="5">
-        <f>STDEV(B12:B16)</f>
-        <v>1.8021287650322444</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3">
-        <f>AVERAGE(F12:F16)</f>
-        <v>14497.333333333334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="5">
-        <f>STDEV(F12:F16)</f>
-        <v>547.65074028374454</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="15">
-        <f>F18*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
-        <v>2.4950789275587283E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23">
-        <f>B17*F21</f>
-        <v>5.9932532115593844</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24">
-        <f>B23/22.4</f>
-        <v>0.26755594694461537</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25">
-        <f>B24*60</f>
-        <v>16.053356816676924</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="10">
-        <f>B25/(B1*0.66)</f>
-        <v>36.195339142940391</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28">
-        <f>B26*0.66/0.34</f>
-        <v>70.261540689237222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <f>B1/B23</f>
-        <v>0.11212608182545859</v>
-      </c>
-      <c r="C31">
-        <f>B31*0.34</f>
-        <v>3.8122867820655923E-2</v>
-      </c>
-      <c r="D31">
-        <f>C31/F7</f>
-        <v>4.1606564366038767E-5</v>
-      </c>
-      <c r="E31">
-        <f>D31*22400</f>
-        <v>0.93198704179926839</v>
-      </c>
-      <c r="F31">
-        <f>E31/0.34*0.66</f>
-        <v>1.8091513164338739</v>
-      </c>
-      <c r="G31">
-        <f>2.31*0.66/0.34</f>
-        <v>4.4841176470588238</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5341,13 +5075,13 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -5457,24 +5191,377 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <f>24+7+3/4</f>
+        <v>31.75</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3.55</v>
+      </c>
+      <c r="C4" s="6">
+        <f>B4/2.65</f>
+        <v>1.3396226415094339</v>
+      </c>
+      <c r="D4" s="6">
+        <f>A4/C4</f>
+        <v>23.700704225352116</v>
+      </c>
+      <c r="E4" s="6">
+        <f>1/D4</f>
+        <v>4.2192839102659335E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>24+40/60</f>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="B5">
+        <v>3.125</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
+        <v>1.179245283018868</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="1">A5/C5</f>
+        <v>20.917333333333332</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="2">1/D5</f>
+        <v>4.7807241203467625E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>48+20+0.25</f>
+        <v>68.25</v>
+      </c>
+      <c r="B6">
+        <v>8.35</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3.1509433962264151</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>21.660179640718564</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>4.616766880917824E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <f>AVERAGE(E4:E6)</f>
+        <v>4.538924970510174E-2</v>
+      </c>
+      <c r="F7">
+        <f>60*LN(2)/E7</f>
+        <v>916.2705068667866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5">
+        <f>STDEV(E4:E6)</f>
+        <v>2.8870105582736597E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12.48</v>
+      </c>
+      <c r="B12">
+        <f>50/A12*60</f>
+        <v>240.38461538461539</v>
+      </c>
+      <c r="F12">
+        <v>13870</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12.45</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:B16" si="3">50/A13*60</f>
+        <v>240.96385542168676</v>
+      </c>
+      <c r="F13">
+        <v>14880</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12.59</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="3"/>
+        <v>238.28435266084193</v>
+      </c>
+      <c r="F14">
+        <v>14742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12.57</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="3"/>
+        <v>238.6634844868735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12.36</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>242.71844660194179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <f>AVERAGE(B12:B16)</f>
+        <v>240.20295091119186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
+        <f>STDEV(B12:B16)</f>
+        <v>1.8021287650322444</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3">
+        <f>AVERAGE(F12:F16)</f>
+        <v>14497.333333333334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5">
+        <f>STDEV(F12:F16)</f>
+        <v>547.65074028374454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="15">
+        <f>F18*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
+        <v>2.4950789275587283E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <f>B17*F21</f>
+        <v>5.9932532115593844</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <f>B23/22.4</f>
+        <v>0.26755594694461537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <f>B24*60</f>
+        <v>16.053356816676924</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="10">
+        <f>B25/(B1*0.66)</f>
+        <v>36.195339142940391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28">
+        <f>B26*0.66/0.34</f>
+        <v>70.261540689237222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <f>B1/B23</f>
+        <v>0.11212608182545859</v>
+      </c>
+      <c r="C31">
+        <f>B31*0.34</f>
+        <v>3.8122867820655923E-2</v>
+      </c>
+      <c r="D31">
+        <f>C31/F7</f>
+        <v>4.1606564366038767E-5</v>
+      </c>
+      <c r="E31">
+        <f>D31*22400</f>
+        <v>0.93198704179926839</v>
+      </c>
+      <c r="F31">
+        <f>E31/0.34*0.66</f>
+        <v>1.8091513164338739</v>
+      </c>
+      <c r="G31">
+        <f>2.31*0.66/0.34</f>
+        <v>4.4841176470588238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5482,12 +5569,12 @@
         <v>0.626</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5504,7 +5591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>26+20/60</f>
         <v>26.333333333333332</v>
@@ -5531,7 +5618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>22+1/12</f>
         <v>22.083333333333332</v>
@@ -5573,7 +5660,7 @@
         <v>8.2469074097213532E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -5591,7 +5678,7 @@
         <v>1.5243775110677241E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5599,7 +5686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5610,7 +5697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12.84</v>
       </c>
@@ -5622,7 +5709,7 @@
         <v>14540</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.7</v>
       </c>
@@ -5634,7 +5721,7 @@
         <v>14297</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.55</v>
       </c>
@@ -5646,7 +5733,7 @@
         <v>14693</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.36</v>
       </c>
@@ -5664,7 +5751,7 @@
         <v>232.01856148491879</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -5673,7 +5760,7 @@
         <v>236.72923300841694</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -5689,7 +5776,7 @@
         <v>14510</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -5698,16 +5785,16 @@
         <v>199.69727088771143</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="15">
         <f>F18*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
         <v>2.4971655045194385E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -5716,7 +5803,7 @@
         <v>5.9115207457996322</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -5725,7 +5812,7 @@
         <v>0.26390717615176928</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -5734,7 +5821,7 @@
         <v>15.834430569106157</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5743,13 +5830,371 @@
         <v>38.325178064445147</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>66</v>
       </c>
       <c r="B28">
         <f>B26*0.66/0.34</f>
         <v>74.395933889805278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <f>25+55/60</f>
+        <v>25.916666666666668</v>
+      </c>
+      <c r="B4" s="6">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6">
+        <f>B4/2.65</f>
+        <v>2.2641509433962264</v>
+      </c>
+      <c r="D4" s="6">
+        <f>A4/C4</f>
+        <v>11.446527777777778</v>
+      </c>
+      <c r="E4" s="6">
+        <f>1/D4</f>
+        <v>8.7362737365770798E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>23+23/60</f>
+        <v>23.383333333333333</v>
+      </c>
+      <c r="B5">
+        <v>6.15</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
+        <v>2.3207547169811322</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="1">A5/C5</f>
+        <v>10.075745257452574</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="2">1/D5</f>
+        <v>9.9248241638537363E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>5.35</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2.0188679245283017</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>11.887850467289722</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>8.4119496855345893E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <f>AVERAGE(E4:E6)</f>
+        <v>9.0243491953218014E-2</v>
+      </c>
+      <c r="F7">
+        <f>60*LN(2)/E7</f>
+        <v>460.85130277489986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5">
+        <f>STDEV(E4:E6)</f>
+        <v>7.96516101052323E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12.25</v>
+      </c>
+      <c r="B12">
+        <f>50/A12*60</f>
+        <v>244.89795918367346</v>
+      </c>
+      <c r="F12">
+        <v>14371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11.74</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:B16" si="3">50/A13*60</f>
+        <v>255.53662691652471</v>
+      </c>
+      <c r="F13">
+        <v>14899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12.08</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="3"/>
+        <v>248.34437086092714</v>
+      </c>
+      <c r="F14">
+        <v>11940</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12.4</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="3"/>
+        <v>241.93548387096774</v>
+      </c>
+      <c r="F15">
+        <v>13665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>11.83</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>253.59256128486896</v>
+      </c>
+      <c r="F16">
+        <v>14210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <f>AVERAGE(B12:B16)</f>
+        <v>248.86140042339238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
+        <f>STDEV(B12:B16)</f>
+        <v>5.7202936540028428</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3">
+        <f>AVERAGE(F12:F16)</f>
+        <v>13817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5">
+        <f>STDEV(F12:F16)</f>
+        <v>1137.7963350266164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="15">
+        <f>F18*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
+        <v>2.3830077808006077E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <f>B17*F21</f>
+        <v>5.9303865354987968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <f>B23/22.4</f>
+        <v>0.26474939890619631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <f>B24*60</f>
+        <v>15.884963934371779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="10">
+        <f>B25/(B1*0.66)</f>
+        <v>35.815665436444306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28">
+        <f>B26*0.66/0.34</f>
+        <v>69.524527023686005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <f>B1/B23</f>
+        <v>0.11331470486408675</v>
+      </c>
+      <c r="C31">
+        <f>B31*0.34</f>
+        <v>3.8526999653789494E-2</v>
+      </c>
+      <c r="D31">
+        <f>C31/F7</f>
+        <v>8.3599632727105001E-5</v>
+      </c>
+      <c r="E31">
+        <f>D31*22400</f>
+        <v>1.872631773087152</v>
+      </c>
+      <c r="F31">
+        <f>E31/0.34*0.66</f>
+        <v>3.6351087359927066</v>
+      </c>
+      <c r="G31">
+        <f>2.31*0.66/0.34</f>
+        <v>4.4841176470588238</v>
       </c>
     </row>
   </sheetData>
@@ -5762,32 +6207,32 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1">
-        <v>0.67200000000000004</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5804,264 +6249,279 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <f>25+55/60</f>
-        <v>25.916666666666668</v>
+        <f>22+50/60</f>
+        <v>22.833333333333332</v>
       </c>
       <c r="B4" s="6">
-        <v>6</v>
+        <v>5.15</v>
       </c>
       <c r="C4" s="6">
         <f>B4/2.65</f>
-        <v>2.2641509433962264</v>
+        <v>1.9433962264150946</v>
       </c>
       <c r="D4" s="6">
         <f>A4/C4</f>
-        <v>11.446527777777778</v>
+        <v>11.749190938511324</v>
       </c>
       <c r="E4" s="6">
         <f>1/D4</f>
-        <v>8.7362737365770798E-2</v>
+        <v>8.5112243492631884E-2</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>23+23/60</f>
-        <v>23.383333333333333</v>
+        <f>20+0.25</f>
+        <v>20.25</v>
       </c>
       <c r="B5">
-        <v>6.15</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
-        <v>2.3207547169811322</v>
+        <v>1.8301886792452831</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D6" si="1">A5/C5</f>
-        <v>10.075745257452574</v>
+        <v>11.064432989690722</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E6" si="2">1/D5</f>
-        <v>9.9248241638537363E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.0379687863964595E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>24</v>
+        <f>49+50/60</f>
+        <v>49.833333333333336</v>
       </c>
       <c r="B6">
-        <v>5.35</v>
+        <v>11.7</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>2.0188679245283017</v>
+        <v>4.415094339622641</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>11.887850467289722</v>
+        <v>11.287037037037038</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>8.4119496855345893E-2</v>
-      </c>
-      <c r="F6" t="s">
+        <v>8.8597210828547976E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>5.9</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7" si="3">B7/2.65</f>
+        <v>2.226415094339623</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7" si="4">A7/C7</f>
+        <v>10.77966101694915</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7" si="5">1/D7</f>
+        <v>9.2767295597484298E-2</v>
+      </c>
+      <c r="F7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3">
-        <f>AVERAGE(E4:E6)</f>
-        <v>9.0243491953218014E-2</v>
-      </c>
-      <c r="F7">
-        <f>60*LN(2)/E7</f>
-        <v>460.85130277489986</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="3">
+        <f>AVERAGE(E4:E7)</f>
+        <v>8.9214109445657191E-2</v>
+      </c>
+      <c r="F8">
+        <f>60*LN(2)/E8</f>
+        <v>466.1687606592053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5">
-        <f>STDEV(E4:E6)</f>
-        <v>7.96516101052323E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E9" s="5">
+        <f>STDEV(E4:E7)</f>
+        <v>3.2243641791387537E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12.25</v>
-      </c>
-      <c r="B12">
-        <f>50/A12*60</f>
-        <v>244.89795918367346</v>
-      </c>
-      <c r="F12">
-        <v>14371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11.74</v>
+        <v>12.73</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B16" si="3">50/A13*60</f>
-        <v>255.53662691652471</v>
+        <f>50/A13*60</f>
+        <v>235.66378633150038</v>
       </c>
       <c r="F13">
-        <v>14899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12.08</v>
+        <v>12.7</v>
       </c>
       <c r="B14">
-        <f t="shared" si="3"/>
-        <v>248.34437086092714</v>
+        <f t="shared" ref="B14:B17" si="6">50/A14*60</f>
+        <v>236.22047244094489</v>
       </c>
       <c r="F14">
-        <v>11940</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12.4</v>
+        <v>12.77</v>
       </c>
       <c r="B15">
-        <f t="shared" si="3"/>
-        <v>241.93548387096774</v>
+        <f t="shared" si="6"/>
+        <v>234.92560689115115</v>
       </c>
       <c r="F15">
-        <v>13665</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>11.83</v>
+        <v>12.65</v>
       </c>
       <c r="B16">
-        <f t="shared" si="3"/>
-        <v>253.59256128486896</v>
-      </c>
-      <c r="F16">
-        <v>14210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+        <f t="shared" si="6"/>
+        <v>237.15415019762844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>12.67</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="6"/>
+        <v>236.77979479084453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3">
-        <f>AVERAGE(B12:B16)</f>
-        <v>248.86140042339238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="3">
+        <f>AVERAGE(B13:B17)</f>
+        <v>236.1487621304139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="5">
-        <f>STDEV(B12:B16)</f>
-        <v>5.7202936540028428</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="B19" s="5">
+        <f>STDEV(B13:B17)</f>
+        <v>0.8867722393224392</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="3">
-        <f>AVERAGE(F12:F16)</f>
-        <v>13817</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="3">
+        <f>AVERAGE(F13:F17)</f>
+        <v>14088.333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="5">
-        <f>STDEV(F12:F16)</f>
-        <v>1137.7963350266164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
+      <c r="F20" s="5">
+        <f>STDEV(F13:F17)</f>
+        <v>2313.6889015883949</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="15">
-        <f>F18*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
-        <v>2.3830077808006077E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="F22" s="15">
+        <f>F19*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
+        <v>2.4277044556958109E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="B23">
-        <f>B17*F21</f>
-        <v>5.9303865354987968</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24">
+        <f>B18*F22</f>
+        <v>5.73299402031056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="B24">
-        <f>B23/22.4</f>
-        <v>0.26474939890619631</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B25">
+        <f>B24/22.4</f>
+        <v>0.25593723304957861</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="B25">
-        <f>B24*60</f>
-        <v>15.884963934371779</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B26">
+        <f>B25*60</f>
+        <v>15.356233982974716</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="10">
-        <f>B25/(B1*0.66)</f>
-        <v>35.815665436444306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B27" s="10">
+        <f>B26/(B1*0.66)</f>
+        <v>32.678400542591753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>66</v>
       </c>
-      <c r="B28">
-        <f>B26*0.66/0.34</f>
-        <v>69.524527023686005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>B27*0.66/0.34</f>
+        <v>63.434542229736934</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -6084,26 +6544,26 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
-        <f>B1/B23</f>
-        <v>0.11331470486408675</v>
+        <f>B1/B24</f>
+        <v>0.12419339658781477</v>
       </c>
       <c r="C31">
         <f>B31*0.34</f>
-        <v>3.8526999653789494E-2</v>
+        <v>4.2225754839857021E-2</v>
       </c>
       <c r="D31">
-        <f>C31/F7</f>
-        <v>8.3599632727105001E-5</v>
+        <f>C31/F8</f>
+        <v>9.058040435859739E-5</v>
       </c>
       <c r="E31">
         <f>D31*22400</f>
-        <v>1.872631773087152</v>
+        <v>2.0290010576325814</v>
       </c>
       <c r="F31">
         <f>E31/0.34*0.66</f>
-        <v>3.6351087359927066</v>
+        <v>3.9386491118750109</v>
       </c>
       <c r="G31">
         <f>2.31*0.66/0.34</f>
@@ -6120,32 +6580,32 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1">
-        <v>0.71199999999999997</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6162,279 +6622,218 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <f>22+50/60</f>
-        <v>22.833333333333332</v>
+        <v>48.25</v>
       </c>
       <c r="B4" s="6">
-        <v>5.15</v>
+        <v>5.95</v>
       </c>
       <c r="C4" s="6">
         <f>B4/2.65</f>
-        <v>1.9433962264150946</v>
+        <v>2.2452830188679247</v>
       </c>
       <c r="D4" s="6">
         <f>A4/C4</f>
-        <v>11.749190938511324</v>
+        <v>21.489495798319325</v>
       </c>
       <c r="E4" s="6">
         <f>1/D4</f>
-        <v>8.5112243492631884E-2</v>
+        <v>4.6534363085345594E-2</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f>20+0.25</f>
-        <v>20.25</v>
-      </c>
-      <c r="B5">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
-        <v>1.8301886792452831</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D6" si="1">A5/C5</f>
-        <v>11.064432989690722</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E6" si="2">1/D5</f>
-        <v>9.0379687863964595E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f>49+50/60</f>
-        <v>49.833333333333336</v>
-      </c>
-      <c r="B6">
-        <v>11.7</v>
-      </c>
-      <c r="C6">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <f>AVERAGE(E4:E6)</f>
+        <v>4.6534363085345594E-2</v>
+      </c>
+      <c r="F7">
+        <f>60*LN(2)/E7</f>
+        <v>893.72300545558983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="e">
+        <f>STDEV(E4:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12.8</v>
+      </c>
+      <c r="B12">
+        <f>50/A12*60</f>
+        <v>234.375</v>
+      </c>
+      <c r="F12">
+        <v>10464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12.81</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:B16" si="0">50/A13*60</f>
+        <v>234.19203747072598</v>
+      </c>
+      <c r="F13">
+        <v>10676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12.64</v>
+      </c>
+      <c r="B14">
         <f t="shared" si="0"/>
-        <v>4.415094339622641</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>11.287037037037038</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>8.8597210828547976E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>5.9</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ref="C7" si="3">B7/2.65</f>
-        <v>2.226415094339623</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7" si="4">A7/C7</f>
-        <v>10.77966101694915</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ref="E7" si="5">1/D7</f>
-        <v>9.2767295597484298E-2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3">
-        <f>AVERAGE(E4:E7)</f>
-        <v>8.9214109445657191E-2</v>
-      </c>
-      <c r="F8">
-        <f>60*LN(2)/E8</f>
-        <v>466.1687606592053</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="5">
-        <f>STDEV(E4:E7)</f>
-        <v>3.2243641791387537E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12.73</v>
-      </c>
-      <c r="B13">
-        <f>50/A13*60</f>
-        <v>235.66378633150038</v>
-      </c>
-      <c r="F13">
-        <v>14866</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12.7</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ref="B14:B17" si="6">50/A14*60</f>
-        <v>236.22047244094489</v>
+        <v>237.34177215189871</v>
       </c>
       <c r="F14">
-        <v>15913</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12.77</v>
+        <v>12.78</v>
       </c>
       <c r="B15">
-        <f t="shared" si="6"/>
-        <v>234.92560689115115</v>
-      </c>
-      <c r="F15">
-        <v>11486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>234.74178403755869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>12.65</v>
+        <v>12.78</v>
       </c>
       <c r="B16">
-        <f t="shared" si="6"/>
-        <v>237.15415019762844</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>12.67</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="6"/>
-        <v>236.77979479084453</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>234.74178403755869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3">
-        <f>AVERAGE(B13:B17)</f>
-        <v>236.1487621304139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="B17" s="3">
+        <f>AVERAGE(B12:B16)</f>
+        <v>235.07847553954838</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="5">
-        <f>STDEV(B13:B17)</f>
-        <v>0.8867722393224392</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="B18" s="5">
+        <f>STDEV(B12:B16)</f>
+        <v>1.287428073243424</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="3">
-        <f>AVERAGE(F13:F17)</f>
-        <v>14088.333333333334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="4" t="s">
+      <c r="F18" s="3">
+        <f>AVERAGE(F12:F16)</f>
+        <v>10461.666666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="5">
-        <f>STDEV(F13:F17)</f>
-        <v>2313.6889015883949</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+      <c r="F19" s="5">
+        <f>STDEV(F12:F16)</f>
+        <v>215.50947388301361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="15">
-        <f>F19*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
-        <v>2.4277044556958109E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="15">
+        <f>F18*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
+        <v>1.8302845258925997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <f>B17*F21</f>
+        <v>4.3026049615045743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <f>B18*F22</f>
-        <v>5.73299402031056</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <f>B23/22.4</f>
+        <v>0.19208057863859707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <f>B24/22.4</f>
-        <v>0.25593723304957861</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>B24*60</f>
+        <v>11.524834718315823</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26">
-        <f>B25*60</f>
-        <v>15.356233982974716</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="10">
-        <f>B26/(B1*0.66)</f>
-        <v>32.678400542591753</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B26" s="10">
+        <f>B25/(B1*0.66)</f>
+        <v>21.038398536538562</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>66</v>
       </c>
-      <c r="B29">
-        <f>B27*0.66/0.34</f>
-        <v>63.434542229736934</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>B26*0.66/0.34</f>
+        <v>40.839244217986618</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -6457,26 +6856,26 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
-        <f>B1/B24</f>
-        <v>0.12419339658781477</v>
+        <f>B1/B23</f>
+        <v>0.19290639215684768</v>
       </c>
       <c r="C31">
         <f>B31*0.34</f>
-        <v>4.2225754839857021E-2</v>
+        <v>6.5588173333328212E-2</v>
       </c>
       <c r="D31">
-        <f>C31/F8</f>
-        <v>9.058040435859739E-5</v>
+        <f>C31/F7</f>
+        <v>7.3387585340150855E-5</v>
       </c>
       <c r="E31">
         <f>D31*22400</f>
-        <v>2.0290010576325814</v>
+        <v>1.6438819116193792</v>
       </c>
       <c r="F31">
         <f>E31/0.34*0.66</f>
-        <v>3.9386491118750109</v>
+        <v>3.1910648872611476</v>
       </c>
       <c r="G31">
         <f>2.31*0.66/0.34</f>
@@ -6490,334 +6889,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>48.25</v>
-      </c>
-      <c r="B4" s="6">
-        <v>5.95</v>
-      </c>
-      <c r="C4" s="6">
-        <f>B4/2.65</f>
-        <v>2.2452830188679247</v>
-      </c>
-      <c r="D4" s="6">
-        <f>A4/C4</f>
-        <v>21.489495798319325</v>
-      </c>
-      <c r="E4" s="6">
-        <f>1/D4</f>
-        <v>4.6534363085345594E-2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3">
-        <f>AVERAGE(E4:E6)</f>
-        <v>4.6534363085345594E-2</v>
-      </c>
-      <c r="F7">
-        <f>60*LN(2)/E7</f>
-        <v>893.72300545558983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5" t="e">
-        <f>STDEV(E4:E6)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12.8</v>
-      </c>
-      <c r="B12">
-        <f>50/A12*60</f>
-        <v>234.375</v>
-      </c>
-      <c r="F12">
-        <v>10464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12.81</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ref="B13:B16" si="0">50/A13*60</f>
-        <v>234.19203747072598</v>
-      </c>
-      <c r="F13">
-        <v>10676</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12.64</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>237.34177215189871</v>
-      </c>
-      <c r="F14">
-        <v>10245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12.78</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>234.74178403755869</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>12.78</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>234.74178403755869</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3">
-        <f>AVERAGE(B12:B16)</f>
-        <v>235.07847553954838</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="5">
-        <f>STDEV(B12:B16)</f>
-        <v>1.287428073243424</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3">
-        <f>AVERAGE(F12:F16)</f>
-        <v>10461.666666666666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="5">
-        <f>STDEV(F12:F16)</f>
-        <v>215.50947388301361</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="15">
-        <f>F18*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
-        <v>1.8302845258925997E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23">
-        <f>B17*F21</f>
-        <v>4.3026049615045743</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24">
-        <f>B23/22.4</f>
-        <v>0.19208057863859707</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25">
-        <f>B24*60</f>
-        <v>11.524834718315823</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="10">
-        <f>B25/(B1*0.66)</f>
-        <v>21.038398536538562</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28">
-        <f>B26*0.66/0.34</f>
-        <v>40.839244217986618</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <f>B1/B23</f>
-        <v>0.19290639215684768</v>
-      </c>
-      <c r="C31">
-        <f>B31*0.34</f>
-        <v>6.5588173333328212E-2</v>
-      </c>
-      <c r="D31">
-        <f>C31/F7</f>
-        <v>7.3387585340150855E-5</v>
-      </c>
-      <c r="E31">
-        <f>D31*22400</f>
-        <v>1.6438819116193792</v>
-      </c>
-      <c r="F31">
-        <f>E31/0.34*0.66</f>
-        <v>3.1910648872611476</v>
-      </c>
-      <c r="G31">
-        <f>2.31*0.66/0.34</f>
-        <v>4.4841176470588238</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6825,12 +6912,12 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6847,7 +6934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>20.25</v>
       </c>
@@ -6870,7 +6957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>20+25/60</f>
         <v>20.416666666666668</v>
@@ -6914,7 +7001,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -6936,7 +7023,7 @@
         <v>3.769238730890744E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6944,7 +7031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6955,7 +7042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12.85</v>
       </c>
@@ -6967,7 +7054,7 @@
         <v>12209</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.8</v>
       </c>
@@ -6979,7 +7066,7 @@
         <v>12955</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.83</v>
       </c>
@@ -6991,7 +7078,7 @@
         <v>12671</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.83</v>
       </c>
@@ -7009,7 +7096,7 @@
         <v>233.28149300155525</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -7018,7 +7105,7 @@
         <v>233.75469282166114</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -7034,7 +7121,7 @@
         <v>12611.666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -7043,7 +7130,7 @@
         <v>376.52268634616604</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -7052,7 +7139,7 @@
         <v>2.1844535100130694E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -7061,7 +7148,7 @@
         <v>5.1062625921630449</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -7070,7 +7157,7 @@
         <v>0.22795815143585024</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -7082,7 +7169,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -7095,7 +7182,7 @@
         <v>59.158689818992265</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -7104,7 +7191,7 @@
         <v>59.158689818992272</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -7127,7 +7214,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.13316980623825453</v>
@@ -7153,7 +7240,7 @@
         <v>4.4841176470588238</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>54</v>
       </c>
@@ -7162,7 +7249,7 @@
         <v>2.4799441307582417</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>52</v>
       </c>
@@ -7171,13 +7258,440 @@
         <v>0.69314718055994529</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>53</v>
       </c>
       <c r="E36">
         <f>F31*E35</f>
         <v>2.3129052267683057</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>30.25</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="C4" s="6">
+        <f>B4/2.65</f>
+        <v>1.2830188679245282</v>
+      </c>
+      <c r="D4" s="6">
+        <f>A4/C4</f>
+        <v>23.577205882352942</v>
+      </c>
+      <c r="E4" s="6">
+        <f>1/D4</f>
+        <v>4.2413846873538122E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>25+1/6</f>
+        <v>25.166666666666668</v>
+      </c>
+      <c r="B5">
+        <v>3.05</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
+        <v>1.1509433962264151</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="1">A5/C5</f>
+        <v>21.866120218579237</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="2">1/D5</f>
+        <v>4.5732850181182054E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>48-A5</f>
+        <v>22.833333333333332</v>
+      </c>
+      <c r="B6">
+        <v>2.95</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.1132075471698115</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>20.511299435028246</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>4.8753615204517292E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C7" s="6">
+        <f>B7/2.65</f>
+        <v>0.92452830188679258</v>
+      </c>
+      <c r="D7" s="6">
+        <f>A7/C7</f>
+        <v>22.714285714285712</v>
+      </c>
+      <c r="E7" s="6">
+        <f>1/D7</f>
+        <v>4.4025157232704407E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>6.35</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8" si="3">B8/2.65</f>
+        <v>2.3962264150943398</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8" si="4">A8/C8</f>
+        <v>20.866141732283463</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8" si="5">1/D8</f>
+        <v>4.7924528301886794E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <f>AVERAGE(E4:E8)</f>
+        <v>4.5769999558765734E-2</v>
+      </c>
+      <c r="F9">
+        <f>60*LN(2)/E9</f>
+        <v>908.64826817835853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5">
+        <f>STDEV(E4:E8)</f>
+        <v>2.6388241743311911E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12.74</v>
+      </c>
+      <c r="B14">
+        <f>50/A14*60</f>
+        <v>235.47880690737833</v>
+      </c>
+      <c r="F14">
+        <v>10270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12.64</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:B18" si="6">50/A15*60</f>
+        <v>237.34177215189871</v>
+      </c>
+      <c r="F15">
+        <v>9831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12.66</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="6"/>
+        <v>236.96682464454977</v>
+      </c>
+      <c r="F16">
+        <v>9667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>12.75</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="6"/>
+        <v>235.29411764705881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>12.51</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="6"/>
+        <v>239.80815347721824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
+        <f>AVERAGE(B14:B18)</f>
+        <v>236.97793496562076</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5">
+        <f>STDEV(B14:B18)</f>
+        <v>1.818327765973512</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="3">
+        <f>AVERAGE(F14:F18)</f>
+        <v>9922.6666666666661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="5">
+        <f>STDEV(F14:F18)</f>
+        <v>311.77609487151727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="15">
+        <f>F20*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
+        <v>1.7414951852223977E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <f>B19*F23</f>
+        <v>4.1269593274657508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <f>B25/22.4</f>
+        <v>0.18423925569043531</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <f>B26*60</f>
+        <v>11.054355341426119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="10">
+        <f>B27/(B1*0.66)</f>
+        <v>20.832118463414211</v>
+      </c>
+      <c r="C28">
+        <f>B27/(B1*0.34)</f>
+        <v>40.438818193686409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30">
+        <f>B28*0.66/0.34</f>
+        <v>40.438818193686409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f>B1/B25</f>
+        <v>0.19481655529028771</v>
+      </c>
+      <c r="C33">
+        <f>B33*0.34</f>
+        <v>6.6237628798697823E-2</v>
+      </c>
+      <c r="D33">
+        <f>C33/F9</f>
+        <v>7.2896885536897365E-5</v>
+      </c>
+      <c r="E33">
+        <f>D33*22400</f>
+        <v>1.632890236026501</v>
+      </c>
+      <c r="F33">
+        <f>E33/0.34*0.66</f>
+        <v>3.1697281052279132</v>
+      </c>
+      <c r="G33">
+        <f>2.31*0.66/0.34</f>
+        <v>4.4841176470588238</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34">
+        <f>E33/E37</f>
+        <v>2.355762645831442</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37">
+        <f>LN(2)</f>
+        <v>0.69314718055994529</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38">
+        <f>F33*E37</f>
+        <v>2.1970880992803457</v>
       </c>
     </row>
   </sheetData>
@@ -7194,29 +7708,29 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1">
-        <v>0.80400000000000005</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7233,125 +7747,126 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>30.25</v>
+        <f>35/60+16</f>
+        <v>16.583333333333332</v>
       </c>
       <c r="B4" s="6">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="C4" s="6">
         <f>B4/2.65</f>
-        <v>1.2830188679245282</v>
+        <v>0.98113207547169823</v>
       </c>
       <c r="D4" s="6">
         <f>A4/C4</f>
-        <v>23.577205882352942</v>
+        <v>16.902243589743588</v>
       </c>
       <c r="E4" s="6">
         <f>1/D4</f>
-        <v>4.2413846873538122E-2</v>
+        <v>5.9163743244524516E-2</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>25+1/6</f>
-        <v>25.166666666666668</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>3.05</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
-        <v>1.1509433962264151</v>
+        <v>1.5471698113207546</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D6" si="1">A5/C5</f>
-        <v>21.866120218579237</v>
+        <v>15.512195121951221</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E6" si="2">1/D5</f>
-        <v>4.5732850181182054E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.4465408805031446E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>48-A5</f>
-        <v>22.833333333333332</v>
+        <f>24+1/3</f>
+        <v>24.333333333333332</v>
       </c>
       <c r="B6">
-        <v>2.95</v>
+        <v>3.75</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>1.1132075471698115</v>
+        <v>1.4150943396226416</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>20.511299435028246</v>
+        <v>17.195555555555554</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>4.8753615204517292E-2</v>
+        <v>5.8154561902300339E-2</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>21</v>
+        <f>26+55/60</f>
+        <v>26.916666666666668</v>
       </c>
       <c r="B7">
-        <v>2.4500000000000002</v>
+        <v>4.05</v>
       </c>
       <c r="C7" s="6">
         <f>B7/2.65</f>
-        <v>0.92452830188679258</v>
+        <v>1.5283018867924527</v>
       </c>
       <c r="D7" s="6">
         <f>A7/C7</f>
-        <v>22.714285714285712</v>
+        <v>17.612139917695476</v>
       </c>
       <c r="E7" s="6">
         <f>1/D7</f>
-        <v>4.4025157232704407E-2</v>
+        <v>5.6779017465973469E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B8">
-        <v>6.35</v>
+        <v>3.65</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8" si="3">B8/2.65</f>
-        <v>2.3962264150943398</v>
+        <v>1.3773584905660377</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8" si="4">A8/C8</f>
-        <v>20.866141732283463</v>
+        <v>15.972602739726028</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8" si="5">1/D8</f>
-        <v>4.7924528301886794E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.2607204116638074E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="3">
         <f>AVERAGE(E4:E8)</f>
-        <v>4.5769999558765734E-2</v>
+        <v>6.0233987106893573E-2</v>
       </c>
       <c r="F9">
         <f>60*LN(2)/E9</f>
-        <v>908.64826817835853</v>
+        <v>690.45455615932519</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7360,10 +7875,10 @@
       </c>
       <c r="E10" s="5">
         <f>STDEV(E4:E8)</f>
-        <v>2.6388241743311911E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.1993489528702739E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -7371,7 +7886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -7382,156 +7897,162 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12.74</v>
+        <v>11.83</v>
       </c>
       <c r="B14">
         <f>50/A14*60</f>
-        <v>235.47880690737833</v>
+        <v>253.59256128486896</v>
       </c>
       <c r="F14">
-        <v>10270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9371.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12.64</v>
+        <v>11.87</v>
       </c>
       <c r="B15">
         <f t="shared" ref="B15:B18" si="6">50/A15*60</f>
-        <v>237.34177215189871</v>
+        <v>252.73799494524013</v>
       </c>
       <c r="F15">
-        <v>9831</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8942.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>12.66</v>
+        <v>12.02</v>
       </c>
       <c r="B16">
         <f t="shared" si="6"/>
-        <v>236.96682464454977</v>
+        <v>249.58402662229616</v>
       </c>
       <c r="F16">
-        <v>9667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9899.7000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>12.75</v>
+        <v>11.77</v>
       </c>
       <c r="B17">
         <f t="shared" si="6"/>
-        <v>235.29411764705881</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>254.88530161427357</v>
+      </c>
+      <c r="F17">
+        <v>9318.2000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>12.51</v>
+        <v>11.88</v>
       </c>
       <c r="B18">
         <f t="shared" si="6"/>
-        <v>239.80815347721824</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>252.52525252525251</v>
+      </c>
+      <c r="F18">
+        <v>9694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="3">
         <f>AVERAGE(B14:B18)</f>
-        <v>236.97793496562076</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>252.66502739838626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="5">
         <f>STDEV(B14:B18)</f>
-        <v>1.818327765973512</v>
+        <v>1.9562313107496343</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="3">
         <f>AVERAGE(F14:F18)</f>
-        <v>9922.6666666666661</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9445.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="5">
         <f>STDEV(F14:F18)</f>
-        <v>311.77609487151727</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>368.32522585345691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="15">
         <f>F20*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
-        <v>1.7414951852223977E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.662838921192443E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25">
         <f>B19*F23</f>
-        <v>4.1269593274657508</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.2014124158219168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
       <c r="B26">
         <f>B25/22.4</f>
-        <v>0.18423925569043531</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.18756305427776415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27">
         <f>B26*60</f>
-        <v>11.054355341426119</v>
+        <v>11.25378325666585</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="10">
         <f>B27/(B1*0.66)</f>
-        <v>20.832118463414211</v>
+        <v>25.835131443218202</v>
       </c>
       <c r="C28">
         <f>B27/(B1*0.34)</f>
-        <v>40.438818193686409</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50.150549272129453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>66</v>
       </c>
       <c r="B30">
         <f>B28*0.66/0.34</f>
-        <v>40.438818193686409</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50.150549272129453</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -7554,42 +8075,42 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <f>B1/B25</f>
-        <v>0.19481655529028771</v>
+        <v>0.15709002941832959</v>
       </c>
       <c r="C33">
         <f>B33*0.34</f>
-        <v>6.6237628798697823E-2</v>
+        <v>5.3410610002232066E-2</v>
       </c>
       <c r="D33">
         <f>C33/F9</f>
-        <v>7.2896885536897365E-5</v>
+        <v>7.7355720989561193E-5</v>
       </c>
       <c r="E33">
         <f>D33*22400</f>
-        <v>1.632890236026501</v>
+        <v>1.7327681501661707</v>
       </c>
       <c r="F33">
         <f>E33/0.34*0.66</f>
-        <v>3.1697281052279132</v>
+        <v>3.3636087620872726</v>
       </c>
       <c r="G33">
         <f>2.31*0.66/0.34</f>
         <v>4.4841176470588238</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>54</v>
       </c>
       <c r="E34">
         <f>E33/E37</f>
-        <v>2.355762645831442</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+        <v>2.4998560172550772</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>52</v>
       </c>
@@ -7598,13 +8119,13 @@
         <v>0.69314718055994529</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>53</v>
       </c>
       <c r="E38">
         <f>F33*E37</f>
-        <v>2.1970880992803457</v>
+        <v>2.331475929947521</v>
       </c>
     </row>
   </sheetData>
@@ -7617,33 +8138,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7660,138 +8181,63 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
-        <f>35/60+16</f>
-        <v>16.583333333333332</v>
+        <v>46.25</v>
       </c>
       <c r="B4" s="6">
-        <v>2.6</v>
+        <v>7.2</v>
       </c>
       <c r="C4" s="6">
         <f>B4/2.65</f>
-        <v>0.98113207547169823</v>
+        <v>2.716981132075472</v>
       </c>
       <c r="D4" s="6">
         <f>A4/C4</f>
-        <v>16.902243589743588</v>
+        <v>17.022569444444443</v>
       </c>
       <c r="E4" s="6">
         <f>1/D4</f>
-        <v>5.9163743244524516E-2</v>
+        <v>5.8745537990821016E-2</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
-        <v>1.5471698113207546</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D6" si="1">A5/C5</f>
-        <v>15.512195121951221</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E6" si="2">1/D5</f>
-        <v>6.4465408805031446E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f>24+1/3</f>
-        <v>24.333333333333332</v>
-      </c>
-      <c r="B6">
-        <v>3.75</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>1.4150943396226416</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>17.195555555555554</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>5.8154561902300339E-2</v>
-      </c>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f>26+55/60</f>
-        <v>26.916666666666668</v>
-      </c>
-      <c r="B7">
-        <v>4.05</v>
-      </c>
-      <c r="C7" s="6">
-        <f>B7/2.65</f>
-        <v>1.5283018867924527</v>
-      </c>
-      <c r="D7" s="6">
-        <f>A7/C7</f>
-        <v>17.612139917695476</v>
-      </c>
-      <c r="E7" s="6">
-        <f>1/D7</f>
-        <v>5.6779017465973469E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>3.65</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ref="C8" si="3">B8/2.65</f>
-        <v>1.3773584905660377</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ref="D8" si="4">A8/C8</f>
-        <v>15.972602739726028</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ref="E8" si="5">1/D8</f>
-        <v>6.2607204116638074E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="3">
         <f>AVERAGE(E4:E8)</f>
-        <v>6.0233987106893573E-2</v>
+        <v>5.8745537990821016E-2</v>
       </c>
       <c r="F9">
         <f>60*LN(2)/E9</f>
-        <v>690.45455615932519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>707.94876097815234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="5" t="e">
         <f>STDEV(E4:E8)</f>
-        <v>3.1993489528702739E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -7799,7 +8245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -7810,162 +8256,165 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>11.83</v>
+        <v>12.17</v>
       </c>
       <c r="B14">
         <f>50/A14*60</f>
-        <v>253.59256128486896</v>
+        <v>246.50780608052588</v>
       </c>
       <c r="F14">
-        <v>9371.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>11.87</v>
+        <v>12.08</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:B18" si="6">50/A15*60</f>
-        <v>252.73799494524013</v>
+        <f t="shared" ref="B15:B18" si="0">50/A15*60</f>
+        <v>248.34437086092714</v>
       </c>
       <c r="F15">
-        <v>8942.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>12.02</v>
+        <v>11.91</v>
       </c>
       <c r="B16">
-        <f t="shared" si="6"/>
-        <v>249.58402662229616</v>
+        <f t="shared" si="0"/>
+        <v>251.88916876574308</v>
       </c>
       <c r="F16">
-        <v>9899.7000000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>11.77</v>
+        <v>12.32</v>
       </c>
       <c r="B17">
-        <f t="shared" si="6"/>
-        <v>254.88530161427357</v>
+        <f t="shared" si="0"/>
+        <v>243.50649350649348</v>
       </c>
       <c r="F17">
-        <v>9318.2000000000007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>11.88</v>
+        <v>12.34</v>
       </c>
       <c r="B18">
-        <f t="shared" si="6"/>
-        <v>252.52525252525251</v>
+        <f t="shared" si="0"/>
+        <v>243.11183144246351</v>
       </c>
       <c r="F18">
-        <v>9694</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="3">
         <f>AVERAGE(B14:B18)</f>
-        <v>252.66502739838626</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>246.67193413123064</v>
+      </c>
+      <c r="F19">
+        <v>13199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="5">
         <f>STDEV(B14:B18)</f>
-        <v>1.9562313107496343</v>
+        <v>3.6310420462563333</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="3">
-        <f>AVERAGE(F14:F18)</f>
-        <v>9445.18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>AVERAGE(F14:F19)</f>
+        <v>13217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="5">
-        <f>STDEV(F14:F18)</f>
-        <v>368.32522585345691</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <f>STDEV(F14:F19)</f>
+        <v>486.6970310162165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="15">
         <f>F20*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
-        <v>1.662838921192443E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.2841699247669878E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25">
         <f>B19*F23</f>
-        <v>4.2014124158219168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.634406132266605</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
       <c r="B26">
         <f>B25/22.4</f>
-        <v>0.18756305427776415</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.25153598804761629</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27">
         <f>B26*60</f>
-        <v>11.25378325666585</v>
+        <v>15.092159282856977</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="10">
         <f>B27/(B1*0.66)</f>
-        <v>25.835131443218202</v>
+        <v>26.902244710975001</v>
       </c>
       <c r="C28">
         <f>B27/(B1*0.34)</f>
-        <v>50.150549272129453</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52.222004438951473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>66</v>
       </c>
       <c r="B30">
         <f>B28*0.66/0.34</f>
-        <v>50.150549272129453</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52.222004438951473</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -7988,42 +8437,42 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <f>B1/B25</f>
-        <v>0.15709002941832959</v>
+        <v>0.15085884475602446</v>
       </c>
       <c r="C33">
         <f>B33*0.34</f>
-        <v>5.3410610002232066E-2</v>
+        <v>5.1292007217048317E-2</v>
       </c>
       <c r="D33">
         <f>C33/F9</f>
-        <v>7.7355720989561193E-5</v>
+        <v>7.245158130678785E-5</v>
       </c>
       <c r="E33">
         <f>D33*22400</f>
-        <v>1.7327681501661707</v>
+        <v>1.6229154212720478</v>
       </c>
       <c r="F33">
         <f>E33/0.34*0.66</f>
-        <v>3.3636087620872726</v>
+        <v>3.1503652295280928</v>
       </c>
       <c r="G33">
         <f>2.31*0.66/0.34</f>
         <v>4.4841176470588238</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>54</v>
       </c>
       <c r="E34">
         <f>E33/E37</f>
-        <v>2.4998560172550772</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+        <v>2.3413720300514065</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>52</v>
       </c>
@@ -8032,13 +8481,13 @@
         <v>0.69314718055994529</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>53</v>
       </c>
       <c r="E38">
         <f>F33*E37</f>
-        <v>2.331475929947521</v>
+        <v>2.1836667765814823</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental Results/dilution rate measurements w compilation.xlsx
+++ b/Experimental Results/dilution rate measurements w compilation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" tabRatio="769"/>
+    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" tabRatio="769" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Neatened Compilation" sheetId="14" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="102">
   <si>
     <t>Liters</t>
   </si>
@@ -184,15 +184,6 @@
     <t>My yield his way</t>
   </si>
   <si>
-    <t>ln(2)</t>
-  </si>
-  <si>
-    <t>my adj. yield</t>
-  </si>
-  <si>
-    <t>adj by ln(2)</t>
-  </si>
-  <si>
     <t>His yield w/my #s</t>
   </si>
   <si>
@@ -302,6 +293,45 @@
   </si>
   <si>
     <t>**Throwing this point out; it was measured differently, by me/Tom rather than by me, and I’m concerned about operator error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% Conf. Int. </t>
+  </si>
+  <si>
+    <t>95% Conf Int</t>
+  </si>
+  <si>
+    <t>Methane (mL/min)</t>
+  </si>
+  <si>
+    <t>95% CI Error</t>
+  </si>
+  <si>
+    <t>**Change This when OD Changes</t>
+  </si>
+  <si>
+    <t>Yield (gDCW/mol)</t>
+  </si>
+  <si>
+    <t>Sqrt Term</t>
+  </si>
+  <si>
+    <t>Actual Sqrt of it</t>
+  </si>
+  <si>
+    <t>Times R</t>
+  </si>
+  <si>
+    <t>divide by ln(2)</t>
+  </si>
+  <si>
+    <t>D/F</t>
+  </si>
+  <si>
+    <t>Err</t>
+  </si>
+  <si>
+    <t>* 1000/ln(2)</t>
   </si>
 </sst>
 </file>
@@ -493,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -559,15 +589,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -599,6 +620,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -750,11 +783,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="41986688"/>
-        <c:axId val="41988864"/>
+        <c:axId val="110169472"/>
+        <c:axId val="110188032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41986688"/>
+        <c:axId val="110169472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,12 +821,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41988864"/>
+        <c:crossAx val="110188032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41988864"/>
+        <c:axId val="110188032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,7 +856,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41986688"/>
+        <c:crossAx val="110169472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -952,11 +985,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="139764864"/>
-        <c:axId val="139766400"/>
+        <c:axId val="110217472"/>
+        <c:axId val="110227456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="139764864"/>
+        <c:axId val="110217472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,12 +999,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139766400"/>
+        <c:crossAx val="110227456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="139766400"/>
+        <c:axId val="110227456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,7 +1015,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139764864"/>
+        <c:crossAx val="110217472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1126,11 +1159,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42753024"/>
-        <c:axId val="42754816"/>
+        <c:axId val="110248320"/>
+        <c:axId val="110249856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42753024"/>
+        <c:axId val="110248320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,12 +1173,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42754816"/>
+        <c:crossAx val="110249856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42754816"/>
+        <c:axId val="110249856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1157,7 +1190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42753024"/>
+        <c:crossAx val="110248320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1268,11 +1301,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42761600"/>
-        <c:axId val="42902656"/>
+        <c:axId val="110451328"/>
+        <c:axId val="136401280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42761600"/>
+        <c:axId val="110451328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1282,12 +1315,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42902656"/>
+        <c:crossAx val="136401280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42902656"/>
+        <c:axId val="136401280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,7 +1331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42761600"/>
+        <c:crossAx val="110451328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1737,11 +1770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="43975040"/>
-        <c:axId val="43976576"/>
+        <c:axId val="136408448"/>
+        <c:axId val="136422528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43975040"/>
+        <c:axId val="136408448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,12 +1784,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43976576"/>
+        <c:crossAx val="136422528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43976576"/>
+        <c:axId val="136422528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,7 +1800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43975040"/>
+        <c:crossAx val="136408448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1814,7 +1847,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1897,11 +1929,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42526976"/>
-        <c:axId val="42828160"/>
+        <c:axId val="136459776"/>
+        <c:axId val="136461696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42526976"/>
+        <c:axId val="136459776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,19 +1955,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42828160"/>
+        <c:crossAx val="136461696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42828160"/>
+        <c:axId val="136461696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,14 +1989,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42526976"/>
+        <c:crossAx val="136459776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2404,11 +2434,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42844544"/>
-        <c:axId val="42846464"/>
+        <c:axId val="136478080"/>
+        <c:axId val="136492544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42844544"/>
+        <c:axId val="136478080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2436,12 +2466,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42846464"/>
+        <c:crossAx val="136492544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42846464"/>
+        <c:axId val="136492544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,7 +2500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42844544"/>
+        <c:crossAx val="136478080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2492,15 +2522,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3008,100 +3038,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="16"/>
+    <col min="1" max="1" width="12.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="16"/>
     <col min="3" max="3" width="19" style="16" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="16"/>
+    <col min="4" max="4" width="18.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="16"/>
     <col min="6" max="6" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="16"/>
+    <col min="7" max="7" width="22.140625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="16"/>
     <col min="9" max="9" width="24" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="16"/>
+    <col min="11" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>80</v>
-      </c>
       <c r="E1" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35">
         <v>42299</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="36">
         <v>0.626</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="37">
         <v>8.1391176422049266E-2</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="38">
         <v>236.72923300841694</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="39">
         <v>14510</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="40">
         <f>E2*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>2.4971655045194385E-2</v>
       </c>
-      <c r="G2" s="44">
+      <c r="G2" s="41">
         <f>F2*D2</f>
         <v>5.9115207457996322</v>
       </c>
-      <c r="H2" s="44">
+      <c r="H2" s="41">
         <f>B2/G2*$B$18*C2/LN(2)*22400/60</f>
         <v>2.2700352806044126</v>
       </c>
-      <c r="I2" s="45">
+      <c r="I2" s="42">
         <f>G2*60/22.4/B2/$B$18</f>
         <v>51.727234197410638</v>
       </c>
-      <c r="J2" s="44">
+      <c r="J2" s="41">
         <f>C2*1000/I2</f>
         <v>1.5734685545225526</v>
       </c>
-      <c r="K2" s="46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K2" s="43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>42304</v>
       </c>
@@ -3138,7 +3168,7 @@
         <v>1.8668429797058812</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>42310</v>
       </c>
@@ -3175,7 +3205,7 @@
         <v>2.022728885995948</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <v>42320</v>
       </c>
@@ -3212,7 +3242,7 @@
         <v>1.6388002437408702</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="29">
         <v>42327</v>
       </c>
@@ -3228,11 +3258,11 @@
       <c r="E6" s="30">
         <v>12611.666666666666</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="33">
         <f>E6*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>2.1844535100130694E-2</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="34">
         <f t="shared" si="0"/>
         <v>5.1062625921630449</v>
       </c>
@@ -3249,7 +3279,7 @@
         <v>1.7136525089237895</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="29">
         <v>42339</v>
       </c>
@@ -3265,11 +3295,11 @@
       <c r="E7" s="30">
         <v>9922.6666666666661</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="33">
         <f>E7*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>1.7414951852223977E-2</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="34">
         <f t="shared" si="0"/>
         <v>4.1269593274657508</v>
       </c>
@@ -3286,7 +3316,7 @@
         <v>1.6278425462849835</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="29">
         <v>42345</v>
       </c>
@@ -3302,11 +3332,11 @@
       <c r="E8" s="30">
         <v>9445.18</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="33">
         <f>E8*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>1.662838921192443E-2</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="34">
         <f t="shared" si="0"/>
         <v>4.2014124158219168</v>
       </c>
@@ -3323,7 +3353,7 @@
         <v>1.7274117117338446</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <v>42349</v>
       </c>
@@ -3340,11 +3370,11 @@
       <c r="E9" s="30">
         <v>13217</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="33">
         <f>E9*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>2.2841699247669878E-2</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="34">
         <f t="shared" si="0"/>
         <v>5.457452503277632</v>
       </c>
@@ -3361,7 +3391,7 @@
         <v>1.6703576618923983</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -3370,26 +3400,26 @@
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
     </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I14" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B15" s="16">
         <v>0.68</v>
@@ -3398,16 +3428,16 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H15" s="28">
         <f>2.86*B18/0.34</f>
@@ -3418,18 +3448,18 @@
         <v>0.83417647058823519</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C16" s="16">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H16" s="28">
         <v>2.5950000000000002</v>
@@ -3439,12 +3469,17 @@
         <v>45.951016882770382</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B18" s="16">
         <v>0.48899999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3458,16 +3493,16 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -3487,7 +3522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>0/28</f>
         <v>0</v>
@@ -3510,7 +3545,7 @@
         <v>8.7353095728390375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>0.056/28.056</f>
         <v>1.996007984031936E-3</v>
@@ -3533,7 +3568,7 @@
         <v>12.134661099511597</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>0.112/28.112</f>
         <v>3.9840637450199202E-3</v>
@@ -3556,7 +3591,7 @@
         <v>26.931270548069776</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>0.17/28.17</f>
         <v>6.0347887823926161E-3</v>
@@ -3579,7 +3614,7 @@
         <v>55.90387583462654</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>0.226/28.226</f>
         <v>8.0068022390703611E-3</v>
@@ -3602,7 +3637,7 @@
         <v>160.68923423801618</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>0.285/28.285</f>
         <v>1.0076012020505568E-2</v>
@@ -3625,7 +3660,7 @@
         <v>145.02221668879997</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>1.167/29.167</f>
         <v>4.0010971303185108E-2</v>
@@ -3648,7 +3683,7 @@
         <v>621.81347685620324</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>28/28</f>
         <v>1</v>
@@ -3672,7 +3707,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="8" t="s">
         <v>25</v>
@@ -3694,7 +3729,7 @@
         <v>1.0693668610640503E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -3721,12 +3756,12 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3740,16 +3775,16 @@
         <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
         <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
         <v>39</v>
@@ -3782,7 +3817,7 @@
         <v>3.6351087359927061</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>42310</v>
       </c>
@@ -3809,7 +3844,7 @@
         <v>3.9386491118750104</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>42313</v>
       </c>
@@ -3839,7 +3874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>42320</v>
       </c>
@@ -3869,7 +3904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>42327</v>
       </c>
@@ -3896,7 +3931,7 @@
         <v>3.3368169007047968</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>42339</v>
       </c>
@@ -3937,13 +3972,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H9">
         <v>118.72</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8.9214109445657191E-2</v>
       </c>
@@ -3951,13 +3986,13 @@
         <v>32.678400542591753</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H10">
         <v>3.5103</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>4.6534363085345594E-2</v>
       </c>
@@ -3965,13 +4000,13 @@
         <v>21.038398536538562</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11">
         <v>258.17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>7.0487379671178976E-2</v>
       </c>
@@ -3979,13 +4014,13 @@
         <v>30.475688694632385</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H12">
         <v>6.82</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>4.5769999558765734E-2</v>
       </c>
@@ -3993,14 +4028,14 @@
         <v>20.832118463414211</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H15">
         <v>2.86</v>
@@ -4009,10 +4044,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="J15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.01</v>
       </c>
@@ -4026,7 +4061,7 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H16">
         <f>H15*LN(2)</f>
@@ -4037,7 +4072,7 @@
         <v>0.20101268236238412</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.02</v>
       </c>
@@ -4052,7 +4087,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.03</v>
       </c>
@@ -4067,7 +4102,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.04</v>
       </c>
@@ -4082,7 +4117,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.05</v>
       </c>
@@ -4097,7 +4132,7 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.06</v>
       </c>
@@ -4112,7 +4147,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -4127,7 +4162,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.08</v>
       </c>
@@ -4142,7 +4177,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>8.3000000000000004E-2</v>
       </c>
@@ -4157,7 +4192,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.09</v>
       </c>
@@ -4172,7 +4207,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.1</v>
       </c>
@@ -4187,7 +4222,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.11</v>
       </c>
@@ -4202,7 +4237,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.12</v>
       </c>
@@ -4217,7 +4252,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.13</v>
       </c>
@@ -4232,7 +4267,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0.14000000000000001</v>
       </c>
@@ -4247,7 +4282,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0.15</v>
       </c>
@@ -4262,7 +4297,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0.16</v>
       </c>
@@ -4277,7 +4312,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.17</v>
       </c>
@@ -4292,7 +4327,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0.18</v>
       </c>
@@ -4307,7 +4342,7 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0.19</v>
       </c>
@@ -4322,7 +4357,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0.2</v>
       </c>
@@ -4337,7 +4372,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0.21</v>
       </c>
@@ -4352,7 +4387,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0.22</v>
       </c>
@@ -4367,7 +4402,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0.23</v>
       </c>
@@ -4382,7 +4417,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0.24</v>
       </c>
@@ -4397,7 +4432,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0.25</v>
       </c>
@@ -4412,7 +4447,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0.26</v>
       </c>
@@ -4427,7 +4462,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0.27</v>
       </c>
@@ -4442,7 +4477,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0.28000000000000003</v>
       </c>
@@ -4457,7 +4492,7 @@
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>0.28999999999999998</v>
       </c>
@@ -4472,7 +4507,7 @@
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0.3</v>
       </c>
@@ -4491,7 +4526,7 @@
         <v>7.6378502343204709E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0.31</v>
       </c>
@@ -4506,7 +4541,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>0.32</v>
       </c>
@@ -4521,7 +4556,7 @@
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>0.33</v>
       </c>
@@ -4536,7 +4571,7 @@
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0.34</v>
       </c>
@@ -4551,7 +4586,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>0.35</v>
       </c>
@@ -4566,7 +4601,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>0.36</v>
       </c>
@@ -4581,7 +4616,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>0.37</v>
       </c>
@@ -4596,7 +4631,7 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>0.38</v>
       </c>
@@ -4611,7 +4646,7 @@
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>0.39</v>
       </c>
@@ -4626,7 +4661,7 @@
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>0.4</v>
       </c>
@@ -4641,7 +4676,7 @@
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>0.41</v>
       </c>
@@ -4656,7 +4691,7 @@
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>0.42</v>
       </c>
@@ -4671,7 +4706,7 @@
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>0.43</v>
       </c>
@@ -4686,7 +4721,7 @@
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>0.44</v>
       </c>
@@ -4701,7 +4736,7 @@
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>0.45</v>
       </c>
@@ -4716,7 +4751,7 @@
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>0.46</v>
       </c>
@@ -4731,7 +4766,7 @@
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>0.47</v>
       </c>
@@ -4746,7 +4781,7 @@
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>0.48</v>
       </c>
@@ -4761,7 +4796,7 @@
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>0.49</v>
       </c>
@@ -4776,7 +4811,7 @@
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>0.5</v>
       </c>
@@ -4791,7 +4826,7 @@
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>0.51</v>
       </c>
@@ -4806,7 +4841,7 @@
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>0.52</v>
       </c>
@@ -4821,7 +4856,7 @@
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>0.53</v>
       </c>
@@ -4836,7 +4871,7 @@
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>0.54</v>
       </c>
@@ -4851,7 +4886,7 @@
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>0.55000000000000004</v>
       </c>
@@ -4866,7 +4901,7 @@
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>0.56000000000000005</v>
       </c>
@@ -4881,7 +4916,7 @@
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>0.56999999999999995</v>
       </c>
@@ -4896,7 +4931,7 @@
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>0.57999999999999996</v>
       </c>
@@ -4911,7 +4946,7 @@
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>0.59</v>
       </c>
@@ -4926,7 +4961,7 @@
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>0.6</v>
       </c>
@@ -4955,21 +4990,21 @@
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
+      <c r="A1" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4977,13 +5012,13 @@
         <v>37</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E2" s="16"/>
     </row>
@@ -5075,29 +5110,29 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
+      <c r="A9" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>60</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5199,16 +5234,16 @@
       <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5216,12 +5251,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5238,7 +5273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>24+7+3/4</f>
         <v>31.75</v>
@@ -5262,7 +5297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>24+40/60</f>
         <v>24.666666666666668</v>
@@ -5307,7 +5342,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -5329,7 +5364,7 @@
         <v>2.8870105582736597E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5337,7 +5372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5348,7 +5383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12.48</v>
       </c>
@@ -5360,7 +5395,7 @@
         <v>13870</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.45</v>
       </c>
@@ -5372,7 +5407,7 @@
         <v>14880</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.59</v>
       </c>
@@ -5384,7 +5419,7 @@
         <v>14742</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.57</v>
       </c>
@@ -5402,7 +5437,7 @@
         <v>242.71844660194179</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -5411,7 +5446,7 @@
         <v>240.20295091119186</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -5427,7 +5462,7 @@
         <v>14497.333333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -5436,7 +5471,7 @@
         <v>547.65074028374454</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -5445,7 +5480,7 @@
         <v>2.4950789275587283E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -5454,7 +5489,7 @@
         <v>5.9932532115593844</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -5463,7 +5498,7 @@
         <v>0.26755594694461537</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -5472,7 +5507,7 @@
         <v>16.053356816676924</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5481,16 +5516,16 @@
         <v>36.195339142940391</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <f>B26*0.66/0.34</f>
         <v>70.261540689237222</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -5510,10 +5545,10 @@
         <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.11212608182545859</v>
@@ -5546,22 +5581,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5569,12 +5604,12 @@
         <v>0.626</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5591,26 +5626,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <f>26+20/60</f>
-        <v>26.333333333333332</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5.25</v>
-      </c>
-      <c r="C4" s="1">
-        <f>B4/2.65</f>
-        <v>1.9811320754716981</v>
-      </c>
-      <c r="D4" s="1">
-        <f>A4/C4</f>
-        <v>13.292063492063491</v>
-      </c>
-      <c r="E4" s="1">
-        <f>1/D4</f>
-        <v>7.5232863625507532E-2</v>
-      </c>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" t="s">
         <v>16</v>
       </c>
@@ -5618,7 +5639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>22+1/12</f>
         <v>22.083333333333332</v>
@@ -5660,7 +5681,7 @@
         <v>8.2469074097213532E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -5678,7 +5699,16 @@
         <v>1.5243775110677241E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <f>0.95*E8/SQRT(COUNT(E4:E6))</f>
+        <v>1.0240027914060459E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5686,7 +5716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5697,7 +5727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12.84</v>
       </c>
@@ -5709,7 +5739,7 @@
         <v>14540</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.7</v>
       </c>
@@ -5721,7 +5751,7 @@
         <v>14297</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.55</v>
       </c>
@@ -5733,7 +5763,7 @@
         <v>14693</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.36</v>
       </c>
@@ -5751,7 +5781,7 @@
         <v>232.01856148491879</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -5760,7 +5790,7 @@
         <v>236.72923300841694</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -5776,7 +5806,14 @@
         <v>14510</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19">
+        <f>0.95*B18/SQRT(COUNT(B12:B16))</f>
+        <v>1.8173407594330229</v>
+      </c>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -5785,7 +5822,16 @@
         <v>199.69727088771143</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20">
+        <f>0.95*F19/SQRT(COUNT(F12:F17))</f>
+        <v>109.53050944828112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -5794,7 +5840,16 @@
         <v>2.4971655045194385E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <f>F19*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
+        <v>1.3983276962358229E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -5802,8 +5857,15 @@
         <f>B17*F21</f>
         <v>5.9115207457996322</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23">
+        <f>F20*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
+        <v>1.2497962064663541E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -5812,7 +5874,7 @@
         <v>0.26390717615176928</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -5820,8 +5882,15 @@
         <f>B24*60</f>
         <v>15.834430569106157</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25">
+        <f>F21*B17</f>
+        <v>5.9115207457996322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5829,14 +5898,119 @@
         <f>B25/(B1*0.66)</f>
         <v>38.325178064445147</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26">
+        <f>F25*SQRT((B19/B17)^2+(F23/F21)^2)</f>
+        <v>0.29932359955532473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <f>B26*0.66/0.34</f>
         <v>74.395933889805278</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28">
+        <f>F25*60/22.4/'10_22'!B1/'Neatened Compilation'!$B$18</f>
+        <v>51.727234197410638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29">
+        <f>F26*60/22.4/'10_22'!B1/'Neatened Compilation'!$B$18</f>
+        <v>2.6191537847535504</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="3">
+        <f>1000*E7/F28/LN(2)</f>
+        <v>2.2700352806044122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="5">
+        <f>F31*SQRT((E9/E7)^2+(F29/F28)^2)</f>
+        <v>0.11843590032168816</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f>(F28/F29)^2 + (E7/E9)^2</f>
+        <v>6707.6501906161229</v>
+      </c>
+      <c r="F36">
+        <f>SQRT(E36)</f>
+        <v>81.900245363589249</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38">
+        <f>F36*F31</f>
+        <v>185.91644646550552</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39">
+        <f>F38/LN(2)</f>
+        <v>268.22073533548325</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45">
+        <f>E7/F28</f>
+        <v>1.5734685545225526E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46">
+        <f>F45*SQRT((E9/E7)^2+(F29/F28)^2)</f>
+        <v>8.2093510385056865E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47">
+        <f>F46*1000/LN(2)</f>
+        <v>0.11843590032168817</v>
       </c>
     </row>
   </sheetData>
@@ -5846,22 +6020,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5869,12 +6043,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5891,7 +6065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>25+55/60</f>
         <v>25.916666666666668</v>
@@ -5915,7 +6089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>23+23/60</f>
         <v>23.383333333333333</v>
@@ -5959,7 +6133,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -5981,7 +6155,16 @@
         <v>7.96516101052323E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <f>0.95*E8/SQRT(COUNT(E4:E6))</f>
+        <v>4.368753460886084E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5989,7 +6172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6000,7 +6183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12.25</v>
       </c>
@@ -6012,7 +6195,7 @@
         <v>14371</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11.74</v>
       </c>
@@ -6024,7 +6207,7 @@
         <v>14899</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.08</v>
       </c>
@@ -6036,7 +6219,7 @@
         <v>11940</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.4</v>
       </c>
@@ -6060,7 +6243,7 @@
         <v>14210</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -6069,7 +6252,7 @@
         <v>248.86140042339238</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -6085,7 +6268,14 @@
         <v>13817</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19">
+        <f>0.95*B18/SQRT(COUNT(B12:B16))</f>
+        <v>2.4302834377060933</v>
+      </c>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -6094,7 +6284,16 @@
         <v>1137.7963350266164</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20">
+        <f>0.95*F19/SQRT(COUNT(F12:F17))</f>
+        <v>483.39609043723135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -6103,7 +6302,16 @@
         <v>2.3830077808006077E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <f>F19*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>2.9436560336797285E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -6111,8 +6319,15 @@
         <f>B17*F21</f>
         <v>5.9303865354987968</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23">
+        <f>F20*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>1.8656640809615438E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -6121,7 +6336,7 @@
         <v>0.26474939890619631</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -6129,8 +6344,15 @@
         <f>B24*60</f>
         <v>15.884963934371779</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25">
+        <f>F21*B17</f>
+        <v>5.9303865354987968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -6138,63 +6360,56 @@
         <f>B25/(B1*0.66)</f>
         <v>35.815665436444306</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26">
+        <f>F25*SQRT((B19/B17)^2+(F23/F21)^2)</f>
+        <v>0.46788980159301863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <f>B26*0.66/0.34</f>
         <v>69.524527023686005</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <f>B1/B23</f>
-        <v>0.11331470486408675</v>
-      </c>
-      <c r="C31">
-        <f>B31*0.34</f>
-        <v>3.8526999653789494E-2</v>
-      </c>
-      <c r="D31">
-        <f>C31/F7</f>
-        <v>8.3599632727105001E-5</v>
-      </c>
-      <c r="E31">
-        <f>D31*22400</f>
-        <v>1.872631773087152</v>
-      </c>
-      <c r="F31">
-        <f>E31/0.34*0.66</f>
-        <v>3.6351087359927066</v>
-      </c>
-      <c r="G31">
-        <f>2.31*0.66/0.34</f>
-        <v>4.4841176470588238</v>
+      <c r="E28" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28">
+        <f>F25*60/22.4/B1/'Neatened Compilation'!$B$18</f>
+        <v>48.340161938759181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29">
+        <f>F26*60/22.4/B1/'Neatened Compilation'!$B$18</f>
+        <v>3.8138945316821689</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="3">
+        <f>1000*E7/F28/LN(2)</f>
+        <v>2.6932851089400507</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="5">
+        <f>F31*SQRT((E9/E7)^2+(F29/F28)^2)</f>
+        <v>0.24930479213507378</v>
       </c>
     </row>
   </sheetData>
@@ -6204,22 +6419,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6227,12 +6442,12 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6249,7 +6464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>22+50/60</f>
         <v>22.833333333333332</v>
@@ -6273,7 +6488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>20+0.25</f>
         <v>20.25</v>
@@ -6294,7 +6509,7 @@
         <v>9.0379687863964595E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>49+50/60</f>
         <v>49.833333333333336</v>
@@ -6338,7 +6553,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
@@ -6360,7 +6575,16 @@
         <v>3.2243641791387537E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10">
+        <f>0.95*E9/SQRT(COUNT(E4:E7))</f>
+        <v>1.5315729850909079E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -6368,7 +6592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -6379,7 +6603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.73</v>
       </c>
@@ -6391,7 +6615,7 @@
         <v>14866</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.7</v>
       </c>
@@ -6403,7 +6627,7 @@
         <v>15913</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.77</v>
       </c>
@@ -6415,7 +6639,7 @@
         <v>11486</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12.65</v>
       </c>
@@ -6424,7 +6648,7 @@
         <v>237.15415019762844</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12.67</v>
       </c>
@@ -6433,7 +6657,7 @@
         <v>236.77979479084453</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -6442,7 +6666,7 @@
         <v>236.1487621304139</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -6458,7 +6682,14 @@
         <v>14088.333333333334</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20">
+        <f>0.95*B19/SQRT(COUNT(B13:B17))</f>
+        <v>0.37674777146009031</v>
+      </c>
       <c r="E20" s="4" t="s">
         <v>15</v>
       </c>
@@ -6467,7 +6698,16 @@
         <v>2313.6889015883949</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21">
+        <f>0.95*F20/SQRT(COUNT(F13:F18))</f>
+        <v>1269.0184646454541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>29</v>
       </c>
@@ -6476,7 +6716,16 @@
         <v>2.4277044556958109E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <f>F20*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>4.8807010370936696E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -6484,8 +6733,15 @@
         <f>B18*F22</f>
         <v>5.73299402031056</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24">
+        <f>F21*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>3.159817932941256E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -6494,7 +6750,7 @@
         <v>0.25593723304957861</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -6502,8 +6758,15 @@
         <f>B25*60</f>
         <v>15.356233982974716</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26">
+        <f>F22*B18</f>
+        <v>5.73299402031056</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -6511,63 +6774,49 @@
         <f>B26/(B1*0.66)</f>
         <v>32.678400542591753</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29">
-        <f>B27*0.66/0.34</f>
-        <v>63.434542229736934</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s">
-        <v>48</v>
-      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27">
+        <f>F26*SQRT((B20/B18)^2+(F24/F22)^2)</f>
+        <v>0.74624314643619483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29">
+        <f>F26*60/22.4/B1/'Neatened Compilation'!$B$18</f>
+        <v>44.105816683252677</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <f>B1/B24</f>
-        <v>0.12419339658781477</v>
-      </c>
-      <c r="C31">
-        <f>B31*0.34</f>
-        <v>4.2225754839857021E-2</v>
-      </c>
-      <c r="D31">
-        <f>C31/F8</f>
-        <v>9.058040435859739E-5</v>
-      </c>
-      <c r="E31">
-        <f>D31*22400</f>
-        <v>2.0290010576325814</v>
-      </c>
-      <c r="F31">
-        <f>E31/0.34*0.66</f>
-        <v>3.9386491118750109</v>
-      </c>
-      <c r="G31">
-        <f>2.31*0.66/0.34</f>
-        <v>4.4841176470588238</v>
+        <v>92</v>
+      </c>
+      <c r="F30">
+        <f>F27*60/22.4/B1/'Neatened Compilation'!$B$18</f>
+        <v>5.741095019677962</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="3">
+        <f>1000*E8/F29/LN(2)</f>
+        <v>2.9181809328892117</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="5">
+        <f>F32*SQRT((E10/E8)^2+(F30/F29)^2)</f>
+        <v>0.3831384723103145</v>
       </c>
     </row>
   </sheetData>
@@ -6577,22 +6826,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F28" sqref="F28:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6600,12 +6849,12 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6622,7 +6871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>48.25</v>
       </c>
@@ -6650,7 +6899,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -6667,12 +6916,20 @@
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5" t="e">
-        <f>STDEV(E4:E6)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <f>0.95*E8/SQRT(COUNT(E4:E6))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6680,7 +6937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6691,7 +6948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12.8</v>
       </c>
@@ -6703,7 +6960,7 @@
         <v>10464</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.81</v>
       </c>
@@ -6715,7 +6972,7 @@
         <v>10676</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.64</v>
       </c>
@@ -6727,7 +6984,7 @@
         <v>10245</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.78</v>
       </c>
@@ -6745,7 +7002,7 @@
         <v>234.74178403755869</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -6754,7 +7011,7 @@
         <v>235.07847553954838</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -6770,7 +7027,14 @@
         <v>10461.666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19">
+        <f>0.95*B18/SQRT(COUNT(B12:B16))</f>
+        <v>0.54696757070363611</v>
+      </c>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -6779,7 +7043,16 @@
         <v>215.50947388301361</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20">
+        <f>0.95*F19/SQRT(COUNT(F12:F17))</f>
+        <v>118.20323012130891</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -6788,7 +7061,16 @@
         <v>1.8302845258925997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <f>F19*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>1.4243751002895569E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -6796,8 +7078,15 @@
         <f>B17*F21</f>
         <v>4.3026049615045743</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23">
+        <f>F20*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>1.2640827584213625E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -6806,7 +7095,7 @@
         <v>0.19208057863859707</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -6814,8 +7103,15 @@
         <f>B24*60</f>
         <v>11.524834718315823</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25">
+        <f>F21*B17</f>
+        <v>4.3026049615045743</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -6823,63 +7119,49 @@
         <f>B25/(B1*0.66)</f>
         <v>21.038398536538562</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28">
-        <f>B26*0.66/0.34</f>
-        <v>40.839244217986618</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <f>B1/B23</f>
-        <v>0.19290639215684768</v>
-      </c>
-      <c r="C31">
-        <f>B31*0.34</f>
-        <v>6.5588173333328212E-2</v>
-      </c>
-      <c r="D31">
-        <f>C31/F7</f>
-        <v>7.3387585340150855E-5</v>
-      </c>
-      <c r="E31">
-        <f>D31*22400</f>
-        <v>1.6438819116193792</v>
-      </c>
-      <c r="F31">
-        <f>E31/0.34*0.66</f>
-        <v>3.1910648872611476</v>
-      </c>
-      <c r="G31">
-        <f>2.31*0.66/0.34</f>
-        <v>4.4841176470588238</v>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26">
+        <f>F25*SQRT((B19/B17)^2+(F23/F21)^2)</f>
+        <v>0.29732723276577994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28">
+        <f>F25*60/22.4/B1/'Neatened Compilation'!$B$18</f>
+        <v>28.395384527843461</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29">
+        <f>F26*60/22.4/B1/'Neatened Compilation'!$B$18</f>
+        <v>1.9622347811432845</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="3">
+        <f>1000*E7/F28/LN(2)</f>
+        <v>2.3642889846525779</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="5">
+        <f>F31*SQRT((E9/E7)^2+(F29/F28)^2)</f>
+        <v>0.16338183671399531</v>
       </c>
     </row>
   </sheetData>
@@ -6889,22 +7171,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6912,12 +7194,12 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6934,7 +7216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>20.25</v>
       </c>
@@ -6957,7 +7239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>20+25/60</f>
         <v>20.416666666666668</v>
@@ -7001,7 +7283,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -7023,7 +7305,16 @@
         <v>3.769238730890744E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <f>0.95*E8/SQRT(COUNT(E4:E6))</f>
+        <v>2.0673624461237479E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -7031,7 +7322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -7042,7 +7333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12.85</v>
       </c>
@@ -7054,7 +7345,7 @@
         <v>12209</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.8</v>
       </c>
@@ -7066,7 +7357,7 @@
         <v>12955</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.83</v>
       </c>
@@ -7078,7 +7369,7 @@
         <v>12671</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.83</v>
       </c>
@@ -7096,7 +7387,7 @@
         <v>233.28149300155525</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -7105,7 +7396,7 @@
         <v>233.75469282166114</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -7121,7 +7412,14 @@
         <v>12611.666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19">
+        <f>0.95*B18/SQRT(COUNT(B12:B16))</f>
+        <v>0.1782624758215407</v>
+      </c>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -7130,7 +7428,16 @@
         <v>376.52268634616604</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20">
+        <f>0.95*F19/SQRT(COUNT(F12:F17))</f>
+        <v>206.51620060206199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -7139,7 +7446,16 @@
         <v>2.1844535100130694E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <f>F19*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>1.6896117788386179E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -7147,8 +7463,15 @@
         <f>B17*F21</f>
         <v>5.1062625921630449</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23">
+        <f>F20*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>1.4095605027926619E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -7157,7 +7480,7 @@
         <v>0.22795815143585024</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -7168,8 +7491,15 @@
       <c r="C25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25">
+        <f>F21*B17</f>
+        <v>5.1062625921630449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -7181,90 +7511,56 @@
         <f>B25/(B1*0.34)</f>
         <v>59.158689818992265</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26">
+        <f>F25*SQRT((B19/B17)^2+(F23/F21)^2)</f>
+        <v>0.32951439232487173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <f>B26*0.66/0.34</f>
         <v>59.158689818992272</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <f>B1/B23</f>
-        <v>0.13316980623825453</v>
-      </c>
-      <c r="C31">
-        <f>B31*0.34</f>
-        <v>4.5277734121006545E-2</v>
-      </c>
-      <c r="D31">
-        <f>C31/F7</f>
-        <v>7.6739566168806226E-5</v>
-      </c>
-      <c r="E31">
-        <f>D31*22400</f>
-        <v>1.7189662821812595</v>
-      </c>
-      <c r="F31">
-        <f>E31/0.34*0.66</f>
-        <v>3.3368169007047981</v>
-      </c>
-      <c r="G31">
-        <f>2.31*0.66/0.34</f>
-        <v>4.4841176470588238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32">
-        <f>E31/E35</f>
-        <v>2.4799441307582417</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35">
-        <f>LN(2)</f>
-        <v>0.69314718055994529</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36">
-        <f>F31*E35</f>
-        <v>2.3129052267683057</v>
+      <c r="E28" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28">
+        <f>F25*60/22.4/B1/'Neatened Compilation'!$B$18</f>
+        <v>41.132831366988491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29">
+        <f>F26*60/22.4/B1/'Neatened Compilation'!$B$18</f>
+        <v>2.6543601485158121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="3">
+        <f>1000*E7/F28/LN(2)</f>
+        <v>2.4722779764312812</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="5">
+        <f>F31*SQRT((E9/E7)^2+(F29/F28)^2)</f>
+        <v>0.17524469157481251</v>
       </c>
     </row>
   </sheetData>
@@ -7275,22 +7571,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F30" sqref="F30:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -7298,12 +7594,12 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7320,7 +7616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>30.25</v>
       </c>
@@ -7343,7 +7639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>25+1/6</f>
         <v>25.166666666666668</v>
@@ -7364,7 +7660,7 @@
         <v>4.5732850181182054E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>48-A5</f>
         <v>22.833333333333332</v>
@@ -7388,7 +7684,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21</v>
       </c>
@@ -7428,7 +7724,7 @@
         <v>4.7924528301886794E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -7450,7 +7746,16 @@
         <v>2.6388241743311911E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <f>0.95*E10/SQRT(COUNT(E4:E8))</f>
+        <v>1.1211121445501167E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -7458,7 +7763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -7469,7 +7774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.74</v>
       </c>
@@ -7481,7 +7786,7 @@
         <v>10270</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.64</v>
       </c>
@@ -7493,7 +7798,7 @@
         <v>9831</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12.66</v>
       </c>
@@ -7505,7 +7810,7 @@
         <v>9667</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12.75</v>
       </c>
@@ -7514,7 +7819,7 @@
         <v>235.29411764705881</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12.51</v>
       </c>
@@ -7523,7 +7828,7 @@
         <v>239.80815347721824</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -7532,7 +7837,7 @@
         <v>236.97793496562076</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -7548,7 +7853,14 @@
         <v>9922.6666666666661</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <f>0.95*B20/SQRT(COUNT(B14:B18))</f>
+        <v>0.77252185311749932</v>
+      </c>
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
@@ -7557,7 +7869,16 @@
         <v>311.77609487151727</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22">
+        <f>0.95*F21/SQRT(COUNT(F14:F19))</f>
+        <v>171.00381168591278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>29</v>
       </c>
@@ -7566,7 +7887,16 @@
         <v>1.7414951852223977E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <f>F21*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>1.5829548740579694E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -7574,8 +7904,15 @@
         <f>B19*F23</f>
         <v>4.1269593274657508</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25">
+        <f>F22*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>1.3510610297409243E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -7584,7 +7921,7 @@
         <v>0.18423925569043531</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -7595,8 +7932,15 @@
       <c r="C27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27">
+        <f>F23*B19</f>
+        <v>4.1269593274657508</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -7608,90 +7952,56 @@
         <f>B27/(B1*0.34)</f>
         <v>40.438818193686409</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28">
+        <f>F27*SQRT((B21/B19)^2+(F25/F23)^2)</f>
+        <v>0.32045418094478684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <f>B28*0.66/0.34</f>
         <v>40.438818193686409</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <f>B1/B25</f>
-        <v>0.19481655529028771</v>
-      </c>
-      <c r="C33">
-        <f>B33*0.34</f>
-        <v>6.6237628798697823E-2</v>
-      </c>
-      <c r="D33">
-        <f>C33/F9</f>
-        <v>7.2896885536897365E-5</v>
-      </c>
-      <c r="E33">
-        <f>D33*22400</f>
-        <v>1.632890236026501</v>
-      </c>
-      <c r="F33">
-        <f>E33/0.34*0.66</f>
-        <v>3.1697281052279132</v>
-      </c>
-      <c r="G33">
-        <f>2.31*0.66/0.34</f>
-        <v>4.4841176470588238</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34">
-        <f>E33/E37</f>
-        <v>2.355762645831442</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37">
-        <f>LN(2)</f>
-        <v>0.69314718055994529</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38">
-        <f>F33*E37</f>
-        <v>2.1970880992803457</v>
+      <c r="E30" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30">
+        <f>F27*60/22.4/B1/'Neatened Compilation'!$B$18</f>
+        <v>28.116969705221639</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31">
+        <f>F28*60/22.4/B1/'Neatened Compilation'!$B$18</f>
+        <v>2.1832540092099948</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="3">
+        <f>1000*E9/F30/LN(2)</f>
+        <v>2.3484803688734086</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="5">
+        <f>F33*SQRT((E11/E9)^2+(F31/F30)^2)</f>
+        <v>0.19121510303856742</v>
       </c>
     </row>
   </sheetData>
@@ -7702,22 +8012,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -7725,12 +8035,12 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7747,7 +8057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>35/60+16</f>
         <v>16.583333333333332</v>
@@ -7771,7 +8081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24</v>
       </c>
@@ -7791,7 +8101,7 @@
         <v>6.4465408805031446E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>24+1/3</f>
         <v>24.333333333333332</v>
@@ -7815,7 +8125,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>26+55/60</f>
         <v>26.916666666666668</v>
@@ -7856,7 +8166,7 @@
         <v>6.2607204116638074E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -7878,7 +8188,16 @@
         <v>3.1993489528702739E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <f>0.95*E10/SQRT(COUNT(E4:E8))</f>
+        <v>1.3592527310485336E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -7886,7 +8205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -7897,7 +8216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11.83</v>
       </c>
@@ -7909,7 +8228,7 @@
         <v>9371.4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11.87</v>
       </c>
@@ -7921,7 +8240,7 @@
         <v>8942.6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12.02</v>
       </c>
@@ -7933,7 +8252,7 @@
         <v>9899.7000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11.77</v>
       </c>
@@ -7945,7 +8264,7 @@
         <v>9318.2000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>11.88</v>
       </c>
@@ -7957,7 +8276,7 @@
         <v>9694</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -7966,7 +8285,7 @@
         <v>252.66502739838626</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -7982,7 +8301,14 @@
         <v>9445.18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <f>0.95*B20/SQRT(COUNT(B14:B18))</f>
+        <v>0.8311105762044424</v>
+      </c>
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
@@ -7991,7 +8317,16 @@
         <v>368.32522585345691</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22">
+        <f>0.95*F21/SQRT(COUNT(F14:F19))</f>
+        <v>156.48404613889559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>29</v>
       </c>
@@ -8000,7 +8335,16 @@
         <v>1.662838921192443E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <f>F21*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>1.6761081218382903E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -8008,8 +8352,15 @@
         <f>B19*F23</f>
         <v>4.2014124158219168</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25">
+        <f>F22*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>1.3271426547946245E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -8018,7 +8369,7 @@
         <v>0.18756305427776415</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -8029,8 +8380,15 @@
       <c r="C27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27">
+        <f>F23*B19</f>
+        <v>4.2014124158219168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -8042,90 +8400,56 @@
         <f>B27/(B1*0.34)</f>
         <v>50.150549272129453</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28">
+        <f>F27*SQRT((B21/B19)^2+(F25/F23)^2)</f>
+        <v>0.33560720473441347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <f>B28*0.66/0.34</f>
         <v>50.150549272129453</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <f>B1/B25</f>
-        <v>0.15709002941832959</v>
-      </c>
-      <c r="C33">
-        <f>B33*0.34</f>
-        <v>5.3410610002232066E-2</v>
-      </c>
-      <c r="D33">
-        <f>C33/F9</f>
-        <v>7.7355720989561193E-5</v>
-      </c>
-      <c r="E33">
-        <f>D33*22400</f>
-        <v>1.7327681501661707</v>
-      </c>
-      <c r="F33">
-        <f>E33/0.34*0.66</f>
-        <v>3.3636087620872726</v>
-      </c>
-      <c r="G33">
-        <f>2.31*0.66/0.34</f>
-        <v>4.4841176470588238</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34">
-        <f>E33/E37</f>
-        <v>2.4998560172550772</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37">
-        <f>LN(2)</f>
-        <v>0.69314718055994529</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38">
-        <f>F33*E37</f>
-        <v>2.331475929947521</v>
+      <c r="E30" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30">
+        <f>F27*60/22.4/B1/'Neatened Compilation'!$B$18</f>
+        <v>34.869502561398797</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31">
+        <f>F28*60/22.4/B1/'Neatened Compilation'!$B$18</f>
+        <v>2.7853624274162536</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="3">
+        <f>1000*E9/F30/LN(2)</f>
+        <v>2.4921283100919331</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="5">
+        <f>F33*SQRT((E11/E9)^2+(F31/F30)^2)</f>
+        <v>0.20686146109774942</v>
       </c>
     </row>
   </sheetData>
@@ -8136,22 +8460,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -8159,12 +8483,12 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8181,7 +8505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>46.25</v>
       </c>
@@ -8204,18 +8528,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -8228,16 +8552,23 @@
         <v>707.94876097815234</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="5" t="e">
-        <f>STDEV(E4:E8)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -8245,7 +8576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -8256,7 +8587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.17</v>
       </c>
@@ -8268,7 +8599,7 @@
         <v>12568</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.08</v>
       </c>
@@ -8280,7 +8611,7 @@
         <v>13705</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11.91</v>
       </c>
@@ -8292,7 +8623,7 @@
         <v>13862</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12.32</v>
       </c>
@@ -8304,7 +8635,7 @@
         <v>12991</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>12.34</v>
       </c>
@@ -8316,7 +8647,7 @@
         <v>12977</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -8328,7 +8659,7 @@
         <v>13199</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -8344,7 +8675,14 @@
         <v>13217</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <f>0.95*B20/SQRT(COUNT(B14:B18))</f>
+        <v>1.5426588004719284</v>
+      </c>
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
@@ -8353,7 +8691,16 @@
         <v>486.6970310162165</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22">
+        <f>0.95*F21/SQRT(COUNT(F14:F19))</f>
+        <v>188.7585693418977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>29</v>
       </c>
@@ -8362,7 +8709,16 @@
         <v>2.2841699247669878E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <f>F21*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>1.8711017124568984E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -8370,8 +8726,15 @@
         <f>B19*F23</f>
         <v>5.634406132266605</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25">
+        <f>F22*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>1.3803083994261584E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -8380,7 +8743,7 @@
         <v>0.25153598804761629</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -8391,8 +8754,15 @@
       <c r="C27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27">
+        <f>F23*B19</f>
+        <v>5.634406132266605</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -8404,90 +8774,56 @@
         <f>B27/(B1*0.34)</f>
         <v>52.222004438951473</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28">
+        <f>F27*SQRT((B21/B19)^2+(F25/F23)^2)</f>
+        <v>0.34230183918155244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <f>B28*0.66/0.34</f>
         <v>52.222004438951473</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <f>B1/B25</f>
-        <v>0.15085884475602446</v>
-      </c>
-      <c r="C33">
-        <f>B33*0.34</f>
-        <v>5.1292007217048317E-2</v>
-      </c>
-      <c r="D33">
-        <f>C33/F9</f>
-        <v>7.245158130678785E-5</v>
-      </c>
-      <c r="E33">
-        <f>D33*22400</f>
-        <v>1.6229154212720478</v>
-      </c>
-      <c r="F33">
-        <f>E33/0.34*0.66</f>
-        <v>3.1503652295280928</v>
-      </c>
-      <c r="G33">
-        <f>2.31*0.66/0.34</f>
-        <v>4.4841176470588238</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34">
-        <f>E33/E37</f>
-        <v>2.3413720300514065</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37">
-        <f>LN(2)</f>
-        <v>0.69314718055994529</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38">
-        <f>F33*E37</f>
-        <v>2.1836667765814823</v>
+      <c r="E30" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30">
+        <f>F27*60/22.4/B1/'Neatened Compilation'!$B$18</f>
+        <v>36.309778137512282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31">
+        <f>F28*60/22.4/B1/'Neatened Compilation'!$B$18</f>
+        <v>2.2058942051705963</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="3">
+        <f>1000*E9/F30/LN(2)</f>
+        <v>2.3341342382412682</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="5">
+        <f>F33*SQRT((E11/E9)^2+(F31/F30)^2)</f>
+        <v>0.14180348805016038</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental Results/dilution rate measurements w compilation.xlsx
+++ b/Experimental Results/dilution rate measurements w compilation.xlsx
@@ -622,6 +622,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,9 +633,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -682,7 +682,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -783,11 +782,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110169472"/>
-        <c:axId val="110188032"/>
+        <c:axId val="113509504"/>
+        <c:axId val="113511424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110169472"/>
+        <c:axId val="113509504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,19 +813,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110188032"/>
+        <c:crossAx val="113511424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110188032"/>
+        <c:axId val="113511424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,14 +847,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110169472"/>
+        <c:crossAx val="113509504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -985,11 +982,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110217472"/>
-        <c:axId val="110227456"/>
+        <c:axId val="126214144"/>
+        <c:axId val="126215680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110217472"/>
+        <c:axId val="126214144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -999,12 +996,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110227456"/>
+        <c:crossAx val="126215680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110227456"/>
+        <c:axId val="126215680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1015,7 +1012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110217472"/>
+        <c:crossAx val="126214144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1047,7 +1044,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1159,11 +1155,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110248320"/>
-        <c:axId val="110249856"/>
+        <c:axId val="48322432"/>
+        <c:axId val="48323968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110248320"/>
+        <c:axId val="48322432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,12 +1169,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110249856"/>
+        <c:crossAx val="48323968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110249856"/>
+        <c:axId val="48323968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1190,7 +1186,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110248320"/>
+        <c:crossAx val="48322432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1301,11 +1297,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110451328"/>
-        <c:axId val="136401280"/>
+        <c:axId val="48370048"/>
+        <c:axId val="48371584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110451328"/>
+        <c:axId val="48370048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1315,12 +1311,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136401280"/>
+        <c:crossAx val="48371584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136401280"/>
+        <c:axId val="48371584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,7 +1327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110451328"/>
+        <c:crossAx val="48370048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1770,11 +1766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136408448"/>
-        <c:axId val="136422528"/>
+        <c:axId val="48415872"/>
+        <c:axId val="48417408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136408448"/>
+        <c:axId val="48415872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,12 +1780,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136422528"/>
+        <c:crossAx val="48417408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136422528"/>
+        <c:axId val="48417408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1800,7 +1796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136408448"/>
+        <c:crossAx val="48415872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1929,11 +1925,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136459776"/>
-        <c:axId val="136461696"/>
+        <c:axId val="48487424"/>
+        <c:axId val="48493696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136459776"/>
+        <c:axId val="48487424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,12 +1957,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136461696"/>
+        <c:crossAx val="48493696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136461696"/>
+        <c:axId val="48493696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1995,7 +1991,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136459776"/>
+        <c:crossAx val="48487424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2434,11 +2430,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136478080"/>
-        <c:axId val="136492544"/>
+        <c:axId val="48526464"/>
+        <c:axId val="48528384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136478080"/>
+        <c:axId val="48526464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2466,12 +2462,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136492544"/>
+        <c:crossAx val="48528384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136492544"/>
+        <c:axId val="48528384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2500,7 +2496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136478080"/>
+        <c:crossAx val="48526464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3478,7 +3474,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="44" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4999,12 +4995,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5110,13 +5106,13 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -5781,7 +5777,7 @@
         <v>232.01856148491879</v>
       </c>
     </row>
-    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -5790,7 +5786,7 @@
         <v>236.72923300841694</v>
       </c>
     </row>
-    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -5806,7 +5802,7 @@
         <v>14510</v>
       </c>
     </row>
-    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -5831,7 +5827,7 @@
         <v>109.53050944828112</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -5849,7 +5845,7 @@
         <v>1.3983276962358229E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -5865,7 +5861,7 @@
         <v>1.2497962064663541E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -5874,7 +5870,7 @@
         <v>0.26390717615176928</v>
       </c>
     </row>
-    <row r="25" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -8463,7 +8459,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8635,7 +8631,7 @@
         <v>12991</v>
       </c>
     </row>
-    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12.34</v>
       </c>
@@ -8647,7 +8643,7 @@
         <v>12977</v>
       </c>
     </row>
-    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -8659,7 +8655,7 @@
         <v>13199</v>
       </c>
     </row>
-    <row r="20" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -8675,7 +8671,7 @@
         <v>13217</v>
       </c>
     </row>
-    <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>89</v>
       </c>

--- a/Experimental Results/dilution rate measurements w compilation.xlsx
+++ b/Experimental Results/dilution rate measurements w compilation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" tabRatio="769" activeTab="8"/>
+    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" tabRatio="769" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Neatened Compilation" sheetId="14" r:id="rId1"/>
@@ -782,11 +782,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="113509504"/>
-        <c:axId val="113511424"/>
+        <c:axId val="48510080"/>
+        <c:axId val="48512000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113509504"/>
+        <c:axId val="48510080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,12 +819,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113511424"/>
+        <c:crossAx val="48512000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113511424"/>
+        <c:axId val="48512000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,7 +853,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113509504"/>
+        <c:crossAx val="48510080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -982,11 +982,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126214144"/>
-        <c:axId val="126215680"/>
+        <c:axId val="48537600"/>
+        <c:axId val="48539136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126214144"/>
+        <c:axId val="48537600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,12 +996,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126215680"/>
+        <c:crossAx val="48539136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126215680"/>
+        <c:axId val="48539136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,7 +1012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126214144"/>
+        <c:crossAx val="48537600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1155,11 +1155,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48322432"/>
-        <c:axId val="48323968"/>
+        <c:axId val="48879488"/>
+        <c:axId val="48881024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48322432"/>
+        <c:axId val="48879488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1169,12 +1169,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48323968"/>
+        <c:crossAx val="48881024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48323968"/>
+        <c:axId val="48881024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1186,7 +1186,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48322432"/>
+        <c:crossAx val="48879488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1297,11 +1297,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48370048"/>
-        <c:axId val="48371584"/>
+        <c:axId val="49103232"/>
+        <c:axId val="49104768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48370048"/>
+        <c:axId val="49103232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1311,12 +1311,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48371584"/>
+        <c:crossAx val="49104768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48371584"/>
+        <c:axId val="49104768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,7 +1327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48370048"/>
+        <c:crossAx val="49103232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1766,11 +1766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48415872"/>
-        <c:axId val="48417408"/>
+        <c:axId val="49122304"/>
+        <c:axId val="49128192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48415872"/>
+        <c:axId val="49122304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,12 +1780,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48417408"/>
+        <c:crossAx val="49128192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48417408"/>
+        <c:axId val="49128192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1796,7 +1796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48415872"/>
+        <c:crossAx val="49122304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1925,11 +1925,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48487424"/>
-        <c:axId val="48493696"/>
+        <c:axId val="49042176"/>
+        <c:axId val="49044096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48487424"/>
+        <c:axId val="49042176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,12 +1957,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48493696"/>
+        <c:crossAx val="49044096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48493696"/>
+        <c:axId val="49044096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,7 +1991,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48487424"/>
+        <c:crossAx val="49042176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2430,11 +2430,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48526464"/>
-        <c:axId val="48528384"/>
+        <c:axId val="49067136"/>
+        <c:axId val="49069056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48526464"/>
+        <c:axId val="49067136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2462,12 +2462,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48528384"/>
+        <c:crossAx val="49069056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48528384"/>
+        <c:axId val="49069056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,7 +2496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48526464"/>
+        <c:crossAx val="49067136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8010,8 +8010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8458,8 +8458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Experimental Results/dilution rate measurements w compilation.xlsx
+++ b/Experimental Results/dilution rate measurements w compilation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" tabRatio="769" activeTab="7"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" tabRatio="769" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Neatened Compilation" sheetId="14" r:id="rId1"/>
@@ -16,17 +16,18 @@
     <sheet name="12_01" sheetId="11" r:id="rId7"/>
     <sheet name="12_07" sheetId="12" r:id="rId8"/>
     <sheet name="12_11" sheetId="15" r:id="rId9"/>
-    <sheet name="Methane Standard Curve" sheetId="6" r:id="rId10"/>
-    <sheet name="Compilation" sheetId="8" r:id="rId11"/>
-    <sheet name="12_01_Summary of Results" sheetId="10" r:id="rId12"/>
-    <sheet name="11_5" sheetId="4" r:id="rId13"/>
+    <sheet name="12_11 (2)" sheetId="16" r:id="rId10"/>
+    <sheet name="Methane Standard Curve" sheetId="6" r:id="rId11"/>
+    <sheet name="Compilation" sheetId="8" r:id="rId12"/>
+    <sheet name="12_01_Summary of Results" sheetId="10" r:id="rId13"/>
+    <sheet name="11_5" sheetId="4" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="102">
   <si>
     <t>Liters</t>
   </si>
@@ -782,11 +783,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48510080"/>
-        <c:axId val="48512000"/>
+        <c:axId val="42079744"/>
+        <c:axId val="42081664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48510080"/>
+        <c:axId val="42079744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,12 +820,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48512000"/>
+        <c:crossAx val="42081664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48512000"/>
+        <c:axId val="42081664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,7 +854,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48510080"/>
+        <c:crossAx val="42079744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -982,11 +983,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48537600"/>
-        <c:axId val="48539136"/>
+        <c:axId val="42113664"/>
+        <c:axId val="42123648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48537600"/>
+        <c:axId val="42113664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,12 +997,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48539136"/>
+        <c:crossAx val="42123648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48539136"/>
+        <c:axId val="42123648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,7 +1013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48537600"/>
+        <c:crossAx val="42113664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1155,11 +1156,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48879488"/>
-        <c:axId val="48881024"/>
+        <c:axId val="45613440"/>
+        <c:axId val="45614976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48879488"/>
+        <c:axId val="45613440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1169,12 +1170,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48881024"/>
+        <c:crossAx val="45614976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48881024"/>
+        <c:axId val="45614976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1186,7 +1187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48879488"/>
+        <c:crossAx val="45613440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1297,11 +1298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="49103232"/>
-        <c:axId val="49104768"/>
+        <c:axId val="45664896"/>
+        <c:axId val="45666688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49103232"/>
+        <c:axId val="45664896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1311,12 +1312,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49104768"/>
+        <c:crossAx val="45666688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49104768"/>
+        <c:axId val="45666688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,7 +1328,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49103232"/>
+        <c:crossAx val="45664896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1766,11 +1767,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="49122304"/>
-        <c:axId val="49128192"/>
+        <c:axId val="45673856"/>
+        <c:axId val="45761664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49122304"/>
+        <c:axId val="45673856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,12 +1781,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49128192"/>
+        <c:crossAx val="45761664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49128192"/>
+        <c:axId val="45761664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1796,7 +1797,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49122304"/>
+        <c:crossAx val="45673856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1925,11 +1926,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="49042176"/>
-        <c:axId val="49044096"/>
+        <c:axId val="78263808"/>
+        <c:axId val="78265728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49042176"/>
+        <c:axId val="78263808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,12 +1958,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49044096"/>
+        <c:crossAx val="78265728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49044096"/>
+        <c:axId val="78265728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,7 +1992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49042176"/>
+        <c:crossAx val="78263808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2430,11 +2431,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="49067136"/>
-        <c:axId val="49069056"/>
+        <c:axId val="78302592"/>
+        <c:axId val="78308864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49067136"/>
+        <c:axId val="78302592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2462,12 +2463,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49069056"/>
+        <c:crossAx val="78308864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49069056"/>
+        <c:axId val="78308864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,7 +2497,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49067136"/>
+        <c:crossAx val="78302592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3040,22 +3041,22 @@
       <selection activeCell="H3" sqref="H3:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="16"/>
+    <col min="1" max="1" width="12.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="16"/>
     <col min="3" max="3" width="19" style="16" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="16"/>
+    <col min="4" max="4" width="18.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="16"/>
     <col min="6" max="6" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="16"/>
+    <col min="7" max="7" width="22.109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="16"/>
     <col min="9" max="9" width="24" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="16"/>
+    <col min="11" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>37</v>
       </c>
@@ -3087,7 +3088,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35">
         <v>42299</v>
       </c>
@@ -3127,7 +3128,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>42304</v>
       </c>
@@ -3164,7 +3165,7 @@
         <v>1.8668429797058812</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>42310</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>2.022728885995948</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <v>42320</v>
       </c>
@@ -3238,7 +3239,7 @@
         <v>1.6388002437408702</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="29">
         <v>42327</v>
       </c>
@@ -3275,7 +3276,7 @@
         <v>1.7136525089237895</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="29">
         <v>42339</v>
       </c>
@@ -3312,7 +3313,7 @@
         <v>1.6278425462849835</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="29">
         <v>42345</v>
       </c>
@@ -3349,7 +3350,7 @@
         <v>1.7274117117338446</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <v>42349</v>
       </c>
@@ -3387,7 +3388,7 @@
         <v>1.6703576618923983</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -3396,24 +3397,24 @@
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="I14" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>79</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>86</v>
       </c>
@@ -3465,7 +3466,7 @@
         <v>45.951016882770382</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>80</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
         <v>93</v>
       </c>
@@ -3486,19 +3487,364 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="C4" s="6">
+        <f>B4/2.65</f>
+        <v>2.7924528301886795</v>
+      </c>
+      <c r="D4" s="6">
+        <f>A4/C4</f>
+        <v>7.8783783783783772</v>
+      </c>
+      <c r="E4" s="6">
+        <f>1/D4</f>
+        <v>0.12692967409948544</v>
+      </c>
+      <c r="F4">
+        <f>1/E4</f>
+        <v>7.8783783783783772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <f>AVERAGE(E4:E8)</f>
+        <v>0.12692967409948544</v>
+      </c>
+      <c r="F9">
+        <f>60*LN(2)/E9</f>
+        <v>327.65254562144435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="e">
+        <f>50/A14*60</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="e">
+        <f t="shared" ref="B15:B18" si="0">50/A15*60</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="e">
+        <f>AVERAGE(B14:B18)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5" t="e">
+        <f>STDEV(B14:B18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="3" t="e">
+        <f>AVERAGE(F14:F19)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="e">
+        <f>0.95*B20/SQRT(COUNT(B14:B18))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="5" t="e">
+        <f>STDEV(F14:F19)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" t="e">
+        <f>0.95*F21/SQRT(COUNT(F14:F19))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="15" t="e">
+        <f>F20*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="e">
+        <f>F21*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="e">
+        <f>B19*F23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" t="e">
+        <f>F22*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="e">
+        <f>B25/22.4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="e">
+        <f>B26*60</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" t="e">
+        <f>F23*B19</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="10" t="e">
+        <f>B27/(B1*0.66)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C28" t="e">
+        <f>B27/(B1*0.34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="e">
+        <f>F27*SQRT((B21/B19)^2+(F25/F23)^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="e">
+        <f>B28*0.66/0.34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" t="e">
+        <f>F27*60/22.4/B1/'Neatened Compilation'!$B$18</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="e">
+        <f>F28*60/22.4/B1/'Neatened Compilation'!$B$18</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="3" t="e">
+        <f>1000*E9/F30/LN(2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="5" t="e">
+        <f>F33*SQRT((E11/E9)^2+(F31/F30)^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -3518,7 +3864,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>0/28</f>
         <v>0</v>
@@ -3541,7 +3887,7 @@
         <v>8.7353095728390375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>0.056/28.056</f>
         <v>1.996007984031936E-3</v>
@@ -3564,7 +3910,7 @@
         <v>12.134661099511597</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>0.112/28.112</f>
         <v>3.9840637450199202E-3</v>
@@ -3587,7 +3933,7 @@
         <v>26.931270548069776</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>0.17/28.17</f>
         <v>6.0347887823926161E-3</v>
@@ -3610,7 +3956,7 @@
         <v>55.90387583462654</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>0.226/28.226</f>
         <v>8.0068022390703611E-3</v>
@@ -3633,7 +3979,7 @@
         <v>160.68923423801618</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>0.285/28.285</f>
         <v>1.0076012020505568E-2</v>
@@ -3656,7 +4002,7 @@
         <v>145.02221668879997</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>1.167/29.167</f>
         <v>4.0010971303185108E-2</v>
@@ -3679,7 +4025,7 @@
         <v>621.81347685620324</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>28/28</f>
         <v>1</v>
@@ -3703,7 +4049,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="8" t="s">
         <v>25</v>
@@ -3725,7 +4071,7 @@
         <v>1.0693668610640503E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -3737,1240 +4083,6 @@
         <f>INTERCEPT(A2:A9,E2:E9)</f>
         <v>-2.1333513930758413E-2</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J76"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>42304</v>
-      </c>
-      <c r="B2">
-        <v>9.0243491953218014E-2</v>
-      </c>
-      <c r="C2" s="10">
-        <v>35.815665436444306</v>
-      </c>
-      <c r="D2" s="14">
-        <f>C2/0.34*0.66</f>
-        <v>69.524527023686005</v>
-      </c>
-      <c r="E2" s="14">
-        <f t="shared" ref="E2:E7" si="0">B2/C2*1000</f>
-        <v>2.5196653713821706</v>
-      </c>
-      <c r="F2" s="14">
-        <f>B2/D2*1000</f>
-        <v>1.2980094337423305</v>
-      </c>
-      <c r="G2" s="14">
-        <f>E2/LN(2)</f>
-        <v>3.6351087359927061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>42310</v>
-      </c>
-      <c r="B3">
-        <v>8.9214109445657191E-2</v>
-      </c>
-      <c r="C3">
-        <v>32.678400542591753</v>
-      </c>
-      <c r="D3" s="14">
-        <f t="shared" ref="D3:D7" si="1">C3/0.34*0.66</f>
-        <v>63.434542229736934</v>
-      </c>
-      <c r="E3" s="14">
-        <f t="shared" si="0"/>
-        <v>2.730063527111096</v>
-      </c>
-      <c r="F3" s="14">
-        <f t="shared" ref="F3:F7" si="2">B3/D3*1000</f>
-        <v>1.4063963624511704</v>
-      </c>
-      <c r="G3" s="14">
-        <f t="shared" ref="G3:G7" si="3">E3/LN(2)</f>
-        <v>3.9386491118750104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>42313</v>
-      </c>
-      <c r="B4" s="13">
-        <v>4.538924970510174E-2</v>
-      </c>
-      <c r="C4" s="13">
-        <v>36.195339142940391</v>
-      </c>
-      <c r="D4" s="14">
-        <f t="shared" si="1"/>
-        <v>70.261540689237222</v>
-      </c>
-      <c r="E4" s="14">
-        <f t="shared" si="0"/>
-        <v>1.2540081341924529</v>
-      </c>
-      <c r="F4" s="14">
-        <f t="shared" si="2"/>
-        <v>0.64600419034156675</v>
-      </c>
-      <c r="G4" s="14">
-        <f t="shared" si="3"/>
-        <v>1.8091513164338737</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>42320</v>
-      </c>
-      <c r="B5">
-        <v>4.6534363085345594E-2</v>
-      </c>
-      <c r="C5">
-        <v>21.038398536538562</v>
-      </c>
-      <c r="D5" s="14">
-        <f t="shared" si="1"/>
-        <v>40.839244217986618</v>
-      </c>
-      <c r="E5" s="14">
-        <f t="shared" si="0"/>
-        <v>2.2118776295889044</v>
-      </c>
-      <c r="F5" s="14">
-        <f t="shared" si="2"/>
-        <v>1.1394521122124661</v>
-      </c>
-      <c r="G5" s="14">
-        <f t="shared" si="3"/>
-        <v>3.191064887261148</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>42327</v>
-      </c>
-      <c r="B6">
-        <v>7.0487379671178976E-2</v>
-      </c>
-      <c r="C6">
-        <v>30.475688694632385</v>
-      </c>
-      <c r="D6" s="14">
-        <f t="shared" si="1"/>
-        <v>59.158689818992272</v>
-      </c>
-      <c r="E6" s="14">
-        <f t="shared" si="0"/>
-        <v>2.3129052267683048</v>
-      </c>
-      <c r="F6" s="14">
-        <f t="shared" si="2"/>
-        <v>1.191496631971551</v>
-      </c>
-      <c r="G6" s="14">
-        <f t="shared" si="3"/>
-        <v>3.3368169007047968</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>42339</v>
-      </c>
-      <c r="B7">
-        <f>'12_01'!E9</f>
-        <v>4.5769999558765734E-2</v>
-      </c>
-      <c r="C7">
-        <f>'12_01'!B28</f>
-        <v>20.832118463414211</v>
-      </c>
-      <c r="D7" s="14">
-        <f t="shared" si="1"/>
-        <v>40.438818193686409</v>
-      </c>
-      <c r="E7" s="14">
-        <f t="shared" si="0"/>
-        <v>2.1970880992803461</v>
-      </c>
-      <c r="F7" s="14">
-        <f t="shared" si="2"/>
-        <v>1.1318332632656329</v>
-      </c>
-      <c r="G7" s="14">
-        <f t="shared" si="3"/>
-        <v>3.169728105227914</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>9.0243491953218014E-2</v>
-      </c>
-      <c r="C9" s="10">
-        <v>35.815665436444306</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9">
-        <v>118.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>8.9214109445657191E-2</v>
-      </c>
-      <c r="C10">
-        <v>32.678400542591753</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10">
-        <v>3.5103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>4.6534363085345594E-2</v>
-      </c>
-      <c r="C11">
-        <v>21.038398536538562</v>
-      </c>
-      <c r="G11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11">
-        <v>258.17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>7.0487379671178976E-2</v>
-      </c>
-      <c r="C12">
-        <v>30.475688694632385</v>
-      </c>
-      <c r="G12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12">
-        <v>6.82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>4.5769999558765734E-2</v>
-      </c>
-      <c r="C13">
-        <v>20.832118463414211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15">
-        <v>2.86</v>
-      </c>
-      <c r="I15">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>0.01</v>
-      </c>
-      <c r="C16">
-        <f>308.49*B16+7.052</f>
-        <v>10.136900000000001</v>
-      </c>
-      <c r="E16" s="14">
-        <f>B16/C16*1000</f>
-        <v>0.98649488502402116</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16">
-        <f>H15*LN(2)</f>
-        <v>1.9824009364014434</v>
-      </c>
-      <c r="I16">
-        <f>I15*LN(2)</f>
-        <v>0.20101268236238412</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>0.02</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:C76" si="4">308.49*B17+7.052</f>
-        <v>13.2218</v>
-      </c>
-      <c r="E17" s="14">
-        <f>B17/C17*1000</f>
-        <v>1.512653345232873</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>0.03</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="4"/>
-        <v>16.306699999999999</v>
-      </c>
-      <c r="E18" s="14">
-        <f t="shared" ref="E18:E28" si="5">B18/C18*1000</f>
-        <v>1.8397345876234921</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>0.04</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="4"/>
-        <v>19.3916</v>
-      </c>
-      <c r="E19" s="14">
-        <f t="shared" si="5"/>
-        <v>2.062748819076301</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>0.05</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="4"/>
-        <v>22.476500000000001</v>
-      </c>
-      <c r="E20" s="14">
-        <f t="shared" si="5"/>
-        <v>2.2245456365537337</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>0.06</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="4"/>
-        <v>25.561399999999999</v>
-      </c>
-      <c r="E21" s="14">
-        <f t="shared" si="5"/>
-        <v>2.3472892721055967</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="4"/>
-        <v>28.646300000000004</v>
-      </c>
-      <c r="E22" s="14">
-        <f t="shared" si="5"/>
-        <v>2.4435965552270278</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>0.08</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="4"/>
-        <v>31.731200000000001</v>
-      </c>
-      <c r="E23" s="14">
-        <f t="shared" si="5"/>
-        <v>2.5211778943122227</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="4"/>
-        <v>32.656670000000005</v>
-      </c>
-      <c r="E24" s="25">
-        <f t="shared" si="5"/>
-        <v>2.5415941061963752</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>0.09</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="4"/>
-        <v>34.816099999999999</v>
-      </c>
-      <c r="E25" s="14">
-        <f t="shared" si="5"/>
-        <v>2.5850109575742257</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>0.1</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="4"/>
-        <v>37.901000000000003</v>
-      </c>
-      <c r="E26" s="14">
-        <f t="shared" si="5"/>
-        <v>2.6384528112714705</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>0.11</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="4"/>
-        <v>40.985900000000001</v>
-      </c>
-      <c r="E27" s="14">
-        <f t="shared" si="5"/>
-        <v>2.6838498117645333</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>0.12</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="4"/>
-        <v>44.070799999999998</v>
-      </c>
-      <c r="E28" s="14">
-        <f t="shared" si="5"/>
-        <v>2.722891347558928</v>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>0.13</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="4"/>
-        <v>47.155700000000003</v>
-      </c>
-      <c r="E29" s="14">
-        <f>B29/C29*1000</f>
-        <v>2.7568247316867311</v>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="4"/>
-        <v>50.240600000000008</v>
-      </c>
-      <c r="E30" s="14">
-        <f>B30/C30*1000</f>
-        <v>2.7865909244714433</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>0.15</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="4"/>
-        <v>53.325499999999998</v>
-      </c>
-      <c r="E31" s="14">
-        <f t="shared" ref="E31:E50" si="6">B31/C31*1000</f>
-        <v>2.8129131466184094</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>0.16</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="4"/>
-        <v>56.410400000000003</v>
-      </c>
-      <c r="E32" s="14">
-        <f t="shared" si="6"/>
-        <v>2.8363564165473032</v>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>0.17</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="4"/>
-        <v>59.495300000000007</v>
-      </c>
-      <c r="E33" s="14">
-        <f t="shared" si="6"/>
-        <v>2.8573685652480112</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>0.18</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="4"/>
-        <v>62.580199999999998</v>
-      </c>
-      <c r="E34" s="14">
-        <f t="shared" si="6"/>
-        <v>2.8763091201370403</v>
-      </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>0.19</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="4"/>
-        <v>65.665099999999995</v>
-      </c>
-      <c r="E35" s="14">
-        <f t="shared" si="6"/>
-        <v>2.8934700472549348</v>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>0.2</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="4"/>
-        <v>68.75</v>
-      </c>
-      <c r="E36" s="14">
-        <f t="shared" si="6"/>
-        <v>2.9090909090909092</v>
-      </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>0.21</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="4"/>
-        <v>71.834900000000005</v>
-      </c>
-      <c r="E37" s="14">
-        <f t="shared" si="6"/>
-        <v>2.923370116753834</v>
-      </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>0.22</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="4"/>
-        <v>74.919800000000009</v>
-      </c>
-      <c r="E38" s="14">
-        <f t="shared" si="6"/>
-        <v>2.9364734022247787</v>
-      </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>0.23</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="4"/>
-        <v>78.004700000000014</v>
-      </c>
-      <c r="E39" s="14">
-        <f t="shared" si="6"/>
-        <v>2.948540280265163</v>
-      </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>0.24</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="4"/>
-        <v>81.08959999999999</v>
-      </c>
-      <c r="E40" s="14">
-        <f t="shared" si="6"/>
-        <v>2.9596890353386875</v>
-      </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>0.25</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="4"/>
-        <v>84.174499999999995</v>
-      </c>
-      <c r="E41" s="14">
-        <f t="shared" si="6"/>
-        <v>2.9700206119430468</v>
-      </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>0.26</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="4"/>
-        <v>87.259399999999999</v>
-      </c>
-      <c r="E42" s="14">
-        <f t="shared" si="6"/>
-        <v>2.9796216797273418</v>
-      </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>0.27</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="4"/>
-        <v>90.344300000000004</v>
-      </c>
-      <c r="E43" s="14">
-        <f t="shared" si="6"/>
-        <v>2.9885670706397636</v>
-      </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="4"/>
-        <v>93.429200000000009</v>
-      </c>
-      <c r="E44" s="14">
-        <f t="shared" si="6"/>
-        <v>2.9969217332482776</v>
-      </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="4"/>
-        <v>96.514099999999985</v>
-      </c>
-      <c r="E45" s="14">
-        <f t="shared" si="6"/>
-        <v>3.0047423122631827</v>
-      </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>0.3</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="4"/>
-        <v>99.59899999999999</v>
-      </c>
-      <c r="E46" s="14">
-        <f t="shared" si="6"/>
-        <v>3.0120784345224352</v>
-      </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46">
-        <f>(10-7.702)/300.87</f>
-        <v>7.6378502343204709E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>0.31</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="4"/>
-        <v>102.68389999999999</v>
-      </c>
-      <c r="E47" s="14">
-        <f t="shared" si="6"/>
-        <v>3.0189737631702735</v>
-      </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>0.32</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="4"/>
-        <v>105.7688</v>
-      </c>
-      <c r="E48" s="14">
-        <f t="shared" si="6"/>
-        <v>3.025466867355969</v>
-      </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>0.33</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="4"/>
-        <v>108.8537</v>
-      </c>
-      <c r="E49" s="14">
-        <f t="shared" si="6"/>
-        <v>3.0315919440496741</v>
-      </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>0.34</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="4"/>
-        <v>111.93860000000001</v>
-      </c>
-      <c r="E50" s="14">
-        <f t="shared" si="6"/>
-        <v>3.0373794205037403</v>
-      </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>0.35</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="4"/>
-        <v>115.02349999999998</v>
-      </c>
-      <c r="E51" s="14">
-        <f t="shared" ref="E51:E60" si="7">B51/C51*1000</f>
-        <v>3.0428564597669174</v>
-      </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>0.36</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="4"/>
-        <v>118.10839999999999</v>
-      </c>
-      <c r="E52" s="14">
-        <f t="shared" si="7"/>
-        <v>3.0480473869767097</v>
-      </c>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>0.37</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="4"/>
-        <v>121.19329999999999</v>
-      </c>
-      <c r="E53" s="14">
-        <f t="shared" si="7"/>
-        <v>3.0529740505456986</v>
-      </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>0.38</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="4"/>
-        <v>124.2782</v>
-      </c>
-      <c r="E54" s="14">
-        <f t="shared" si="7"/>
-        <v>3.0576561295544997</v>
-      </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>0.39</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="4"/>
-        <v>127.3631</v>
-      </c>
-      <c r="E55" s="14">
-        <f t="shared" si="7"/>
-        <v>3.0621113964719764</v>
-      </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>0.4</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="4"/>
-        <v>130.44800000000001</v>
-      </c>
-      <c r="E56" s="14">
-        <f t="shared" si="7"/>
-        <v>3.0663559425978169</v>
-      </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>0.41</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="4"/>
-        <v>133.53289999999998</v>
-      </c>
-      <c r="E57" s="14">
-        <f t="shared" si="7"/>
-        <v>3.0704043722558261</v>
-      </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>0.42</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="4"/>
-        <v>136.61779999999999</v>
-      </c>
-      <c r="E58" s="14">
-        <f t="shared" si="7"/>
-        <v>3.0742699706773204</v>
-      </c>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>0.43</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="4"/>
-        <v>139.70269999999999</v>
-      </c>
-      <c r="E59" s="14">
-        <f t="shared" si="7"/>
-        <v>3.0779648496414169</v>
-      </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>0.44</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="4"/>
-        <v>142.7876</v>
-      </c>
-      <c r="E60" s="14">
-        <f t="shared" si="7"/>
-        <v>3.0815000742361383</v>
-      </c>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>0.45</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="4"/>
-        <v>145.8725</v>
-      </c>
-      <c r="E61" s="14">
-        <f>B61/C61*1000</f>
-        <v>3.0848857735351078</v>
-      </c>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>0.46</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="4"/>
-        <v>148.95740000000001</v>
-      </c>
-      <c r="E62" s="14">
-        <f>B62/C62*1000</f>
-        <v>3.0881312375215999</v>
-      </c>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>0.47</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="4"/>
-        <v>152.04229999999998</v>
-      </c>
-      <c r="E63" s="14">
-        <f t="shared" ref="E63:E72" si="8">B63/C63*1000</f>
-        <v>3.0912450022132001</v>
-      </c>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>0.48</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="4"/>
-        <v>155.12719999999999</v>
-      </c>
-      <c r="E64" s="14">
-        <f t="shared" si="8"/>
-        <v>3.0942349246295948</v>
-      </c>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>0.49</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="4"/>
-        <v>158.21209999999999</v>
-      </c>
-      <c r="E65" s="14">
-        <f t="shared" si="8"/>
-        <v>3.0971082489898056</v>
-      </c>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>0.5</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="4"/>
-        <v>161.297</v>
-      </c>
-      <c r="E66" s="14">
-        <f t="shared" si="8"/>
-        <v>3.099871665313056</v>
-      </c>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>0.51</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="4"/>
-        <v>164.3819</v>
-      </c>
-      <c r="E67" s="14">
-        <f t="shared" si="8"/>
-        <v>3.1025313614211787</v>
-      </c>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>0.52</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="4"/>
-        <v>167.46680000000001</v>
-      </c>
-      <c r="E68" s="14">
-        <f t="shared" si="8"/>
-        <v>3.1050930691934164</v>
-      </c>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>0.53</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="4"/>
-        <v>170.55170000000001</v>
-      </c>
-      <c r="E69" s="14">
-        <f t="shared" si="8"/>
-        <v>3.1075621058013492</v>
-      </c>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <v>0.54</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="4"/>
-        <v>173.63660000000002</v>
-      </c>
-      <c r="E70" s="14">
-        <f t="shared" si="8"/>
-        <v>3.1099434105482371</v>
-      </c>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="4"/>
-        <v>176.72150000000002</v>
-      </c>
-      <c r="E71" s="14">
-        <f t="shared" si="8"/>
-        <v>3.1122415778498937</v>
-      </c>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="4"/>
-        <v>179.80640000000002</v>
-      </c>
-      <c r="E72" s="14">
-        <f t="shared" si="8"/>
-        <v>3.114460886820491</v>
-      </c>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="4"/>
-        <v>182.89129999999997</v>
-      </c>
-      <c r="E73" s="14">
-        <f>B73/C73*1000</f>
-        <v>3.1166053278641472</v>
-      </c>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="4"/>
-        <v>185.97619999999998</v>
-      </c>
-      <c r="E74" s="14">
-        <f>B74/C74*1000</f>
-        <v>3.1186786266199658</v>
-      </c>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <v>0.59</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="4"/>
-        <v>189.06109999999998</v>
-      </c>
-      <c r="E75" s="14">
-        <f t="shared" ref="E75:E76" si="9">B75/C75*1000</f>
-        <v>3.1206842655628257</v>
-      </c>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76">
-        <v>0.6</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="4"/>
-        <v>192.14599999999999</v>
-      </c>
-      <c r="E76" s="14">
-        <f t="shared" si="9"/>
-        <v>3.1226255035233628</v>
-      </c>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4980,18 +4092,1252 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>42304</v>
+      </c>
+      <c r="B2">
+        <v>9.0243491953218014E-2</v>
+      </c>
+      <c r="C2" s="10">
+        <v>35.815665436444306</v>
+      </c>
+      <c r="D2" s="14">
+        <f>C2/0.34*0.66</f>
+        <v>69.524527023686005</v>
+      </c>
+      <c r="E2" s="14">
+        <f t="shared" ref="E2:E7" si="0">B2/C2*1000</f>
+        <v>2.5196653713821706</v>
+      </c>
+      <c r="F2" s="14">
+        <f>B2/D2*1000</f>
+        <v>1.2980094337423305</v>
+      </c>
+      <c r="G2" s="14">
+        <f>E2/LN(2)</f>
+        <v>3.6351087359927061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>42310</v>
+      </c>
+      <c r="B3">
+        <v>8.9214109445657191E-2</v>
+      </c>
+      <c r="C3">
+        <v>32.678400542591753</v>
+      </c>
+      <c r="D3" s="14">
+        <f t="shared" ref="D3:D7" si="1">C3/0.34*0.66</f>
+        <v>63.434542229736934</v>
+      </c>
+      <c r="E3" s="14">
+        <f t="shared" si="0"/>
+        <v>2.730063527111096</v>
+      </c>
+      <c r="F3" s="14">
+        <f t="shared" ref="F3:F7" si="2">B3/D3*1000</f>
+        <v>1.4063963624511704</v>
+      </c>
+      <c r="G3" s="14">
+        <f t="shared" ref="G3:G7" si="3">E3/LN(2)</f>
+        <v>3.9386491118750104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>42313</v>
+      </c>
+      <c r="B4" s="13">
+        <v>4.538924970510174E-2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>36.195339142940391</v>
+      </c>
+      <c r="D4" s="14">
+        <f t="shared" si="1"/>
+        <v>70.261540689237222</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" si="0"/>
+        <v>1.2540081341924529</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" si="2"/>
+        <v>0.64600419034156675</v>
+      </c>
+      <c r="G4" s="14">
+        <f t="shared" si="3"/>
+        <v>1.8091513164338737</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>42320</v>
+      </c>
+      <c r="B5">
+        <v>4.6534363085345594E-2</v>
+      </c>
+      <c r="C5">
+        <v>21.038398536538562</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" si="1"/>
+        <v>40.839244217986618</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" si="0"/>
+        <v>2.2118776295889044</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="2"/>
+        <v>1.1394521122124661</v>
+      </c>
+      <c r="G5" s="14">
+        <f t="shared" si="3"/>
+        <v>3.191064887261148</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>42327</v>
+      </c>
+      <c r="B6">
+        <v>7.0487379671178976E-2</v>
+      </c>
+      <c r="C6">
+        <v>30.475688694632385</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" si="1"/>
+        <v>59.158689818992272</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="0"/>
+        <v>2.3129052267683048</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="2"/>
+        <v>1.191496631971551</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" si="3"/>
+        <v>3.3368169007047968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>42339</v>
+      </c>
+      <c r="B7">
+        <f>'12_01'!E9</f>
+        <v>4.5769999558765734E-2</v>
+      </c>
+      <c r="C7">
+        <f>'12_01'!B28</f>
+        <v>20.832118463414211</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" si="1"/>
+        <v>40.438818193686409</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="0"/>
+        <v>2.1970880992803461</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="2"/>
+        <v>1.1318332632656329</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="3"/>
+        <v>3.169728105227914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>9.0243491953218014E-2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>35.815665436444306</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9">
+        <v>118.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8.9214109445657191E-2</v>
+      </c>
+      <c r="C10">
+        <v>32.678400542591753</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10">
+        <v>3.5103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>4.6534363085345594E-2</v>
+      </c>
+      <c r="C11">
+        <v>21.038398536538562</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11">
+        <v>258.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>7.0487379671178976E-2</v>
+      </c>
+      <c r="C12">
+        <v>30.475688694632385</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>4.5769999558765734E-2</v>
+      </c>
+      <c r="C13">
+        <v>20.832118463414211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15">
+        <v>2.86</v>
+      </c>
+      <c r="I15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.01</v>
+      </c>
+      <c r="C16">
+        <f>308.49*B16+7.052</f>
+        <v>10.136900000000001</v>
+      </c>
+      <c r="E16" s="14">
+        <f>B16/C16*1000</f>
+        <v>0.98649488502402116</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16">
+        <f>H15*LN(2)</f>
+        <v>1.9824009364014434</v>
+      </c>
+      <c r="I16">
+        <f>I15*LN(2)</f>
+        <v>0.20101268236238412</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.02</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C76" si="4">308.49*B17+7.052</f>
+        <v>13.2218</v>
+      </c>
+      <c r="E17" s="14">
+        <f>B17/C17*1000</f>
+        <v>1.512653345232873</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0.03</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>16.306699999999999</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" ref="E18:E28" si="5">B18/C18*1000</f>
+        <v>1.8397345876234921</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.04</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="4"/>
+        <v>19.3916</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="5"/>
+        <v>2.062748819076301</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.05</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="4"/>
+        <v>22.476500000000001</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="5"/>
+        <v>2.2245456365537337</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.06</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>25.561399999999999</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="5"/>
+        <v>2.3472892721055967</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>28.646300000000004</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="5"/>
+        <v>2.4435965552270278</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.08</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>31.731200000000001</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="5"/>
+        <v>2.5211778943122227</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>32.656670000000005</v>
+      </c>
+      <c r="E24" s="25">
+        <f t="shared" si="5"/>
+        <v>2.5415941061963752</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0.09</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>34.816099999999999</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" si="5"/>
+        <v>2.5850109575742257</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0.1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>37.901000000000003</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" si="5"/>
+        <v>2.6384528112714705</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0.11</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>40.985900000000001</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" si="5"/>
+        <v>2.6838498117645333</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0.12</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>44.070799999999998</v>
+      </c>
+      <c r="E28" s="14">
+        <f t="shared" si="5"/>
+        <v>2.722891347558928</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0.13</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>47.155700000000003</v>
+      </c>
+      <c r="E29" s="14">
+        <f>B29/C29*1000</f>
+        <v>2.7568247316867311</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>50.240600000000008</v>
+      </c>
+      <c r="E30" s="14">
+        <f>B30/C30*1000</f>
+        <v>2.7865909244714433</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0.15</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>53.325499999999998</v>
+      </c>
+      <c r="E31" s="14">
+        <f t="shared" ref="E31:E50" si="6">B31/C31*1000</f>
+        <v>2.8129131466184094</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0.16</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>56.410400000000003</v>
+      </c>
+      <c r="E32" s="14">
+        <f t="shared" si="6"/>
+        <v>2.8363564165473032</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0.17</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="4"/>
+        <v>59.495300000000007</v>
+      </c>
+      <c r="E33" s="14">
+        <f t="shared" si="6"/>
+        <v>2.8573685652480112</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>0.18</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>62.580199999999998</v>
+      </c>
+      <c r="E34" s="14">
+        <f t="shared" si="6"/>
+        <v>2.8763091201370403</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>0.19</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>65.665099999999995</v>
+      </c>
+      <c r="E35" s="14">
+        <f t="shared" si="6"/>
+        <v>2.8934700472549348</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>0.2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>68.75</v>
+      </c>
+      <c r="E36" s="14">
+        <f t="shared" si="6"/>
+        <v>2.9090909090909092</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>0.21</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>71.834900000000005</v>
+      </c>
+      <c r="E37" s="14">
+        <f t="shared" si="6"/>
+        <v>2.923370116753834</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>0.22</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>74.919800000000009</v>
+      </c>
+      <c r="E38" s="14">
+        <f t="shared" si="6"/>
+        <v>2.9364734022247787</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>0.23</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>78.004700000000014</v>
+      </c>
+      <c r="E39" s="14">
+        <f t="shared" si="6"/>
+        <v>2.948540280265163</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>0.24</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="4"/>
+        <v>81.08959999999999</v>
+      </c>
+      <c r="E40" s="14">
+        <f t="shared" si="6"/>
+        <v>2.9596890353386875</v>
+      </c>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>0.25</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="4"/>
+        <v>84.174499999999995</v>
+      </c>
+      <c r="E41" s="14">
+        <f t="shared" si="6"/>
+        <v>2.9700206119430468</v>
+      </c>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>0.26</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="4"/>
+        <v>87.259399999999999</v>
+      </c>
+      <c r="E42" s="14">
+        <f t="shared" si="6"/>
+        <v>2.9796216797273418</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>0.27</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="4"/>
+        <v>90.344300000000004</v>
+      </c>
+      <c r="E43" s="14">
+        <f t="shared" si="6"/>
+        <v>2.9885670706397636</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="4"/>
+        <v>93.429200000000009</v>
+      </c>
+      <c r="E44" s="14">
+        <f t="shared" si="6"/>
+        <v>2.9969217332482776</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="4"/>
+        <v>96.514099999999985</v>
+      </c>
+      <c r="E45" s="14">
+        <f t="shared" si="6"/>
+        <v>3.0047423122631827</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>0.3</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="4"/>
+        <v>99.59899999999999</v>
+      </c>
+      <c r="E46" s="14">
+        <f t="shared" si="6"/>
+        <v>3.0120784345224352</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46">
+        <f>(10-7.702)/300.87</f>
+        <v>7.6378502343204709E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>0.31</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="4"/>
+        <v>102.68389999999999</v>
+      </c>
+      <c r="E47" s="14">
+        <f t="shared" si="6"/>
+        <v>3.0189737631702735</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>0.32</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="4"/>
+        <v>105.7688</v>
+      </c>
+      <c r="E48" s="14">
+        <f t="shared" si="6"/>
+        <v>3.025466867355969</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>0.33</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="4"/>
+        <v>108.8537</v>
+      </c>
+      <c r="E49" s="14">
+        <f t="shared" si="6"/>
+        <v>3.0315919440496741</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>0.34</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="4"/>
+        <v>111.93860000000001</v>
+      </c>
+      <c r="E50" s="14">
+        <f t="shared" si="6"/>
+        <v>3.0373794205037403</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>0.35</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="4"/>
+        <v>115.02349999999998</v>
+      </c>
+      <c r="E51" s="14">
+        <f t="shared" ref="E51:E60" si="7">B51/C51*1000</f>
+        <v>3.0428564597669174</v>
+      </c>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>0.36</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="4"/>
+        <v>118.10839999999999</v>
+      </c>
+      <c r="E52" s="14">
+        <f t="shared" si="7"/>
+        <v>3.0480473869767097</v>
+      </c>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>0.37</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="4"/>
+        <v>121.19329999999999</v>
+      </c>
+      <c r="E53" s="14">
+        <f t="shared" si="7"/>
+        <v>3.0529740505456986</v>
+      </c>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>0.38</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="4"/>
+        <v>124.2782</v>
+      </c>
+      <c r="E54" s="14">
+        <f t="shared" si="7"/>
+        <v>3.0576561295544997</v>
+      </c>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>0.39</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="4"/>
+        <v>127.3631</v>
+      </c>
+      <c r="E55" s="14">
+        <f t="shared" si="7"/>
+        <v>3.0621113964719764</v>
+      </c>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>0.4</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="4"/>
+        <v>130.44800000000001</v>
+      </c>
+      <c r="E56" s="14">
+        <f t="shared" si="7"/>
+        <v>3.0663559425978169</v>
+      </c>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>0.41</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="4"/>
+        <v>133.53289999999998</v>
+      </c>
+      <c r="E57" s="14">
+        <f t="shared" si="7"/>
+        <v>3.0704043722558261</v>
+      </c>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>0.42</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="4"/>
+        <v>136.61779999999999</v>
+      </c>
+      <c r="E58" s="14">
+        <f t="shared" si="7"/>
+        <v>3.0742699706773204</v>
+      </c>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>0.43</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="4"/>
+        <v>139.70269999999999</v>
+      </c>
+      <c r="E59" s="14">
+        <f t="shared" si="7"/>
+        <v>3.0779648496414169</v>
+      </c>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>0.44</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="4"/>
+        <v>142.7876</v>
+      </c>
+      <c r="E60" s="14">
+        <f t="shared" si="7"/>
+        <v>3.0815000742361383</v>
+      </c>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>0.45</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="4"/>
+        <v>145.8725</v>
+      </c>
+      <c r="E61" s="14">
+        <f>B61/C61*1000</f>
+        <v>3.0848857735351078</v>
+      </c>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>0.46</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="4"/>
+        <v>148.95740000000001</v>
+      </c>
+      <c r="E62" s="14">
+        <f>B62/C62*1000</f>
+        <v>3.0881312375215999</v>
+      </c>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>0.47</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="4"/>
+        <v>152.04229999999998</v>
+      </c>
+      <c r="E63" s="14">
+        <f t="shared" ref="E63:E72" si="8">B63/C63*1000</f>
+        <v>3.0912450022132001</v>
+      </c>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>0.48</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="4"/>
+        <v>155.12719999999999</v>
+      </c>
+      <c r="E64" s="14">
+        <f t="shared" si="8"/>
+        <v>3.0942349246295948</v>
+      </c>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>0.49</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="4"/>
+        <v>158.21209999999999</v>
+      </c>
+      <c r="E65" s="14">
+        <f t="shared" si="8"/>
+        <v>3.0971082489898056</v>
+      </c>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>0.5</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="4"/>
+        <v>161.297</v>
+      </c>
+      <c r="E66" s="14">
+        <f t="shared" si="8"/>
+        <v>3.099871665313056</v>
+      </c>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>0.51</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="4"/>
+        <v>164.3819</v>
+      </c>
+      <c r="E67" s="14">
+        <f t="shared" si="8"/>
+        <v>3.1025313614211787</v>
+      </c>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>0.52</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="4"/>
+        <v>167.46680000000001</v>
+      </c>
+      <c r="E68" s="14">
+        <f t="shared" si="8"/>
+        <v>3.1050930691934164</v>
+      </c>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>0.53</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="4"/>
+        <v>170.55170000000001</v>
+      </c>
+      <c r="E69" s="14">
+        <f t="shared" si="8"/>
+        <v>3.1075621058013492</v>
+      </c>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>0.54</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="4"/>
+        <v>173.63660000000002</v>
+      </c>
+      <c r="E70" s="14">
+        <f t="shared" si="8"/>
+        <v>3.1099434105482371</v>
+      </c>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="4"/>
+        <v>176.72150000000002</v>
+      </c>
+      <c r="E71" s="14">
+        <f t="shared" si="8"/>
+        <v>3.1122415778498937</v>
+      </c>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="4"/>
+        <v>179.80640000000002</v>
+      </c>
+      <c r="E72" s="14">
+        <f t="shared" si="8"/>
+        <v>3.114460886820491</v>
+      </c>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="4"/>
+        <v>182.89129999999997</v>
+      </c>
+      <c r="E73" s="14">
+        <f>B73/C73*1000</f>
+        <v>3.1166053278641472</v>
+      </c>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="4"/>
+        <v>185.97619999999998</v>
+      </c>
+      <c r="E74" s="14">
+        <f>B74/C74*1000</f>
+        <v>3.1186786266199658</v>
+      </c>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>0.59</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="4"/>
+        <v>189.06109999999998</v>
+      </c>
+      <c r="E75" s="14">
+        <f t="shared" ref="E75:E76" si="9">B75/C75*1000</f>
+        <v>3.1206842655628257</v>
+      </c>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>0.6</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="4"/>
+        <v>192.14599999999999</v>
+      </c>
+      <c r="E76" s="14">
+        <f t="shared" si="9"/>
+        <v>3.1226255035233628</v>
+      </c>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5222,7 +5568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -5230,16 +5576,16 @@
       <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5247,12 +5593,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5269,7 +5615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>24+7+3/4</f>
         <v>31.75</v>
@@ -5293,7 +5639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>24+40/60</f>
         <v>24.666666666666668</v>
@@ -5338,7 +5684,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -5360,7 +5706,7 @@
         <v>2.8870105582736597E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5368,7 +5714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5379,7 +5725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12.48</v>
       </c>
@@ -5391,7 +5737,7 @@
         <v>13870</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.45</v>
       </c>
@@ -5403,7 +5749,7 @@
         <v>14880</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.59</v>
       </c>
@@ -5415,7 +5761,7 @@
         <v>14742</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.57</v>
       </c>
@@ -5433,7 +5779,7 @@
         <v>242.71844660194179</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -5442,7 +5788,7 @@
         <v>240.20295091119186</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -5458,7 +5804,7 @@
         <v>14497.333333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -5467,7 +5813,7 @@
         <v>547.65074028374454</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -5476,7 +5822,7 @@
         <v>2.4950789275587283E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -5485,7 +5831,7 @@
         <v>5.9932532115593844</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -5494,7 +5840,7 @@
         <v>0.26755594694461537</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -5503,7 +5849,7 @@
         <v>16.053356816676924</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5512,7 +5858,7 @@
         <v>36.195339142940391</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -5521,7 +5867,7 @@
         <v>70.261540689237222</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -5544,7 +5890,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.11212608182545859</v>
@@ -5583,16 +5929,16 @@
       <selection activeCell="E22" sqref="E22:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5600,12 +5946,12 @@
         <v>0.626</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5622,7 +5968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5635,7 +5981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>22+1/12</f>
         <v>22.083333333333332</v>
@@ -5677,7 +6023,7 @@
         <v>8.2469074097213532E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -5695,7 +6041,7 @@
         <v>1.5243775110677241E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>90</v>
       </c>
@@ -5704,7 +6050,7 @@
         <v>1.0240027914060459E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5712,7 +6058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5723,7 +6069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12.84</v>
       </c>
@@ -5735,7 +6081,7 @@
         <v>14540</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.7</v>
       </c>
@@ -5747,7 +6093,7 @@
         <v>14297</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.55</v>
       </c>
@@ -5759,7 +6105,7 @@
         <v>14693</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.36</v>
       </c>
@@ -5777,7 +6123,7 @@
         <v>232.01856148491879</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -5786,7 +6132,7 @@
         <v>236.72923300841694</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -5802,7 +6148,7 @@
         <v>14510</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -5818,7 +6164,7 @@
         <v>199.69727088771143</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>89</v>
       </c>
@@ -5827,7 +6173,7 @@
         <v>109.53050944828112</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -5836,7 +6182,7 @@
         <v>2.4971655045194385E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>15</v>
       </c>
@@ -5845,7 +6191,7 @@
         <v>1.3983276962358229E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -5861,7 +6207,7 @@
         <v>1.2497962064663541E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -5870,7 +6216,7 @@
         <v>0.26390717615176928</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -5886,7 +6232,7 @@
         <v>5.9115207457996322</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5902,7 +6248,7 @@
         <v>0.29932359955532473</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -5918,7 +6264,7 @@
         <v>51.727234197410638</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>92</v>
       </c>
@@ -5927,8 +6273,8 @@
         <v>2.6191537847535504</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E31" s="2" t="s">
         <v>94</v>
       </c>
@@ -5937,7 +6283,7 @@
         <v>2.2700352806044122</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E32" s="4" t="s">
         <v>92</v>
       </c>
@@ -5946,7 +6292,7 @@
         <v>0.11843590032168816</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>95</v>
       </c>
@@ -5954,7 +6300,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E36">
         <f>(F28/F29)^2 + (E7/E9)^2</f>
         <v>6707.6501906161229</v>
@@ -5964,7 +6310,7 @@
         <v>81.900245363589249</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>97</v>
       </c>
@@ -5973,7 +6319,7 @@
         <v>185.91644646550552</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>98</v>
       </c>
@@ -5982,7 +6328,7 @@
         <v>268.22073533548325</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>99</v>
       </c>
@@ -5991,7 +6337,7 @@
         <v>1.5734685545225526E-3</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>100</v>
       </c>
@@ -6000,7 +6346,7 @@
         <v>8.2093510385056865E-5</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>101</v>
       </c>
@@ -6022,16 +6368,16 @@
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6039,12 +6385,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6061,7 +6407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>25+55/60</f>
         <v>25.916666666666668</v>
@@ -6085,7 +6431,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>23+23/60</f>
         <v>23.383333333333333</v>
@@ -6129,7 +6475,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -6151,7 +6497,7 @@
         <v>7.96516101052323E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>90</v>
       </c>
@@ -6160,7 +6506,7 @@
         <v>4.368753460886084E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6168,7 +6514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6179,7 +6525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12.25</v>
       </c>
@@ -6191,7 +6537,7 @@
         <v>14371</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11.74</v>
       </c>
@@ -6203,7 +6549,7 @@
         <v>14899</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.08</v>
       </c>
@@ -6215,7 +6561,7 @@
         <v>11940</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.4</v>
       </c>
@@ -6239,7 +6585,7 @@
         <v>14210</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -6248,7 +6594,7 @@
         <v>248.86140042339238</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -6264,7 +6610,7 @@
         <v>13817</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -6280,7 +6626,7 @@
         <v>1137.7963350266164</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>89</v>
       </c>
@@ -6289,7 +6635,7 @@
         <v>483.39609043723135</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -6298,7 +6644,7 @@
         <v>2.3830077808006077E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>15</v>
       </c>
@@ -6307,7 +6653,7 @@
         <v>2.9436560336797285E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -6323,7 +6669,7 @@
         <v>1.8656640809615438E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -6332,7 +6678,7 @@
         <v>0.26474939890619631</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -6348,7 +6694,7 @@
         <v>5.9303865354987968</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -6364,7 +6710,7 @@
         <v>0.46788980159301863</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -6380,7 +6726,7 @@
         <v>48.340161938759181</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>92</v>
       </c>
@@ -6389,8 +6735,8 @@
         <v>3.8138945316821689</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E31" s="2" t="s">
         <v>94</v>
       </c>
@@ -6399,7 +6745,7 @@
         <v>2.6932851089400507</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E32" s="4" t="s">
         <v>92</v>
       </c>
@@ -6421,16 +6767,16 @@
       <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6438,12 +6784,12 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6460,7 +6806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>22+50/60</f>
         <v>22.833333333333332</v>
@@ -6484,7 +6830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>20+0.25</f>
         <v>20.25</v>
@@ -6505,7 +6851,7 @@
         <v>9.0379687863964595E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>49+50/60</f>
         <v>49.833333333333336</v>
@@ -6549,7 +6895,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
@@ -6571,7 +6917,7 @@
         <v>3.2243641791387537E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>90</v>
       </c>
@@ -6580,7 +6926,7 @@
         <v>1.5315729850909079E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -6588,7 +6934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -6599,7 +6945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.73</v>
       </c>
@@ -6611,7 +6957,7 @@
         <v>14866</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.7</v>
       </c>
@@ -6623,7 +6969,7 @@
         <v>15913</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.77</v>
       </c>
@@ -6635,7 +6981,7 @@
         <v>11486</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12.65</v>
       </c>
@@ -6644,7 +6990,7 @@
         <v>237.15415019762844</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>12.67</v>
       </c>
@@ -6653,7 +6999,7 @@
         <v>236.77979479084453</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -6662,7 +7008,7 @@
         <v>236.1487621304139</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -6678,7 +7024,7 @@
         <v>14088.333333333334</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -6694,7 +7040,7 @@
         <v>2313.6889015883949</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>89</v>
       </c>
@@ -6703,7 +7049,7 @@
         <v>1269.0184646454541</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>29</v>
       </c>
@@ -6712,7 +7058,7 @@
         <v>2.4277044556958109E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>15</v>
       </c>
@@ -6721,7 +7067,7 @@
         <v>4.8807010370936696E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -6737,7 +7083,7 @@
         <v>3.159817932941256E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -6746,7 +7092,7 @@
         <v>0.25593723304957861</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -6762,7 +7108,7 @@
         <v>5.73299402031056</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -6778,7 +7124,7 @@
         <v>0.74624314643619483</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E29" s="16" t="s">
         <v>84</v>
       </c>
@@ -6787,7 +7133,7 @@
         <v>44.105816683252677</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>92</v>
       </c>
@@ -6796,8 +7142,8 @@
         <v>5.741095019677962</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E32" s="2" t="s">
         <v>94</v>
       </c>
@@ -6806,7 +7152,7 @@
         <v>2.9181809328892117</v>
       </c>
     </row>
-    <row r="33" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E33" s="4" t="s">
         <v>92</v>
       </c>
@@ -6828,16 +7174,16 @@
       <selection activeCell="F28" sqref="F28:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6845,12 +7191,12 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6867,7 +7213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>48.25</v>
       </c>
@@ -6895,7 +7241,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -6916,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>90</v>
       </c>
@@ -6925,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6933,7 +7279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6944,7 +7290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12.8</v>
       </c>
@@ -6956,7 +7302,7 @@
         <v>10464</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.81</v>
       </c>
@@ -6968,7 +7314,7 @@
         <v>10676</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.64</v>
       </c>
@@ -6980,7 +7326,7 @@
         <v>10245</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.78</v>
       </c>
@@ -6998,7 +7344,7 @@
         <v>234.74178403755869</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -7007,7 +7353,7 @@
         <v>235.07847553954838</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -7023,7 +7369,7 @@
         <v>10461.666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -7039,7 +7385,7 @@
         <v>215.50947388301361</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>89</v>
       </c>
@@ -7048,7 +7394,7 @@
         <v>118.20323012130891</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -7057,7 +7403,7 @@
         <v>1.8302845258925997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>15</v>
       </c>
@@ -7066,7 +7412,7 @@
         <v>1.4243751002895569E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -7082,7 +7428,7 @@
         <v>1.2640827584213625E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -7091,7 +7437,7 @@
         <v>0.19208057863859707</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -7107,7 +7453,7 @@
         <v>4.3026049615045743</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -7123,7 +7469,7 @@
         <v>0.29732723276577994</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E28" s="16" t="s">
         <v>84</v>
       </c>
@@ -7132,7 +7478,7 @@
         <v>28.395384527843461</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>92</v>
       </c>
@@ -7141,8 +7487,8 @@
         <v>1.9622347811432845</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E31" s="2" t="s">
         <v>94</v>
       </c>
@@ -7151,7 +7497,7 @@
         <v>2.3642889846525779</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E32" s="4" t="s">
         <v>92</v>
       </c>
@@ -7173,16 +7519,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -7190,12 +7536,12 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7212,7 +7558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>20.25</v>
       </c>
@@ -7235,7 +7581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>20+25/60</f>
         <v>20.416666666666668</v>
@@ -7279,7 +7625,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -7301,7 +7647,7 @@
         <v>3.769238730890744E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>90</v>
       </c>
@@ -7310,7 +7656,7 @@
         <v>2.0673624461237479E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -7318,7 +7664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -7329,7 +7675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12.85</v>
       </c>
@@ -7341,7 +7687,7 @@
         <v>12209</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.8</v>
       </c>
@@ -7353,7 +7699,7 @@
         <v>12955</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.83</v>
       </c>
@@ -7365,7 +7711,7 @@
         <v>12671</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.83</v>
       </c>
@@ -7383,7 +7729,7 @@
         <v>233.28149300155525</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -7392,7 +7738,7 @@
         <v>233.75469282166114</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -7408,7 +7754,7 @@
         <v>12611.666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -7424,7 +7770,7 @@
         <v>376.52268634616604</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>89</v>
       </c>
@@ -7433,7 +7779,7 @@
         <v>206.51620060206199</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -7442,7 +7788,7 @@
         <v>2.1844535100130694E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>15</v>
       </c>
@@ -7451,7 +7797,7 @@
         <v>1.6896117788386179E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -7467,7 +7813,7 @@
         <v>1.4095605027926619E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -7476,7 +7822,7 @@
         <v>0.22795815143585024</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -7495,7 +7841,7 @@
         <v>5.1062625921630449</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -7515,7 +7861,7 @@
         <v>0.32951439232487173</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -7531,7 +7877,7 @@
         <v>41.132831366988491</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>92</v>
       </c>
@@ -7540,8 +7886,8 @@
         <v>2.6543601485158121</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E31" s="2" t="s">
         <v>94</v>
       </c>
@@ -7550,7 +7896,7 @@
         <v>2.4722779764312812</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E32" s="4" t="s">
         <v>92</v>
       </c>
@@ -7573,16 +7919,16 @@
       <selection activeCell="F30" sqref="F30:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -7590,12 +7936,12 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7612,7 +7958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>30.25</v>
       </c>
@@ -7635,7 +7981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>25+1/6</f>
         <v>25.166666666666668</v>
@@ -7656,7 +8002,7 @@
         <v>4.5732850181182054E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>48-A5</f>
         <v>22.833333333333332</v>
@@ -7680,7 +8026,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21</v>
       </c>
@@ -7720,7 +8066,7 @@
         <v>4.7924528301886794E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -7742,7 +8088,7 @@
         <v>2.6388241743311911E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>90</v>
       </c>
@@ -7751,7 +8097,7 @@
         <v>1.1211121445501167E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -7759,7 +8105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -7770,7 +8116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.74</v>
       </c>
@@ -7782,7 +8128,7 @@
         <v>10270</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.64</v>
       </c>
@@ -7794,7 +8140,7 @@
         <v>9831</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12.66</v>
       </c>
@@ -7806,7 +8152,7 @@
         <v>9667</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12.75</v>
       </c>
@@ -7815,7 +8161,7 @@
         <v>235.29411764705881</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>12.51</v>
       </c>
@@ -7824,7 +8170,7 @@
         <v>239.80815347721824</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -7833,7 +8179,7 @@
         <v>236.97793496562076</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -7849,7 +8195,7 @@
         <v>9922.6666666666661</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -7865,7 +8211,7 @@
         <v>311.77609487151727</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>89</v>
       </c>
@@ -7874,7 +8220,7 @@
         <v>171.00381168591278</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>29</v>
       </c>
@@ -7883,7 +8229,7 @@
         <v>1.7414951852223977E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>15</v>
       </c>
@@ -7892,7 +8238,7 @@
         <v>1.5829548740579694E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -7908,7 +8254,7 @@
         <v>1.3510610297409243E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -7917,7 +8263,7 @@
         <v>0.18423925569043531</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -7936,7 +8282,7 @@
         <v>4.1269593274657508</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -7956,7 +8302,7 @@
         <v>0.32045418094478684</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -7972,7 +8318,7 @@
         <v>28.116969705221639</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>92</v>
       </c>
@@ -7981,8 +8327,8 @@
         <v>2.1832540092099948</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E33" s="2" t="s">
         <v>94</v>
       </c>
@@ -7991,7 +8337,7 @@
         <v>2.3484803688734086</v>
       </c>
     </row>
-    <row r="34" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E34" s="4" t="s">
         <v>92</v>
       </c>
@@ -8010,20 +8356,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -8031,12 +8377,12 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8053,7 +8399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>35/60+16</f>
         <v>16.583333333333332</v>
@@ -8077,7 +8423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24</v>
       </c>
@@ -8097,7 +8443,7 @@
         <v>6.4465408805031446E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>24+1/3</f>
         <v>24.333333333333332</v>
@@ -8121,7 +8467,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>26+55/60</f>
         <v>26.916666666666668</v>
@@ -8162,7 +8508,7 @@
         <v>6.2607204116638074E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -8184,7 +8530,7 @@
         <v>3.1993489528702739E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>90</v>
       </c>
@@ -8193,7 +8539,7 @@
         <v>1.3592527310485336E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -8201,7 +8547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -8212,7 +8558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11.83</v>
       </c>
@@ -8224,7 +8570,7 @@
         <v>9371.4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11.87</v>
       </c>
@@ -8236,7 +8582,7 @@
         <v>8942.6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12.02</v>
       </c>
@@ -8248,7 +8594,7 @@
         <v>9899.7000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11.77</v>
       </c>
@@ -8260,7 +8606,7 @@
         <v>9318.2000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>11.88</v>
       </c>
@@ -8272,7 +8618,7 @@
         <v>9694</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -8281,7 +8627,7 @@
         <v>252.66502739838626</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -8297,7 +8643,7 @@
         <v>9445.18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -8313,7 +8659,7 @@
         <v>368.32522585345691</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>89</v>
       </c>
@@ -8322,7 +8668,7 @@
         <v>156.48404613889559</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>29</v>
       </c>
@@ -8331,7 +8677,7 @@
         <v>1.662838921192443E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>15</v>
       </c>
@@ -8340,7 +8686,7 @@
         <v>1.6761081218382903E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -8356,7 +8702,7 @@
         <v>1.3271426547946245E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -8365,7 +8711,7 @@
         <v>0.18756305427776415</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -8384,7 +8730,7 @@
         <v>4.2014124158219168</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -8404,7 +8750,7 @@
         <v>0.33560720473441347</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -8420,7 +8766,7 @@
         <v>34.869502561398797</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>92</v>
       </c>
@@ -8429,8 +8775,8 @@
         <v>2.7853624274162536</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E33" s="2" t="s">
         <v>94</v>
       </c>
@@ -8439,7 +8785,7 @@
         <v>2.4921283100919331</v>
       </c>
     </row>
-    <row r="34" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E34" s="4" t="s">
         <v>92</v>
       </c>
@@ -8459,19 +8805,19 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -8479,12 +8825,12 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8501,7 +8847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>46.25</v>
       </c>
@@ -8524,18 +8870,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -8548,7 +8894,7 @@
         <v>707.94876097815234</v>
       </c>
     </row>
-    <row r="10" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
@@ -8556,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>90</v>
       </c>
@@ -8564,7 +8910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -8572,7 +8918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -8583,7 +8929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.17</v>
       </c>
@@ -8595,7 +8941,7 @@
         <v>12568</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.08</v>
       </c>
@@ -8607,7 +8953,7 @@
         <v>13705</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11.91</v>
       </c>
@@ -8619,7 +8965,7 @@
         <v>13862</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12.32</v>
       </c>
@@ -8631,7 +8977,7 @@
         <v>12991</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>12.34</v>
       </c>
@@ -8643,7 +8989,7 @@
         <v>12977</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -8655,7 +9001,7 @@
         <v>13199</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -8671,7 +9017,7 @@
         <v>13217</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -8687,7 +9033,7 @@
         <v>486.6970310162165</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>89</v>
       </c>
@@ -8696,7 +9042,7 @@
         <v>188.7585693418977</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>29</v>
       </c>
@@ -8705,7 +9051,7 @@
         <v>2.2841699247669878E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>15</v>
       </c>
@@ -8714,7 +9060,7 @@
         <v>1.8711017124568984E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -8730,7 +9076,7 @@
         <v>1.3803083994261584E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -8739,7 +9085,7 @@
         <v>0.25153598804761629</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -8758,7 +9104,7 @@
         <v>5.634406132266605</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -8778,7 +9124,7 @@
         <v>0.34230183918155244</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -8794,7 +9140,7 @@
         <v>36.309778137512282</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>92</v>
       </c>
@@ -8803,8 +9149,8 @@
         <v>2.2058942051705963</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E33" s="2" t="s">
         <v>94</v>
       </c>
@@ -8813,7 +9159,7 @@
         <v>2.3341342382412682</v>
       </c>
     </row>
-    <row r="34" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E34" s="4" t="s">
         <v>92</v>
       </c>

--- a/Experimental Results/dilution rate measurements w compilation.xlsx
+++ b/Experimental Results/dilution rate measurements w compilation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" tabRatio="769" activeTab="9"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" tabRatio="769"/>
   </bookViews>
   <sheets>
     <sheet name="Neatened Compilation" sheetId="14" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="12_01" sheetId="11" r:id="rId7"/>
     <sheet name="12_07" sheetId="12" r:id="rId8"/>
     <sheet name="12_11" sheetId="15" r:id="rId9"/>
-    <sheet name="12_11 (2)" sheetId="16" r:id="rId10"/>
+    <sheet name="12_19" sheetId="16" r:id="rId10"/>
     <sheet name="Methane Standard Curve" sheetId="6" r:id="rId11"/>
     <sheet name="Compilation" sheetId="8" r:id="rId12"/>
     <sheet name="12_01_Summary of Results" sheetId="10" r:id="rId13"/>
@@ -524,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -635,6 +635,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,6 +689,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -768,7 +775,7 @@
                   <c:v>34.869502561398797</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.169436660808579</c:v>
+                  <c:v>36.309778137512282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -783,11 +790,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42079744"/>
-        <c:axId val="42081664"/>
+        <c:axId val="153749760"/>
+        <c:axId val="153768320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42079744"/>
+        <c:axId val="153749760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,18 +821,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42081664"/>
+        <c:crossAx val="153768320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42081664"/>
+        <c:axId val="153768320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,13 +856,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42079744"/>
+        <c:crossAx val="153749760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -968,7 +977,7 @@
                   <c:v>2.4921283100919336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4098167153230468</c:v>
+                  <c:v>2.3341342382412682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -983,11 +992,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42113664"/>
-        <c:axId val="42123648"/>
+        <c:axId val="153797376"/>
+        <c:axId val="153798912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42113664"/>
+        <c:axId val="153797376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,12 +1006,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42123648"/>
+        <c:crossAx val="153798912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42123648"/>
+        <c:axId val="153798912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,7 +1022,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42113664"/>
+        <c:crossAx val="153797376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1045,6 +1054,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1156,11 +1166,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="45613440"/>
-        <c:axId val="45614976"/>
+        <c:axId val="154370816"/>
+        <c:axId val="154372352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45613440"/>
+        <c:axId val="154370816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1170,12 +1180,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45614976"/>
+        <c:crossAx val="154372352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45614976"/>
+        <c:axId val="154372352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1187,7 +1197,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45613440"/>
+        <c:crossAx val="154370816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1298,11 +1308,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="45664896"/>
-        <c:axId val="45666688"/>
+        <c:axId val="154389504"/>
+        <c:axId val="154411776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45664896"/>
+        <c:axId val="154389504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,12 +1322,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45666688"/>
+        <c:crossAx val="154411776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45666688"/>
+        <c:axId val="154411776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,7 +1338,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45664896"/>
+        <c:crossAx val="154389504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1767,11 +1777,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="45673856"/>
-        <c:axId val="45761664"/>
+        <c:axId val="154435584"/>
+        <c:axId val="154437120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45673856"/>
+        <c:axId val="154435584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1781,12 +1791,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45761664"/>
+        <c:crossAx val="154437120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45761664"/>
+        <c:axId val="154437120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1797,7 +1807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45673856"/>
+        <c:crossAx val="154435584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1926,11 +1936,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="78263808"/>
-        <c:axId val="78265728"/>
+        <c:axId val="154515328"/>
+        <c:axId val="154521600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78263808"/>
+        <c:axId val="154515328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,12 +1968,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78265728"/>
+        <c:crossAx val="154521600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78265728"/>
+        <c:axId val="154521600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1992,7 +2002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78263808"/>
+        <c:crossAx val="154515328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2431,11 +2441,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="78302592"/>
-        <c:axId val="78308864"/>
+        <c:axId val="154554368"/>
+        <c:axId val="154556288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78302592"/>
+        <c:axId val="154554368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2463,12 +2473,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78308864"/>
+        <c:crossAx val="154556288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78308864"/>
+        <c:axId val="154556288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,7 +2507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78302592"/>
+        <c:crossAx val="154554368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3037,8 +3047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3047,7 +3057,7 @@
     <col min="2" max="2" width="9.109375" style="16"/>
     <col min="3" max="3" width="19" style="16" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="16"/>
+    <col min="5" max="5" width="9.5546875" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.109375" style="16" customWidth="1"/>
     <col min="8" max="8" width="9.109375" style="16"/>
@@ -3149,15 +3159,15 @@
         <v>2.3830077808006077E-2</v>
       </c>
       <c r="G3" s="27">
-        <f t="shared" ref="G3:G9" si="0">F3*D3</f>
+        <f t="shared" ref="G3:G10" si="0">F3*D3</f>
         <v>5.9303865354987968</v>
       </c>
       <c r="H3" s="27">
-        <f t="shared" ref="H3:H9" si="1">B3/G3*$B$18*C3/LN(2)*22400/60</f>
+        <f t="shared" ref="H3:H10" si="1">B3/G3*$B$18*C3/LN(2)*22400/60</f>
         <v>2.6932851089400507</v>
       </c>
       <c r="I3" s="28">
-        <f t="shared" ref="I3:I9" si="2">G3*60/22.4/B3/$B$18</f>
+        <f t="shared" ref="I3:I10" si="2">G3*60/22.4/B3/$B$18</f>
         <v>48.340161938759181</v>
       </c>
       <c r="J3" s="27">
@@ -3178,7 +3188,7 @@
       <c r="D4" s="32">
         <v>236.1487621304139</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="48">
         <v>14088.333333333334</v>
       </c>
       <c r="F4" s="26">
@@ -3215,7 +3225,7 @@
       <c r="D5" s="32">
         <v>235.07847553954838</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="48">
         <v>10461.666666666666</v>
       </c>
       <c r="F5" s="26">
@@ -3252,7 +3262,7 @@
       <c r="D6" s="32">
         <v>233.75469282166114</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="49">
         <v>12611.666666666666</v>
       </c>
       <c r="F6" s="33">
@@ -3289,7 +3299,7 @@
       <c r="D7" s="32">
         <v>236.97793496562076</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="49">
         <v>9922.6666666666661</v>
       </c>
       <c r="F7" s="33">
@@ -3326,7 +3336,7 @@
       <c r="D8" s="32">
         <v>252.66502739838626</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="49">
         <v>9445.18</v>
       </c>
       <c r="F8" s="33">
@@ -3361,10 +3371,9 @@
         <v>5.8745537990821016E-2</v>
       </c>
       <c r="D9" s="32">
-        <f>AVERAGE(D4:D8)</f>
-        <v>238.92497857112608</v>
-      </c>
-      <c r="E9" s="30">
+        <v>246.67193413123064</v>
+      </c>
+      <c r="E9" s="49">
         <v>13217</v>
       </c>
       <c r="F9" s="33">
@@ -3373,29 +3382,53 @@
       </c>
       <c r="G9" s="34">
         <f t="shared" si="0"/>
-        <v>5.457452503277632</v>
+        <v>5.634406132266605</v>
       </c>
       <c r="H9" s="27">
         <f t="shared" si="1"/>
-        <v>2.4098167153230468</v>
+        <v>2.3341342382412682</v>
       </c>
       <c r="I9" s="28">
         <f t="shared" si="2"/>
-        <v>35.169436660808579</v>
+        <v>36.309778137512282</v>
       </c>
       <c r="J9" s="27">
         <f>C9*1000/I9</f>
-        <v>1.6703576618923983</v>
+        <v>1.6178985662853707</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="A10" s="29">
+        <v>42357</v>
+      </c>
+      <c r="B10" s="30">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="C10" s="31">
+        <v>0.12726841839229042</v>
+      </c>
+      <c r="D10" s="32">
+        <v>243.4311472889091</v>
+      </c>
+      <c r="E10" s="49">
+        <v>22776.833333333332</v>
+      </c>
+      <c r="F10" s="33">
+        <f>E10*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>3.8589589759426501E-2</v>
+      </c>
+      <c r="G10" s="34">
+        <f t="shared" si="0"/>
+        <v>9.3939081085455314</v>
+      </c>
+      <c r="H10" s="27">
+        <f t="shared" si="1"/>
+        <v>2.826048995915547</v>
+      </c>
+      <c r="I10" s="28">
+        <f t="shared" si="2"/>
+        <v>64.970393769431354</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D11" s="30"/>
@@ -3489,8 +3522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3507,7 +3540,7 @@
         <v>18</v>
       </c>
       <c r="B1">
-        <v>0.85</v>
+        <v>0.79200000000000004</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3559,7 +3592,47 @@
         <v>7.8783783783783772</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>18+45/60</f>
+        <v>18.75</v>
+      </c>
+      <c r="B5">
+        <v>6.55</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
+        <v>2.4716981132075473</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" ref="D5:D6" si="1">A5/C5</f>
+        <v>7.5858778625954191</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E6" si="2">1/D5</f>
+        <v>0.1318238993710692</v>
+      </c>
+    </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>9+12/60</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1320754716981132</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="1"/>
+        <v>8.1266666666666669</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.12305168170631665</v>
+      </c>
       <c r="F6" t="s">
         <v>49</v>
       </c>
@@ -3576,11 +3649,11 @@
       </c>
       <c r="E9" s="3">
         <f>AVERAGE(E4:E8)</f>
-        <v>0.12692967409948544</v>
+        <v>0.12726841839229042</v>
       </c>
       <c r="F9">
         <f>60*LN(2)/E9</f>
-        <v>327.65254562144435</v>
+        <v>326.78044843304235</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3588,7 +3661,8 @@
         <v>17</v>
       </c>
       <c r="E10" s="5">
-        <v>0</v>
+        <f>STDEV(E4:E7)</f>
+        <v>4.3959084910152645E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -3619,135 +3693,168 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="e">
+      <c r="A14">
+        <v>12.28</v>
+      </c>
+      <c r="B14">
         <f>50/A14*60</f>
-        <v>#DIV/0!</v>
+        <v>244.29967426710098</v>
+      </c>
+      <c r="F14">
+        <v>21951</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" t="e">
-        <f t="shared" ref="B15:B18" si="0">50/A15*60</f>
-        <v>#DIV/0!</v>
+      <c r="A15">
+        <v>12.24</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:B18" si="3">50/A15*60</f>
+        <v>245.09803921568624</v>
+      </c>
+      <c r="F15">
+        <v>22085</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="A16">
+        <v>12.09</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>248.13895781637717</v>
+      </c>
+      <c r="F16">
+        <v>23109</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="A17">
+        <v>12.54</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="3"/>
+        <v>239.23444976076556</v>
+      </c>
+      <c r="F17">
+        <v>22721</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="A18">
+        <v>12.48</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="3"/>
+        <v>240.38461538461539</v>
+      </c>
+      <c r="F18">
+        <v>23847</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="3" t="e">
+      <c r="B19" s="3">
         <f>AVERAGE(B14:B18)</f>
-        <v>#DIV/0!</v>
+        <v>243.4311472889091</v>
+      </c>
+      <c r="F19">
+        <v>22948</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="5" t="e">
+      <c r="B20" s="5">
         <f>STDEV(B14:B18)</f>
-        <v>#DIV/0!</v>
+        <v>3.6259472747320367</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="3" t="e">
+      <c r="F20" s="3">
         <f>AVERAGE(F14:F19)</f>
-        <v>#DIV/0!</v>
+        <v>22776.833333333332</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>89</v>
       </c>
-      <c r="B21" t="e">
+      <c r="B21">
         <f>0.95*B20/SQRT(COUNT(B14:B18))</f>
-        <v>#DIV/0!</v>
+        <v>1.5404942719348784</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="5" t="e">
+      <c r="F21" s="5">
         <f>STDEV(F14:F19)</f>
-        <v>#DIV/0!</v>
+        <v>699.80580639679363</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>89</v>
       </c>
-      <c r="F22" t="e">
+      <c r="F22">
         <f>0.95*F21/SQRT(COUNT(F14:F19))</f>
-        <v>#DIV/0!</v>
+        <v>271.40979791226732</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="15" t="e">
+      <c r="F23" s="15">
         <f>F20*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
-        <v>#DIV/0!</v>
+        <v>3.8589589759426501E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>15</v>
       </c>
-      <c r="F24" t="e">
+      <c r="F24">
         <f>F21*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
-        <v>#DIV/0!</v>
+        <v>2.2221552867996725E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="B25" t="e">
+      <c r="B25">
         <f>B19*F23</f>
-        <v>#DIV/0!</v>
+        <v>9.3939081085455314</v>
       </c>
       <c r="E25" t="s">
         <v>89</v>
       </c>
-      <c r="F25" t="e">
+      <c r="F25">
         <f>F22*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
-        <v>#DIV/0!</v>
+        <v>1.5164595699334914E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="B26" t="e">
+      <c r="B26">
         <f>B25/22.4</f>
-        <v>#DIV/0!</v>
+        <v>0.41937089770292552</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B27" t="e">
+      <c r="B27">
         <f>B26*60</f>
-        <v>#DIV/0!</v>
+        <v>25.162253862175533</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
@@ -3755,54 +3862,54 @@
       <c r="E27" t="s">
         <v>91</v>
       </c>
-      <c r="F27" t="e">
+      <c r="F27">
         <f>F23*B19</f>
-        <v>#DIV/0!</v>
+        <v>9.3939081085455314</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="10" t="e">
+      <c r="B28" s="10">
         <f>B27/(B1*0.66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C28" t="e">
+        <v>48.137155383715047</v>
+      </c>
+      <c r="C28">
         <f>B27/(B1*0.34)</f>
-        <v>#DIV/0!</v>
+        <v>93.442713391917451</v>
       </c>
       <c r="E28" t="s">
         <v>92</v>
       </c>
-      <c r="F28" t="e">
+      <c r="F28">
         <f>F27*SQRT((B21/B19)^2+(F25/F23)^2)</f>
-        <v>#DIV/0!</v>
+        <v>0.37390941702481617</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
-      <c r="B30" t="e">
+      <c r="B30">
         <f>B28*0.66/0.34</f>
-        <v>#DIV/0!</v>
+        <v>93.442713391917437</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F30" t="e">
+      <c r="F30">
         <f>F27*60/22.4/B1/'Neatened Compilation'!$B$18</f>
-        <v>#DIV/0!</v>
+        <v>64.970393769431354</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>92</v>
       </c>
-      <c r="F31" t="e">
+      <c r="F31">
         <f>F28*60/22.4/B1/'Neatened Compilation'!$B$18</f>
-        <v>#DIV/0!</v>
+        <v>2.5860421219259879</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -3810,18 +3917,18 @@
       <c r="E33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F33" s="3" t="e">
+      <c r="F33" s="3">
         <f>1000*E9/F30/LN(2)</f>
-        <v>#DIV/0!</v>
+        <v>2.8260489959155461</v>
       </c>
     </row>
     <row r="34" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F34" s="5" t="e">
+      <c r="F34" s="5">
         <f>F33*SQRT((E11/E9)^2+(F31/F30)^2)</f>
-        <v>#DIV/0!</v>
+        <v>0.11248633905467881</v>
       </c>
     </row>
   </sheetData>
@@ -5925,7 +6032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E22" sqref="E22:F32"/>
     </sheetView>
   </sheetViews>
@@ -6364,7 +6471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
@@ -6763,7 +6870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
@@ -7170,7 +7277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F28" sqref="F28:F29"/>
     </sheetView>
   </sheetViews>
@@ -7515,7 +7622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -7915,7 +8022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F30" sqref="F30:F31"/>
     </sheetView>
   </sheetViews>
@@ -8356,7 +8463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -8804,8 +8911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Experimental Results/dilution rate measurements w compilation.xlsx
+++ b/Experimental Results/dilution rate measurements w compilation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" tabRatio="769"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" tabRatio="769" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Neatened Compilation" sheetId="14" r:id="rId1"/>
@@ -17,17 +17,18 @@
     <sheet name="12_07" sheetId="12" r:id="rId8"/>
     <sheet name="12_11" sheetId="15" r:id="rId9"/>
     <sheet name="12_19" sheetId="16" r:id="rId10"/>
-    <sheet name="Methane Standard Curve" sheetId="6" r:id="rId11"/>
-    <sheet name="Compilation" sheetId="8" r:id="rId12"/>
-    <sheet name="12_01_Summary of Results" sheetId="10" r:id="rId13"/>
-    <sheet name="11_5" sheetId="4" r:id="rId14"/>
+    <sheet name="12_21" sheetId="17" r:id="rId11"/>
+    <sheet name="Methane Standard Curve" sheetId="6" r:id="rId12"/>
+    <sheet name="Compilation" sheetId="8" r:id="rId13"/>
+    <sheet name="12_01_Summary of Results" sheetId="10" r:id="rId14"/>
+    <sheet name="11_5" sheetId="4" r:id="rId15"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="102">
   <si>
     <t>Liters</t>
   </si>
@@ -524,7 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -626,6 +627,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -635,10 +642,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -722,10 +729,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Neatened Compilation'!$C$3:$C$9</c:f>
+              <c:f>'Neatened Compilation'!$C$3:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>9.0243491953218014E-2</c:v>
                 </c:pt>
@@ -746,16 +753,22 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5.8745537990821016E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1296814660935911</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13008020122811614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Neatened Compilation'!$I$3:$I$9</c:f>
+              <c:f>'Neatened Compilation'!$I$3:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>48.340161938759181</c:v>
                 </c:pt>
@@ -776,6 +789,12 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>36.309778137512282</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.970393769431354</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.576969979587709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -790,11 +809,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153749760"/>
-        <c:axId val="153768320"/>
+        <c:axId val="137852800"/>
+        <c:axId val="137867264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153749760"/>
+        <c:axId val="137852800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,12 +847,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153768320"/>
+        <c:crossAx val="137867264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153768320"/>
+        <c:axId val="137867264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,7 +882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153749760"/>
+        <c:crossAx val="137852800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -992,11 +1011,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153797376"/>
-        <c:axId val="153798912"/>
+        <c:axId val="139469568"/>
+        <c:axId val="139471104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153797376"/>
+        <c:axId val="139469568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1006,12 +1025,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153798912"/>
+        <c:crossAx val="139471104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153798912"/>
+        <c:axId val="139471104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,7 +1041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153797376"/>
+        <c:crossAx val="139469568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1054,7 +1073,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1166,11 +1184,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154370816"/>
-        <c:axId val="154372352"/>
+        <c:axId val="153598208"/>
+        <c:axId val="153608192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154370816"/>
+        <c:axId val="153598208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,12 +1198,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154372352"/>
+        <c:crossAx val="153608192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154372352"/>
+        <c:axId val="153608192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1197,7 +1215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154370816"/>
+        <c:crossAx val="153598208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1308,11 +1326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154389504"/>
-        <c:axId val="154411776"/>
+        <c:axId val="153735936"/>
+        <c:axId val="153737472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154389504"/>
+        <c:axId val="153735936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1322,12 +1340,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154411776"/>
+        <c:crossAx val="153737472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154411776"/>
+        <c:axId val="153737472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1338,7 +1356,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154389504"/>
+        <c:crossAx val="153735936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1777,11 +1795,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154435584"/>
-        <c:axId val="154437120"/>
+        <c:axId val="153142784"/>
+        <c:axId val="153144320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154435584"/>
+        <c:axId val="153142784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1791,12 +1809,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154437120"/>
+        <c:crossAx val="153144320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154437120"/>
+        <c:axId val="153144320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1807,7 +1825,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154435584"/>
+        <c:crossAx val="153142784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1936,11 +1954,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154515328"/>
-        <c:axId val="154521600"/>
+        <c:axId val="154021248"/>
+        <c:axId val="154060288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154515328"/>
+        <c:axId val="154021248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1968,12 +1986,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154521600"/>
+        <c:crossAx val="154060288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154521600"/>
+        <c:axId val="154060288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,7 +2020,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154515328"/>
+        <c:crossAx val="154021248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2441,11 +2459,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154554368"/>
-        <c:axId val="154556288"/>
+        <c:axId val="153134592"/>
+        <c:axId val="153136512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154554368"/>
+        <c:axId val="153134592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2473,12 +2491,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154556288"/>
+        <c:crossAx val="153136512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154556288"/>
+        <c:axId val="153136512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2507,7 +2525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154554368"/>
+        <c:crossAx val="153134592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3047,8 +3065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3188,7 +3206,7 @@
       <c r="D4" s="32">
         <v>236.1487621304139</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="45">
         <v>14088.333333333334</v>
       </c>
       <c r="F4" s="26">
@@ -3225,7 +3243,7 @@
       <c r="D5" s="32">
         <v>235.07847553954838</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="45">
         <v>10461.666666666666</v>
       </c>
       <c r="F5" s="26">
@@ -3262,7 +3280,7 @@
       <c r="D6" s="32">
         <v>233.75469282166114</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="46">
         <v>12611.666666666666</v>
       </c>
       <c r="F6" s="33">
@@ -3299,7 +3317,7 @@
       <c r="D7" s="32">
         <v>236.97793496562076</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="46">
         <v>9922.6666666666661</v>
       </c>
       <c r="F7" s="33">
@@ -3336,7 +3354,7 @@
       <c r="D8" s="32">
         <v>252.66502739838626</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="46">
         <v>9445.18</v>
       </c>
       <c r="F8" s="33">
@@ -3373,7 +3391,7 @@
       <c r="D9" s="32">
         <v>246.67193413123064</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="46">
         <v>13217</v>
       </c>
       <c r="F9" s="33">
@@ -3405,12 +3423,12 @@
         <v>0.79200000000000004</v>
       </c>
       <c r="C10" s="31">
-        <v>0.12726841839229042</v>
+        <v>0.1296814660935911</v>
       </c>
       <c r="D10" s="32">
         <v>243.4311472889091</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="46">
         <v>22776.833333333332</v>
       </c>
       <c r="F10" s="33">
@@ -3423,7 +3441,7 @@
       </c>
       <c r="H10" s="27">
         <f t="shared" si="1"/>
-        <v>2.826048995915547</v>
+        <v>2.8796317395333473</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" si="2"/>
@@ -3431,10 +3449,37 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="A11" s="50">
+        <v>42359</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="C11" s="51">
+        <v>0.13008020122811614</v>
+      </c>
+      <c r="D11" s="32">
+        <v>256.06305046991247</v>
+      </c>
+      <c r="E11" s="46">
+        <v>14168.5</v>
+      </c>
+      <c r="F11" s="33">
+        <f>E11*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>2.4409102914603034E-2</v>
+      </c>
+      <c r="G11" s="34">
+        <f t="shared" ref="G11" si="4">F11*D11</f>
+        <v>6.250269351547284</v>
+      </c>
+      <c r="H11" s="27">
+        <f t="shared" ref="H11" si="5">B11/G11*$B$18*C11/LN(2)*22400/60</f>
+        <v>3.0476663806590589</v>
+      </c>
+      <c r="I11" s="28">
+        <f t="shared" ref="I11" si="6">G11*60/22.4/B11/$B$18</f>
+        <v>61.576969979587709</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D12" s="30"/>
@@ -3522,8 +3567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3638,9 +3683,25 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="A7">
+        <f>19+1/60</f>
+        <v>19.016666666666666</v>
+      </c>
+      <c r="B7">
+        <v>6.9</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" ref="C7" si="3">B7/2.65</f>
+        <v>2.6037735849056607</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" ref="D7" si="4">A7/C7</f>
+        <v>7.3035024154589356</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" ref="E7" si="5">1/D7</f>
+        <v>0.13692060919749313</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -3649,11 +3710,11 @@
       </c>
       <c r="E9" s="3">
         <f>AVERAGE(E4:E8)</f>
-        <v>0.12726841839229042</v>
+        <v>0.1296814660935911</v>
       </c>
       <c r="F9">
         <f>60*LN(2)/E9</f>
-        <v>326.78044843304235</v>
+        <v>320.69988168997151</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3662,7 +3723,7 @@
       </c>
       <c r="E10" s="5">
         <f>STDEV(E4:E7)</f>
-        <v>4.3959084910152645E-3</v>
+        <v>6.0144718091114727E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -3709,7 +3770,7 @@
         <v>12.24</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:B18" si="3">50/A15*60</f>
+        <f t="shared" ref="B15:B18" si="6">50/A15*60</f>
         <v>245.09803921568624</v>
       </c>
       <c r="F15">
@@ -3721,7 +3782,7 @@
         <v>12.09</v>
       </c>
       <c r="B16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>248.13895781637717</v>
       </c>
       <c r="F16">
@@ -3733,7 +3794,7 @@
         <v>12.54</v>
       </c>
       <c r="B17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>239.23444976076556</v>
       </c>
       <c r="F17">
@@ -3745,7 +3806,7 @@
         <v>12.48</v>
       </c>
       <c r="B18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>240.38461538461539</v>
       </c>
       <c r="F18">
@@ -3919,7 +3980,7 @@
       </c>
       <c r="F33" s="3">
         <f>1000*E9/F30/LN(2)</f>
-        <v>2.8260489959155461</v>
+        <v>2.8796317395333468</v>
       </c>
     </row>
     <row r="34" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3928,7 +3989,7 @@
       </c>
       <c r="F34" s="5">
         <f>F33*SQRT((E11/E9)^2+(F31/F30)^2)</f>
-        <v>0.11248633905467881</v>
+        <v>0.11461911406133406</v>
       </c>
     </row>
   </sheetData>
@@ -3938,6 +3999,403 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>0.55600000000000005</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <f>26+32/60</f>
+        <v>26.533333333333335</v>
+      </c>
+      <c r="B4" s="6">
+        <v>8.85</v>
+      </c>
+      <c r="C4" s="6">
+        <f>B4/2.65</f>
+        <v>3.3396226415094339</v>
+      </c>
+      <c r="D4" s="6">
+        <f>A4/C4</f>
+        <v>7.945009416195858</v>
+      </c>
+      <c r="E4" s="6">
+        <f>1/D4</f>
+        <v>0.12586517493126007</v>
+      </c>
+      <c r="F4">
+        <f>1/E4</f>
+        <v>7.9450094161958571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>6.05</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
+        <v>2.2830188679245285</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" ref="D5:D6" si="1">A5/C5</f>
+        <v>7.446280991735537</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E6" si="2">1/D5</f>
+        <v>0.13429522752497225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <f>AVERAGE(E4:E8)</f>
+        <v>0.13008020122811614</v>
+      </c>
+      <c r="F9">
+        <f>60*LN(2)/E9</f>
+        <v>319.71683961853768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5">
+        <f>STDEV(E4:E7)</f>
+        <v>5.9609473547731287E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11.65</v>
+      </c>
+      <c r="B14">
+        <f>50/A14*60</f>
+        <v>257.51072961373387</v>
+      </c>
+      <c r="F14">
+        <v>13982</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>11.69</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:B18" si="3">50/A15*60</f>
+        <v>256.62959794696326</v>
+      </c>
+      <c r="F15">
+        <v>14410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>11.75</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>255.31914893617022</v>
+      </c>
+      <c r="F16">
+        <v>13883</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>11.75</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="3"/>
+        <v>255.31914893617022</v>
+      </c>
+      <c r="F17">
+        <v>14399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>11.74</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="3"/>
+        <v>255.53662691652471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
+        <f>AVERAGE(B14:B18)</f>
+        <v>256.06305046991247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5">
+        <f>STDEV(B14:B18)</f>
+        <v>0.97476300819450634</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="3">
+        <f>AVERAGE(F14:F19)</f>
+        <v>14168.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <f>0.95*B20/SQRT(COUNT(B14:B18))</f>
+        <v>0.41413090617226905</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="5">
+        <f>STDEV(F14:F19)</f>
+        <v>275.52676820955162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22">
+        <f>0.95*F21/SQRT(COUNT(F14:F19))</f>
+        <v>130.87521489953701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="15">
+        <f>F20*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
+        <v>2.4409102914603034E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <f>F21*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>1.5232414452257858E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <f>B19*F23</f>
+        <v>6.250269351547284</v>
+      </c>
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25">
+        <f>F22*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
+        <v>1.2849572885408748E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <f>B25/22.4</f>
+        <v>0.27902988176550375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <f>B26*60</f>
+        <v>16.741792905930225</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27">
+        <f>F23*B19</f>
+        <v>6.250269351547284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="10">
+        <f>B27/(B1*0.66)</f>
+        <v>45.622936848512708</v>
+      </c>
+      <c r="C28">
+        <f>B27/(B1*0.34)</f>
+        <v>88.562171529465843</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28">
+        <f>F27*SQRT((B21/B19)^2+(F25/F23)^2)</f>
+        <v>0.32918532561654001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30">
+        <f>B28*0.66/0.34</f>
+        <v>88.562171529465843</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30">
+        <f>F27*60/22.4/B1/'Neatened Compilation'!$B$18</f>
+        <v>61.576969979587709</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31">
+        <f>F28*60/22.4/B1/'Neatened Compilation'!$B$18</f>
+        <v>3.2430978207671153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="3">
+        <f>1000*E9/F30/LN(2)</f>
+        <v>3.0476663806590598</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="5">
+        <f>F33*SQRT((E11/E9)^2+(F31/F30)^2)</f>
+        <v>0.16051261049085444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -4197,7 +4655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J76"/>
   <sheetViews>
@@ -5431,7 +5889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -5448,12 +5906,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5559,13 +6017,13 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -5675,7 +6133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>

--- a/Experimental Results/dilution rate measurements w compilation.xlsx
+++ b/Experimental Results/dilution rate measurements w compilation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" tabRatio="769" activeTab="10"/>
+    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" tabRatio="769"/>
   </bookViews>
   <sheets>
     <sheet name="Neatened Compilation" sheetId="14" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="100">
   <si>
     <t>Liters</t>
   </si>
@@ -267,9 +267,6 @@
     <t>Dilution Rate (1/h)</t>
   </si>
   <si>
-    <t>Kyle's Values</t>
-  </si>
-  <si>
     <t xml:space="preserve">Current OD: </t>
   </si>
   <si>
@@ -286,9 +283,6 @@
   </si>
   <si>
     <t>Simple Yield</t>
-  </si>
-  <si>
-    <t>Model Values</t>
   </si>
   <si>
     <t>&lt;--Error</t>
@@ -633,6 +627,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,12 +640,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -770,31 +764,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>48.340161938759181</c:v>
+                  <c:v>51.165236337777564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.105816683252677</c:v>
+                  <c:v>46.683429346559649</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.395384527843461</c:v>
+                  <c:v>30.054855052197947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.132831366988491</c:v>
+                  <c:v>43.536698135189113</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.116969705221639</c:v>
+                  <c:v>29.760169233448874</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.869502561398797</c:v>
+                  <c:v>36.907330633168854</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.309778137512282</c:v>
+                  <c:v>38.431778158535728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.970393769431354</c:v>
+                  <c:v>68.767364833878645</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61.576969979587709</c:v>
+                  <c:v>65.175624069303865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -809,11 +803,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137852800"/>
-        <c:axId val="137867264"/>
+        <c:axId val="41983360"/>
+        <c:axId val="41985536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137852800"/>
+        <c:axId val="41983360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,12 +841,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137867264"/>
+        <c:crossAx val="41985536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137867264"/>
+        <c:axId val="41985536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137852800"/>
+        <c:crossAx val="41983360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -978,25 +972,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.6932851089400507</c:v>
+                  <c:v>2.5445761151948947</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9181809328892121</c:v>
+                  <c:v>2.7570543783125081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3642889846525779</c:v>
+                  <c:v>2.2337454210828036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4722779764312817</c:v>
+                  <c:v>2.3357718304933575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3484803688734086</c:v>
+                  <c:v>2.21880967365954</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4921283100919336</c:v>
+                  <c:v>2.354526133461091</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3341342382412682</c:v>
+                  <c:v>2.2052556606696649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1011,11 +1005,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="139469568"/>
-        <c:axId val="139471104"/>
+        <c:axId val="42199296"/>
+        <c:axId val="94674944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="139469568"/>
+        <c:axId val="42199296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,12 +1019,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139471104"/>
+        <c:crossAx val="94674944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="139471104"/>
+        <c:axId val="94674944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +1035,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139469568"/>
+        <c:crossAx val="42199296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1184,11 +1178,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153598208"/>
-        <c:axId val="153608192"/>
+        <c:axId val="44114304"/>
+        <c:axId val="44115840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153598208"/>
+        <c:axId val="44114304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1198,12 +1192,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153608192"/>
+        <c:crossAx val="44115840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153608192"/>
+        <c:axId val="44115840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1215,7 +1209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153598208"/>
+        <c:crossAx val="44114304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1326,11 +1320,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153735936"/>
-        <c:axId val="153737472"/>
+        <c:axId val="43610880"/>
+        <c:axId val="43612416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153735936"/>
+        <c:axId val="43610880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1340,12 +1334,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153737472"/>
+        <c:crossAx val="43612416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153737472"/>
+        <c:axId val="43612416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,7 +1350,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153735936"/>
+        <c:crossAx val="43610880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1795,11 +1789,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153142784"/>
-        <c:axId val="153144320"/>
+        <c:axId val="43636224"/>
+        <c:axId val="43637760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153142784"/>
+        <c:axId val="43636224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,12 +1803,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153144320"/>
+        <c:crossAx val="43637760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153144320"/>
+        <c:axId val="43637760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1825,7 +1819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153142784"/>
+        <c:crossAx val="43636224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1954,11 +1948,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154021248"/>
-        <c:axId val="154060288"/>
+        <c:axId val="43760640"/>
+        <c:axId val="43766912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154021248"/>
+        <c:axId val="43760640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1986,12 +1980,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154060288"/>
+        <c:crossAx val="43766912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154060288"/>
+        <c:axId val="43766912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2020,7 +2014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154021248"/>
+        <c:crossAx val="43760640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2459,11 +2453,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153134592"/>
-        <c:axId val="153136512"/>
+        <c:axId val="43801984"/>
+        <c:axId val="43824640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153134592"/>
+        <c:axId val="43801984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2491,12 +2485,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153136512"/>
+        <c:crossAx val="43824640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153136512"/>
+        <c:axId val="43824640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2525,7 +2519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153134592"/>
+        <c:crossAx val="43801984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3065,26 +3059,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="16"/>
+    <col min="1" max="1" width="12.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="16"/>
     <col min="3" max="3" width="19" style="16" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="16"/>
+    <col min="7" max="7" width="22.140625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="16"/>
     <col min="9" max="9" width="24" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="16"/>
+    <col min="11" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>37</v>
       </c>
@@ -3104,19 +3098,19 @@
         <v>19</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35">
         <v>42299</v>
       </c>
@@ -3142,21 +3136,21 @@
       </c>
       <c r="H2" s="41">
         <f>B2/G2*$B$18*C2/LN(2)*22400/60</f>
-        <v>2.2700352806044126</v>
+        <v>2.1446959092826967</v>
       </c>
       <c r="I2" s="42">
         <f>G2*60/22.4/B2/$B$18</f>
-        <v>51.727234197410638</v>
+        <v>54.750254377778788</v>
       </c>
       <c r="J2" s="41">
         <f>C2*1000/I2</f>
-        <v>1.5734685545225526</v>
+        <v>1.4865899226777493</v>
       </c>
       <c r="K2" s="43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>42304</v>
       </c>
@@ -3182,18 +3176,18 @@
       </c>
       <c r="H3" s="27">
         <f t="shared" ref="H3:H10" si="1">B3/G3*$B$18*C3/LN(2)*22400/60</f>
-        <v>2.6932851089400507</v>
+        <v>2.5445761151948947</v>
       </c>
       <c r="I3" s="28">
         <f t="shared" ref="I3:I10" si="2">G3*60/22.4/B3/$B$18</f>
-        <v>48.340161938759181</v>
+        <v>51.165236337777564</v>
       </c>
       <c r="J3" s="27">
         <f t="shared" ref="J3:J8" si="3">C3*1000/I3</f>
-        <v>1.8668429797058812</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>1.7637657599675198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>42310</v>
       </c>
@@ -3219,18 +3213,18 @@
       </c>
       <c r="H4" s="27">
         <f t="shared" si="1"/>
-        <v>2.9181809328892121</v>
+        <v>2.7570543783125081</v>
       </c>
       <c r="I4" s="28">
         <f t="shared" si="2"/>
-        <v>44.105816683252677</v>
+        <v>46.683429346559649</v>
       </c>
       <c r="J4" s="27">
         <f t="shared" si="3"/>
-        <v>2.022728885995948</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.911044468977767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <v>42320</v>
       </c>
@@ -3256,18 +3250,18 @@
       </c>
       <c r="H5" s="27">
         <f t="shared" si="1"/>
-        <v>2.3642889846525779</v>
+        <v>2.2337454210828036</v>
       </c>
       <c r="I5" s="28">
         <f t="shared" si="2"/>
-        <v>28.395384527843461</v>
+        <v>30.054855052197947</v>
       </c>
       <c r="J5" s="27">
         <f t="shared" si="3"/>
-        <v>1.6388002437408702</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.5483143407122333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="29">
         <v>42327</v>
       </c>
@@ -3293,18 +3287,18 @@
       </c>
       <c r="H6" s="27">
         <f t="shared" si="1"/>
-        <v>2.4722779764312817</v>
+        <v>2.3357718304933575</v>
       </c>
       <c r="I6" s="28">
         <f t="shared" si="2"/>
-        <v>41.132831366988491</v>
+        <v>43.536698135189113</v>
       </c>
       <c r="J6" s="27">
         <f t="shared" si="3"/>
-        <v>1.7136525089237895</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.6190336587378136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="29">
         <v>42339</v>
       </c>
@@ -3330,18 +3324,18 @@
       </c>
       <c r="H7" s="27">
         <f t="shared" si="1"/>
-        <v>2.3484803688734086</v>
+        <v>2.21880967365954</v>
       </c>
       <c r="I7" s="28">
         <f t="shared" si="2"/>
-        <v>28.116969705221639</v>
+        <v>29.760169233448874</v>
       </c>
       <c r="J7" s="27">
         <f t="shared" si="3"/>
-        <v>1.6278425462849835</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.5379616694962421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="29">
         <v>42345</v>
       </c>
@@ -3367,18 +3361,18 @@
       </c>
       <c r="H8" s="27">
         <f t="shared" si="1"/>
-        <v>2.4921283100919336</v>
+        <v>2.354526133461091</v>
       </c>
       <c r="I8" s="28">
         <f t="shared" si="2"/>
-        <v>34.869502561398797</v>
+        <v>36.907330633168854</v>
       </c>
       <c r="J8" s="27">
         <f t="shared" si="3"/>
-        <v>1.7274117117338446</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.6320331509632642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <v>42349</v>
       </c>
@@ -3404,18 +3398,18 @@
       </c>
       <c r="H9" s="27">
         <f t="shared" si="1"/>
-        <v>2.3341342382412682</v>
+        <v>2.2052556606696649</v>
       </c>
       <c r="I9" s="28">
         <f t="shared" si="2"/>
-        <v>36.309778137512282</v>
+        <v>38.431778158535728</v>
       </c>
       <c r="J9" s="27">
         <f>C9*1000/I9</f>
-        <v>1.6178985662853707</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.5285667436070371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <v>42357</v>
       </c>
@@ -3441,21 +3435,21 @@
       </c>
       <c r="H10" s="27">
         <f t="shared" si="1"/>
-        <v>2.8796317395333473</v>
+        <v>2.7206336680253709</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" si="2"/>
-        <v>64.970393769431354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="50">
+        <v>68.767364833878645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" s="47">
         <v>42359</v>
       </c>
       <c r="B11" s="16">
         <v>0.55600000000000005</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="48">
         <v>0.13008020122811614</v>
       </c>
       <c r="D11" s="32">
@@ -3474,34 +3468,25 @@
       </c>
       <c r="H11" s="27">
         <f t="shared" ref="H11" si="5">B11/G11*$B$18*C11/LN(2)*22400/60</f>
-        <v>3.0476663806590589</v>
+        <v>2.8793903228312581</v>
       </c>
       <c r="I11" s="28">
         <f t="shared" ref="I11" si="6">G11*60/22.4/B11/$B$18</f>
-        <v>61.576969979587709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65.175624069303865</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
     </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I14" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="C15" s="16">
-        <v>8.3000000000000004E-2</v>
-      </c>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" s="16" t="s">
         <v>76</v>
       </c>
@@ -3512,49 +3497,43 @@
         <v>76</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="28">
         <f>2.86*B18/0.34</f>
-        <v>4.11335294117647</v>
+        <v>3.8862352941176468</v>
       </c>
       <c r="I15" s="28">
         <f>0.58*B18/0.34</f>
-        <v>0.83417647058823519</v>
+        <v>0.78811764705882337</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="16">
-        <v>8.3000000000000004E-2</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G16" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H16" s="28">
         <v>2.5950000000000002</v>
       </c>
       <c r="I16" s="28">
         <f>C16*SLOPE(I2:I8,C2:C8)+INTERCEPT(I2:I8,C2:C8)</f>
-        <v>45.951016882770382</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7.9615121111667193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="16">
-        <v>0.48899999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3571,16 +3550,16 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3588,12 +3567,12 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3613,7 +3592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>22</v>
       </c>
@@ -3637,7 +3616,7 @@
         <v>7.8783783783783772</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>18+45/60</f>
         <v>18.75</v>
@@ -3658,7 +3637,7 @@
         <v>0.1318238993710692</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>9+12/60</f>
         <v>9.1999999999999993</v>
@@ -3682,7 +3661,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>19+1/60</f>
         <v>19.016666666666666</v>
@@ -3703,8 +3682,8 @@
         <v>0.13692060919749313</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -3717,7 +3696,7 @@
         <v>320.69988168997151</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
@@ -3726,15 +3705,15 @@
         <v>6.0144718091114727E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3742,7 +3721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -3753,7 +3732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.28</v>
       </c>
@@ -3765,7 +3744,7 @@
         <v>21951</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.24</v>
       </c>
@@ -3777,7 +3756,7 @@
         <v>22085</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12.09</v>
       </c>
@@ -3789,7 +3768,7 @@
         <v>23109</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12.54</v>
       </c>
@@ -3801,7 +3780,7 @@
         <v>22721</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>12.48</v>
       </c>
@@ -3813,7 +3792,7 @@
         <v>23847</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -3825,7 +3804,7 @@
         <v>22948</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -3841,9 +3820,9 @@
         <v>22776.833333333332</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B21">
         <f>0.95*B20/SQRT(COUNT(B14:B18))</f>
@@ -3857,16 +3836,16 @@
         <v>699.80580639679363</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F22">
         <f>0.95*F21/SQRT(COUNT(F14:F19))</f>
         <v>271.40979791226732</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>29</v>
       </c>
@@ -3875,7 +3854,7 @@
         <v>3.8589589759426501E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>15</v>
       </c>
@@ -3884,7 +3863,7 @@
         <v>2.2221552867996725E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3893,14 +3872,14 @@
         <v>9.3939081085455314</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F25">
         <f>F22*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>1.5164595699334914E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3909,7 +3888,7 @@
         <v>0.41937089770292552</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3921,14 +3900,14 @@
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F27">
         <f>F23*B19</f>
         <v>9.3939081085455314</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3941,14 +3920,14 @@
         <v>93.442713391917451</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F28">
         <f>F27*SQRT((B21/B19)^2+(F25/F23)^2)</f>
         <v>0.37390941702481617</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -3957,39 +3936,39 @@
         <v>93.442713391917437</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30">
         <f>F27*60/22.4/B1/'Neatened Compilation'!$B$18</f>
-        <v>64.970393769431354</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>68.767364833878645</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F31">
         <f>F28*60/22.4/B1/'Neatened Compilation'!$B$18</f>
-        <v>2.5860421219259879</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+        <v>2.7371744537268574</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="5:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E33" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F33" s="3">
         <f>1000*E9/F30/LN(2)</f>
-        <v>2.8796317395333468</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.7206336680253704</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E34" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F34" s="5">
         <f>F33*SQRT((E11/E9)^2+(F31/F30)^2)</f>
-        <v>0.11461911406133406</v>
+        <v>0.10829045132175119</v>
       </c>
     </row>
   </sheetData>
@@ -4002,20 +3981,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4023,12 +4002,12 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4048,7 +4027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>26+32/60</f>
         <v>26.533333333333335</v>
@@ -4073,7 +4052,7 @@
         <v>7.9450094161958571</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>17</v>
       </c>
@@ -4081,19 +4060,19 @@
         <v>6.05</v>
       </c>
       <c r="C5" s="6">
-        <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
+        <f t="shared" ref="C5" si="0">B5/2.65</f>
         <v>2.2830188679245285</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" ref="D5:D6" si="1">A5/C5</f>
+        <f t="shared" ref="D5" si="1">A5/C5</f>
         <v>7.446280991735537</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" ref="E5:E6" si="2">1/D5</f>
+        <f t="shared" ref="E5" si="2">1/D5</f>
         <v>0.13429522752497225</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -4101,13 +4080,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -4120,7 +4099,7 @@
         <v>319.71683961853768</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
@@ -4129,15 +4108,15 @@
         <v>5.9609473547731287E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4145,7 +4124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -4156,7 +4135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11.65</v>
       </c>
@@ -4168,7 +4147,7 @@
         <v>13982</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11.69</v>
       </c>
@@ -4180,7 +4159,7 @@
         <v>14410</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11.75</v>
       </c>
@@ -4192,7 +4171,7 @@
         <v>13883</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11.75</v>
       </c>
@@ -4204,7 +4183,7 @@
         <v>14399</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>11.74</v>
       </c>
@@ -4213,7 +4192,7 @@
         <v>255.53662691652471</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -4222,7 +4201,7 @@
         <v>256.06305046991247</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -4238,9 +4217,9 @@
         <v>14168.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B21">
         <f>0.95*B20/SQRT(COUNT(B14:B18))</f>
@@ -4254,16 +4233,16 @@
         <v>275.52676820955162</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F22">
         <f>0.95*F21/SQRT(COUNT(F14:F19))</f>
         <v>130.87521489953701</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>29</v>
       </c>
@@ -4272,7 +4251,7 @@
         <v>2.4409102914603034E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>15</v>
       </c>
@@ -4281,7 +4260,7 @@
         <v>1.5232414452257858E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4290,14 +4269,14 @@
         <v>6.250269351547284</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F25">
         <f>F22*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>1.2849572885408748E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -4306,7 +4285,7 @@
         <v>0.27902988176550375</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -4318,14 +4297,14 @@
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F27">
         <f>F23*B19</f>
         <v>6.250269351547284</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4338,14 +4317,14 @@
         <v>88.562171529465843</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F28">
         <f>F27*SQRT((B21/B19)^2+(F25/F23)^2)</f>
         <v>0.32918532561654001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -4354,39 +4333,39 @@
         <v>88.562171529465843</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30">
         <f>F27*60/22.4/B1/'Neatened Compilation'!$B$18</f>
-        <v>61.576969979587709</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65.175624069303865</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F31">
         <f>F28*60/22.4/B1/'Neatened Compilation'!$B$18</f>
-        <v>3.2430978207671153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+        <v>3.4326295115911676</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="5:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E33" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F33" s="3">
         <f>1000*E9/F30/LN(2)</f>
-        <v>3.0476663806590598</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.879390322831259</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E34" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F34" s="5">
         <f>F33*SQRT((E11/E9)^2+(F31/F30)^2)</f>
-        <v>0.16051261049085444</v>
+        <v>0.15164995101589931</v>
       </c>
     </row>
   </sheetData>
@@ -4403,13 +4382,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -4429,7 +4408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>0/28</f>
         <v>0</v>
@@ -4452,7 +4431,7 @@
         <v>8.7353095728390375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>0.056/28.056</f>
         <v>1.996007984031936E-3</v>
@@ -4475,7 +4454,7 @@
         <v>12.134661099511597</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>0.112/28.112</f>
         <v>3.9840637450199202E-3</v>
@@ -4498,7 +4477,7 @@
         <v>26.931270548069776</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>0.17/28.17</f>
         <v>6.0347887823926161E-3</v>
@@ -4521,7 +4500,7 @@
         <v>55.90387583462654</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>0.226/28.226</f>
         <v>8.0068022390703611E-3</v>
@@ -4544,7 +4523,7 @@
         <v>160.68923423801618</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>0.285/28.285</f>
         <v>1.0076012020505568E-2</v>
@@ -4567,7 +4546,7 @@
         <v>145.02221668879997</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>1.167/29.167</f>
         <v>4.0010971303185108E-2</v>
@@ -4590,7 +4569,7 @@
         <v>621.81347685620324</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>28/28</f>
         <v>1</v>
@@ -4614,7 +4593,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="8" t="s">
         <v>25</v>
@@ -4636,7 +4615,7 @@
         <v>1.0693668610640503E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -4663,12 +4642,12 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4724,7 +4703,7 @@
         <v>3.6351087359927061</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>42310</v>
       </c>
@@ -4751,7 +4730,7 @@
         <v>3.9386491118750104</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>42313</v>
       </c>
@@ -4781,7 +4760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>42320</v>
       </c>
@@ -4811,7 +4790,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>42327</v>
       </c>
@@ -4838,7 +4817,7 @@
         <v>3.3368169007047968</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>42339</v>
       </c>
@@ -4885,7 +4864,7 @@
         <v>118.72</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8.9214109445657191E-2</v>
       </c>
@@ -4899,7 +4878,7 @@
         <v>3.5103</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>4.6534363085345594E-2</v>
       </c>
@@ -4913,7 +4892,7 @@
         <v>258.17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>7.0487379671178976E-2</v>
       </c>
@@ -4927,7 +4906,7 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>4.5769999558765734E-2</v>
       </c>
@@ -4935,12 +4914,12 @@
         <v>20.832118463414211</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>70</v>
       </c>
@@ -4954,7 +4933,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.01</v>
       </c>
@@ -4979,7 +4958,7 @@
         <v>0.20101268236238412</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.02</v>
       </c>
@@ -4994,7 +4973,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.03</v>
       </c>
@@ -5009,7 +4988,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.04</v>
       </c>
@@ -5024,7 +5003,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.05</v>
       </c>
@@ -5039,7 +5018,7 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.06</v>
       </c>
@@ -5054,7 +5033,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -5069,7 +5048,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.08</v>
       </c>
@@ -5084,7 +5063,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>8.3000000000000004E-2</v>
       </c>
@@ -5099,7 +5078,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.09</v>
       </c>
@@ -5114,7 +5093,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.1</v>
       </c>
@@ -5129,7 +5108,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.11</v>
       </c>
@@ -5144,7 +5123,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.12</v>
       </c>
@@ -5159,7 +5138,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.13</v>
       </c>
@@ -5174,7 +5153,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0.14000000000000001</v>
       </c>
@@ -5189,7 +5168,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0.15</v>
       </c>
@@ -5204,7 +5183,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0.16</v>
       </c>
@@ -5219,7 +5198,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.17</v>
       </c>
@@ -5234,7 +5213,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0.18</v>
       </c>
@@ -5249,7 +5228,7 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0.19</v>
       </c>
@@ -5264,7 +5243,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0.2</v>
       </c>
@@ -5279,7 +5258,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0.21</v>
       </c>
@@ -5294,7 +5273,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0.22</v>
       </c>
@@ -5309,7 +5288,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0.23</v>
       </c>
@@ -5324,7 +5303,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0.24</v>
       </c>
@@ -5339,7 +5318,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0.25</v>
       </c>
@@ -5354,7 +5333,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0.26</v>
       </c>
@@ -5369,7 +5348,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0.27</v>
       </c>
@@ -5384,7 +5363,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0.28000000000000003</v>
       </c>
@@ -5399,7 +5378,7 @@
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>0.28999999999999998</v>
       </c>
@@ -5414,7 +5393,7 @@
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0.3</v>
       </c>
@@ -5433,7 +5412,7 @@
         <v>7.6378502343204709E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0.31</v>
       </c>
@@ -5448,7 +5427,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>0.32</v>
       </c>
@@ -5463,7 +5442,7 @@
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>0.33</v>
       </c>
@@ -5478,7 +5457,7 @@
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0.34</v>
       </c>
@@ -5493,7 +5472,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>0.35</v>
       </c>
@@ -5508,7 +5487,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>0.36</v>
       </c>
@@ -5523,7 +5502,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>0.37</v>
       </c>
@@ -5538,7 +5517,7 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>0.38</v>
       </c>
@@ -5553,7 +5532,7 @@
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>0.39</v>
       </c>
@@ -5568,7 +5547,7 @@
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>0.4</v>
       </c>
@@ -5583,7 +5562,7 @@
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>0.41</v>
       </c>
@@ -5598,7 +5577,7 @@
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>0.42</v>
       </c>
@@ -5613,7 +5592,7 @@
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>0.43</v>
       </c>
@@ -5628,7 +5607,7 @@
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>0.44</v>
       </c>
@@ -5643,7 +5622,7 @@
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>0.45</v>
       </c>
@@ -5658,7 +5637,7 @@
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>0.46</v>
       </c>
@@ -5673,7 +5652,7 @@
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>0.47</v>
       </c>
@@ -5688,7 +5667,7 @@
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>0.48</v>
       </c>
@@ -5703,7 +5682,7 @@
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>0.49</v>
       </c>
@@ -5718,7 +5697,7 @@
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>0.5</v>
       </c>
@@ -5733,7 +5712,7 @@
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>0.51</v>
       </c>
@@ -5748,7 +5727,7 @@
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>0.52</v>
       </c>
@@ -5763,7 +5742,7 @@
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>0.53</v>
       </c>
@@ -5778,7 +5757,7 @@
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>0.54</v>
       </c>
@@ -5793,7 +5772,7 @@
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>0.55000000000000004</v>
       </c>
@@ -5808,7 +5787,7 @@
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>0.56000000000000005</v>
       </c>
@@ -5823,7 +5802,7 @@
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>0.56999999999999995</v>
       </c>
@@ -5838,7 +5817,7 @@
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>0.57999999999999996</v>
       </c>
@@ -5853,7 +5832,7 @@
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>0.59</v>
       </c>
@@ -5868,7 +5847,7 @@
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>0.6</v>
       </c>
@@ -5897,21 +5876,21 @@
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
       <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6017,13 +5996,13 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -6141,16 +6120,16 @@
       <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6158,12 +6137,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6180,7 +6159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>24+7+3/4</f>
         <v>31.75</v>
@@ -6204,7 +6183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>24+40/60</f>
         <v>24.666666666666668</v>
@@ -6249,7 +6228,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -6271,7 +6250,7 @@
         <v>2.8870105582736597E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6279,7 +6258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6290,7 +6269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12.48</v>
       </c>
@@ -6302,7 +6281,7 @@
         <v>13870</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.45</v>
       </c>
@@ -6314,7 +6293,7 @@
         <v>14880</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.59</v>
       </c>
@@ -6326,7 +6305,7 @@
         <v>14742</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.57</v>
       </c>
@@ -6344,7 +6323,7 @@
         <v>242.71844660194179</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -6353,7 +6332,7 @@
         <v>240.20295091119186</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -6369,7 +6348,7 @@
         <v>14497.333333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -6378,7 +6357,7 @@
         <v>547.65074028374454</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -6387,7 +6366,7 @@
         <v>2.4950789275587283E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -6396,7 +6375,7 @@
         <v>5.9932532115593844</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -6405,7 +6384,7 @@
         <v>0.26755594694461537</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -6414,7 +6393,7 @@
         <v>16.053356816676924</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -6423,7 +6402,7 @@
         <v>36.195339142940391</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -6432,7 +6411,7 @@
         <v>70.261540689237222</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -6455,7 +6434,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.11212608182545859</v>
@@ -6494,16 +6473,16 @@
       <selection activeCell="E22" sqref="E22:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6511,12 +6490,12 @@
         <v>0.626</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6533,7 +6512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -6546,7 +6525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>22+1/12</f>
         <v>22.083333333333332</v>
@@ -6588,7 +6567,7 @@
         <v>8.2469074097213532E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -6606,16 +6585,16 @@
         <v>1.5243775110677241E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9">
         <f>0.95*E8/SQRT(COUNT(E4:E6))</f>
         <v>1.0240027914060459E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6623,7 +6602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6634,7 +6613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12.84</v>
       </c>
@@ -6646,7 +6625,7 @@
         <v>14540</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.7</v>
       </c>
@@ -6658,7 +6637,7 @@
         <v>14297</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.55</v>
       </c>
@@ -6670,7 +6649,7 @@
         <v>14693</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.36</v>
       </c>
@@ -6688,7 +6667,7 @@
         <v>232.01856148491879</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -6697,7 +6676,7 @@
         <v>236.72923300841694</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -6713,9 +6692,9 @@
         <v>14510</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19">
         <f>0.95*B18/SQRT(COUNT(B12:B16))</f>
@@ -6729,16 +6708,16 @@
         <v>199.69727088771143</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F20">
         <f>0.95*F19/SQRT(COUNT(F12:F17))</f>
         <v>109.53050944828112</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -6747,7 +6726,7 @@
         <v>2.4971655045194385E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>15</v>
       </c>
@@ -6756,7 +6735,7 @@
         <v>1.3983276962358229E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -6765,14 +6744,14 @@
         <v>5.9115207457996322</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F23">
         <f>F20*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
         <v>1.2497962064663541E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -6781,7 +6760,7 @@
         <v>0.26390717615176928</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -6790,14 +6769,14 @@
         <v>15.834430569106157</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F25">
         <f>F21*B17</f>
         <v>5.9115207457996322</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -6806,14 +6785,14 @@
         <v>38.325178064445147</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F26">
         <f>F25*SQRT((B19/B17)^2+(F23/F21)^2)</f>
         <v>0.29932359955532473</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -6822,50 +6801,50 @@
         <v>74.395933889805278</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28">
         <f>F25*60/22.4/'10_22'!B1/'Neatened Compilation'!$B$18</f>
-        <v>51.727234197410638</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54.750254377778788</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F29">
         <f>F26*60/22.4/'10_22'!B1/'Neatened Compilation'!$B$18</f>
-        <v>2.6191537847535504</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.7722212137326538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E31" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F31" s="3">
         <f>1000*E7/F28/LN(2)</f>
-        <v>2.2700352806044122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.1446959092826963</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F32" s="5">
         <f>F31*SQRT((E9/E7)^2+(F29/F28)^2)</f>
-        <v>0.11843590032168816</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+        <v>0.11189649478245384</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E36">
         <f>(F28/F29)^2 + (E7/E9)^2</f>
         <v>6707.6501906161229</v>
@@ -6875,49 +6854,49 @@
         <v>81.900245363589249</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F38">
         <f>F36*F31</f>
-        <v>185.91644646550552</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
+        <v>175.65112120053897</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F39">
         <f>F38/LN(2)</f>
-        <v>268.22073533548325</v>
-      </c>
-    </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
+        <v>253.41100148260384</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F45">
         <f>E7/F28</f>
-        <v>1.5734685545225526E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
+        <v>1.4865899226777493E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F46">
         <f>F45*SQRT((E9/E7)^2+(F29/F28)^2)</f>
-        <v>8.2093510385056865E-5</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
+        <v>7.7560739872998516E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F47">
         <f>F46*1000/LN(2)</f>
-        <v>0.11843590032168817</v>
+        <v>0.11189649478245385</v>
       </c>
     </row>
   </sheetData>
@@ -6933,16 +6912,16 @@
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6950,12 +6929,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6972,7 +6951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>25+55/60</f>
         <v>25.916666666666668</v>
@@ -6996,7 +6975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>23+23/60</f>
         <v>23.383333333333333</v>
@@ -7040,7 +7019,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -7062,16 +7041,16 @@
         <v>7.96516101052323E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9">
         <f>0.95*E8/SQRT(COUNT(E4:E6))</f>
         <v>4.368753460886084E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -7079,7 +7058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -7090,7 +7069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12.25</v>
       </c>
@@ -7102,7 +7081,7 @@
         <v>14371</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11.74</v>
       </c>
@@ -7114,7 +7093,7 @@
         <v>14899</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.08</v>
       </c>
@@ -7126,7 +7105,7 @@
         <v>11940</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.4</v>
       </c>
@@ -7150,7 +7129,7 @@
         <v>14210</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -7159,7 +7138,7 @@
         <v>248.86140042339238</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -7175,9 +7154,9 @@
         <v>13817</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19">
         <f>0.95*B18/SQRT(COUNT(B12:B16))</f>
@@ -7191,16 +7170,16 @@
         <v>1137.7963350266164</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F20">
         <f>0.95*F19/SQRT(COUNT(F12:F17))</f>
         <v>483.39609043723135</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -7209,7 +7188,7 @@
         <v>2.3830077808006077E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>15</v>
       </c>
@@ -7218,7 +7197,7 @@
         <v>2.9436560336797285E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -7227,14 +7206,14 @@
         <v>5.9303865354987968</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F23">
         <f>F20*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>1.8656640809615438E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -7243,7 +7222,7 @@
         <v>0.26474939890619631</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -7252,14 +7231,14 @@
         <v>15.884963934371779</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F25">
         <f>F21*B17</f>
         <v>5.9303865354987968</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -7268,14 +7247,14 @@
         <v>35.815665436444306</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F26">
         <f>F25*SQRT((B19/B17)^2+(F23/F21)^2)</f>
         <v>0.46788980159301863</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -7284,39 +7263,39 @@
         <v>69.524527023686005</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28">
         <f>F25*60/22.4/B1/'Neatened Compilation'!$B$18</f>
-        <v>48.340161938759181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>51.165236337777564</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F29">
         <f>F26*60/22.4/B1/'Neatened Compilation'!$B$18</f>
-        <v>3.8138945316821689</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.0367844718454124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E31" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F31" s="3">
         <f>1000*E7/F28/LN(2)</f>
-        <v>2.6932851089400507</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.5445761151948947</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F32" s="5">
         <f>F31*SQRT((E9/E7)^2+(F29/F28)^2)</f>
-        <v>0.24930479213507378</v>
+        <v>0.23553949686381209</v>
       </c>
     </row>
   </sheetData>
@@ -7332,16 +7311,16 @@
       <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -7349,12 +7328,12 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7371,7 +7350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>22+50/60</f>
         <v>22.833333333333332</v>
@@ -7395,7 +7374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>20+0.25</f>
         <v>20.25</v>
@@ -7416,7 +7395,7 @@
         <v>9.0379687863964595E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>49+50/60</f>
         <v>49.833333333333336</v>
@@ -7460,7 +7439,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
@@ -7482,16 +7461,16 @@
         <v>3.2243641791387537E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10">
         <f>0.95*E9/SQRT(COUNT(E4:E7))</f>
         <v>1.5315729850909079E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -7499,7 +7478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -7510,7 +7489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.73</v>
       </c>
@@ -7522,7 +7501,7 @@
         <v>14866</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.7</v>
       </c>
@@ -7534,7 +7513,7 @@
         <v>15913</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.77</v>
       </c>
@@ -7546,7 +7525,7 @@
         <v>11486</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12.65</v>
       </c>
@@ -7555,7 +7534,7 @@
         <v>237.15415019762844</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>12.67</v>
       </c>
@@ -7564,7 +7543,7 @@
         <v>236.77979479084453</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -7573,7 +7552,7 @@
         <v>236.1487621304139</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -7589,9 +7568,9 @@
         <v>14088.333333333334</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20">
         <f>0.95*B19/SQRT(COUNT(B13:B17))</f>
@@ -7605,16 +7584,16 @@
         <v>2313.6889015883949</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F21">
         <f>0.95*F20/SQRT(COUNT(F13:F18))</f>
         <v>1269.0184646454541</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>29</v>
       </c>
@@ -7623,7 +7602,7 @@
         <v>2.4277044556958109E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>15</v>
       </c>
@@ -7632,7 +7611,7 @@
         <v>4.8807010370936696E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -7641,14 +7620,14 @@
         <v>5.73299402031056</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F24">
         <f>F21*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>3.159817932941256E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -7657,7 +7636,7 @@
         <v>0.25593723304957861</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -7666,14 +7645,14 @@
         <v>15.356233982974716</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F26">
         <f>F22*B18</f>
         <v>5.73299402031056</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -7682,48 +7661,48 @@
         <v>32.678400542591753</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F27">
         <f>F26*SQRT((B20/B18)^2+(F24/F22)^2)</f>
         <v>0.74624314643619483</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E29" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F29">
         <f>F26*60/22.4/B1/'Neatened Compilation'!$B$18</f>
-        <v>44.105816683252677</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46.683429346559649</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F30">
         <f>F27*60/22.4/B1/'Neatened Compilation'!$B$18</f>
-        <v>5.741095019677962</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.0766135597890107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E32" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F32" s="3">
         <f>1000*E8/F29/LN(2)</f>
-        <v>2.9181809328892117</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.7570543783125072</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E33" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F33" s="5">
         <f>F32*SQRT((E10/E8)^2+(F30/F29)^2)</f>
-        <v>0.3831384723103145</v>
+        <v>0.36198358733612546</v>
       </c>
     </row>
   </sheetData>
@@ -7739,16 +7718,16 @@
       <selection activeCell="F28" sqref="F28:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -7756,12 +7735,12 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7778,7 +7757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>48.25</v>
       </c>
@@ -7806,7 +7785,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -7827,16 +7806,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9">
         <f>0.95*E8/SQRT(COUNT(E4:E6))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -7844,7 +7823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -7855,7 +7834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12.8</v>
       </c>
@@ -7867,7 +7846,7 @@
         <v>10464</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.81</v>
       </c>
@@ -7879,7 +7858,7 @@
         <v>10676</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.64</v>
       </c>
@@ -7891,7 +7870,7 @@
         <v>10245</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.78</v>
       </c>
@@ -7909,7 +7888,7 @@
         <v>234.74178403755869</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -7918,7 +7897,7 @@
         <v>235.07847553954838</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -7934,9 +7913,9 @@
         <v>10461.666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19">
         <f>0.95*B18/SQRT(COUNT(B12:B16))</f>
@@ -7950,16 +7929,16 @@
         <v>215.50947388301361</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F20">
         <f>0.95*F19/SQRT(COUNT(F12:F17))</f>
         <v>118.20323012130891</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -7968,7 +7947,7 @@
         <v>1.8302845258925997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>15</v>
       </c>
@@ -7977,7 +7956,7 @@
         <v>1.4243751002895569E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -7986,14 +7965,14 @@
         <v>4.3026049615045743</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F23">
         <f>F20*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>1.2640827584213625E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -8002,7 +7981,7 @@
         <v>0.19208057863859707</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -8011,14 +7990,14 @@
         <v>11.524834718315823</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F25">
         <f>F21*B17</f>
         <v>4.3026049615045743</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -8027,48 +8006,48 @@
         <v>21.038398536538562</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F26">
         <f>F25*SQRT((B19/B17)^2+(F23/F21)^2)</f>
         <v>0.29732723276577994</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E28" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28">
         <f>F25*60/22.4/B1/'Neatened Compilation'!$B$18</f>
-        <v>28.395384527843461</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30.054855052197947</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F29">
         <f>F26*60/22.4/B1/'Neatened Compilation'!$B$18</f>
-        <v>1.9622347811432845</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.0769108397815286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E31" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F31" s="3">
         <f>1000*E7/F28/LN(2)</f>
-        <v>2.3642889846525779</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.2337454210828041</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F32" s="5">
         <f>F31*SQRT((E9/E7)^2+(F29/F28)^2)</f>
-        <v>0.16338183671399531</v>
+        <v>0.15436075370524718</v>
       </c>
     </row>
   </sheetData>
@@ -8084,16 +8063,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -8101,12 +8080,12 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8123,7 +8102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>20.25</v>
       </c>
@@ -8146,7 +8125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>20+25/60</f>
         <v>20.416666666666668</v>
@@ -8190,7 +8169,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -8212,16 +8191,16 @@
         <v>3.769238730890744E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9">
         <f>0.95*E8/SQRT(COUNT(E4:E6))</f>
         <v>2.0673624461237479E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -8229,7 +8208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -8240,7 +8219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12.85</v>
       </c>
@@ -8252,7 +8231,7 @@
         <v>12209</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.8</v>
       </c>
@@ -8264,7 +8243,7 @@
         <v>12955</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.83</v>
       </c>
@@ -8276,7 +8255,7 @@
         <v>12671</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.83</v>
       </c>
@@ -8294,7 +8273,7 @@
         <v>233.28149300155525</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -8303,7 +8282,7 @@
         <v>233.75469282166114</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -8319,9 +8298,9 @@
         <v>12611.666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19">
         <f>0.95*B18/SQRT(COUNT(B12:B16))</f>
@@ -8335,16 +8314,16 @@
         <v>376.52268634616604</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F20">
         <f>0.95*F19/SQRT(COUNT(F12:F17))</f>
         <v>206.51620060206199</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -8353,7 +8332,7 @@
         <v>2.1844535100130694E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>15</v>
       </c>
@@ -8362,7 +8341,7 @@
         <v>1.6896117788386179E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -8371,14 +8350,14 @@
         <v>5.1062625921630449</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F23">
         <f>F20*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>1.4095605027926619E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -8387,7 +8366,7 @@
         <v>0.22795815143585024</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -8399,14 +8378,14 @@
         <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F25">
         <f>F21*B17</f>
         <v>5.1062625921630449</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -8419,14 +8398,14 @@
         <v>59.158689818992265</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F26">
         <f>F25*SQRT((B19/B17)^2+(F23/F21)^2)</f>
         <v>0.32951439232487173</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -8435,39 +8414,39 @@
         <v>59.158689818992272</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28">
         <f>F25*60/22.4/B1/'Neatened Compilation'!$B$18</f>
-        <v>41.132831366988491</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43.536698135189113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F29">
         <f>F26*60/22.4/B1/'Neatened Compilation'!$B$18</f>
-        <v>2.6543601485158121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.8094850922602426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E31" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F31" s="3">
         <f>1000*E7/F28/LN(2)</f>
-        <v>2.4722779764312812</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.3357718304933579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F32" s="5">
         <f>F31*SQRT((E9/E7)^2+(F29/F28)^2)</f>
-        <v>0.17524469157481251</v>
+        <v>0.16556860430994558</v>
       </c>
     </row>
   </sheetData>
@@ -8484,16 +8463,16 @@
       <selection activeCell="F30" sqref="F30:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -8501,12 +8480,12 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8523,7 +8502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>30.25</v>
       </c>
@@ -8546,7 +8525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>25+1/6</f>
         <v>25.166666666666668</v>
@@ -8567,7 +8546,7 @@
         <v>4.5732850181182054E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>48-A5</f>
         <v>22.833333333333332</v>
@@ -8591,7 +8570,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21</v>
       </c>
@@ -8631,7 +8610,7 @@
         <v>4.7924528301886794E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -8653,16 +8632,16 @@
         <v>2.6388241743311911E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11">
         <f>0.95*E10/SQRT(COUNT(E4:E8))</f>
         <v>1.1211121445501167E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -8670,7 +8649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -8681,7 +8660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.74</v>
       </c>
@@ -8693,7 +8672,7 @@
         <v>10270</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12.64</v>
       </c>
@@ -8705,7 +8684,7 @@
         <v>9831</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12.66</v>
       </c>
@@ -8717,7 +8696,7 @@
         <v>9667</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12.75</v>
       </c>
@@ -8726,7 +8705,7 @@
         <v>235.29411764705881</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>12.51</v>
       </c>
@@ -8735,7 +8714,7 @@
         <v>239.80815347721824</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -8744,7 +8723,7 @@
         <v>236.97793496562076</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -8760,9 +8739,9 @@
         <v>9922.6666666666661</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B21">
         <f>0.95*B20/SQRT(COUNT(B14:B18))</f>
@@ -8776,16 +8755,16 @@
         <v>311.77609487151727</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F22">
         <f>0.95*F21/SQRT(COUNT(F14:F19))</f>
         <v>171.00381168591278</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>29</v>
       </c>
@@ -8794,7 +8773,7 @@
         <v>1.7414951852223977E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>15</v>
       </c>
@@ -8803,7 +8782,7 @@
         <v>1.5829548740579694E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -8812,14 +8791,14 @@
         <v>4.1269593274657508</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F25">
         <f>F22*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>1.3510610297409243E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -8828,7 +8807,7 @@
         <v>0.18423925569043531</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -8840,14 +8819,14 @@
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F27">
         <f>F23*B19</f>
         <v>4.1269593274657508</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -8860,14 +8839,14 @@
         <v>40.438818193686409</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F28">
         <f>F27*SQRT((B21/B19)^2+(F25/F23)^2)</f>
         <v>0.32045418094478684</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -8876,39 +8855,39 @@
         <v>40.438818193686409</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30">
         <f>F27*60/22.4/B1/'Neatened Compilation'!$B$18</f>
-        <v>28.116969705221639</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29.760169233448874</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F31">
         <f>F28*60/22.4/B1/'Neatened Compilation'!$B$18</f>
-        <v>2.1832540092099948</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+        <v>2.3108467759820073</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F33" s="3">
         <f>1000*E9/F30/LN(2)</f>
-        <v>2.3484803688734086</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.2188096736595395</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E34" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F34" s="5">
         <f>F33*SQRT((E11/E9)^2+(F31/F30)^2)</f>
-        <v>0.19121510303856742</v>
+        <v>0.18065721391373854</v>
       </c>
     </row>
   </sheetData>
@@ -8925,16 +8904,16 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -8942,12 +8921,12 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8964,7 +8943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>35/60+16</f>
         <v>16.583333333333332</v>
@@ -8988,7 +8967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24</v>
       </c>
@@ -9008,7 +8987,7 @@
         <v>6.4465408805031446E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>24+1/3</f>
         <v>24.333333333333332</v>
@@ -9032,7 +9011,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>26+55/60</f>
         <v>26.916666666666668</v>
@@ -9073,7 +9052,7 @@
         <v>6.2607204116638074E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -9095,16 +9074,16 @@
         <v>3.1993489528702739E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11">
         <f>0.95*E10/SQRT(COUNT(E4:E8))</f>
         <v>1.3592527310485336E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -9112,7 +9091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -9123,7 +9102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11.83</v>
       </c>
@@ -9135,7 +9114,7 @@
         <v>9371.4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11.87</v>
       </c>
@@ -9147,7 +9126,7 @@
         <v>8942.6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12.02</v>
       </c>
@@ -9159,7 +9138,7 @@
         <v>9899.7000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11.77</v>
       </c>
@@ -9171,7 +9150,7 @@
         <v>9318.2000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>11.88</v>
       </c>
@@ -9183,7 +9162,7 @@
         <v>9694</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -9192,7 +9171,7 @@
         <v>252.66502739838626</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -9208,9 +9187,9 @@
         <v>9445.18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B21">
         <f>0.95*B20/SQRT(COUNT(B14:B18))</f>
@@ -9224,16 +9203,16 @@
         <v>368.32522585345691</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F22">
         <f>0.95*F21/SQRT(COUNT(F14:F19))</f>
         <v>156.48404613889559</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>29</v>
       </c>
@@ -9242,7 +9221,7 @@
         <v>1.662838921192443E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>15</v>
       </c>
@@ -9251,7 +9230,7 @@
         <v>1.6761081218382903E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -9260,14 +9239,14 @@
         <v>4.2014124158219168</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F25">
         <f>F22*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>1.3271426547946245E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -9276,7 +9255,7 @@
         <v>0.18756305427776415</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -9288,14 +9267,14 @@
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F27">
         <f>F23*B19</f>
         <v>4.2014124158219168</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -9308,14 +9287,14 @@
         <v>50.150549272129453</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F28">
         <f>F27*SQRT((B21/B19)^2+(F25/F23)^2)</f>
         <v>0.33560720473441347</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -9324,39 +9303,39 @@
         <v>50.150549272129453</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30">
         <f>F27*60/22.4/B1/'Neatened Compilation'!$B$18</f>
-        <v>34.869502561398797</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>36.907330633168854</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F31">
         <f>F28*60/22.4/B1/'Neatened Compilation'!$B$18</f>
-        <v>2.7853624274162536</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+        <v>2.9481433484990216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F33" s="3">
         <f>1000*E9/F30/LN(2)</f>
-        <v>2.4921283100919331</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.3545261334610901</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E34" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F34" s="5">
         <f>F33*SQRT((E11/E9)^2+(F31/F30)^2)</f>
-        <v>0.20686146109774942</v>
+        <v>0.1954396626322295</v>
       </c>
     </row>
   </sheetData>
@@ -9373,16 +9352,16 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -9390,12 +9369,12 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9412,7 +9391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>46.25</v>
       </c>
@@ -9435,18 +9414,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -9459,7 +9438,7 @@
         <v>707.94876097815234</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
@@ -9467,15 +9446,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -9483,7 +9462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -9494,7 +9473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.17</v>
       </c>
@@ -9506,7 +9485,7 @@
         <v>12568</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.08</v>
       </c>
@@ -9518,7 +9497,7 @@
         <v>13705</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11.91</v>
       </c>
@@ -9530,7 +9509,7 @@
         <v>13862</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12.32</v>
       </c>
@@ -9542,7 +9521,7 @@
         <v>12991</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>12.34</v>
       </c>
@@ -9554,7 +9533,7 @@
         <v>12977</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -9566,7 +9545,7 @@
         <v>13199</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -9582,9 +9561,9 @@
         <v>13217</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B21">
         <f>0.95*B20/SQRT(COUNT(B14:B18))</f>
@@ -9598,16 +9577,16 @@
         <v>486.6970310162165</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F22">
         <f>0.95*F21/SQRT(COUNT(F14:F19))</f>
         <v>188.7585693418977</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>29</v>
       </c>
@@ -9616,7 +9595,7 @@
         <v>2.2841699247669878E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>15</v>
       </c>
@@ -9625,7 +9604,7 @@
         <v>1.8711017124568984E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -9634,14 +9613,14 @@
         <v>5.634406132266605</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F25">
         <f>F22*'Methane Standard Curve'!$B$13+'Methane Standard Curve'!$C$13</f>
         <v>1.3803083994261584E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -9650,7 +9629,7 @@
         <v>0.25153598804761629</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -9662,14 +9641,14 @@
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F27">
         <f>F23*B19</f>
         <v>5.634406132266605</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -9682,14 +9661,14 @@
         <v>52.222004438951473</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F28">
         <f>F27*SQRT((B21/B19)^2+(F25/F23)^2)</f>
         <v>0.34230183918155244</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -9698,39 +9677,39 @@
         <v>52.222004438951473</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30">
         <f>F27*60/22.4/B1/'Neatened Compilation'!$B$18</f>
-        <v>36.309778137512282</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38.431778158535728</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F31">
         <f>F28*60/22.4/B1/'Neatened Compilation'!$B$18</f>
-        <v>2.2058942051705963</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+        <v>2.3348101002779691</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F33" s="3">
         <f>1000*E9/F30/LN(2)</f>
-        <v>2.3341342382412682</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.2052556606696641</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E34" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F34" s="5">
         <f>F33*SQRT((E11/E9)^2+(F31/F30)^2)</f>
-        <v>0.14180348805016038</v>
+        <v>0.13397384760567299</v>
       </c>
     </row>
   </sheetData>
